--- a/Jogos_da_Semana_FlashScore_2024-09-27.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-09-27.xlsx
@@ -747,13 +747,13 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>2.7</v>
+        <v>2.75</v>
       </c>
       <c r="H2" t="n">
         <v>3.4</v>
       </c>
       <c r="I2" t="n">
-        <v>2.6</v>
+        <v>2.55</v>
       </c>
       <c r="J2" t="n">
         <v>3.25</v>
@@ -837,7 +837,7 @@
         <v>10</v>
       </c>
       <c r="AK2" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AL2" t="n">
         <v>19</v>
@@ -932,55 +932,55 @@
         <v>1.4</v>
       </c>
       <c r="H3" t="n">
-        <v>5.25</v>
+        <v>5</v>
       </c>
       <c r="I3" t="n">
         <v>7</v>
       </c>
       <c r="J3" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="K3" t="n">
-        <v>2.63</v>
+        <v>2.6</v>
       </c>
       <c r="L3" t="n">
         <v>6.5</v>
       </c>
       <c r="M3" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="N3" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="O3" t="n">
-        <v>1.14</v>
+        <v>1.17</v>
       </c>
       <c r="P3" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.46</v>
+        <v>1.57</v>
       </c>
       <c r="R3" t="n">
-        <v>2.57</v>
+        <v>2.38</v>
       </c>
       <c r="S3" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="T3" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="U3" t="n">
-        <v>1.7</v>
+        <v>1.75</v>
       </c>
       <c r="V3" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="W3" t="n">
-        <v>9.5</v>
+        <v>8.5</v>
       </c>
       <c r="X3" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="Y3" t="n">
         <v>8.5</v>
@@ -995,10 +995,10 @@
         <v>21</v>
       </c>
       <c r="AC3" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AD3" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AE3" t="n">
         <v>17</v>
@@ -1016,10 +1016,10 @@
         <v>41</v>
       </c>
       <c r="AJ3" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AK3" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AL3" t="n">
         <v>41</v>
@@ -1028,7 +1028,7 @@
         <v>41</v>
       </c>
       <c r="AN3" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="AO3" t="n">
         <v>6.5</v>
@@ -1040,19 +1040,19 @@
         <v>17</v>
       </c>
       <c r="AR3" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AS3" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="AT3" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="AU3" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AV3" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AW3" t="n">
         <v>8.5</v>
@@ -1064,16 +1064,16 @@
         <v>34</v>
       </c>
       <c r="AZ3" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="BA3" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="BB3" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="BC3" t="n">
-        <v>451</v>
+        <v>501</v>
       </c>
       <c r="BD3" t="n">
         <v>151</v>
@@ -1111,10 +1111,10 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>1.25</v>
+        <v>1.27</v>
       </c>
       <c r="H4" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="I4" t="n">
         <v>9.5</v>
@@ -1123,28 +1123,28 @@
         <v>1.62</v>
       </c>
       <c r="K4" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="L4" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="M4" t="n">
         <v>1.01</v>
       </c>
       <c r="N4" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="O4" t="n">
-        <v>1.08</v>
+        <v>1.1</v>
       </c>
       <c r="P4" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.27</v>
+        <v>1.33</v>
       </c>
       <c r="R4" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="S4" t="n">
         <v>1.18</v>
@@ -1153,19 +1153,19 @@
         <v>4.5</v>
       </c>
       <c r="U4" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="V4" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="W4" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="X4" t="n">
         <v>9</v>
       </c>
       <c r="Y4" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="Z4" t="n">
         <v>9.5</v>
@@ -1174,10 +1174,10 @@
         <v>10</v>
       </c>
       <c r="AB4" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AC4" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AD4" t="n">
         <v>13</v>
@@ -1219,7 +1219,7 @@
         <v>13</v>
       </c>
       <c r="AQ4" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AR4" t="n">
         <v>26</v>
@@ -1237,7 +1237,7 @@
         <v>41</v>
       </c>
       <c r="AW4" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AX4" t="n">
         <v>41</v>
@@ -1246,7 +1246,7 @@
         <v>34</v>
       </c>
       <c r="AZ4" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="BA4" t="n">
         <v>101</v>
@@ -1302,7 +1302,7 @@
         <v>7.5</v>
       </c>
       <c r="J5" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="K5" t="n">
         <v>2.6</v>
@@ -1317,10 +1317,10 @@
         <v>17</v>
       </c>
       <c r="O5" t="n">
-        <v>1.2</v>
+        <v>1.17</v>
       </c>
       <c r="P5" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="Q5" t="n">
         <v>1.57</v>
@@ -1413,7 +1413,7 @@
         <v>3.5</v>
       </c>
       <c r="AU5" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AV5" t="n">
         <v>51</v>
@@ -1475,19 +1475,19 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>2.8</v>
+        <v>2.75</v>
       </c>
       <c r="H6" t="n">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="I6" t="n">
-        <v>2.45</v>
+        <v>2.4</v>
       </c>
       <c r="J6" t="n">
         <v>3.2</v>
       </c>
       <c r="K6" t="n">
-        <v>2.38</v>
+        <v>2.4</v>
       </c>
       <c r="L6" t="n">
         <v>2.88</v>
@@ -1496,25 +1496,25 @@
         <v>1.03</v>
       </c>
       <c r="N6" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="O6" t="n">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="P6" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.6</v>
+        <v>1.53</v>
       </c>
       <c r="R6" t="n">
-        <v>2.3</v>
+        <v>2.4</v>
       </c>
       <c r="S6" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="T6" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="U6" t="n">
         <v>1.5</v>
@@ -1529,7 +1529,7 @@
         <v>17</v>
       </c>
       <c r="Y6" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="Z6" t="n">
         <v>29</v>
@@ -1538,13 +1538,13 @@
         <v>19</v>
       </c>
       <c r="AB6" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AC6" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AD6" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AE6" t="n">
         <v>11</v>
@@ -1577,7 +1577,7 @@
         <v>5</v>
       </c>
       <c r="AO6" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AP6" t="n">
         <v>19</v>
@@ -1592,7 +1592,7 @@
         <v>101</v>
       </c>
       <c r="AT6" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="AU6" t="n">
         <v>7</v>
@@ -1607,7 +1607,7 @@
         <v>12</v>
       </c>
       <c r="AY6" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AZ6" t="n">
         <v>41</v>
@@ -1619,7 +1619,7 @@
         <v>101</v>
       </c>
       <c r="BC6" t="n">
-        <v>351</v>
+        <v>301</v>
       </c>
       <c r="BD6" t="n">
         <v>151</v>
@@ -1657,7 +1657,7 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="H7" t="n">
         <v>2.9</v>
@@ -1672,7 +1672,7 @@
         <v>1.83</v>
       </c>
       <c r="L7" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="M7" t="n">
         <v>1.13</v>
@@ -1687,10 +1687,10 @@
         <v>2.3</v>
       </c>
       <c r="Q7" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="R7" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="S7" t="n">
         <v>1.62</v>
@@ -1729,7 +1729,7 @@
         <v>6</v>
       </c>
       <c r="AE7" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AF7" t="n">
         <v>81</v>
@@ -1750,7 +1750,7 @@
         <v>26</v>
       </c>
       <c r="AL7" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AM7" t="n">
         <v>41</v>
@@ -1842,19 +1842,19 @@
         <v>1.91</v>
       </c>
       <c r="H8" t="n">
-        <v>3.5</v>
+        <v>3.55</v>
       </c>
       <c r="I8" t="n">
-        <v>3.65</v>
+        <v>3.6</v>
       </c>
       <c r="J8" t="n">
         <v>2.52</v>
       </c>
       <c r="K8" t="n">
-        <v>2.12</v>
+        <v>2.15</v>
       </c>
       <c r="L8" t="n">
-        <v>4.1</v>
+        <v>4.05</v>
       </c>
       <c r="M8" t="n">
         <v>1.06</v>
@@ -1863,46 +1863,46 @@
         <v>7.5</v>
       </c>
       <c r="O8" t="n">
-        <v>1.28</v>
+        <v>1.29</v>
       </c>
       <c r="P8" t="n">
-        <v>3.35</v>
+        <v>3.3</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.85</v>
+        <v>1.87</v>
       </c>
       <c r="R8" t="n">
-        <v>1.88</v>
+        <v>1.87</v>
       </c>
       <c r="S8" t="n">
         <v>1.4</v>
       </c>
       <c r="T8" t="n">
-        <v>2.72</v>
+        <v>2.75</v>
       </c>
       <c r="U8" t="n">
         <v>1.75</v>
       </c>
       <c r="V8" t="n">
-        <v>1.98</v>
+        <v>1.95</v>
       </c>
       <c r="W8" t="n">
-        <v>7.5</v>
+        <v>7.4</v>
       </c>
       <c r="X8" t="n">
-        <v>9.25</v>
+        <v>9</v>
       </c>
       <c r="Y8" t="n">
-        <v>8.25</v>
+        <v>8.5</v>
       </c>
       <c r="Z8" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="AA8" t="n">
         <v>15</v>
       </c>
       <c r="AB8" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AC8" t="n">
         <v>7.5</v>
@@ -1923,7 +1923,7 @@
         <v>11</v>
       </c>
       <c r="AI8" t="n">
-        <v>20</v>
+        <v>19.5</v>
       </c>
       <c r="AJ8" t="n">
         <v>12.5</v>
@@ -1947,7 +1947,7 @@
         <v>19</v>
       </c>
       <c r="AQ8" t="n">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="AR8" t="n">
         <v>70</v>
@@ -1956,7 +1956,7 @@
         <v>250</v>
       </c>
       <c r="AT8" t="n">
-        <v>2.72</v>
+        <v>2.75</v>
       </c>
       <c r="AU8" t="n">
         <v>7.3</v>
@@ -1968,13 +1968,13 @@
         <v>5.5</v>
       </c>
       <c r="AX8" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AY8" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AZ8" t="n">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="BA8" t="n">
         <v>150</v>
@@ -2024,7 +2024,7 @@
         <v>3</v>
       </c>
       <c r="H9" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="I9" t="n">
         <v>2.1</v>
@@ -2036,7 +2036,7 @@
         <v>2.27</v>
       </c>
       <c r="L9" t="n">
-        <v>2.65</v>
+        <v>2.62</v>
       </c>
       <c r="M9" t="n">
         <v>1.04</v>
@@ -2048,7 +2048,7 @@
         <v>1.22</v>
       </c>
       <c r="P9" t="n">
-        <v>3.85</v>
+        <v>3.9</v>
       </c>
       <c r="Q9" t="n">
         <v>1.65</v>
@@ -2069,7 +2069,7 @@
         <v>2.2</v>
       </c>
       <c r="W9" t="n">
-        <v>11.5</v>
+        <v>11.75</v>
       </c>
       <c r="X9" t="n">
         <v>17</v>
@@ -2084,13 +2084,13 @@
         <v>23</v>
       </c>
       <c r="AB9" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AC9" t="n">
         <v>8.5</v>
       </c>
       <c r="AD9" t="n">
-        <v>7.3</v>
+        <v>7.4</v>
       </c>
       <c r="AE9" t="n">
         <v>13</v>
@@ -2105,16 +2105,16 @@
         <v>9.5</v>
       </c>
       <c r="AI9" t="n">
-        <v>11.5</v>
+        <v>11.25</v>
       </c>
       <c r="AJ9" t="n">
         <v>8.75</v>
       </c>
       <c r="AK9" t="n">
-        <v>20</v>
+        <v>19.5</v>
       </c>
       <c r="AL9" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="AM9" t="n">
         <v>22</v>
@@ -2147,7 +2147,7 @@
         <v>55</v>
       </c>
       <c r="AW9" t="n">
-        <v>4.2</v>
+        <v>4.15</v>
       </c>
       <c r="AX9" t="n">
         <v>10.5</v>
@@ -2203,22 +2203,22 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>2.82</v>
+        <v>2.85</v>
       </c>
       <c r="H10" t="n">
-        <v>3.65</v>
+        <v>3.7</v>
       </c>
       <c r="I10" t="n">
-        <v>2.2</v>
+        <v>2.18</v>
       </c>
       <c r="J10" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="K10" t="n">
-        <v>2.3</v>
+        <v>2.32</v>
       </c>
       <c r="L10" t="n">
-        <v>2.72</v>
+        <v>2.67</v>
       </c>
       <c r="M10" t="n">
         <v>1.03</v>
@@ -2230,13 +2230,13 @@
         <v>1.19</v>
       </c>
       <c r="P10" t="n">
-        <v>4.15</v>
+        <v>4.2</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.6</v>
+        <v>1.57</v>
       </c>
       <c r="R10" t="n">
-        <v>2.22</v>
+        <v>2.25</v>
       </c>
       <c r="S10" t="n">
         <v>1.3</v>
@@ -2257,7 +2257,7 @@
         <v>17</v>
       </c>
       <c r="Y10" t="n">
-        <v>10.25</v>
+        <v>10.5</v>
       </c>
       <c r="Z10" t="n">
         <v>35</v>
@@ -2272,10 +2272,10 @@
         <v>9</v>
       </c>
       <c r="AD10" t="n">
-        <v>7.4</v>
+        <v>7.5</v>
       </c>
       <c r="AE10" t="n">
-        <v>11.75</v>
+        <v>12</v>
       </c>
       <c r="AF10" t="n">
         <v>40</v>
@@ -2284,7 +2284,7 @@
         <v>250</v>
       </c>
       <c r="AH10" t="n">
-        <v>10.5</v>
+        <v>10.75</v>
       </c>
       <c r="AI10" t="n">
         <v>13</v>
@@ -2299,7 +2299,7 @@
         <v>15.5</v>
       </c>
       <c r="AM10" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AN10" t="n">
         <v>5.1</v>
@@ -2308,16 +2308,16 @@
         <v>14.5</v>
       </c>
       <c r="AP10" t="n">
-        <v>18.5</v>
+        <v>19</v>
       </c>
       <c r="AQ10" t="n">
         <v>60</v>
       </c>
       <c r="AR10" t="n">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="AS10" t="n">
-        <v>175</v>
+        <v>200</v>
       </c>
       <c r="AT10" t="n">
         <v>3.2</v>
@@ -2329,22 +2329,22 @@
         <v>45</v>
       </c>
       <c r="AW10" t="n">
-        <v>4.45</v>
+        <v>4.4</v>
       </c>
       <c r="AX10" t="n">
-        <v>11</v>
+        <v>10.75</v>
       </c>
       <c r="AY10" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="AZ10" t="n">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="BA10" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="BB10" t="n">
-        <v>175</v>
+        <v>150</v>
       </c>
       <c r="BC10" t="n">
         <v>500</v>
@@ -2385,22 +2385,22 @@
         </is>
       </c>
       <c r="G11" t="n">
-        <v>2.7</v>
+        <v>2.67</v>
       </c>
       <c r="H11" t="n">
         <v>3.85</v>
       </c>
       <c r="I11" t="n">
-        <v>2.22</v>
+        <v>2.25</v>
       </c>
       <c r="J11" t="n">
         <v>3.1</v>
       </c>
       <c r="K11" t="n">
-        <v>2.37</v>
+        <v>2.4</v>
       </c>
       <c r="L11" t="n">
-        <v>2.72</v>
+        <v>2.7</v>
       </c>
       <c r="M11" t="n">
         <v>1.03</v>
@@ -2421,22 +2421,22 @@
         <v>2.37</v>
       </c>
       <c r="S11" t="n">
-        <v>1.28</v>
+        <v>1.27</v>
       </c>
       <c r="T11" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="U11" t="n">
-        <v>1.47</v>
+        <v>1.5</v>
       </c>
       <c r="V11" t="n">
-        <v>2.5</v>
+        <v>2.42</v>
       </c>
       <c r="W11" t="n">
         <v>13</v>
       </c>
       <c r="X11" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="Y11" t="n">
         <v>10.25</v>
@@ -2502,7 +2502,7 @@
         <v>175</v>
       </c>
       <c r="AT11" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="AU11" t="n">
         <v>6.5</v>
@@ -2520,7 +2520,7 @@
         <v>16</v>
       </c>
       <c r="AZ11" t="n">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="BA11" t="n">
         <v>55</v>
@@ -2573,16 +2573,16 @@
         <v>5.1</v>
       </c>
       <c r="I12" t="n">
-        <v>7.4</v>
+        <v>7.6</v>
       </c>
       <c r="J12" t="n">
-        <v>1.72</v>
+        <v>1.7</v>
       </c>
       <c r="K12" t="n">
-        <v>2.75</v>
+        <v>2.72</v>
       </c>
       <c r="L12" t="n">
-        <v>6.2</v>
+        <v>6.4</v>
       </c>
       <c r="M12" t="n">
         <v>1.02</v>
@@ -2606,7 +2606,7 @@
         <v>1.22</v>
       </c>
       <c r="T12" t="n">
-        <v>3.85</v>
+        <v>3.8</v>
       </c>
       <c r="U12" t="n">
         <v>1.7</v>
@@ -2621,22 +2621,22 @@
         <v>8</v>
       </c>
       <c r="Y12" t="n">
-        <v>8.75</v>
+        <v>8.5</v>
       </c>
       <c r="Z12" t="n">
-        <v>9.25</v>
+        <v>9.5</v>
       </c>
       <c r="AA12" t="n">
         <v>10</v>
       </c>
       <c r="AB12" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AC12" t="n">
         <v>9.75</v>
       </c>
       <c r="AD12" t="n">
-        <v>10.75</v>
+        <v>10.5</v>
       </c>
       <c r="AE12" t="n">
         <v>17.5</v>
@@ -2651,7 +2651,7 @@
         <v>27</v>
       </c>
       <c r="AI12" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AJ12" t="n">
         <v>23</v>
@@ -2660,7 +2660,7 @@
         <v>175</v>
       </c>
       <c r="AL12" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="AM12" t="n">
         <v>55</v>
@@ -2678,13 +2678,13 @@
         <v>13.5</v>
       </c>
       <c r="AR12" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AS12" t="n">
         <v>120</v>
       </c>
       <c r="AT12" t="n">
-        <v>3.85</v>
+        <v>3.8</v>
       </c>
       <c r="AU12" t="n">
         <v>7.6</v>
@@ -2693,19 +2693,19 @@
         <v>50</v>
       </c>
       <c r="AW12" t="n">
-        <v>9</v>
+        <v>9.25</v>
       </c>
       <c r="AX12" t="n">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="AY12" t="n">
         <v>32</v>
       </c>
       <c r="AZ12" t="n">
+        <v>250</v>
+      </c>
+      <c r="BA12" t="n">
         <v>200</v>
-      </c>
-      <c r="BA12" t="n">
-        <v>175</v>
       </c>
       <c r="BB12" t="n">
         <v>300</v>
@@ -2749,22 +2749,22 @@
         </is>
       </c>
       <c r="G13" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="H13" t="n">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="I13" t="n">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="J13" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="K13" t="n">
         <v>2.3</v>
       </c>
       <c r="L13" t="n">
-        <v>2.38</v>
+        <v>2.4</v>
       </c>
       <c r="M13" t="n">
         <v>1.04</v>
@@ -2800,7 +2800,7 @@
         <v>13</v>
       </c>
       <c r="X13" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="Y13" t="n">
         <v>13</v>
@@ -2878,19 +2878,19 @@
         <v>4</v>
       </c>
       <c r="AX13" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AY13" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AZ13" t="n">
         <v>29</v>
       </c>
       <c r="BA13" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="BB13" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="BC13" t="n">
         <v>501</v>
@@ -3113,7 +3113,7 @@
         </is>
       </c>
       <c r="G15" t="n">
-        <v>4.2</v>
+        <v>4.33</v>
       </c>
       <c r="H15" t="n">
         <v>3.75</v>
@@ -3155,10 +3155,10 @@
         <v>3.25</v>
       </c>
       <c r="U15" t="n">
-        <v>1.67</v>
+        <v>1.73</v>
       </c>
       <c r="V15" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="W15" t="n">
         <v>13</v>
@@ -3167,7 +3167,7 @@
         <v>23</v>
       </c>
       <c r="Y15" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="Z15" t="n">
         <v>41</v>
@@ -3215,10 +3215,10 @@
         <v>6</v>
       </c>
       <c r="AO15" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AP15" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AQ15" t="n">
         <v>67</v>
@@ -3710,7 +3710,7 @@
         <v>6</v>
       </c>
       <c r="X18" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="Y18" t="n">
         <v>9</v>
@@ -3794,7 +3794,7 @@
         <v>34</v>
       </c>
       <c r="AZ18" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="BA18" t="n">
         <v>126</v>
@@ -3853,40 +3853,40 @@
         <v>2.5</v>
       </c>
       <c r="K19" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="L19" t="n">
         <v>5</v>
       </c>
       <c r="M19" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="N19" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="O19" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="P19" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="Q19" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="R19" t="n">
-        <v>1.65</v>
+        <v>1.62</v>
       </c>
       <c r="S19" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="T19" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="U19" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="V19" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="W19" t="n">
         <v>6</v>
@@ -3898,7 +3898,7 @@
         <v>9</v>
       </c>
       <c r="Z19" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AA19" t="n">
         <v>17</v>
@@ -3928,7 +3928,7 @@
         <v>23</v>
       </c>
       <c r="AJ19" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AK19" t="n">
         <v>51</v>
@@ -3958,7 +3958,7 @@
         <v>201</v>
       </c>
       <c r="AT19" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="AU19" t="n">
         <v>9</v>
@@ -3973,7 +3973,7 @@
         <v>26</v>
       </c>
       <c r="AY19" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AZ19" t="n">
         <v>101</v>
@@ -3982,7 +3982,7 @@
         <v>126</v>
       </c>
       <c r="BB19" t="n">
-        <v>301</v>
+        <v>351</v>
       </c>
       <c r="BC19" t="n">
         <v>51</v>
@@ -4023,28 +4023,28 @@
         </is>
       </c>
       <c r="G20" t="n">
-        <v>2.7</v>
+        <v>2.8</v>
       </c>
       <c r="H20" t="n">
         <v>3</v>
       </c>
       <c r="I20" t="n">
-        <v>2.75</v>
+        <v>2.7</v>
       </c>
       <c r="J20" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="K20" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="L20" t="n">
         <v>3.5</v>
       </c>
-      <c r="K20" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="L20" t="n">
-        <v>3.6</v>
-      </c>
       <c r="M20" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="N20" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="O20" t="n">
         <v>1.5</v>
@@ -4083,7 +4083,7 @@
         <v>29</v>
       </c>
       <c r="AA20" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AB20" t="n">
         <v>41</v>
@@ -4095,7 +4095,7 @@
         <v>6</v>
       </c>
       <c r="AE20" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AF20" t="n">
         <v>67</v>
@@ -4104,7 +4104,7 @@
         <v>1000</v>
       </c>
       <c r="AH20" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AI20" t="n">
         <v>12</v>
@@ -4113,7 +4113,7 @@
         <v>11</v>
       </c>
       <c r="AK20" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AL20" t="n">
         <v>26</v>
@@ -4122,19 +4122,19 @@
         <v>41</v>
       </c>
       <c r="AN20" t="n">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="AO20" t="n">
         <v>17</v>
       </c>
       <c r="AP20" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AQ20" t="n">
         <v>51</v>
       </c>
       <c r="AR20" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="AS20" t="n">
         <v>301</v>
@@ -4214,19 +4214,19 @@
         <v>4</v>
       </c>
       <c r="J21" t="n">
-        <v>2.75</v>
+        <v>2.88</v>
       </c>
       <c r="K21" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="L21" t="n">
         <v>4.75</v>
       </c>
       <c r="M21" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="N21" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="O21" t="n">
         <v>1.5</v>
@@ -4241,19 +4241,19 @@
         <v>1.5</v>
       </c>
       <c r="S21" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="T21" t="n">
-        <v>2.38</v>
+        <v>2.25</v>
       </c>
       <c r="U21" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="V21" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="W21" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="X21" t="n">
         <v>8.5</v>
@@ -4265,28 +4265,28 @@
         <v>17</v>
       </c>
       <c r="AA21" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AB21" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AC21" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AD21" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AE21" t="n">
         <v>19</v>
       </c>
       <c r="AF21" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AG21" t="n">
         <v>900</v>
       </c>
       <c r="AH21" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AI21" t="n">
         <v>19</v>
@@ -4301,7 +4301,7 @@
         <v>41</v>
       </c>
       <c r="AM21" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AN21" t="n">
         <v>3.75</v>
@@ -4316,19 +4316,19 @@
         <v>41</v>
       </c>
       <c r="AR21" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AS21" t="n">
         <v>251</v>
       </c>
       <c r="AT21" t="n">
-        <v>2.38</v>
+        <v>2.25</v>
       </c>
       <c r="AU21" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AV21" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AW21" t="n">
         <v>5.5</v>
@@ -4337,7 +4337,7 @@
         <v>23</v>
       </c>
       <c r="AY21" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AZ21" t="n">
         <v>81</v>
@@ -4751,28 +4751,28 @@
         </is>
       </c>
       <c r="G24" t="n">
-        <v>3.8</v>
+        <v>3.7</v>
       </c>
       <c r="H24" t="n">
         <v>3.5</v>
       </c>
       <c r="I24" t="n">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="J24" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="K24" t="n">
         <v>2.25</v>
       </c>
       <c r="L24" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="M24" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="N24" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="O24" t="n">
         <v>1.25</v>
@@ -4781,10 +4781,10 @@
         <v>3.75</v>
       </c>
       <c r="Q24" t="n">
-        <v>1.83</v>
+        <v>1.85</v>
       </c>
       <c r="R24" t="n">
-        <v>2.03</v>
+        <v>2</v>
       </c>
       <c r="S24" t="n">
         <v>1.36</v>
@@ -4799,7 +4799,7 @@
         <v>2.1</v>
       </c>
       <c r="W24" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="X24" t="n">
         <v>21</v>
@@ -4829,13 +4829,13 @@
         <v>41</v>
       </c>
       <c r="AG24" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="AH24" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AI24" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AJ24" t="n">
         <v>8.5</v>
@@ -4850,10 +4850,10 @@
         <v>23</v>
       </c>
       <c r="AN24" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="AO24" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AP24" t="n">
         <v>26</v>
@@ -5115,28 +5115,28 @@
         </is>
       </c>
       <c r="G26" t="n">
-        <v>4</v>
+        <v>3.9</v>
       </c>
       <c r="H26" t="n">
         <v>3.6</v>
       </c>
       <c r="I26" t="n">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="J26" t="n">
         <v>4</v>
       </c>
       <c r="K26" t="n">
-        <v>2.3</v>
+        <v>2.38</v>
       </c>
       <c r="L26" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="M26" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="N26" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="O26" t="n">
         <v>1.2</v>
@@ -5145,10 +5145,10 @@
         <v>4.5</v>
       </c>
       <c r="Q26" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="R26" t="n">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="S26" t="n">
         <v>1.3</v>
@@ -5157,16 +5157,16 @@
         <v>3.4</v>
       </c>
       <c r="U26" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="V26" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="W26" t="n">
         <v>15</v>
       </c>
       <c r="X26" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="Y26" t="n">
         <v>13</v>
@@ -5187,19 +5187,19 @@
         <v>7</v>
       </c>
       <c r="AE26" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AF26" t="n">
         <v>41</v>
       </c>
       <c r="AG26" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="AH26" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AI26" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AJ26" t="n">
         <v>8.5</v>
@@ -5217,34 +5217,34 @@
         <v>6</v>
       </c>
       <c r="AO26" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AP26" t="n">
         <v>23</v>
       </c>
       <c r="AQ26" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AR26" t="n">
         <v>67</v>
       </c>
       <c r="AS26" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="AT26" t="n">
         <v>3.4</v>
       </c>
       <c r="AU26" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AV26" t="n">
         <v>41</v>
       </c>
       <c r="AW26" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="AX26" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AY26" t="n">
         <v>17</v>
@@ -5259,7 +5259,7 @@
         <v>101</v>
       </c>
       <c r="BC26" t="n">
-        <v>451</v>
+        <v>401</v>
       </c>
       <c r="BD26" t="n">
         <v>151</v>
@@ -5297,22 +5297,22 @@
         </is>
       </c>
       <c r="G27" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="H27" t="n">
         <v>6.7</v>
       </c>
       <c r="I27" t="n">
-        <v>18.5</v>
+        <v>17</v>
       </c>
       <c r="J27" t="n">
-        <v>1.39</v>
+        <v>1.4</v>
       </c>
       <c r="K27" t="n">
         <v>3.05</v>
       </c>
       <c r="L27" t="n">
-        <v>12</v>
+        <v>11.25</v>
       </c>
       <c r="M27" t="n">
         <v>1.01</v>
@@ -5324,7 +5324,7 @@
         <v>1.04</v>
       </c>
       <c r="P27" t="n">
-        <v>6.55</v>
+        <v>6.6</v>
       </c>
       <c r="Q27" t="n">
         <v>1.25</v>
@@ -5339,10 +5339,10 @@
         <v>4.7</v>
       </c>
       <c r="U27" t="n">
-        <v>2.07</v>
+        <v>2.04</v>
       </c>
       <c r="V27" t="n">
-        <v>1.72</v>
+        <v>1.74</v>
       </c>
       <c r="W27" t="n">
         <v>9.25</v>
@@ -5360,7 +5360,7 @@
         <v>8.75</v>
       </c>
       <c r="AB27" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AC27" t="n">
         <v>22</v>
@@ -5375,25 +5375,25 @@
         <v>90</v>
       </c>
       <c r="AG27" t="n">
-        <v>450</v>
+        <v>500</v>
       </c>
       <c r="AH27" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AI27" t="n">
-        <v>200</v>
+        <v>175</v>
       </c>
       <c r="AJ27" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AK27" t="n">
         <v>500</v>
       </c>
       <c r="AL27" t="n">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="AM27" t="n">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="AN27" t="n">
         <v>3.2</v>
@@ -5414,19 +5414,19 @@
         <v>150</v>
       </c>
       <c r="AT27" t="n">
-        <v>4.35</v>
+        <v>4.4</v>
       </c>
       <c r="AU27" t="n">
         <v>9.75</v>
       </c>
       <c r="AV27" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="AW27" t="n">
-        <v>17.5</v>
+        <v>16.5</v>
       </c>
       <c r="AX27" t="n">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="AY27" t="n">
         <v>65</v>
@@ -5479,55 +5479,55 @@
         </is>
       </c>
       <c r="G28" t="n">
-        <v>1.75</v>
+        <v>1.67</v>
       </c>
       <c r="H28" t="n">
-        <v>3.5</v>
+        <v>3.7</v>
       </c>
       <c r="I28" t="n">
-        <v>3.9</v>
+        <v>4.2</v>
       </c>
       <c r="J28" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="K28" t="n">
         <v>2.4</v>
       </c>
-      <c r="K28" t="n">
-        <v>2.3</v>
-      </c>
       <c r="L28" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="M28" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="N28" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="O28" t="n">
-        <v>1.22</v>
+        <v>1.17</v>
       </c>
       <c r="P28" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="Q28" t="n">
-        <v>1.73</v>
+        <v>1.57</v>
       </c>
       <c r="R28" t="n">
-        <v>2.08</v>
+        <v>2.35</v>
       </c>
       <c r="S28" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="T28" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="U28" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="V28" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="W28" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="X28" t="n">
         <v>9.5</v>
@@ -5542,13 +5542,13 @@
         <v>13</v>
       </c>
       <c r="AB28" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AC28" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AD28" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AE28" t="n">
         <v>13</v>
@@ -5560,19 +5560,19 @@
         <v>151</v>
       </c>
       <c r="AH28" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AI28" t="n">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="AJ28" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AK28" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AL28" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AM28" t="n">
         <v>34</v>
@@ -5581,31 +5581,31 @@
         <v>4</v>
       </c>
       <c r="AO28" t="n">
-        <v>9.5</v>
+        <v>8.5</v>
       </c>
       <c r="AP28" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AQ28" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AR28" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AS28" t="n">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="AT28" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="AU28" t="n">
         <v>7.5</v>
       </c>
       <c r="AV28" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AW28" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AX28" t="n">
         <v>21</v>
@@ -5623,7 +5623,7 @@
         <v>151</v>
       </c>
       <c r="BC28" t="n">
-        <v>501</v>
+        <v>451</v>
       </c>
       <c r="BD28" t="n">
         <v>81</v>
@@ -5661,64 +5661,64 @@
         </is>
       </c>
       <c r="G29" t="n">
-        <v>2.2</v>
+        <v>2.35</v>
       </c>
       <c r="H29" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="I29" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="J29" t="n">
         <v>3.1</v>
       </c>
-      <c r="J29" t="n">
-        <v>3</v>
-      </c>
       <c r="K29" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="L29" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="M29" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="N29" t="n">
-        <v>8.5</v>
+        <v>10</v>
       </c>
       <c r="O29" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="P29" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="Q29" t="n">
-        <v>2.1</v>
+        <v>2.03</v>
       </c>
       <c r="R29" t="n">
-        <v>1.7</v>
+        <v>1.83</v>
       </c>
       <c r="S29" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="T29" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="U29" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="V29" t="n">
-        <v>1.83</v>
+        <v>1.91</v>
       </c>
       <c r="W29" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="X29" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="Y29" t="n">
         <v>9.5</v>
       </c>
       <c r="Z29" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AA29" t="n">
         <v>19</v>
@@ -5727,7 +5727,7 @@
         <v>29</v>
       </c>
       <c r="AC29" t="n">
-        <v>8.5</v>
+        <v>10</v>
       </c>
       <c r="AD29" t="n">
         <v>6.5</v>
@@ -5739,7 +5739,7 @@
         <v>51</v>
       </c>
       <c r="AG29" t="n">
-        <v>301</v>
+        <v>251</v>
       </c>
       <c r="AH29" t="n">
         <v>9</v>
@@ -5748,19 +5748,19 @@
         <v>15</v>
       </c>
       <c r="AJ29" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AK29" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AL29" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AM29" t="n">
         <v>34</v>
       </c>
       <c r="AN29" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="AO29" t="n">
         <v>13</v>
@@ -5778,7 +5778,7 @@
         <v>151</v>
       </c>
       <c r="AT29" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="AU29" t="n">
         <v>8</v>
@@ -5790,19 +5790,19 @@
         <v>5</v>
       </c>
       <c r="AX29" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AY29" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AZ29" t="n">
         <v>51</v>
       </c>
       <c r="BA29" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="BB29" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="BC29" t="n">
         <v>81</v>
@@ -5843,22 +5843,22 @@
         </is>
       </c>
       <c r="G30" t="n">
-        <v>2.1</v>
+        <v>2.25</v>
       </c>
       <c r="H30" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="I30" t="n">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="J30" t="n">
-        <v>2.88</v>
+        <v>3</v>
       </c>
       <c r="K30" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="L30" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="M30" t="n">
         <v>1.07</v>
@@ -5867,16 +5867,16 @@
         <v>9</v>
       </c>
       <c r="O30" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="P30" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="Q30" t="n">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="R30" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="S30" t="n">
         <v>1.44</v>
@@ -5894,22 +5894,22 @@
         <v>7</v>
       </c>
       <c r="X30" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="Y30" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="Z30" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AA30" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AB30" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AC30" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AD30" t="n">
         <v>6</v>
@@ -5924,16 +5924,16 @@
         <v>301</v>
       </c>
       <c r="AH30" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AI30" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AJ30" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AK30" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AL30" t="n">
         <v>29</v>
@@ -5942,10 +5942,10 @@
         <v>41</v>
       </c>
       <c r="AN30" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="AO30" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AP30" t="n">
         <v>23</v>
@@ -5957,19 +5957,19 @@
         <v>67</v>
       </c>
       <c r="AS30" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="AT30" t="n">
         <v>2.63</v>
       </c>
       <c r="AU30" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AV30" t="n">
         <v>51</v>
       </c>
       <c r="AW30" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="AX30" t="n">
         <v>19</v>
@@ -5978,7 +5978,7 @@
         <v>29</v>
       </c>
       <c r="AZ30" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="BA30" t="n">
         <v>81</v>
@@ -6025,91 +6025,91 @@
         </is>
       </c>
       <c r="G31" t="n">
-        <v>2.45</v>
+        <v>2.3</v>
       </c>
       <c r="H31" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="I31" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="J31" t="n">
         <v>3.1</v>
       </c>
-      <c r="I31" t="n">
-        <v>2.8</v>
-      </c>
-      <c r="J31" t="n">
-        <v>3.25</v>
-      </c>
       <c r="K31" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="L31" t="n">
         <v>3.6</v>
       </c>
       <c r="M31" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="N31" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="O31" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="P31" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="Q31" t="n">
-        <v>2.25</v>
+        <v>2.1</v>
       </c>
       <c r="R31" t="n">
-        <v>1.62</v>
+        <v>1.7</v>
       </c>
       <c r="S31" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="T31" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="U31" t="n">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="V31" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="W31" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="X31" t="n">
         <v>11</v>
       </c>
       <c r="Y31" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="Z31" t="n">
         <v>23</v>
       </c>
       <c r="AA31" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AB31" t="n">
         <v>34</v>
       </c>
       <c r="AC31" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AD31" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AE31" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AF31" t="n">
         <v>51</v>
       </c>
       <c r="AG31" t="n">
-        <v>351</v>
+        <v>301</v>
       </c>
       <c r="AH31" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AI31" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AJ31" t="n">
         <v>11</v>
@@ -6121,37 +6121,37 @@
         <v>26</v>
       </c>
       <c r="AM31" t="n">
+        <v>34</v>
+      </c>
+      <c r="AN31" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AO31" t="n">
+        <v>13</v>
+      </c>
+      <c r="AP31" t="n">
+        <v>23</v>
+      </c>
+      <c r="AQ31" t="n">
         <v>41</v>
       </c>
-      <c r="AN31" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="AO31" t="n">
-        <v>15</v>
-      </c>
-      <c r="AP31" t="n">
-        <v>26</v>
-      </c>
-      <c r="AQ31" t="n">
-        <v>51</v>
-      </c>
       <c r="AR31" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AS31" t="n">
         <v>201</v>
       </c>
       <c r="AT31" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="AU31" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AV31" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AW31" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="AX31" t="n">
         <v>17</v>
@@ -6166,7 +6166,7 @@
         <v>81</v>
       </c>
       <c r="BB31" t="n">
-        <v>251</v>
+        <v>201</v>
       </c>
       <c r="BC31" t="n">
         <v>81</v>
@@ -6219,16 +6219,16 @@
         <v>3.1</v>
       </c>
       <c r="K32" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="L32" t="n">
         <v>3.6</v>
       </c>
       <c r="M32" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="N32" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="O32" t="n">
         <v>1.33</v>
@@ -6255,7 +6255,7 @@
         <v>1.83</v>
       </c>
       <c r="W32" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="X32" t="n">
         <v>11</v>
@@ -6270,10 +6270,10 @@
         <v>21</v>
       </c>
       <c r="AB32" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AC32" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AD32" t="n">
         <v>6</v>
@@ -6285,7 +6285,7 @@
         <v>51</v>
       </c>
       <c r="AG32" t="n">
-        <v>301</v>
+        <v>251</v>
       </c>
       <c r="AH32" t="n">
         <v>9</v>
@@ -6321,7 +6321,7 @@
         <v>67</v>
       </c>
       <c r="AS32" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="AT32" t="n">
         <v>2.63</v>
@@ -6407,22 +6407,22 @@
         <v>6.5</v>
       </c>
       <c r="M33" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="N33" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="O33" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="P33" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="Q33" t="n">
-        <v>2.1</v>
+        <v>2.08</v>
       </c>
       <c r="R33" t="n">
-        <v>1.7</v>
+        <v>1.73</v>
       </c>
       <c r="S33" t="n">
         <v>1.44</v>
@@ -6577,7 +6577,7 @@
         <v>2.9</v>
       </c>
       <c r="I34" t="n">
-        <v>2.38</v>
+        <v>2.35</v>
       </c>
       <c r="J34" t="n">
         <v>3.75</v>
@@ -6592,7 +6592,7 @@
         <v>1.08</v>
       </c>
       <c r="N34" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="O34" t="n">
         <v>1.4</v>
@@ -6670,10 +6670,10 @@
         <v>34</v>
       </c>
       <c r="AN34" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="AO34" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AP34" t="n">
         <v>29</v>
@@ -6753,22 +6753,22 @@
         </is>
       </c>
       <c r="G35" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="H35" t="n">
         <v>3.6</v>
       </c>
       <c r="I35" t="n">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="J35" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="K35" t="n">
         <v>2.38</v>
       </c>
       <c r="L35" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="M35" t="n">
         <v>1.03</v>
@@ -6783,10 +6783,10 @@
         <v>5</v>
       </c>
       <c r="Q35" t="n">
-        <v>1.6</v>
+        <v>1.57</v>
       </c>
       <c r="R35" t="n">
-        <v>2.3</v>
+        <v>2.35</v>
       </c>
       <c r="S35" t="n">
         <v>1.29</v>
@@ -6801,7 +6801,7 @@
         <v>2.5</v>
       </c>
       <c r="W35" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="X35" t="n">
         <v>19</v>
@@ -6813,7 +6813,7 @@
         <v>34</v>
       </c>
       <c r="AA35" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AB35" t="n">
         <v>26</v>
@@ -6840,7 +6840,7 @@
         <v>13</v>
       </c>
       <c r="AJ35" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AK35" t="n">
         <v>21</v>
@@ -6891,7 +6891,7 @@
         <v>34</v>
       </c>
       <c r="BA35" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="BB35" t="n">
         <v>101</v>
@@ -6935,13 +6935,13 @@
         </is>
       </c>
       <c r="G36" t="n">
-        <v>2.4</v>
+        <v>2.38</v>
       </c>
       <c r="H36" t="n">
         <v>3.3</v>
       </c>
       <c r="I36" t="n">
-        <v>2.8</v>
+        <v>2.9</v>
       </c>
       <c r="J36" t="n">
         <v>3</v>
@@ -6971,10 +6971,10 @@
         <v>1.93</v>
       </c>
       <c r="S36" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="T36" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U36" t="n">
         <v>1.67</v>
@@ -7013,7 +7013,7 @@
         <v>41</v>
       </c>
       <c r="AG36" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="AH36" t="n">
         <v>10</v>
@@ -7028,7 +7028,7 @@
         <v>29</v>
       </c>
       <c r="AL36" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AM36" t="n">
         <v>29</v>
@@ -7052,7 +7052,7 @@
         <v>151</v>
       </c>
       <c r="AT36" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="AU36" t="n">
         <v>7.5</v>
@@ -7481,46 +7481,46 @@
         </is>
       </c>
       <c r="G39" t="n">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="H39" t="n">
-        <v>3.8</v>
+        <v>3.7</v>
       </c>
       <c r="I39" t="n">
-        <v>1.62</v>
+        <v>1.65</v>
       </c>
       <c r="J39" t="n">
         <v>5.5</v>
       </c>
       <c r="K39" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="L39" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="M39" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="N39" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="O39" t="n">
-        <v>1.25</v>
+        <v>1.3</v>
       </c>
       <c r="P39" t="n">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="Q39" t="n">
-        <v>1.88</v>
+        <v>2.03</v>
       </c>
       <c r="R39" t="n">
-        <v>1.98</v>
+        <v>1.83</v>
       </c>
       <c r="S39" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="T39" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U39" t="n">
         <v>1.95</v>
@@ -7529,7 +7529,7 @@
         <v>1.8</v>
       </c>
       <c r="W39" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="X39" t="n">
         <v>23</v>
@@ -7547,7 +7547,7 @@
         <v>41</v>
       </c>
       <c r="AC39" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AD39" t="n">
         <v>7.5</v>
@@ -7559,10 +7559,10 @@
         <v>51</v>
       </c>
       <c r="AG39" t="n">
-        <v>301</v>
+        <v>351</v>
       </c>
       <c r="AH39" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AI39" t="n">
         <v>7.5</v>
@@ -7571,13 +7571,13 @@
         <v>8.5</v>
       </c>
       <c r="AK39" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AL39" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AM39" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AN39" t="n">
         <v>6.5</v>
@@ -7598,7 +7598,7 @@
         <v>251</v>
       </c>
       <c r="AT39" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="AU39" t="n">
         <v>8.5</v>
@@ -7610,10 +7610,10 @@
         <v>3.6</v>
       </c>
       <c r="AX39" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AY39" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AZ39" t="n">
         <v>29</v>
@@ -7663,13 +7663,13 @@
         </is>
       </c>
       <c r="G40" t="n">
-        <v>2.9</v>
+        <v>2.8</v>
       </c>
       <c r="H40" t="n">
         <v>3.5</v>
       </c>
       <c r="I40" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="J40" t="n">
         <v>3.75</v>
@@ -7687,16 +7687,16 @@
         <v>11</v>
       </c>
       <c r="O40" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="P40" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="Q40" t="n">
-        <v>2.03</v>
+        <v>1.98</v>
       </c>
       <c r="R40" t="n">
-        <v>1.83</v>
+        <v>1.88</v>
       </c>
       <c r="S40" t="n">
         <v>1.4</v>
@@ -7735,13 +7735,13 @@
         <v>7</v>
       </c>
       <c r="AE40" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AF40" t="n">
         <v>51</v>
       </c>
       <c r="AG40" t="n">
-        <v>301</v>
+        <v>251</v>
       </c>
       <c r="AH40" t="n">
         <v>7.5</v>
@@ -7753,7 +7753,7 @@
         <v>9</v>
       </c>
       <c r="AK40" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AL40" t="n">
         <v>17</v>
@@ -7765,7 +7765,7 @@
         <v>5</v>
       </c>
       <c r="AO40" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AP40" t="n">
         <v>26</v>
@@ -7777,7 +7777,7 @@
         <v>81</v>
       </c>
       <c r="AS40" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="AT40" t="n">
         <v>2.75</v>
@@ -7857,7 +7857,7 @@
         <v>2.3</v>
       </c>
       <c r="K41" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="L41" t="n">
         <v>5.5</v>
@@ -7866,67 +7866,67 @@
         <v>1.06</v>
       </c>
       <c r="N41" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="O41" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="P41" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="Q41" t="n">
-        <v>2.15</v>
+        <v>2.05</v>
       </c>
       <c r="R41" t="n">
-        <v>1.67</v>
+        <v>1.75</v>
       </c>
       <c r="S41" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="T41" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="U41" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="V41" t="n">
-        <v>1.7</v>
+        <v>1.75</v>
       </c>
       <c r="W41" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="X41" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="Y41" t="n">
         <v>8.5</v>
       </c>
       <c r="Z41" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AA41" t="n">
         <v>15</v>
       </c>
       <c r="AB41" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AC41" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AD41" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AE41" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AF41" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AG41" t="n">
-        <v>501</v>
+        <v>401</v>
       </c>
       <c r="AH41" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AI41" t="n">
         <v>23</v>
@@ -7941,10 +7941,10 @@
         <v>41</v>
       </c>
       <c r="AM41" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AN41" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="AO41" t="n">
         <v>9</v>
@@ -7959,16 +7959,16 @@
         <v>51</v>
       </c>
       <c r="AS41" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="AT41" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="AU41" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AV41" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AW41" t="n">
         <v>6.5</v>
@@ -7977,16 +7977,16 @@
         <v>29</v>
       </c>
       <c r="AY41" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AZ41" t="n">
         <v>101</v>
       </c>
       <c r="BA41" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="BB41" t="n">
-        <v>351</v>
+        <v>301</v>
       </c>
       <c r="BC41" t="n">
         <v>81</v>
@@ -8048,7 +8048,7 @@
         <v>1.08</v>
       </c>
       <c r="N42" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="O42" t="n">
         <v>1.4</v>
@@ -8057,10 +8057,10 @@
         <v>2.75</v>
       </c>
       <c r="Q42" t="n">
-        <v>2.35</v>
+        <v>2.3</v>
       </c>
       <c r="R42" t="n">
-        <v>1.57</v>
+        <v>1.6</v>
       </c>
       <c r="S42" t="n">
         <v>1.5</v>
@@ -8391,133 +8391,133 @@
         </is>
       </c>
       <c r="G44" t="n">
-        <v>2.45</v>
+        <v>2.35</v>
       </c>
       <c r="H44" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="I44" t="n">
+        <v>3</v>
+      </c>
+      <c r="J44" t="n">
         <v>3.1</v>
       </c>
-      <c r="I44" t="n">
-        <v>2.9</v>
-      </c>
-      <c r="J44" t="n">
-        <v>3.25</v>
-      </c>
       <c r="K44" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="L44" t="n">
         <v>3.75</v>
       </c>
       <c r="M44" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="N44" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="O44" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="P44" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q44" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="R44" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="S44" t="n">
         <v>1.44</v>
       </c>
-      <c r="P44" t="n">
+      <c r="T44" t="n">
         <v>2.63</v>
       </c>
-      <c r="Q44" t="n">
-        <v>2.35</v>
-      </c>
-      <c r="R44" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="S44" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="T44" t="n">
-        <v>2.5</v>
-      </c>
       <c r="U44" t="n">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="V44" t="n">
-        <v>1.75</v>
+        <v>1.91</v>
       </c>
       <c r="W44" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="X44" t="n">
         <v>11</v>
       </c>
       <c r="Y44" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="Z44" t="n">
         <v>23</v>
       </c>
       <c r="AA44" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AB44" t="n">
         <v>34</v>
       </c>
       <c r="AC44" t="n">
-        <v>7.5</v>
+        <v>8.5</v>
       </c>
       <c r="AD44" t="n">
         <v>6</v>
       </c>
       <c r="AE44" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AF44" t="n">
         <v>51</v>
       </c>
       <c r="AG44" t="n">
-        <v>401</v>
+        <v>301</v>
       </c>
       <c r="AH44" t="n">
-        <v>7.5</v>
+        <v>8.5</v>
       </c>
       <c r="AI44" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AJ44" t="n">
         <v>11</v>
       </c>
       <c r="AK44" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AL44" t="n">
         <v>26</v>
       </c>
       <c r="AM44" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AN44" t="n">
         <v>4.33</v>
       </c>
       <c r="AO44" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AP44" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AQ44" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AR44" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AS44" t="n">
-        <v>251</v>
+        <v>201</v>
       </c>
       <c r="AT44" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="AU44" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AV44" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AW44" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="AX44" t="n">
         <v>17</v>
@@ -8532,7 +8532,7 @@
         <v>81</v>
       </c>
       <c r="BB44" t="n">
-        <v>251</v>
+        <v>201</v>
       </c>
       <c r="BC44" t="n">
         <v>81</v>
@@ -8597,16 +8597,16 @@
         <v>15</v>
       </c>
       <c r="O45" t="n">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="P45" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="Q45" t="n">
-        <v>1.67</v>
+        <v>1.65</v>
       </c>
       <c r="R45" t="n">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="S45" t="n">
         <v>1.33</v>
@@ -8675,7 +8675,7 @@
         <v>4.33</v>
       </c>
       <c r="AO45" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AP45" t="n">
         <v>19</v>
@@ -8714,7 +8714,7 @@
         <v>67</v>
       </c>
       <c r="BB45" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="BC45" t="n">
         <v>451</v>
@@ -8788,7 +8788,7 @@
         <v>1.75</v>
       </c>
       <c r="R46" t="n">
-        <v>1.88</v>
+        <v>1.9</v>
       </c>
       <c r="S46" t="n">
         <v>1.34</v>
@@ -8806,22 +8806,22 @@
         <v>7.1</v>
       </c>
       <c r="X46" t="n">
-        <v>9.25</v>
+        <v>9</v>
       </c>
       <c r="Y46" t="n">
-        <v>7.4</v>
+        <v>7.3</v>
       </c>
       <c r="Z46" t="n">
         <v>16.5</v>
       </c>
       <c r="AA46" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AB46" t="n">
-        <v>19.5</v>
+        <v>19</v>
       </c>
       <c r="AC46" t="n">
-        <v>10.5</v>
+        <v>10.75</v>
       </c>
       <c r="AD46" t="n">
         <v>5.7</v>
@@ -8830,37 +8830,37 @@
         <v>10.5</v>
       </c>
       <c r="AF46" t="n">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="AG46" t="n">
         <v>250</v>
       </c>
       <c r="AH46" t="n">
-        <v>9</v>
+        <v>9.25</v>
       </c>
       <c r="AI46" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="AJ46" t="n">
         <v>9</v>
       </c>
       <c r="AK46" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="AL46" t="n">
         <v>20</v>
       </c>
       <c r="AM46" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AN46" t="n">
         <v>4.1</v>
       </c>
       <c r="AO46" t="n">
-        <v>11</v>
+        <v>10.75</v>
       </c>
       <c r="AP46" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="AQ46" t="n">
         <v>40</v>
@@ -8872,10 +8872,10 @@
         <v>200</v>
       </c>
       <c r="AT46" t="n">
-        <v>2.8</v>
+        <v>2.85</v>
       </c>
       <c r="AU46" t="n">
-        <v>6.7</v>
+        <v>6.6</v>
       </c>
       <c r="AV46" t="n">
         <v>55</v>
@@ -8958,13 +8958,13 @@
         <v>1.03</v>
       </c>
       <c r="N47" t="n">
-        <v>12.9</v>
+        <v>12.7</v>
       </c>
       <c r="O47" t="n">
-        <v>1.16</v>
+        <v>1.18</v>
       </c>
       <c r="P47" t="n">
-        <v>3.96</v>
+        <v>3.74</v>
       </c>
       <c r="Q47" t="n">
         <v>1.65</v>
@@ -8973,16 +8973,16 @@
         <v>1.98</v>
       </c>
       <c r="S47" t="n">
-        <v>1.31</v>
+        <v>1.33</v>
       </c>
       <c r="T47" t="n">
-        <v>3.26</v>
+        <v>3.14</v>
       </c>
       <c r="U47" t="n">
-        <v>1.61</v>
+        <v>1.68</v>
       </c>
       <c r="V47" t="n">
-        <v>2.25</v>
+        <v>2.13</v>
       </c>
       <c r="W47" t="n">
         <v>6.9</v>
@@ -9122,10 +9122,10 @@
         <v>2.3</v>
       </c>
       <c r="H48" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="I48" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="J48" t="n">
         <v>2.88</v>
@@ -9188,7 +9188,7 @@
         <v>13</v>
       </c>
       <c r="AD48" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AE48" t="n">
         <v>12</v>
@@ -9209,7 +9209,7 @@
         <v>11</v>
       </c>
       <c r="AK48" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AL48" t="n">
         <v>21</v>
@@ -9239,7 +9239,7 @@
         <v>3.25</v>
       </c>
       <c r="AU48" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AV48" t="n">
         <v>41</v>
@@ -9257,7 +9257,7 @@
         <v>51</v>
       </c>
       <c r="BA48" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="BB48" t="n">
         <v>126</v>
@@ -9301,7 +9301,7 @@
         </is>
       </c>
       <c r="G49" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="H49" t="n">
         <v>3.4</v>
@@ -9325,31 +9325,31 @@
         <v>11</v>
       </c>
       <c r="O49" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="P49" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="Q49" t="n">
-        <v>1.93</v>
+        <v>1.95</v>
       </c>
       <c r="R49" t="n">
-        <v>1.93</v>
+        <v>1.9</v>
       </c>
       <c r="S49" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="T49" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U49" t="n">
-        <v>1.7</v>
+        <v>1.75</v>
       </c>
       <c r="V49" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="W49" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="X49" t="n">
         <v>17</v>
@@ -9364,7 +9364,7 @@
         <v>26</v>
       </c>
       <c r="AB49" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AC49" t="n">
         <v>11</v>
@@ -9379,10 +9379,10 @@
         <v>41</v>
       </c>
       <c r="AG49" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="AH49" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AI49" t="n">
         <v>11</v>
@@ -9406,19 +9406,19 @@
         <v>17</v>
       </c>
       <c r="AP49" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AQ49" t="n">
         <v>51</v>
       </c>
       <c r="AR49" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AS49" t="n">
         <v>151</v>
       </c>
       <c r="AT49" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="AU49" t="n">
         <v>7.5</v>
@@ -9442,7 +9442,7 @@
         <v>51</v>
       </c>
       <c r="BB49" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="BC49" t="n">
         <v>501</v>
@@ -9483,64 +9483,64 @@
         </is>
       </c>
       <c r="G50" t="n">
-        <v>1.45</v>
+        <v>1.5</v>
       </c>
       <c r="H50" t="n">
-        <v>4.2</v>
+        <v>4.33</v>
       </c>
       <c r="I50" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="J50" t="n">
         <v>2</v>
       </c>
       <c r="K50" t="n">
-        <v>2.38</v>
+        <v>2.4</v>
       </c>
       <c r="L50" t="n">
         <v>6</v>
       </c>
       <c r="M50" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="N50" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="O50" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="P50" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="Q50" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="R50" t="n">
-        <v>2.08</v>
+        <v>2.15</v>
       </c>
       <c r="S50" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="T50" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="U50" t="n">
-        <v>1.91</v>
+        <v>1.8</v>
       </c>
       <c r="V50" t="n">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="W50" t="n">
+        <v>8</v>
+      </c>
+      <c r="X50" t="n">
         <v>7.5</v>
-      </c>
-      <c r="X50" t="n">
-        <v>7</v>
       </c>
       <c r="Y50" t="n">
         <v>8.5</v>
       </c>
       <c r="Z50" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AA50" t="n">
         <v>12</v>
@@ -9549,10 +9549,10 @@
         <v>23</v>
       </c>
       <c r="AC50" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AD50" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AE50" t="n">
         <v>17</v>
@@ -9561,10 +9561,10 @@
         <v>51</v>
       </c>
       <c r="AG50" t="n">
-        <v>251</v>
+        <v>201</v>
       </c>
       <c r="AH50" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AI50" t="n">
         <v>34</v>
@@ -9582,7 +9582,7 @@
         <v>41</v>
       </c>
       <c r="AN50" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="AO50" t="n">
         <v>7.5</v>
@@ -9597,13 +9597,13 @@
         <v>41</v>
       </c>
       <c r="AS50" t="n">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="AT50" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="AU50" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AV50" t="n">
         <v>51</v>
@@ -9612,19 +9612,19 @@
         <v>7.5</v>
       </c>
       <c r="AX50" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AY50" t="n">
         <v>34</v>
       </c>
       <c r="AZ50" t="n">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="BA50" t="n">
         <v>126</v>
       </c>
       <c r="BB50" t="n">
-        <v>251</v>
+        <v>201</v>
       </c>
       <c r="BC50" t="n">
         <v>126</v>
@@ -9665,28 +9665,28 @@
         </is>
       </c>
       <c r="G51" t="n">
-        <v>1.83</v>
+        <v>1.85</v>
       </c>
       <c r="H51" t="n">
-        <v>3.45</v>
+        <v>3.4</v>
       </c>
       <c r="I51" t="n">
         <v>3.9</v>
       </c>
       <c r="J51" t="n">
-        <v>2.4</v>
+        <v>2.42</v>
       </c>
       <c r="K51" t="n">
-        <v>2.12</v>
+        <v>2.1</v>
       </c>
       <c r="L51" t="n">
-        <v>4.25</v>
+        <v>4.3</v>
       </c>
       <c r="M51" t="n">
         <v>1.01</v>
       </c>
       <c r="N51" t="n">
-        <v>10.4</v>
+        <v>10.3</v>
       </c>
       <c r="O51" t="n">
         <v>1.26</v>
@@ -9713,16 +9713,16 @@
         <v>1.93</v>
       </c>
       <c r="W51" t="n">
-        <v>7.5</v>
+        <v>7.6</v>
       </c>
       <c r="X51" t="n">
-        <v>9</v>
+        <v>9.25</v>
       </c>
       <c r="Y51" t="n">
         <v>8.25</v>
       </c>
       <c r="Z51" t="n">
-        <v>15.5</v>
+        <v>16</v>
       </c>
       <c r="AA51" t="n">
         <v>14</v>
@@ -9734,7 +9734,7 @@
         <v>10.5</v>
       </c>
       <c r="AD51" t="n">
-        <v>6.8</v>
+        <v>6.7</v>
       </c>
       <c r="AE51" t="n">
         <v>14</v>
@@ -9746,7 +9746,7 @@
         <v>450</v>
       </c>
       <c r="AH51" t="n">
-        <v>11.75</v>
+        <v>11.5</v>
       </c>
       <c r="AI51" t="n">
         <v>22</v>
@@ -9782,10 +9782,10 @@
         <v>200</v>
       </c>
       <c r="AT51" t="n">
-        <v>2.57</v>
+        <v>2.55</v>
       </c>
       <c r="AU51" t="n">
-        <v>7.1</v>
+        <v>7</v>
       </c>
       <c r="AV51" t="n">
         <v>60</v>
@@ -9797,7 +9797,7 @@
         <v>22</v>
       </c>
       <c r="AY51" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AZ51" t="n">
         <v>120</v>
@@ -10211,10 +10211,10 @@
         </is>
       </c>
       <c r="G54" t="n">
-        <v>2.63</v>
+        <v>2.6</v>
       </c>
       <c r="H54" t="n">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="I54" t="n">
         <v>2.5</v>
@@ -10223,7 +10223,7 @@
         <v>3.1</v>
       </c>
       <c r="K54" t="n">
-        <v>2.38</v>
+        <v>2.4</v>
       </c>
       <c r="L54" t="n">
         <v>3</v>
@@ -10232,7 +10232,7 @@
         <v>1.03</v>
       </c>
       <c r="N54" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="O54" t="n">
         <v>1.17</v>
@@ -10241,16 +10241,16 @@
         <v>5</v>
       </c>
       <c r="Q54" t="n">
-        <v>1.6</v>
+        <v>1.53</v>
       </c>
       <c r="R54" t="n">
-        <v>2.3</v>
+        <v>2.4</v>
       </c>
       <c r="S54" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="T54" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="U54" t="n">
         <v>1.5</v>
@@ -10259,7 +10259,7 @@
         <v>2.5</v>
       </c>
       <c r="W54" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="X54" t="n">
         <v>15</v>
@@ -10274,13 +10274,13 @@
         <v>19</v>
       </c>
       <c r="AB54" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AC54" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AD54" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AE54" t="n">
         <v>11</v>
@@ -10292,7 +10292,7 @@
         <v>101</v>
       </c>
       <c r="AH54" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AI54" t="n">
         <v>15</v>
@@ -10304,10 +10304,10 @@
         <v>26</v>
       </c>
       <c r="AL54" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AM54" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AN54" t="n">
         <v>5</v>
@@ -10328,7 +10328,7 @@
         <v>101</v>
       </c>
       <c r="AT54" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="AU54" t="n">
         <v>7</v>
@@ -10337,7 +10337,7 @@
         <v>41</v>
       </c>
       <c r="AW54" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="AX54" t="n">
         <v>13</v>
@@ -10355,7 +10355,7 @@
         <v>101</v>
       </c>
       <c r="BC54" t="n">
-        <v>351</v>
+        <v>301</v>
       </c>
       <c r="BD54" t="n">
         <v>151</v>
@@ -10405,7 +10405,7 @@
         <v>1.91</v>
       </c>
       <c r="K55" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="L55" t="n">
         <v>5.5</v>
@@ -10414,43 +10414,43 @@
         <v>1.02</v>
       </c>
       <c r="N55" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="O55" t="n">
-        <v>1.11</v>
+        <v>1.13</v>
       </c>
       <c r="P55" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="Q55" t="n">
-        <v>1.4</v>
+        <v>1.48</v>
       </c>
       <c r="R55" t="n">
-        <v>2.88</v>
+        <v>2.6</v>
       </c>
       <c r="S55" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="T55" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="U55" t="n">
-        <v>1.53</v>
+        <v>1.62</v>
       </c>
       <c r="V55" t="n">
-        <v>2.38</v>
+        <v>2.2</v>
       </c>
       <c r="W55" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="X55" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="Y55" t="n">
         <v>8.5</v>
       </c>
       <c r="Z55" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AA55" t="n">
         <v>11</v>
@@ -10459,10 +10459,10 @@
         <v>19</v>
       </c>
       <c r="AC55" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AD55" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AE55" t="n">
         <v>15</v>
@@ -10471,7 +10471,7 @@
         <v>41</v>
       </c>
       <c r="AG55" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="AH55" t="n">
         <v>23</v>
@@ -10480,7 +10480,7 @@
         <v>41</v>
       </c>
       <c r="AJ55" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AK55" t="n">
         <v>67</v>
@@ -10492,13 +10492,13 @@
         <v>41</v>
       </c>
       <c r="AN55" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="AO55" t="n">
         <v>7</v>
       </c>
       <c r="AP55" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AQ55" t="n">
         <v>19</v>
@@ -10510,10 +10510,10 @@
         <v>81</v>
       </c>
       <c r="AT55" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="AU55" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AV55" t="n">
         <v>41</v>
@@ -10522,10 +10522,10 @@
         <v>8</v>
       </c>
       <c r="AX55" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AY55" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AZ55" t="n">
         <v>81</v>
@@ -10534,10 +10534,10 @@
         <v>81</v>
       </c>
       <c r="BB55" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="BC55" t="n">
-        <v>301</v>
+        <v>351</v>
       </c>
       <c r="BD55" t="n">
         <v>151</v>
@@ -10575,16 +10575,16 @@
         </is>
       </c>
       <c r="G56" t="n">
-        <v>1.75</v>
+        <v>1.73</v>
       </c>
       <c r="H56" t="n">
         <v>3.8</v>
       </c>
       <c r="I56" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="J56" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="K56" t="n">
         <v>2.5</v>
@@ -10599,16 +10599,16 @@
         <v>17</v>
       </c>
       <c r="O56" t="n">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="P56" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="Q56" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="R56" t="n">
-        <v>2.35</v>
+        <v>2.4</v>
       </c>
       <c r="S56" t="n">
         <v>1.29</v>
@@ -10677,7 +10677,7 @@
         <v>4</v>
       </c>
       <c r="AO56" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AP56" t="n">
         <v>15</v>
@@ -10763,10 +10763,10 @@
         <v>3.75</v>
       </c>
       <c r="I57" t="n">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="J57" t="n">
-        <v>2.38</v>
+        <v>2.3</v>
       </c>
       <c r="K57" t="n">
         <v>2.4</v>
@@ -10787,10 +10787,10 @@
         <v>5</v>
       </c>
       <c r="Q57" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="R57" t="n">
-        <v>2.4</v>
+        <v>2.35</v>
       </c>
       <c r="S57" t="n">
         <v>1.29</v>
@@ -10799,13 +10799,13 @@
         <v>3.5</v>
       </c>
       <c r="U57" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="V57" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="W57" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="X57" t="n">
         <v>11</v>
@@ -10814,7 +10814,7 @@
         <v>8.5</v>
       </c>
       <c r="Z57" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AA57" t="n">
         <v>13</v>
@@ -10844,7 +10844,7 @@
         <v>23</v>
       </c>
       <c r="AJ57" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AK57" t="n">
         <v>41</v>
@@ -10856,16 +10856,16 @@
         <v>29</v>
       </c>
       <c r="AN57" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="AO57" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AP57" t="n">
         <v>17</v>
       </c>
       <c r="AQ57" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AR57" t="n">
         <v>41</v>
@@ -10886,7 +10886,7 @@
         <v>6</v>
       </c>
       <c r="AX57" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AY57" t="n">
         <v>23</v>
@@ -11303,16 +11303,16 @@
         </is>
       </c>
       <c r="G60" t="n">
-        <v>2.9</v>
+        <v>2.88</v>
       </c>
       <c r="H60" t="n">
         <v>3</v>
       </c>
       <c r="I60" t="n">
-        <v>2.5</v>
+        <v>2.55</v>
       </c>
       <c r="J60" t="n">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="K60" t="n">
         <v>2</v>
@@ -11321,16 +11321,16 @@
         <v>3.25</v>
       </c>
       <c r="M60" t="n">
-        <v>1.1</v>
+        <v>1.08</v>
       </c>
       <c r="N60" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="O60" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="P60" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="Q60" t="n">
         <v>2.35</v>
@@ -11345,10 +11345,10 @@
         <v>2.5</v>
       </c>
       <c r="U60" t="n">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="V60" t="n">
-        <v>1.73</v>
+        <v>1.8</v>
       </c>
       <c r="W60" t="n">
         <v>8</v>
@@ -11357,7 +11357,7 @@
         <v>13</v>
       </c>
       <c r="Y60" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="Z60" t="n">
         <v>29</v>
@@ -11369,7 +11369,7 @@
         <v>41</v>
       </c>
       <c r="AC60" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AD60" t="n">
         <v>6</v>
@@ -11393,13 +11393,13 @@
         <v>10</v>
       </c>
       <c r="AK60" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AL60" t="n">
         <v>23</v>
       </c>
       <c r="AM60" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AN60" t="n">
         <v>4.75</v>
@@ -11429,7 +11429,7 @@
         <v>67</v>
       </c>
       <c r="AW60" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="AX60" t="n">
         <v>15</v>
@@ -11488,19 +11488,19 @@
         <v>3.2</v>
       </c>
       <c r="H61" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="I61" t="n">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="J61" t="n">
         <v>3.6</v>
       </c>
       <c r="K61" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="L61" t="n">
-        <v>2.88</v>
+        <v>2.75</v>
       </c>
       <c r="M61" t="n">
         <v>1.04</v>
@@ -11509,34 +11509,34 @@
         <v>13</v>
       </c>
       <c r="O61" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="P61" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="Q61" t="n">
-        <v>1.75</v>
+        <v>1.7</v>
       </c>
       <c r="R61" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="S61" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="T61" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U61" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="V61" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="W61" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="X61" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="Y61" t="n">
         <v>12</v>
@@ -11551,7 +11551,7 @@
         <v>29</v>
       </c>
       <c r="AC61" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AD61" t="n">
         <v>6.5</v>
@@ -11563,10 +11563,10 @@
         <v>41</v>
       </c>
       <c r="AG61" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="AH61" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AI61" t="n">
         <v>12</v>
@@ -11581,16 +11581,16 @@
         <v>17</v>
       </c>
       <c r="AM61" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AN61" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="AO61" t="n">
         <v>17</v>
       </c>
       <c r="AP61" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AQ61" t="n">
         <v>51</v>
@@ -11599,25 +11599,25 @@
         <v>67</v>
       </c>
       <c r="AS61" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="AT61" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="AU61" t="n">
         <v>7.5</v>
       </c>
       <c r="AV61" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AW61" t="n">
         <v>4.33</v>
       </c>
       <c r="AX61" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AY61" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AZ61" t="n">
         <v>41</v>
@@ -11626,10 +11626,10 @@
         <v>51</v>
       </c>
       <c r="BB61" t="n">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="BC61" t="n">
-        <v>501</v>
+        <v>451</v>
       </c>
       <c r="BD61" t="n">
         <v>81</v>
@@ -11670,52 +11670,52 @@
         <v>2.6</v>
       </c>
       <c r="H62" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="I62" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="J62" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="K62" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="L62" t="n">
+        <v>3</v>
+      </c>
+      <c r="M62" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="N62" t="n">
+        <v>15</v>
+      </c>
+      <c r="O62" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="P62" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="Q62" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="R62" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="S62" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="T62" t="n">
         <v>3.4</v>
       </c>
-      <c r="I62" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="J62" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="K62" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="L62" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="M62" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="N62" t="n">
-        <v>13</v>
-      </c>
-      <c r="O62" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="P62" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="Q62" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="R62" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="S62" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="T62" t="n">
-        <v>3.25</v>
-      </c>
       <c r="U62" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="V62" t="n">
-        <v>2.25</v>
+        <v>2.38</v>
       </c>
       <c r="W62" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="X62" t="n">
         <v>15</v>
@@ -11730,28 +11730,28 @@
         <v>19</v>
       </c>
       <c r="AB62" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AC62" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AD62" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AE62" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AF62" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AG62" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="AH62" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AI62" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AJ62" t="n">
         <v>10</v>
@@ -11760,19 +11760,19 @@
         <v>26</v>
       </c>
       <c r="AL62" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AM62" t="n">
         <v>23</v>
       </c>
       <c r="AN62" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="AO62" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AP62" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AQ62" t="n">
         <v>41</v>
@@ -11781,13 +11781,13 @@
         <v>51</v>
       </c>
       <c r="AS62" t="n">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="AT62" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="AU62" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AV62" t="n">
         <v>41</v>
@@ -11799,7 +11799,7 @@
         <v>13</v>
       </c>
       <c r="AY62" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AZ62" t="n">
         <v>41</v>
@@ -11808,10 +11808,10 @@
         <v>51</v>
       </c>
       <c r="BB62" t="n">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="BC62" t="n">
-        <v>451</v>
+        <v>351</v>
       </c>
       <c r="BD62" t="n">
         <v>81</v>
@@ -11864,7 +11864,7 @@
         <v>2.5</v>
       </c>
       <c r="L63" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="M63" t="n">
         <v>1.03</v>
@@ -11879,10 +11879,10 @@
         <v>4.33</v>
       </c>
       <c r="Q63" t="n">
-        <v>1.67</v>
+        <v>1.65</v>
       </c>
       <c r="R63" t="n">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="S63" t="n">
         <v>1.3</v>
@@ -11891,19 +11891,19 @@
         <v>3.4</v>
       </c>
       <c r="U63" t="n">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="V63" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="W63" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="X63" t="n">
         <v>7</v>
       </c>
       <c r="Y63" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="Z63" t="n">
         <v>9.5</v>
@@ -11915,13 +11915,13 @@
         <v>26</v>
       </c>
       <c r="AC63" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AD63" t="n">
         <v>9.5</v>
       </c>
       <c r="AE63" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AF63" t="n">
         <v>51</v>
@@ -11930,7 +11930,7 @@
         <v>301</v>
       </c>
       <c r="AH63" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AI63" t="n">
         <v>34</v>
@@ -12031,97 +12031,97 @@
         </is>
       </c>
       <c r="G64" t="n">
+        <v>15</v>
+      </c>
+      <c r="H64" t="n">
+        <v>9</v>
+      </c>
+      <c r="I64" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="J64" t="n">
         <v>13</v>
       </c>
-      <c r="H64" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="I64" t="n">
-        <v>1.17</v>
-      </c>
-      <c r="J64" t="n">
-        <v>11</v>
-      </c>
       <c r="K64" t="n">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="L64" t="n">
-        <v>1.53</v>
+        <v>1.44</v>
       </c>
       <c r="M64" t="n">
-        <v>1.02</v>
+        <v>1.01</v>
       </c>
       <c r="N64" t="n">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="O64" t="n">
-        <v>1.13</v>
+        <v>1.1</v>
       </c>
       <c r="P64" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="Q64" t="n">
-        <v>1.44</v>
+        <v>1.36</v>
       </c>
       <c r="R64" t="n">
-        <v>2.7</v>
+        <v>3.1</v>
       </c>
       <c r="S64" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="T64" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="U64" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="V64" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="W64" t="n">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="X64" t="n">
-        <v>51</v>
+        <v>81</v>
       </c>
       <c r="Y64" t="n">
+        <v>41</v>
+      </c>
+      <c r="Z64" t="n">
+        <v>251</v>
+      </c>
+      <c r="AA64" t="n">
+        <v>101</v>
+      </c>
+      <c r="AB64" t="n">
+        <v>81</v>
+      </c>
+      <c r="AC64" t="n">
+        <v>23</v>
+      </c>
+      <c r="AD64" t="n">
+        <v>17</v>
+      </c>
+      <c r="AE64" t="n">
         <v>34</v>
-      </c>
-      <c r="Z64" t="n">
-        <v>201</v>
-      </c>
-      <c r="AA64" t="n">
-        <v>81</v>
-      </c>
-      <c r="AB64" t="n">
-        <v>67</v>
-      </c>
-      <c r="AC64" t="n">
-        <v>19</v>
-      </c>
-      <c r="AD64" t="n">
-        <v>15</v>
-      </c>
-      <c r="AE64" t="n">
-        <v>29</v>
       </c>
       <c r="AF64" t="n">
         <v>81</v>
       </c>
       <c r="AG64" t="n">
-        <v>451</v>
+        <v>501</v>
       </c>
       <c r="AH64" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AI64" t="n">
+        <v>7</v>
+      </c>
+      <c r="AJ64" t="n">
+        <v>11</v>
+      </c>
+      <c r="AK64" t="n">
         <v>6.5</v>
-      </c>
-      <c r="AJ64" t="n">
-        <v>10</v>
-      </c>
-      <c r="AK64" t="n">
-        <v>7</v>
       </c>
       <c r="AL64" t="n">
         <v>11</v>
@@ -12130,7 +12130,7 @@
         <v>29</v>
       </c>
       <c r="AN64" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AO64" t="n">
         <v>51</v>
@@ -12139,37 +12139,37 @@
         <v>51</v>
       </c>
       <c r="AQ64" t="n">
+        <v>401</v>
+      </c>
+      <c r="AR64" t="n">
         <v>301</v>
-      </c>
-      <c r="AR64" t="n">
-        <v>251</v>
       </c>
       <c r="AS64" t="n">
         <v>401</v>
       </c>
       <c r="AT64" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="AU64" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AV64" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AW64" t="n">
         <v>3.25</v>
       </c>
       <c r="AX64" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="AY64" t="n">
         <v>17</v>
       </c>
       <c r="AZ64" t="n">
-        <v>11</v>
+        <v>9.5</v>
       </c>
       <c r="BA64" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="BB64" t="n">
         <v>101</v>
@@ -12213,148 +12213,148 @@
         </is>
       </c>
       <c r="G65" t="n">
-        <v>2.42</v>
+        <v>2.5</v>
       </c>
       <c r="H65" t="n">
-        <v>3.55</v>
+        <v>3.35</v>
       </c>
       <c r="I65" t="n">
-        <v>2.6</v>
+        <v>2.65</v>
       </c>
       <c r="J65" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="K65" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="L65" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="M65" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="N65" t="n">
+        <v>8</v>
+      </c>
+      <c r="O65" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="P65" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="Q65" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="R65" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="S65" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="T65" t="n">
         <v>2.9</v>
       </c>
-      <c r="K65" t="n">
+      <c r="U65" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="V65" t="n">
         <v>2.3</v>
       </c>
-      <c r="L65" t="n">
-        <v>3.05</v>
-      </c>
-      <c r="M65" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="N65" t="n">
-        <v>9</v>
-      </c>
-      <c r="O65" t="n">
-        <v>1.17</v>
-      </c>
-      <c r="P65" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="Q65" t="n">
-        <v>1.52</v>
-      </c>
-      <c r="R65" t="n">
-        <v>2.37</v>
-      </c>
-      <c r="S65" t="n">
-        <v>1.28</v>
-      </c>
-      <c r="T65" t="n">
-        <v>3.35</v>
-      </c>
-      <c r="U65" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="V65" t="n">
-        <v>2.6</v>
-      </c>
       <c r="W65" t="n">
-        <v>12.5</v>
+        <v>9.75</v>
       </c>
       <c r="X65" t="n">
-        <v>15.5</v>
+        <v>14</v>
       </c>
       <c r="Y65" t="n">
-        <v>9.5</v>
+        <v>9.25</v>
       </c>
       <c r="Z65" t="n">
         <v>28</v>
       </c>
       <c r="AA65" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AB65" t="n">
-        <v>19.5</v>
+        <v>24</v>
       </c>
       <c r="AC65" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AD65" t="n">
-        <v>7.4</v>
+        <v>6.6</v>
       </c>
       <c r="AE65" t="n">
-        <v>10.75</v>
+        <v>11.5</v>
       </c>
       <c r="AF65" t="n">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="AG65" t="n">
-        <v>175</v>
+        <v>250</v>
       </c>
       <c r="AH65" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AI65" t="n">
-        <v>16.5</v>
+        <v>15.5</v>
       </c>
       <c r="AJ65" t="n">
-        <v>9.75</v>
+        <v>9.5</v>
       </c>
       <c r="AK65" t="n">
         <v>32</v>
       </c>
       <c r="AL65" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="AM65" t="n">
+        <v>23</v>
+      </c>
+      <c r="AN65" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="AO65" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AP65" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="AQ65" t="n">
+        <v>55</v>
+      </c>
+      <c r="AR65" t="n">
+        <v>80</v>
+      </c>
+      <c r="AS65" t="n">
+        <v>200</v>
+      </c>
+      <c r="AT65" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="AU65" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AV65" t="n">
+        <v>50</v>
+      </c>
+      <c r="AW65" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="AX65" t="n">
+        <v>14</v>
+      </c>
+      <c r="AY65" t="n">
         <v>18.5</v>
       </c>
-      <c r="AM65" t="n">
-        <v>20</v>
-      </c>
-      <c r="AN65" t="n">
-        <v>4.85</v>
-      </c>
-      <c r="AO65" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AP65" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="AQ65" t="n">
-        <v>45</v>
-      </c>
-      <c r="AR65" t="n">
+      <c r="AZ65" t="n">
         <v>55</v>
       </c>
-      <c r="AS65" t="n">
-        <v>150</v>
-      </c>
-      <c r="AT65" t="n">
-        <v>3.35</v>
-      </c>
-      <c r="AU65" t="n">
-        <v>6.1</v>
-      </c>
-      <c r="AV65" t="n">
-        <v>37</v>
-      </c>
-      <c r="AW65" t="n">
-        <v>5</v>
-      </c>
-      <c r="AX65" t="n">
-        <v>13</v>
-      </c>
-      <c r="AY65" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="AZ65" t="n">
-        <v>50</v>
-      </c>
       <c r="BA65" t="n">
-        <v>60</v>
+        <v>75</v>
       </c>
       <c r="BB65" t="n">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="BC65" t="n">
         <v>500</v>
@@ -12777,10 +12777,10 @@
         <v>4</v>
       </c>
       <c r="M68" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="N68" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="O68" t="n">
         <v>1.5</v>
@@ -12789,10 +12789,10 @@
         <v>2.5</v>
       </c>
       <c r="Q68" t="n">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="R68" t="n">
-        <v>1.48</v>
+        <v>1.5</v>
       </c>
       <c r="S68" t="n">
         <v>1.57</v>
@@ -12959,16 +12959,16 @@
         <v>5</v>
       </c>
       <c r="M69" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="N69" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="O69" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="P69" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="Q69" t="n">
         <v>2.2</v>
@@ -13126,7 +13126,7 @@
         <v>1.13</v>
       </c>
       <c r="H70" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="I70" t="n">
         <v>15</v>
@@ -13147,10 +13147,10 @@
         <v>15</v>
       </c>
       <c r="O70" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="P70" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="Q70" t="n">
         <v>1.25</v>
@@ -13174,7 +13174,7 @@
         <v>13</v>
       </c>
       <c r="X70" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="Y70" t="n">
         <v>12</v>
@@ -13195,7 +13195,7 @@
         <v>17</v>
       </c>
       <c r="AE70" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AF70" t="n">
         <v>51</v>
@@ -13207,7 +13207,7 @@
         <v>41</v>
       </c>
       <c r="AI70" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AJ70" t="n">
         <v>41</v>
@@ -13219,7 +13219,7 @@
         <v>81</v>
       </c>
       <c r="AM70" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AN70" t="n">
         <v>3.75</v>
@@ -13305,64 +13305,64 @@
         </is>
       </c>
       <c r="G71" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="H71" t="n">
         <v>5.5</v>
       </c>
       <c r="I71" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J71" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="K71" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="L71" t="n">
         <v>6.5</v>
       </c>
       <c r="M71" t="n">
-        <v>1.01</v>
+        <v>19</v>
       </c>
       <c r="N71" t="n">
-        <v>17</v>
+        <v>1.03</v>
       </c>
       <c r="O71" t="n">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="P71" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="Q71" t="n">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="R71" t="n">
-        <v>2.35</v>
+        <v>2.5</v>
       </c>
       <c r="S71" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="T71" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="U71" t="n">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="V71" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="W71" t="n">
+        <v>9</v>
+      </c>
+      <c r="X71" t="n">
         <v>7.5</v>
       </c>
-      <c r="X71" t="n">
-        <v>7</v>
-      </c>
       <c r="Y71" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="Z71" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AA71" t="n">
         <v>11</v>
@@ -13371,7 +13371,7 @@
         <v>23</v>
       </c>
       <c r="AC71" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AD71" t="n">
         <v>11</v>
@@ -13383,7 +13383,7 @@
         <v>51</v>
       </c>
       <c r="AG71" t="n">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="AH71" t="n">
         <v>21</v>
@@ -13401,28 +13401,28 @@
         <v>51</v>
       </c>
       <c r="AM71" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AN71" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="AO71" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AP71" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AQ71" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AR71" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AS71" t="n">
         <v>101</v>
       </c>
       <c r="AT71" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="AU71" t="n">
         <v>9</v>
@@ -13437,13 +13437,13 @@
         <v>41</v>
       </c>
       <c r="AY71" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AZ71" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="BA71" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="BB71" t="n">
         <v>500</v>
@@ -13505,10 +13505,10 @@
         <v>3</v>
       </c>
       <c r="M72" t="n">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="N72" t="n">
-        <v>8.5</v>
+        <v>11</v>
       </c>
       <c r="O72" t="n">
         <v>1.29</v>
@@ -13538,7 +13538,7 @@
         <v>9.5</v>
       </c>
       <c r="X72" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="Y72" t="n">
         <v>11</v>
@@ -13565,7 +13565,7 @@
         <v>41</v>
       </c>
       <c r="AG72" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="AH72" t="n">
         <v>9</v>
@@ -13580,7 +13580,7 @@
         <v>23</v>
       </c>
       <c r="AL72" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AM72" t="n">
         <v>29</v>
@@ -13625,7 +13625,7 @@
         <v>41</v>
       </c>
       <c r="BA72" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="BB72" t="n">
         <v>151</v>
@@ -13854,19 +13854,19 @@
         <v>5</v>
       </c>
       <c r="H74" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="I74" t="n">
         <v>1.6</v>
       </c>
       <c r="J74" t="n">
-        <v>4.9</v>
+        <v>5</v>
       </c>
       <c r="K74" t="n">
         <v>2.3</v>
       </c>
       <c r="L74" t="n">
-        <v>2.12</v>
+        <v>2.1</v>
       </c>
       <c r="M74" t="n">
         <v>1.04</v>
@@ -13878,7 +13878,7 @@
         <v>1.22</v>
       </c>
       <c r="P74" t="n">
-        <v>3.95</v>
+        <v>4</v>
       </c>
       <c r="Q74" t="n">
         <v>1.7</v>
@@ -13887,13 +13887,13 @@
         <v>2.12</v>
       </c>
       <c r="S74" t="n">
-        <v>1.34</v>
+        <v>1.35</v>
       </c>
       <c r="T74" t="n">
         <v>3.1</v>
       </c>
       <c r="U74" t="n">
-        <v>1.7</v>
+        <v>1.72</v>
       </c>
       <c r="V74" t="n">
         <v>2.02</v>
@@ -13920,19 +13920,19 @@
         <v>9</v>
       </c>
       <c r="AD74" t="n">
-        <v>8.25</v>
+        <v>8.5</v>
       </c>
       <c r="AE74" t="n">
-        <v>16</v>
+        <v>16.5</v>
       </c>
       <c r="AF74" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="AG74" t="n">
         <v>500</v>
       </c>
       <c r="AH74" t="n">
-        <v>7.5</v>
+        <v>7.6</v>
       </c>
       <c r="AI74" t="n">
         <v>8.75</v>
@@ -13944,7 +13944,7 @@
         <v>13</v>
       </c>
       <c r="AL74" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AM74" t="n">
         <v>24</v>
@@ -13953,40 +13953,40 @@
         <v>6.7</v>
       </c>
       <c r="AO74" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AP74" t="n">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="AQ74" t="n">
-        <v>150</v>
+        <v>175</v>
       </c>
       <c r="AR74" t="n">
-        <v>175</v>
+        <v>200</v>
       </c>
       <c r="AS74" t="n">
-        <v>350</v>
+        <v>400</v>
       </c>
       <c r="AT74" t="n">
-        <v>3.1</v>
+        <v>3.05</v>
       </c>
       <c r="AU74" t="n">
-        <v>7.3</v>
+        <v>7.5</v>
       </c>
       <c r="AV74" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="AW74" t="n">
-        <v>3.55</v>
+        <v>3.5</v>
       </c>
       <c r="AX74" t="n">
-        <v>7.6</v>
+        <v>7.5</v>
       </c>
       <c r="AY74" t="n">
         <v>16</v>
       </c>
       <c r="AZ74" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="BA74" t="n">
         <v>50</v>
@@ -14051,10 +14051,10 @@
         <v>2.5</v>
       </c>
       <c r="M75" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="N75" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="O75" t="n">
         <v>1.25</v>
@@ -14063,10 +14063,10 @@
         <v>3.75</v>
       </c>
       <c r="Q75" t="n">
-        <v>1.88</v>
+        <v>1.83</v>
       </c>
       <c r="R75" t="n">
-        <v>1.98</v>
+        <v>2.03</v>
       </c>
       <c r="S75" t="n">
         <v>1.36</v>
@@ -14215,16 +14215,16 @@
         </is>
       </c>
       <c r="G76" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="H76" t="n">
         <v>3.4</v>
       </c>
       <c r="I76" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="J76" t="n">
-        <v>2.88</v>
+        <v>3</v>
       </c>
       <c r="K76" t="n">
         <v>2.1</v>
@@ -14236,7 +14236,7 @@
         <v>1.06</v>
       </c>
       <c r="N76" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="O76" t="n">
         <v>1.3</v>
@@ -14245,16 +14245,16 @@
         <v>3.4</v>
       </c>
       <c r="Q76" t="n">
-        <v>2.05</v>
+        <v>2.03</v>
       </c>
       <c r="R76" t="n">
-        <v>1.75</v>
+        <v>1.83</v>
       </c>
       <c r="S76" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="T76" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="U76" t="n">
         <v>1.8</v>
@@ -14266,10 +14266,10 @@
         <v>7.5</v>
       </c>
       <c r="X76" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="Y76" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="Z76" t="n">
         <v>21</v>
@@ -14302,7 +14302,7 @@
         <v>15</v>
       </c>
       <c r="AJ76" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AK76" t="n">
         <v>34</v>
@@ -14317,7 +14317,7 @@
         <v>4.33</v>
       </c>
       <c r="AO76" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AP76" t="n">
         <v>23</v>
@@ -14332,7 +14332,7 @@
         <v>151</v>
       </c>
       <c r="AT76" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="AU76" t="n">
         <v>8</v>
@@ -14344,7 +14344,7 @@
         <v>5</v>
       </c>
       <c r="AX76" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AY76" t="n">
         <v>26</v>
@@ -14397,10 +14397,10 @@
         </is>
       </c>
       <c r="G77" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="H77" t="n">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="I77" t="n">
         <v>3.25</v>
@@ -14409,76 +14409,76 @@
         <v>2.88</v>
       </c>
       <c r="K77" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="L77" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="M77" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="N77" t="n">
+        <v>11</v>
+      </c>
+      <c r="O77" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="P77" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="Q77" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="R77" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="S77" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="T77" t="n">
+        <v>3</v>
+      </c>
+      <c r="U77" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="V77" t="n">
         <v>2.1</v>
       </c>
-      <c r="L77" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="M77" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="N77" t="n">
-        <v>10</v>
-      </c>
-      <c r="O77" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="P77" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="Q77" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="R77" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="S77" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="T77" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="U77" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="V77" t="n">
-        <v>1.91</v>
-      </c>
       <c r="W77" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="X77" t="n">
         <v>11</v>
       </c>
       <c r="Y77" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="Z77" t="n">
         <v>21</v>
       </c>
       <c r="AA77" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AB77" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AC77" t="n">
-        <v>9.5</v>
+        <v>11</v>
       </c>
       <c r="AD77" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AE77" t="n">
         <v>13</v>
       </c>
       <c r="AF77" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AG77" t="n">
-        <v>251</v>
+        <v>151</v>
       </c>
       <c r="AH77" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AI77" t="n">
         <v>17</v>
@@ -14490,7 +14490,7 @@
         <v>34</v>
       </c>
       <c r="AL77" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AM77" t="n">
         <v>34</v>
@@ -14502,22 +14502,22 @@
         <v>12</v>
       </c>
       <c r="AP77" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AQ77" t="n">
         <v>41</v>
       </c>
       <c r="AR77" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AS77" t="n">
         <v>151</v>
       </c>
       <c r="AT77" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="AU77" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AV77" t="n">
         <v>51</v>
@@ -14529,16 +14529,16 @@
         <v>17</v>
       </c>
       <c r="AY77" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AZ77" t="n">
         <v>51</v>
       </c>
       <c r="BA77" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="BB77" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="BC77" t="n">
         <v>81</v>
@@ -14579,46 +14579,46 @@
         </is>
       </c>
       <c r="G78" t="n">
-        <v>2.52</v>
+        <v>2.5</v>
       </c>
       <c r="H78" t="n">
-        <v>3.5</v>
+        <v>3.45</v>
       </c>
       <c r="I78" t="n">
-        <v>2.52</v>
+        <v>2.57</v>
       </c>
       <c r="J78" t="n">
-        <v>3.05</v>
+        <v>3</v>
       </c>
       <c r="K78" t="n">
-        <v>2.22</v>
+        <v>2.18</v>
       </c>
       <c r="L78" t="n">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="M78" t="n">
         <v>1.04</v>
       </c>
       <c r="N78" t="n">
-        <v>8.5</v>
+        <v>8.25</v>
       </c>
       <c r="O78" t="n">
-        <v>1.21</v>
+        <v>1.22</v>
       </c>
       <c r="P78" t="n">
-        <v>3.9</v>
+        <v>3.8</v>
       </c>
       <c r="Q78" t="n">
-        <v>1.65</v>
+        <v>1.7</v>
       </c>
       <c r="R78" t="n">
-        <v>2.15</v>
+        <v>2.07</v>
       </c>
       <c r="S78" t="n">
-        <v>1.33</v>
+        <v>1.35</v>
       </c>
       <c r="T78" t="n">
-        <v>3.05</v>
+        <v>2.95</v>
       </c>
       <c r="U78" t="n">
         <v>1.55</v>
@@ -14627,7 +14627,7 @@
         <v>2.3</v>
       </c>
       <c r="W78" t="n">
-        <v>10.75</v>
+        <v>10.5</v>
       </c>
       <c r="X78" t="n">
         <v>14.5</v>
@@ -14645,22 +14645,22 @@
         <v>23</v>
       </c>
       <c r="AC78" t="n">
-        <v>8.5</v>
+        <v>8.25</v>
       </c>
       <c r="AD78" t="n">
-        <v>7</v>
+        <v>6.8</v>
       </c>
       <c r="AE78" t="n">
         <v>11.75</v>
       </c>
       <c r="AF78" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="AG78" t="n">
         <v>250</v>
       </c>
       <c r="AH78" t="n">
-        <v>10.75</v>
+        <v>10.25</v>
       </c>
       <c r="AI78" t="n">
         <v>14.5</v>
@@ -14669,16 +14669,16 @@
         <v>9.5</v>
       </c>
       <c r="AK78" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AL78" t="n">
-        <v>18.5</v>
+        <v>19.5</v>
       </c>
       <c r="AM78" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AN78" t="n">
-        <v>4.7</v>
+        <v>4.6</v>
       </c>
       <c r="AO78" t="n">
         <v>13</v>
@@ -14696,28 +14696,28 @@
         <v>200</v>
       </c>
       <c r="AT78" t="n">
-        <v>3.05</v>
+        <v>2.95</v>
       </c>
       <c r="AU78" t="n">
-        <v>6.5</v>
+        <v>6.6</v>
       </c>
       <c r="AV78" t="n">
         <v>50</v>
       </c>
       <c r="AW78" t="n">
-        <v>4.65</v>
+        <v>4.7</v>
       </c>
       <c r="AX78" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="AY78" t="n">
-        <v>18.5</v>
+        <v>19.5</v>
       </c>
       <c r="AZ78" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="BA78" t="n">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="BB78" t="n">
         <v>200</v>
@@ -14770,13 +14770,13 @@
         <v>2.62</v>
       </c>
       <c r="J79" t="n">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="K79" t="n">
         <v>2.12</v>
       </c>
       <c r="L79" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="M79" t="n">
         <v>1.05</v>
@@ -14788,7 +14788,7 @@
         <v>1.25</v>
       </c>
       <c r="P79" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="Q79" t="n">
         <v>1.75</v>
@@ -14803,16 +14803,16 @@
         <v>2.85</v>
       </c>
       <c r="U79" t="n">
-        <v>1.6</v>
+        <v>1.57</v>
       </c>
       <c r="V79" t="n">
-        <v>2.22</v>
+        <v>2.25</v>
       </c>
       <c r="W79" t="n">
-        <v>9.75</v>
+        <v>9.25</v>
       </c>
       <c r="X79" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="Y79" t="n">
         <v>9.5</v>
@@ -14821,10 +14821,10 @@
         <v>29</v>
       </c>
       <c r="AA79" t="n">
-        <v>19.5</v>
+        <v>20</v>
       </c>
       <c r="AB79" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AC79" t="n">
         <v>7.8</v>
@@ -14842,46 +14842,46 @@
         <v>300</v>
       </c>
       <c r="AH79" t="n">
-        <v>9.75</v>
+        <v>10.5</v>
       </c>
       <c r="AI79" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="AJ79" t="n">
         <v>9.5</v>
       </c>
       <c r="AK79" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="AL79" t="n">
-        <v>20</v>
+        <v>19.5</v>
       </c>
       <c r="AM79" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="AN79" t="n">
         <v>4.6</v>
       </c>
       <c r="AO79" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="AP79" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AQ79" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AR79" t="n">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AS79" t="n">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="AT79" t="n">
         <v>2.85</v>
       </c>
       <c r="AU79" t="n">
-        <v>6.6</v>
+        <v>6.5</v>
       </c>
       <c r="AV79" t="n">
         <v>50</v>
@@ -14890,19 +14890,19 @@
         <v>4.7</v>
       </c>
       <c r="AX79" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AY79" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AZ79" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="BA79" t="n">
-        <v>90</v>
+        <v>75</v>
       </c>
       <c r="BB79" t="n">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="BC79" t="n">
         <v>51</v>
@@ -14943,148 +14943,148 @@
         </is>
       </c>
       <c r="G80" t="n">
-        <v>2.45</v>
+        <v>2.5</v>
       </c>
       <c r="H80" t="n">
-        <v>3.6</v>
+        <v>3.35</v>
       </c>
       <c r="I80" t="n">
-        <v>2.55</v>
+        <v>2.6</v>
       </c>
       <c r="J80" t="n">
-        <v>2.92</v>
+        <v>2.95</v>
       </c>
       <c r="K80" t="n">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="L80" t="n">
-        <v>3</v>
+        <v>3.15</v>
       </c>
       <c r="M80" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="N80" t="n">
-        <v>9</v>
+        <v>8.25</v>
       </c>
       <c r="O80" t="n">
-        <v>1.17</v>
+        <v>1.21</v>
       </c>
       <c r="P80" t="n">
-        <v>4.5</v>
+        <v>3.95</v>
       </c>
       <c r="Q80" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="R80" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="S80" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="T80" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="U80" t="n">
         <v>1.52</v>
       </c>
-      <c r="R80" t="n">
+      <c r="V80" t="n">
         <v>2.37</v>
       </c>
-      <c r="S80" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="T80" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="U80" t="n">
-        <v>1.45</v>
-      </c>
-      <c r="V80" t="n">
-        <v>2.57</v>
-      </c>
       <c r="W80" t="n">
-        <v>12.5</v>
+        <v>11.25</v>
       </c>
       <c r="X80" t="n">
         <v>15.5</v>
       </c>
       <c r="Y80" t="n">
+        <v>9.25</v>
+      </c>
+      <c r="Z80" t="n">
+        <v>29</v>
+      </c>
+      <c r="AA80" t="n">
+        <v>18</v>
+      </c>
+      <c r="AB80" t="n">
+        <v>21</v>
+      </c>
+      <c r="AC80" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="AD80" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="AE80" t="n">
+        <v>11.25</v>
+      </c>
+      <c r="AF80" t="n">
+        <v>40</v>
+      </c>
+      <c r="AG80" t="n">
+        <v>250</v>
+      </c>
+      <c r="AH80" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AI80" t="n">
+        <v>15</v>
+      </c>
+      <c r="AJ80" t="n">
         <v>9.5</v>
-      </c>
-      <c r="Z80" t="n">
-        <v>28</v>
-      </c>
-      <c r="AA80" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="AB80" t="n">
-        <v>20</v>
-      </c>
-      <c r="AC80" t="n">
-        <v>9</v>
-      </c>
-      <c r="AD80" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AE80" t="n">
-        <v>11</v>
-      </c>
-      <c r="AF80" t="n">
-        <v>32</v>
-      </c>
-      <c r="AG80" t="n">
-        <v>175</v>
-      </c>
-      <c r="AH80" t="n">
-        <v>13</v>
-      </c>
-      <c r="AI80" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="AJ80" t="n">
-        <v>9.75</v>
       </c>
       <c r="AK80" t="n">
         <v>30</v>
       </c>
       <c r="AL80" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="AM80" t="n">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="AN80" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="AO80" t="n">
+        <v>13</v>
+      </c>
+      <c r="AP80" t="n">
+        <v>17</v>
+      </c>
+      <c r="AQ80" t="n">
+        <v>50</v>
+      </c>
+      <c r="AR80" t="n">
+        <v>65</v>
+      </c>
+      <c r="AS80" t="n">
+        <v>175</v>
+      </c>
+      <c r="AT80" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="AU80" t="n">
+        <v>6.3</v>
+      </c>
+      <c r="AV80" t="n">
+        <v>45</v>
+      </c>
+      <c r="AW80" t="n">
         <v>4.8</v>
       </c>
-      <c r="AO80" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AP80" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="AQ80" t="n">
-        <v>45</v>
-      </c>
-      <c r="AR80" t="n">
+      <c r="AX80" t="n">
+        <v>14</v>
+      </c>
+      <c r="AY80" t="n">
+        <v>19</v>
+      </c>
+      <c r="AZ80" t="n">
         <v>60</v>
       </c>
-      <c r="AS80" t="n">
-        <v>150</v>
-      </c>
-      <c r="AT80" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="AU80" t="n">
-        <v>6.2</v>
-      </c>
-      <c r="AV80" t="n">
-        <v>40</v>
-      </c>
-      <c r="AW80" t="n">
-        <v>4.9</v>
-      </c>
-      <c r="AX80" t="n">
-        <v>13</v>
-      </c>
-      <c r="AY80" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="AZ80" t="n">
-        <v>50</v>
-      </c>
       <c r="BA80" t="n">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="BB80" t="n">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="BC80" t="n">
         <v>500</v>
@@ -15125,22 +15125,22 @@
         </is>
       </c>
       <c r="G81" t="n">
-        <v>1.95</v>
+        <v>1.98</v>
       </c>
       <c r="H81" t="n">
-        <v>3.7</v>
+        <v>3.6</v>
       </c>
       <c r="I81" t="n">
         <v>3.35</v>
       </c>
       <c r="J81" t="n">
-        <v>2.5</v>
+        <v>2.52</v>
       </c>
       <c r="K81" t="n">
-        <v>2.3</v>
+        <v>2.27</v>
       </c>
       <c r="L81" t="n">
-        <v>3.7</v>
+        <v>3.65</v>
       </c>
       <c r="M81" t="n">
         <v>1.04</v>
@@ -15152,28 +15152,28 @@
         <v>1.19</v>
       </c>
       <c r="P81" t="n">
-        <v>4.2</v>
+        <v>4.15</v>
       </c>
       <c r="Q81" t="n">
-        <v>1.57</v>
+        <v>1.6</v>
       </c>
       <c r="R81" t="n">
-        <v>2.25</v>
+        <v>2.22</v>
       </c>
       <c r="S81" t="n">
         <v>1.31</v>
       </c>
       <c r="T81" t="n">
-        <v>3.2</v>
+        <v>3.15</v>
       </c>
       <c r="U81" t="n">
-        <v>1.53</v>
+        <v>1.52</v>
       </c>
       <c r="V81" t="n">
-        <v>2.35</v>
+        <v>2.37</v>
       </c>
       <c r="W81" t="n">
-        <v>10</v>
+        <v>9.75</v>
       </c>
       <c r="X81" t="n">
         <v>11.25</v>
@@ -15188,13 +15188,13 @@
         <v>14</v>
       </c>
       <c r="AB81" t="n">
-        <v>19.5</v>
+        <v>20</v>
       </c>
       <c r="AC81" t="n">
         <v>8.75</v>
       </c>
       <c r="AD81" t="n">
-        <v>7.4</v>
+        <v>7.3</v>
       </c>
       <c r="AE81" t="n">
         <v>11.75</v>
@@ -15209,40 +15209,40 @@
         <v>14</v>
       </c>
       <c r="AI81" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AJ81" t="n">
         <v>11.5</v>
       </c>
       <c r="AK81" t="n">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="AL81" t="n">
+        <v>25</v>
+      </c>
+      <c r="AM81" t="n">
         <v>26</v>
-      </c>
-      <c r="AM81" t="n">
-        <v>27</v>
       </c>
       <c r="AN81" t="n">
         <v>4.15</v>
       </c>
       <c r="AO81" t="n">
-        <v>9.75</v>
+        <v>10</v>
       </c>
       <c r="AP81" t="n">
-        <v>15.5</v>
+        <v>16</v>
       </c>
       <c r="AQ81" t="n">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="AR81" t="n">
         <v>55</v>
       </c>
       <c r="AS81" t="n">
-        <v>150</v>
+        <v>175</v>
       </c>
       <c r="AT81" t="n">
-        <v>3.2</v>
+        <v>3.15</v>
       </c>
       <c r="AU81" t="n">
         <v>6.5</v>
@@ -15257,10 +15257,10 @@
         <v>17.5</v>
       </c>
       <c r="AY81" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AZ81" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="BA81" t="n">
         <v>90</v>
@@ -15692,37 +15692,37 @@
         <v>1.01</v>
       </c>
       <c r="N84" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="O84" t="n">
         <v>1.2</v>
       </c>
       <c r="P84" t="n">
-        <v>3.65</v>
+        <v>3.6</v>
       </c>
       <c r="Q84" t="n">
-        <v>1.6</v>
+        <v>1.62</v>
       </c>
       <c r="R84" t="n">
-        <v>2.05</v>
+        <v>2.02</v>
       </c>
       <c r="S84" t="n">
         <v>1.31</v>
       </c>
       <c r="T84" t="n">
-        <v>3.3</v>
+        <v>3.27</v>
       </c>
       <c r="U84" t="n">
-        <v>2.12</v>
+        <v>2.15</v>
       </c>
       <c r="V84" t="n">
-        <v>1.57</v>
+        <v>1.55</v>
       </c>
       <c r="W84" t="n">
         <v>25</v>
       </c>
       <c r="X84" t="n">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="Y84" t="n">
         <v>32</v>
@@ -15752,22 +15752,22 @@
         <v>900</v>
       </c>
       <c r="AH84" t="n">
-        <v>6.8</v>
+        <v>6.6</v>
       </c>
       <c r="AI84" t="n">
-        <v>5.8</v>
+        <v>5.7</v>
       </c>
       <c r="AJ84" t="n">
         <v>9</v>
       </c>
       <c r="AK84" t="n">
-        <v>7.2</v>
+        <v>7.1</v>
       </c>
       <c r="AL84" t="n">
         <v>11.25</v>
       </c>
       <c r="AM84" t="n">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="AN84" t="n">
         <v>10.25</v>
@@ -15776,7 +15776,7 @@
         <v>60</v>
       </c>
       <c r="AP84" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AQ84" t="n">
         <v>500</v>
@@ -15797,7 +15797,7 @@
         <v>100</v>
       </c>
       <c r="AW84" t="n">
-        <v>3</v>
+        <v>2.95</v>
       </c>
       <c r="AX84" t="n">
         <v>5.3</v>
@@ -15856,19 +15856,19 @@
         <v>1.34</v>
       </c>
       <c r="H85" t="n">
-        <v>4.4</v>
+        <v>4.45</v>
       </c>
       <c r="I85" t="n">
-        <v>8</v>
+        <v>7.8</v>
       </c>
       <c r="J85" t="n">
         <v>1.82</v>
       </c>
       <c r="K85" t="n">
-        <v>2.37</v>
+        <v>2.4</v>
       </c>
       <c r="L85" t="n">
-        <v>7.2</v>
+        <v>7</v>
       </c>
       <c r="M85" t="n">
         <v>1.04</v>
@@ -15880,7 +15880,7 @@
         <v>1.22</v>
       </c>
       <c r="P85" t="n">
-        <v>3.85</v>
+        <v>3.8</v>
       </c>
       <c r="Q85" t="n">
         <v>1.7</v>
@@ -15889,16 +15889,16 @@
         <v>2.07</v>
       </c>
       <c r="S85" t="n">
-        <v>1.34</v>
+        <v>1.33</v>
       </c>
       <c r="T85" t="n">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="U85" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="V85" t="n">
-        <v>1.75</v>
+        <v>1.72</v>
       </c>
       <c r="W85" t="n">
         <v>6.9</v>
@@ -15907,25 +15907,25 @@
         <v>6.3</v>
       </c>
       <c r="Y85" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Z85" t="n">
         <v>8.25</v>
       </c>
-      <c r="Z85" t="n">
-        <v>8.5</v>
-      </c>
       <c r="AA85" t="n">
-        <v>11</v>
+        <v>11.25</v>
       </c>
       <c r="AB85" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AC85" t="n">
         <v>8.25</v>
       </c>
       <c r="AD85" t="n">
-        <v>9</v>
+        <v>9.25</v>
       </c>
       <c r="AE85" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AF85" t="n">
         <v>100</v>
@@ -15934,16 +15934,16 @@
         <v>800</v>
       </c>
       <c r="AH85" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AI85" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AJ85" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AK85" t="n">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="AL85" t="n">
         <v>100</v>
@@ -15955,7 +15955,7 @@
         <v>3.15</v>
       </c>
       <c r="AO85" t="n">
-        <v>6.1</v>
+        <v>6</v>
       </c>
       <c r="AP85" t="n">
         <v>16.5</v>
@@ -15970,7 +15970,7 @@
         <v>250</v>
       </c>
       <c r="AT85" t="n">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="AU85" t="n">
         <v>8.5</v>
@@ -15982,7 +15982,7 @@
         <v>9</v>
       </c>
       <c r="AX85" t="n">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="AY85" t="n">
         <v>45</v>
@@ -16035,22 +16035,22 @@
         </is>
       </c>
       <c r="G86" t="n">
-        <v>2.05</v>
+        <v>2.07</v>
       </c>
       <c r="H86" t="n">
         <v>3</v>
       </c>
       <c r="I86" t="n">
-        <v>3.55</v>
+        <v>3.5</v>
       </c>
       <c r="J86" t="n">
-        <v>2.62</v>
+        <v>2.7</v>
       </c>
       <c r="K86" t="n">
         <v>2.02</v>
       </c>
       <c r="L86" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="M86" t="n">
         <v>1.09</v>
@@ -16071,7 +16071,7 @@
         <v>1.65</v>
       </c>
       <c r="S86" t="n">
-        <v>1.44</v>
+        <v>1.45</v>
       </c>
       <c r="T86" t="n">
         <v>2.57</v>
@@ -16083,31 +16083,31 @@
         <v>1.83</v>
       </c>
       <c r="W86" t="n">
-        <v>6.7</v>
+        <v>6.6</v>
       </c>
       <c r="X86" t="n">
         <v>9.5</v>
       </c>
       <c r="Y86" t="n">
-        <v>8.5</v>
+        <v>8.75</v>
       </c>
       <c r="Z86" t="n">
-        <v>19.5</v>
+        <v>20</v>
       </c>
       <c r="AA86" t="n">
-        <v>17.5</v>
+        <v>18</v>
       </c>
       <c r="AB86" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="AC86" t="n">
         <v>6.2</v>
       </c>
       <c r="AD86" t="n">
-        <v>6</v>
+        <v>5.9</v>
       </c>
       <c r="AE86" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="AF86" t="n">
         <v>80</v>
@@ -16116,10 +16116,10 @@
         <v>700</v>
       </c>
       <c r="AH86" t="n">
-        <v>8.75</v>
+        <v>9</v>
       </c>
       <c r="AI86" t="n">
-        <v>18.5</v>
+        <v>18</v>
       </c>
       <c r="AJ86" t="n">
         <v>12.5</v>
@@ -16128,25 +16128,25 @@
         <v>55</v>
       </c>
       <c r="AL86" t="n">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="AM86" t="n">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="AN86" t="n">
-        <v>3.9</v>
+        <v>3.95</v>
       </c>
       <c r="AO86" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="AP86" t="n">
-        <v>19</v>
+        <v>19.5</v>
       </c>
       <c r="AQ86" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="AR86" t="n">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="AS86" t="n">
         <v>250</v>
@@ -16161,19 +16161,19 @@
         <v>65</v>
       </c>
       <c r="AW86" t="n">
-        <v>5.5</v>
+        <v>5.4</v>
       </c>
       <c r="AX86" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AY86" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AZ86" t="n">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="BA86" t="n">
-        <v>175</v>
+        <v>150</v>
       </c>
       <c r="BB86" t="n">
         <v>400</v>
@@ -16217,19 +16217,19 @@
         </is>
       </c>
       <c r="G87" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="H87" t="n">
-        <v>5.6</v>
+        <v>5.5</v>
       </c>
       <c r="I87" t="n">
         <v>1.21</v>
       </c>
       <c r="J87" t="n">
-        <v>8.75</v>
+        <v>9</v>
       </c>
       <c r="K87" t="n">
-        <v>2.7</v>
+        <v>2.67</v>
       </c>
       <c r="L87" t="n">
         <v>1.6</v>
@@ -16256,7 +16256,7 @@
         <v>1.28</v>
       </c>
       <c r="T87" t="n">
-        <v>3.4</v>
+        <v>3.35</v>
       </c>
       <c r="U87" t="n">
         <v>2.1</v>
@@ -16271,13 +16271,13 @@
         <v>90</v>
       </c>
       <c r="Y87" t="n">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="Z87" t="n">
         <v>400</v>
       </c>
       <c r="AA87" t="n">
-        <v>150</v>
+        <v>175</v>
       </c>
       <c r="AB87" t="n">
         <v>120</v>
@@ -16304,22 +16304,22 @@
         <v>6.3</v>
       </c>
       <c r="AJ87" t="n">
-        <v>9.5</v>
+        <v>9.25</v>
       </c>
       <c r="AK87" t="n">
         <v>7.1</v>
       </c>
       <c r="AL87" t="n">
-        <v>10.75</v>
+        <v>10.5</v>
       </c>
       <c r="AM87" t="n">
         <v>30</v>
       </c>
       <c r="AN87" t="n">
-        <v>11</v>
+        <v>11.25</v>
       </c>
       <c r="AO87" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="AP87" t="n">
         <v>60</v>
@@ -16334,10 +16334,10 @@
         <v>51</v>
       </c>
       <c r="AT87" t="n">
-        <v>3.4</v>
+        <v>3.35</v>
       </c>
       <c r="AU87" t="n">
-        <v>9.75</v>
+        <v>9.5</v>
       </c>
       <c r="AV87" t="n">
         <v>90</v>
@@ -16349,7 +16349,7 @@
         <v>5.1</v>
       </c>
       <c r="AY87" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="AZ87" t="n">
         <v>12</v>

--- a/Jogos_da_Semana_FlashScore_2024-09-27.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-09-27.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BD87"/>
+  <dimension ref="A1:BD89"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -929,19 +929,19 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>1.4</v>
+        <v>1.42</v>
       </c>
       <c r="H3" t="n">
         <v>5</v>
       </c>
       <c r="I3" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="J3" t="n">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="K3" t="n">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="L3" t="n">
         <v>6.5</v>
@@ -950,13 +950,13 @@
         <v>1.03</v>
       </c>
       <c r="N3" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="O3" t="n">
-        <v>1.17</v>
+        <v>1.2</v>
       </c>
       <c r="P3" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="Q3" t="n">
         <v>1.57</v>
@@ -971,10 +971,10 @@
         <v>3.5</v>
       </c>
       <c r="U3" t="n">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="V3" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="W3" t="n">
         <v>8.5</v>
@@ -1001,7 +1001,7 @@
         <v>9.5</v>
       </c>
       <c r="AE3" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AF3" t="n">
         <v>51</v>
@@ -1010,16 +1010,16 @@
         <v>201</v>
       </c>
       <c r="AH3" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AI3" t="n">
         <v>41</v>
       </c>
       <c r="AJ3" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AK3" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AL3" t="n">
         <v>41</v>
@@ -1037,7 +1037,7 @@
         <v>15</v>
       </c>
       <c r="AQ3" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AR3" t="n">
         <v>41</v>
@@ -1055,7 +1055,7 @@
         <v>51</v>
       </c>
       <c r="AW3" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AX3" t="n">
         <v>34</v>
@@ -1123,34 +1123,34 @@
         <v>1.62</v>
       </c>
       <c r="K4" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="L4" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="M4" t="n">
         <v>1.01</v>
       </c>
       <c r="N4" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="O4" t="n">
-        <v>1.1</v>
+        <v>1.08</v>
       </c>
       <c r="P4" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="R4" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="S4" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="T4" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="U4" t="n">
         <v>1.62</v>
@@ -1159,10 +1159,10 @@
         <v>2.2</v>
       </c>
       <c r="W4" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="X4" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="Y4" t="n">
         <v>9.5</v>
@@ -1177,7 +1177,7 @@
         <v>19</v>
       </c>
       <c r="AC4" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AD4" t="n">
         <v>13</v>
@@ -1219,7 +1219,7 @@
         <v>13</v>
       </c>
       <c r="AQ4" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AR4" t="n">
         <v>26</v>
@@ -1228,7 +1228,7 @@
         <v>67</v>
       </c>
       <c r="AT4" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="AU4" t="n">
         <v>8.5</v>
@@ -1293,19 +1293,19 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="H5" t="n">
-        <v>5.5</v>
+        <v>5.75</v>
       </c>
       <c r="I5" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="J5" t="n">
         <v>1.8</v>
       </c>
       <c r="K5" t="n">
-        <v>2.6</v>
+        <v>2.63</v>
       </c>
       <c r="L5" t="n">
         <v>7</v>
@@ -1329,10 +1329,10 @@
         <v>2.38</v>
       </c>
       <c r="S5" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="T5" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="U5" t="n">
         <v>1.91</v>
@@ -1362,7 +1362,7 @@
         <v>17</v>
       </c>
       <c r="AD5" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AE5" t="n">
         <v>21</v>
@@ -1371,10 +1371,10 @@
         <v>51</v>
       </c>
       <c r="AG5" t="n">
-        <v>301</v>
+        <v>251</v>
       </c>
       <c r="AH5" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AI5" t="n">
         <v>41</v>
@@ -1389,31 +1389,31 @@
         <v>51</v>
       </c>
       <c r="AM5" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AN5" t="n">
         <v>3.4</v>
       </c>
       <c r="AO5" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AP5" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AQ5" t="n">
         <v>17</v>
       </c>
       <c r="AR5" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AS5" t="n">
         <v>101</v>
       </c>
       <c r="AT5" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="AU5" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AV5" t="n">
         <v>51</v>
@@ -1499,16 +1499,16 @@
         <v>17</v>
       </c>
       <c r="O6" t="n">
-        <v>1.14</v>
+        <v>1.17</v>
       </c>
       <c r="P6" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="R6" t="n">
-        <v>2.4</v>
+        <v>2.35</v>
       </c>
       <c r="S6" t="n">
         <v>1.29</v>
@@ -1681,16 +1681,16 @@
         <v>6</v>
       </c>
       <c r="O7" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="P7" t="n">
-        <v>2.3</v>
+        <v>2.38</v>
       </c>
       <c r="Q7" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="R7" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="S7" t="n">
         <v>1.62</v>
@@ -1839,7 +1839,7 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>1.91</v>
+        <v>1.93</v>
       </c>
       <c r="H8" t="n">
         <v>3.55</v>
@@ -1863,7 +1863,7 @@
         <v>7.5</v>
       </c>
       <c r="O8" t="n">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="P8" t="n">
         <v>3.3</v>
@@ -1872,7 +1872,7 @@
         <v>1.87</v>
       </c>
       <c r="R8" t="n">
-        <v>1.87</v>
+        <v>1.88</v>
       </c>
       <c r="S8" t="n">
         <v>1.4</v>
@@ -1884,19 +1884,19 @@
         <v>1.75</v>
       </c>
       <c r="V8" t="n">
-        <v>1.95</v>
+        <v>1.98</v>
       </c>
       <c r="W8" t="n">
-        <v>7.4</v>
+        <v>7.5</v>
       </c>
       <c r="X8" t="n">
-        <v>9</v>
+        <v>9.25</v>
       </c>
       <c r="Y8" t="n">
         <v>8.5</v>
       </c>
       <c r="Z8" t="n">
-        <v>16</v>
+        <v>16.5</v>
       </c>
       <c r="AA8" t="n">
         <v>15</v>
@@ -1926,7 +1926,7 @@
         <v>19.5</v>
       </c>
       <c r="AJ8" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AK8" t="n">
         <v>50</v>
@@ -1962,7 +1962,7 @@
         <v>7.3</v>
       </c>
       <c r="AV8" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AW8" t="n">
         <v>5.5</v>
@@ -2024,7 +2024,7 @@
         <v>3</v>
       </c>
       <c r="H9" t="n">
-        <v>3.75</v>
+        <v>3.7</v>
       </c>
       <c r="I9" t="n">
         <v>2.1</v>
@@ -2048,7 +2048,7 @@
         <v>1.22</v>
       </c>
       <c r="P9" t="n">
-        <v>3.9</v>
+        <v>3.85</v>
       </c>
       <c r="Q9" t="n">
         <v>1.65</v>
@@ -2057,10 +2057,10 @@
         <v>2.15</v>
       </c>
       <c r="S9" t="n">
-        <v>1.33</v>
+        <v>1.32</v>
       </c>
       <c r="T9" t="n">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="U9" t="n">
         <v>1.6</v>
@@ -2069,7 +2069,7 @@
         <v>2.2</v>
       </c>
       <c r="W9" t="n">
-        <v>11.75</v>
+        <v>11.5</v>
       </c>
       <c r="X9" t="n">
         <v>17</v>
@@ -2090,7 +2090,7 @@
         <v>8.5</v>
       </c>
       <c r="AD9" t="n">
-        <v>7.4</v>
+        <v>7.3</v>
       </c>
       <c r="AE9" t="n">
         <v>13</v>
@@ -2138,31 +2138,31 @@
         <v>250</v>
       </c>
       <c r="AT9" t="n">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="AU9" t="n">
-        <v>6.9</v>
+        <v>6.8</v>
       </c>
       <c r="AV9" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AW9" t="n">
-        <v>4.15</v>
+        <v>4.2</v>
       </c>
       <c r="AX9" t="n">
         <v>10.5</v>
       </c>
       <c r="AY9" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="AZ9" t="n">
         <v>37</v>
       </c>
       <c r="BA9" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="BB9" t="n">
-        <v>200</v>
+        <v>175</v>
       </c>
       <c r="BC9" t="n">
         <v>81</v>
@@ -2203,7 +2203,7 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>2.85</v>
+        <v>2.82</v>
       </c>
       <c r="H10" t="n">
         <v>3.7</v>
@@ -2212,7 +2212,7 @@
         <v>2.18</v>
       </c>
       <c r="J10" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="K10" t="n">
         <v>2.32</v>
@@ -2230,7 +2230,7 @@
         <v>1.19</v>
       </c>
       <c r="P10" t="n">
-        <v>4.2</v>
+        <v>4.15</v>
       </c>
       <c r="Q10" t="n">
         <v>1.57</v>
@@ -2245,16 +2245,16 @@
         <v>3.2</v>
       </c>
       <c r="U10" t="n">
-        <v>1.52</v>
+        <v>1.53</v>
       </c>
       <c r="V10" t="n">
-        <v>2.37</v>
+        <v>2.35</v>
       </c>
       <c r="W10" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="X10" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="Y10" t="n">
         <v>10.5</v>
@@ -2299,7 +2299,7 @@
         <v>15.5</v>
       </c>
       <c r="AM10" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AN10" t="n">
         <v>5.1</v>
@@ -2323,7 +2323,7 @@
         <v>3.2</v>
       </c>
       <c r="AU10" t="n">
-        <v>6.5</v>
+        <v>6.6</v>
       </c>
       <c r="AV10" t="n">
         <v>45</v>
@@ -2335,16 +2335,16 @@
         <v>10.75</v>
       </c>
       <c r="AY10" t="n">
-        <v>16</v>
+        <v>16.5</v>
       </c>
       <c r="AZ10" t="n">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="BA10" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="BB10" t="n">
-        <v>150</v>
+        <v>175</v>
       </c>
       <c r="BC10" t="n">
         <v>500</v>
@@ -2388,10 +2388,10 @@
         <v>2.67</v>
       </c>
       <c r="H11" t="n">
-        <v>3.85</v>
+        <v>3.9</v>
       </c>
       <c r="I11" t="n">
-        <v>2.25</v>
+        <v>2.22</v>
       </c>
       <c r="J11" t="n">
         <v>3.1</v>
@@ -2406,19 +2406,19 @@
         <v>1.03</v>
       </c>
       <c r="N11" t="n">
-        <v>9.25</v>
+        <v>9.5</v>
       </c>
       <c r="O11" t="n">
-        <v>1.17</v>
+        <v>1.16</v>
       </c>
       <c r="P11" t="n">
-        <v>4.45</v>
+        <v>4.6</v>
       </c>
       <c r="Q11" t="n">
-        <v>1.52</v>
+        <v>1.5</v>
       </c>
       <c r="R11" t="n">
-        <v>2.37</v>
+        <v>2.42</v>
       </c>
       <c r="S11" t="n">
         <v>1.27</v>
@@ -2427,22 +2427,22 @@
         <v>3.4</v>
       </c>
       <c r="U11" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="V11" t="n">
-        <v>2.42</v>
+        <v>2.5</v>
       </c>
       <c r="W11" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="X11" t="n">
-        <v>16.5</v>
+        <v>17</v>
       </c>
       <c r="Y11" t="n">
         <v>10.25</v>
       </c>
       <c r="Z11" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AA11" t="n">
         <v>19</v>
@@ -2451,10 +2451,10 @@
         <v>22</v>
       </c>
       <c r="AC11" t="n">
-        <v>9.25</v>
+        <v>9.5</v>
       </c>
       <c r="AD11" t="n">
-        <v>7.9</v>
+        <v>8</v>
       </c>
       <c r="AE11" t="n">
         <v>11.75</v>
@@ -2466,10 +2466,10 @@
         <v>200</v>
       </c>
       <c r="AH11" t="n">
-        <v>11.75</v>
+        <v>12</v>
       </c>
       <c r="AI11" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="AJ11" t="n">
         <v>9.25</v>
@@ -2481,25 +2481,25 @@
         <v>15.5</v>
       </c>
       <c r="AM11" t="n">
-        <v>20</v>
+        <v>19.5</v>
       </c>
       <c r="AN11" t="n">
         <v>5</v>
       </c>
       <c r="AO11" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AP11" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="AQ11" t="n">
         <v>50</v>
       </c>
       <c r="AR11" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AS11" t="n">
-        <v>175</v>
+        <v>150</v>
       </c>
       <c r="AT11" t="n">
         <v>3.4</v>
@@ -2508,7 +2508,7 @@
         <v>6.5</v>
       </c>
       <c r="AV11" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="AW11" t="n">
         <v>4.55</v>
@@ -2517,13 +2517,13 @@
         <v>11</v>
       </c>
       <c r="AY11" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="AZ11" t="n">
         <v>37</v>
       </c>
       <c r="BA11" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="BB11" t="n">
         <v>150</v>
@@ -2576,13 +2576,13 @@
         <v>7.6</v>
       </c>
       <c r="J12" t="n">
-        <v>1.7</v>
+        <v>1.72</v>
       </c>
       <c r="K12" t="n">
         <v>2.72</v>
       </c>
       <c r="L12" t="n">
-        <v>6.4</v>
+        <v>6.3</v>
       </c>
       <c r="M12" t="n">
         <v>1.02</v>
@@ -2600,7 +2600,7 @@
         <v>1.42</v>
       </c>
       <c r="R12" t="n">
-        <v>2.65</v>
+        <v>2.67</v>
       </c>
       <c r="S12" t="n">
         <v>1.22</v>
@@ -2624,7 +2624,7 @@
         <v>8.5</v>
       </c>
       <c r="Z12" t="n">
-        <v>9.5</v>
+        <v>9.25</v>
       </c>
       <c r="AA12" t="n">
         <v>10</v>
@@ -2636,10 +2636,10 @@
         <v>9.75</v>
       </c>
       <c r="AD12" t="n">
-        <v>10.5</v>
+        <v>10.75</v>
       </c>
       <c r="AE12" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="AF12" t="n">
         <v>60</v>
@@ -2648,7 +2648,7 @@
         <v>350</v>
       </c>
       <c r="AH12" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AI12" t="n">
         <v>60</v>
@@ -2660,7 +2660,7 @@
         <v>175</v>
       </c>
       <c r="AL12" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="AM12" t="n">
         <v>55</v>
@@ -2678,7 +2678,7 @@
         <v>13.5</v>
       </c>
       <c r="AR12" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AS12" t="n">
         <v>120</v>
@@ -2687,7 +2687,7 @@
         <v>3.8</v>
       </c>
       <c r="AU12" t="n">
-        <v>7.6</v>
+        <v>7.5</v>
       </c>
       <c r="AV12" t="n">
         <v>50</v>
@@ -2696,7 +2696,7 @@
         <v>9.25</v>
       </c>
       <c r="AX12" t="n">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="AY12" t="n">
         <v>32</v>
@@ -2705,7 +2705,7 @@
         <v>250</v>
       </c>
       <c r="BA12" t="n">
-        <v>200</v>
+        <v>175</v>
       </c>
       <c r="BB12" t="n">
         <v>300</v>
@@ -3853,7 +3853,7 @@
         <v>2.5</v>
       </c>
       <c r="K19" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="L19" t="n">
         <v>5</v>
@@ -3865,28 +3865,28 @@
         <v>8</v>
       </c>
       <c r="O19" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="P19" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="Q19" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="R19" t="n">
-        <v>1.62</v>
+        <v>1.65</v>
       </c>
       <c r="S19" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="T19" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="U19" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="V19" t="n">
-        <v>1.67</v>
+        <v>1.73</v>
       </c>
       <c r="W19" t="n">
         <v>6</v>
@@ -3943,7 +3943,7 @@
         <v>3.6</v>
       </c>
       <c r="AO19" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AP19" t="n">
         <v>23</v>
@@ -3958,7 +3958,7 @@
         <v>201</v>
       </c>
       <c r="AT19" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="AU19" t="n">
         <v>9</v>
@@ -3967,13 +3967,13 @@
         <v>67</v>
       </c>
       <c r="AW19" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AX19" t="n">
         <v>26</v>
       </c>
       <c r="AY19" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AZ19" t="n">
         <v>101</v>
@@ -3982,7 +3982,7 @@
         <v>126</v>
       </c>
       <c r="BB19" t="n">
-        <v>351</v>
+        <v>301</v>
       </c>
       <c r="BC19" t="n">
         <v>51</v>
@@ -4023,28 +4023,28 @@
         </is>
       </c>
       <c r="G20" t="n">
-        <v>2.8</v>
+        <v>2.7</v>
       </c>
       <c r="H20" t="n">
         <v>3</v>
       </c>
       <c r="I20" t="n">
-        <v>2.7</v>
+        <v>2.8</v>
       </c>
       <c r="J20" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="K20" t="n">
         <v>1.91</v>
       </c>
       <c r="L20" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="M20" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="N20" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="O20" t="n">
         <v>1.5</v>
@@ -4071,7 +4071,7 @@
         <v>1.67</v>
       </c>
       <c r="W20" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="X20" t="n">
         <v>12</v>
@@ -4080,10 +4080,10 @@
         <v>11</v>
       </c>
       <c r="Z20" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AA20" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AB20" t="n">
         <v>41</v>
@@ -4104,7 +4104,7 @@
         <v>1000</v>
       </c>
       <c r="AH20" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AI20" t="n">
         <v>12</v>
@@ -4113,22 +4113,22 @@
         <v>11</v>
       </c>
       <c r="AK20" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AL20" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AM20" t="n">
         <v>41</v>
       </c>
       <c r="AN20" t="n">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="AO20" t="n">
         <v>17</v>
       </c>
       <c r="AP20" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AQ20" t="n">
         <v>51</v>
@@ -4149,13 +4149,13 @@
         <v>67</v>
       </c>
       <c r="AW20" t="n">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="AX20" t="n">
         <v>17</v>
       </c>
       <c r="AY20" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AZ20" t="n">
         <v>51</v>
@@ -4205,55 +4205,55 @@
         </is>
       </c>
       <c r="G21" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="H21" t="n">
         <v>3.2</v>
       </c>
       <c r="I21" t="n">
-        <v>4</v>
+        <v>3.9</v>
       </c>
       <c r="J21" t="n">
-        <v>2.88</v>
+        <v>2.75</v>
       </c>
       <c r="K21" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="L21" t="n">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="M21" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="N21" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="O21" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="P21" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="Q21" t="n">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="R21" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="S21" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="T21" t="n">
-        <v>2.25</v>
+        <v>2.38</v>
       </c>
       <c r="U21" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="V21" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="W21" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="X21" t="n">
         <v>8.5</v>
@@ -4265,28 +4265,28 @@
         <v>17</v>
       </c>
       <c r="AA21" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AB21" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AC21" t="n">
+        <v>7</v>
+      </c>
+      <c r="AD21" t="n">
         <v>6.5</v>
-      </c>
-      <c r="AD21" t="n">
-        <v>6</v>
       </c>
       <c r="AE21" t="n">
         <v>19</v>
       </c>
       <c r="AF21" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AG21" t="n">
         <v>900</v>
       </c>
       <c r="AH21" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AI21" t="n">
         <v>19</v>
@@ -4298,13 +4298,13 @@
         <v>41</v>
       </c>
       <c r="AL21" t="n">
+        <v>34</v>
+      </c>
+      <c r="AM21" t="n">
         <v>41</v>
       </c>
-      <c r="AM21" t="n">
-        <v>51</v>
-      </c>
       <c r="AN21" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="AO21" t="n">
         <v>12</v>
@@ -4316,19 +4316,19 @@
         <v>41</v>
       </c>
       <c r="AR21" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AS21" t="n">
         <v>251</v>
       </c>
       <c r="AT21" t="n">
-        <v>2.25</v>
+        <v>2.38</v>
       </c>
       <c r="AU21" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AV21" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AW21" t="n">
         <v>5.5</v>
@@ -4337,7 +4337,7 @@
         <v>23</v>
       </c>
       <c r="AY21" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AZ21" t="n">
         <v>81</v>
@@ -4781,10 +4781,10 @@
         <v>3.75</v>
       </c>
       <c r="Q24" t="n">
-        <v>1.85</v>
+        <v>1.88</v>
       </c>
       <c r="R24" t="n">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="S24" t="n">
         <v>1.36</v>
@@ -5118,7 +5118,7 @@
         <v>3.9</v>
       </c>
       <c r="H26" t="n">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="I26" t="n">
         <v>1.9</v>
@@ -5145,28 +5145,28 @@
         <v>4.5</v>
       </c>
       <c r="Q26" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="R26" t="n">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="S26" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="T26" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="U26" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="V26" t="n">
-        <v>2.25</v>
+        <v>2.38</v>
       </c>
       <c r="W26" t="n">
         <v>15</v>
       </c>
       <c r="X26" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="Y26" t="n">
         <v>13</v>
@@ -5175,7 +5175,7 @@
         <v>41</v>
       </c>
       <c r="AA26" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AB26" t="n">
         <v>29</v>
@@ -5184,7 +5184,7 @@
         <v>15</v>
       </c>
       <c r="AD26" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AE26" t="n">
         <v>12</v>
@@ -5196,7 +5196,7 @@
         <v>126</v>
       </c>
       <c r="AH26" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AI26" t="n">
         <v>11</v>
@@ -5232,7 +5232,7 @@
         <v>126</v>
       </c>
       <c r="AT26" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="AU26" t="n">
         <v>7</v>
@@ -5259,7 +5259,7 @@
         <v>101</v>
       </c>
       <c r="BC26" t="n">
-        <v>401</v>
+        <v>351</v>
       </c>
       <c r="BD26" t="n">
         <v>151</v>
@@ -5300,19 +5300,19 @@
         <v>1.11</v>
       </c>
       <c r="H27" t="n">
-        <v>6.7</v>
+        <v>6.5</v>
       </c>
       <c r="I27" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="J27" t="n">
-        <v>1.4</v>
+        <v>1.39</v>
       </c>
       <c r="K27" t="n">
-        <v>3.05</v>
+        <v>3</v>
       </c>
       <c r="L27" t="n">
-        <v>11.25</v>
+        <v>13</v>
       </c>
       <c r="M27" t="n">
         <v>1.01</v>
@@ -5324,7 +5324,7 @@
         <v>1.04</v>
       </c>
       <c r="P27" t="n">
-        <v>6.6</v>
+        <v>6.45</v>
       </c>
       <c r="Q27" t="n">
         <v>1.25</v>
@@ -5336,22 +5336,22 @@
         <v>1.17</v>
       </c>
       <c r="T27" t="n">
-        <v>4.7</v>
+        <v>4.65</v>
       </c>
       <c r="U27" t="n">
-        <v>2.04</v>
+        <v>2.03</v>
       </c>
       <c r="V27" t="n">
-        <v>1.74</v>
+        <v>1.75</v>
       </c>
       <c r="W27" t="n">
+        <v>9</v>
+      </c>
+      <c r="X27" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="Y27" t="n">
         <v>9.25</v>
-      </c>
-      <c r="X27" t="n">
-        <v>6.3</v>
-      </c>
-      <c r="Y27" t="n">
-        <v>9.5</v>
       </c>
       <c r="Z27" t="n">
         <v>5.9</v>
@@ -5363,13 +5363,13 @@
         <v>24</v>
       </c>
       <c r="AC27" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="AD27" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="AE27" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AF27" t="n">
         <v>90</v>
@@ -5381,19 +5381,19 @@
         <v>55</v>
       </c>
       <c r="AI27" t="n">
-        <v>175</v>
+        <v>200</v>
       </c>
       <c r="AJ27" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="AK27" t="n">
         <v>500</v>
       </c>
       <c r="AL27" t="n">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="AM27" t="n">
-        <v>110</v>
+        <v>150</v>
       </c>
       <c r="AN27" t="n">
         <v>3.2</v>
@@ -5414,22 +5414,22 @@
         <v>150</v>
       </c>
       <c r="AT27" t="n">
-        <v>4.4</v>
+        <v>4.2</v>
       </c>
       <c r="AU27" t="n">
-        <v>9.75</v>
+        <v>10</v>
       </c>
       <c r="AV27" t="n">
         <v>75</v>
       </c>
       <c r="AW27" t="n">
-        <v>16.5</v>
+        <v>18</v>
       </c>
       <c r="AX27" t="n">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="AY27" t="n">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="AZ27" t="n">
         <v>500</v>
@@ -5479,13 +5479,13 @@
         </is>
       </c>
       <c r="G28" t="n">
-        <v>1.67</v>
+        <v>1.65</v>
       </c>
       <c r="H28" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="I28" t="n">
-        <v>4.2</v>
+        <v>4.33</v>
       </c>
       <c r="J28" t="n">
         <v>2.25</v>
@@ -5503,22 +5503,22 @@
         <v>15</v>
       </c>
       <c r="O28" t="n">
-        <v>1.17</v>
+        <v>1.18</v>
       </c>
       <c r="P28" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="Q28" t="n">
-        <v>1.57</v>
+        <v>1.6</v>
       </c>
       <c r="R28" t="n">
-        <v>2.35</v>
+        <v>2.3</v>
       </c>
       <c r="S28" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="T28" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="U28" t="n">
         <v>1.62</v>
@@ -5527,7 +5527,7 @@
         <v>2.2</v>
       </c>
       <c r="W28" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="X28" t="n">
         <v>9.5</v>
@@ -5536,10 +5536,10 @@
         <v>8.5</v>
       </c>
       <c r="Z28" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AA28" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AB28" t="n">
         <v>21</v>
@@ -5548,7 +5548,7 @@
         <v>15</v>
       </c>
       <c r="AD28" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AE28" t="n">
         <v>13</v>
@@ -5560,7 +5560,7 @@
         <v>151</v>
       </c>
       <c r="AH28" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AI28" t="n">
         <v>26</v>
@@ -5596,7 +5596,7 @@
         <v>101</v>
       </c>
       <c r="AT28" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="AU28" t="n">
         <v>7.5</v>
@@ -5608,7 +5608,7 @@
         <v>6.5</v>
       </c>
       <c r="AX28" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AY28" t="n">
         <v>26</v>
@@ -5623,7 +5623,7 @@
         <v>151</v>
       </c>
       <c r="BC28" t="n">
-        <v>451</v>
+        <v>401</v>
       </c>
       <c r="BD28" t="n">
         <v>81</v>
@@ -5682,7 +5682,7 @@
         <v>1.06</v>
       </c>
       <c r="N29" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="O29" t="n">
         <v>1.3</v>
@@ -5691,10 +5691,10 @@
         <v>3.4</v>
       </c>
       <c r="Q29" t="n">
-        <v>2.03</v>
+        <v>2.05</v>
       </c>
       <c r="R29" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="S29" t="n">
         <v>1.4</v>
@@ -5712,7 +5712,7 @@
         <v>8</v>
       </c>
       <c r="X29" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="Y29" t="n">
         <v>9.5</v>
@@ -5721,13 +5721,13 @@
         <v>23</v>
       </c>
       <c r="AA29" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AB29" t="n">
         <v>29</v>
       </c>
       <c r="AC29" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AD29" t="n">
         <v>6.5</v>
@@ -5799,10 +5799,10 @@
         <v>51</v>
       </c>
       <c r="BA29" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="BB29" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="BC29" t="n">
         <v>81</v>
@@ -5843,10 +5843,10 @@
         </is>
       </c>
       <c r="G30" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="H30" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="I30" t="n">
         <v>3.2</v>
@@ -5855,7 +5855,7 @@
         <v>3</v>
       </c>
       <c r="K30" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="L30" t="n">
         <v>3.75</v>
@@ -5891,7 +5891,7 @@
         <v>1.83</v>
       </c>
       <c r="W30" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="X30" t="n">
         <v>11</v>
@@ -5903,13 +5903,13 @@
         <v>21</v>
       </c>
       <c r="AA30" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AB30" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AC30" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AD30" t="n">
         <v>6</v>
@@ -5921,10 +5921,10 @@
         <v>51</v>
       </c>
       <c r="AG30" t="n">
-        <v>301</v>
+        <v>251</v>
       </c>
       <c r="AH30" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AI30" t="n">
         <v>15</v>
@@ -5936,10 +5936,10 @@
         <v>34</v>
       </c>
       <c r="AL30" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AM30" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AN30" t="n">
         <v>4.33</v>
@@ -5957,13 +5957,13 @@
         <v>67</v>
       </c>
       <c r="AS30" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="AT30" t="n">
         <v>2.63</v>
       </c>
       <c r="AU30" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AV30" t="n">
         <v>51</v>
@@ -6043,22 +6043,22 @@
         <v>3.6</v>
       </c>
       <c r="M31" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="N31" t="n">
-        <v>8.5</v>
+        <v>10</v>
       </c>
       <c r="O31" t="n">
-        <v>1.36</v>
+        <v>1.3</v>
       </c>
       <c r="P31" t="n">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="Q31" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="R31" t="n">
-        <v>1.7</v>
+        <v>1.75</v>
       </c>
       <c r="S31" t="n">
         <v>1.44</v>
@@ -6571,28 +6571,28 @@
         </is>
       </c>
       <c r="G34" t="n">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="H34" t="n">
         <v>2.9</v>
       </c>
       <c r="I34" t="n">
-        <v>2.35</v>
+        <v>2.3</v>
       </c>
       <c r="J34" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="K34" t="n">
         <v>2</v>
       </c>
       <c r="L34" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="M34" t="n">
         <v>1.08</v>
       </c>
       <c r="N34" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="O34" t="n">
         <v>1.4</v>
@@ -6625,7 +6625,7 @@
         <v>15</v>
       </c>
       <c r="Y34" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="Z34" t="n">
         <v>34</v>
@@ -6655,13 +6655,13 @@
         <v>7</v>
       </c>
       <c r="AI34" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AJ34" t="n">
         <v>10</v>
       </c>
       <c r="AK34" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AL34" t="n">
         <v>21</v>
@@ -6679,10 +6679,10 @@
         <v>29</v>
       </c>
       <c r="AQ34" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AR34" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="AS34" t="n">
         <v>251</v>
@@ -6700,16 +6700,16 @@
         <v>4.33</v>
       </c>
       <c r="AX34" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AY34" t="n">
         <v>26</v>
       </c>
       <c r="AZ34" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="BA34" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="BB34" t="n">
         <v>201</v>
@@ -6753,22 +6753,22 @@
         </is>
       </c>
       <c r="G35" t="n">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="H35" t="n">
         <v>3.6</v>
       </c>
       <c r="I35" t="n">
-        <v>2.15</v>
+        <v>2.25</v>
       </c>
       <c r="J35" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="K35" t="n">
-        <v>2.38</v>
+        <v>2.4</v>
       </c>
       <c r="L35" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="M35" t="n">
         <v>1.03</v>
@@ -6783,10 +6783,10 @@
         <v>5</v>
       </c>
       <c r="Q35" t="n">
-        <v>1.57</v>
+        <v>1.6</v>
       </c>
       <c r="R35" t="n">
-        <v>2.35</v>
+        <v>2.3</v>
       </c>
       <c r="S35" t="n">
         <v>1.29</v>
@@ -6801,25 +6801,25 @@
         <v>2.5</v>
       </c>
       <c r="W35" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="X35" t="n">
         <v>19</v>
       </c>
       <c r="Y35" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="Z35" t="n">
         <v>34</v>
       </c>
       <c r="AA35" t="n">
+        <v>21</v>
+      </c>
+      <c r="AB35" t="n">
         <v>23</v>
       </c>
-      <c r="AB35" t="n">
-        <v>26</v>
-      </c>
       <c r="AC35" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AD35" t="n">
         <v>7</v>
@@ -6840,7 +6840,7 @@
         <v>13</v>
       </c>
       <c r="AJ35" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AK35" t="n">
         <v>21</v>
@@ -6861,7 +6861,7 @@
         <v>21</v>
       </c>
       <c r="AQ35" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AR35" t="n">
         <v>51</v>
@@ -6879,10 +6879,10 @@
         <v>41</v>
       </c>
       <c r="AW35" t="n">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="AX35" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AY35" t="n">
         <v>17</v>
@@ -6891,7 +6891,7 @@
         <v>34</v>
       </c>
       <c r="BA35" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="BB35" t="n">
         <v>101</v>
@@ -7302,16 +7302,16 @@
         <v>1.85</v>
       </c>
       <c r="H38" t="n">
-        <v>3.9</v>
+        <v>3.75</v>
       </c>
       <c r="I38" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="J38" t="n">
         <v>2.5</v>
       </c>
       <c r="K38" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="L38" t="n">
         <v>4.33</v>
@@ -7323,34 +7323,34 @@
         <v>13</v>
       </c>
       <c r="O38" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="P38" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="Q38" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="R38" t="n">
+        <v>2</v>
+      </c>
+      <c r="S38" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="T38" t="n">
+        <v>3</v>
+      </c>
+      <c r="U38" t="n">
         <v>1.73</v>
       </c>
-      <c r="R38" t="n">
-        <v>2.08</v>
-      </c>
-      <c r="S38" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="T38" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="U38" t="n">
-        <v>1.67</v>
-      </c>
       <c r="V38" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="W38" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="X38" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="Y38" t="n">
         <v>8.5</v>
@@ -7362,10 +7362,10 @@
         <v>15</v>
       </c>
       <c r="AB38" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AC38" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AD38" t="n">
         <v>7.5</v>
@@ -7374,13 +7374,13 @@
         <v>15</v>
       </c>
       <c r="AF38" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AG38" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="AH38" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AI38" t="n">
         <v>21</v>
@@ -7401,25 +7401,25 @@
         <v>4</v>
       </c>
       <c r="AO38" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AP38" t="n">
         <v>19</v>
       </c>
       <c r="AQ38" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AR38" t="n">
         <v>51</v>
       </c>
       <c r="AS38" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="AT38" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="AU38" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AV38" t="n">
         <v>51</v>
@@ -7431,7 +7431,7 @@
         <v>21</v>
       </c>
       <c r="AY38" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AZ38" t="n">
         <v>67</v>
@@ -7484,19 +7484,19 @@
         <v>4.5</v>
       </c>
       <c r="H39" t="n">
-        <v>3.7</v>
+        <v>3.6</v>
       </c>
       <c r="I39" t="n">
-        <v>1.65</v>
+        <v>1.67</v>
       </c>
       <c r="J39" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="K39" t="n">
         <v>2.2</v>
       </c>
       <c r="L39" t="n">
-        <v>2.3</v>
+        <v>2.38</v>
       </c>
       <c r="M39" t="n">
         <v>1.05</v>
@@ -7505,16 +7505,16 @@
         <v>11</v>
       </c>
       <c r="O39" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="P39" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="Q39" t="n">
-        <v>2.03</v>
+        <v>2.05</v>
       </c>
       <c r="R39" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="S39" t="n">
         <v>1.4</v>
@@ -7547,10 +7547,10 @@
         <v>41</v>
       </c>
       <c r="AC39" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AD39" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AE39" t="n">
         <v>17</v>
@@ -7666,16 +7666,16 @@
         <v>2.8</v>
       </c>
       <c r="H40" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="I40" t="n">
         <v>2.1</v>
       </c>
       <c r="J40" t="n">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="K40" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="L40" t="n">
         <v>2.88</v>
@@ -7687,10 +7687,10 @@
         <v>11</v>
       </c>
       <c r="O40" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="P40" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="Q40" t="n">
         <v>1.98</v>
@@ -7699,19 +7699,19 @@
         <v>1.88</v>
       </c>
       <c r="S40" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="T40" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U40" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="V40" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="W40" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="X40" t="n">
         <v>15</v>
@@ -7723,13 +7723,13 @@
         <v>34</v>
       </c>
       <c r="AA40" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AB40" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AC40" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AD40" t="n">
         <v>7</v>
@@ -7741,13 +7741,13 @@
         <v>51</v>
       </c>
       <c r="AG40" t="n">
-        <v>251</v>
+        <v>201</v>
       </c>
       <c r="AH40" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AI40" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AJ40" t="n">
         <v>9</v>
@@ -7759,7 +7759,7 @@
         <v>17</v>
       </c>
       <c r="AM40" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AN40" t="n">
         <v>5</v>
@@ -7768,22 +7768,22 @@
         <v>17</v>
       </c>
       <c r="AP40" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AQ40" t="n">
         <v>51</v>
       </c>
       <c r="AR40" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AS40" t="n">
         <v>151</v>
       </c>
       <c r="AT40" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="AU40" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AV40" t="n">
         <v>51</v>
@@ -7807,7 +7807,7 @@
         <v>151</v>
       </c>
       <c r="BC40" t="n">
-        <v>81</v>
+        <v>501</v>
       </c>
       <c r="BD40" t="n">
         <v>81</v>
@@ -7866,7 +7866,7 @@
         <v>1.06</v>
       </c>
       <c r="N41" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="O41" t="n">
         <v>1.33</v>
@@ -8215,7 +8215,7 @@
         <v>3.9</v>
       </c>
       <c r="I43" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="J43" t="n">
         <v>2.3</v>
@@ -8239,10 +8239,10 @@
         <v>3.5</v>
       </c>
       <c r="Q43" t="n">
-        <v>1.88</v>
+        <v>1.9</v>
       </c>
       <c r="R43" t="n">
-        <v>1.98</v>
+        <v>1.95</v>
       </c>
       <c r="S43" t="n">
         <v>1.36</v>
@@ -8275,7 +8275,7 @@
         <v>26</v>
       </c>
       <c r="AC43" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AD43" t="n">
         <v>8</v>
@@ -8296,19 +8296,19 @@
         <v>23</v>
       </c>
       <c r="AJ43" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AK43" t="n">
         <v>51</v>
       </c>
       <c r="AL43" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AM43" t="n">
         <v>41</v>
       </c>
       <c r="AN43" t="n">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="AO43" t="n">
         <v>9</v>
@@ -8329,7 +8329,7 @@
         <v>3</v>
       </c>
       <c r="AU43" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AV43" t="n">
         <v>51</v>
@@ -8350,7 +8350,7 @@
         <v>101</v>
       </c>
       <c r="BB43" t="n">
-        <v>251</v>
+        <v>201</v>
       </c>
       <c r="BC43" t="n">
         <v>81</v>
@@ -8391,13 +8391,13 @@
         </is>
       </c>
       <c r="G44" t="n">
-        <v>2.35</v>
+        <v>2.4</v>
       </c>
       <c r="H44" t="n">
         <v>3.25</v>
       </c>
       <c r="I44" t="n">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="J44" t="n">
         <v>3.1</v>
@@ -8406,7 +8406,7 @@
         <v>2.05</v>
       </c>
       <c r="L44" t="n">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="M44" t="n">
         <v>1.07</v>
@@ -8454,10 +8454,10 @@
         <v>21</v>
       </c>
       <c r="AB44" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AC44" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AD44" t="n">
         <v>6</v>
@@ -8481,7 +8481,7 @@
         <v>11</v>
       </c>
       <c r="AK44" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AL44" t="n">
         <v>26</v>
@@ -8496,7 +8496,7 @@
         <v>13</v>
       </c>
       <c r="AP44" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AQ44" t="n">
         <v>41</v>
@@ -8517,13 +8517,13 @@
         <v>51</v>
       </c>
       <c r="AW44" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="AX44" t="n">
         <v>17</v>
       </c>
       <c r="AY44" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AZ44" t="n">
         <v>51</v>
@@ -8573,22 +8573,22 @@
         </is>
       </c>
       <c r="G45" t="n">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="H45" t="n">
         <v>3.6</v>
       </c>
       <c r="I45" t="n">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="J45" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="K45" t="n">
-        <v>2.3</v>
+        <v>2.38</v>
       </c>
       <c r="L45" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="M45" t="n">
         <v>1.03</v>
@@ -8603,34 +8603,34 @@
         <v>4.5</v>
       </c>
       <c r="Q45" t="n">
-        <v>1.65</v>
+        <v>1.62</v>
       </c>
       <c r="R45" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="S45" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="T45" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="U45" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="V45" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="W45" t="n">
+        <v>10</v>
+      </c>
+      <c r="X45" t="n">
+        <v>12</v>
+      </c>
+      <c r="Y45" t="n">
         <v>9</v>
       </c>
-      <c r="X45" t="n">
-        <v>11</v>
-      </c>
-      <c r="Y45" t="n">
-        <v>8.5</v>
-      </c>
       <c r="Z45" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AA45" t="n">
         <v>15</v>
@@ -8642,43 +8642,43 @@
         <v>15</v>
       </c>
       <c r="AD45" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AE45" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AF45" t="n">
         <v>41</v>
       </c>
       <c r="AG45" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="AH45" t="n">
         <v>13</v>
       </c>
       <c r="AI45" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AJ45" t="n">
         <v>12</v>
       </c>
       <c r="AK45" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AL45" t="n">
+        <v>23</v>
+      </c>
+      <c r="AM45" t="n">
         <v>26</v>
-      </c>
-      <c r="AM45" t="n">
-        <v>29</v>
       </c>
       <c r="AN45" t="n">
         <v>4.33</v>
       </c>
       <c r="AO45" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AP45" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AQ45" t="n">
         <v>34</v>
@@ -8690,10 +8690,10 @@
         <v>101</v>
       </c>
       <c r="AT45" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="AU45" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AV45" t="n">
         <v>41</v>
@@ -8702,10 +8702,10 @@
         <v>5.5</v>
       </c>
       <c r="AX45" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AY45" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AZ45" t="n">
         <v>51</v>
@@ -8714,10 +8714,10 @@
         <v>67</v>
       </c>
       <c r="BB45" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="BC45" t="n">
-        <v>451</v>
+        <v>401</v>
       </c>
       <c r="BD45" t="n">
         <v>81</v>
@@ -8758,16 +8758,16 @@
         <v>2.1</v>
       </c>
       <c r="H46" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="I46" t="n">
         <v>3.05</v>
       </c>
       <c r="J46" t="n">
-        <v>2.67</v>
+        <v>2.62</v>
       </c>
       <c r="K46" t="n">
-        <v>2.12</v>
+        <v>2.15</v>
       </c>
       <c r="L46" t="n">
         <v>3.55</v>
@@ -8785,10 +8785,10 @@
         <v>3.52</v>
       </c>
       <c r="Q46" t="n">
-        <v>1.75</v>
+        <v>1.72</v>
       </c>
       <c r="R46" t="n">
-        <v>1.9</v>
+        <v>1.91</v>
       </c>
       <c r="S46" t="n">
         <v>1.34</v>
@@ -8797,16 +8797,16 @@
         <v>2.99</v>
       </c>
       <c r="U46" t="n">
-        <v>1.63</v>
+        <v>1.62</v>
       </c>
       <c r="V46" t="n">
-        <v>2.22</v>
+        <v>2.23</v>
       </c>
       <c r="W46" t="n">
-        <v>7.1</v>
+        <v>7.4</v>
       </c>
       <c r="X46" t="n">
-        <v>9</v>
+        <v>9.25</v>
       </c>
       <c r="Y46" t="n">
         <v>7.3</v>
@@ -8818,13 +8818,13 @@
         <v>13</v>
       </c>
       <c r="AB46" t="n">
-        <v>19</v>
+        <v>18.5</v>
       </c>
       <c r="AC46" t="n">
-        <v>10.75</v>
+        <v>11</v>
       </c>
       <c r="AD46" t="n">
-        <v>5.7</v>
+        <v>5.8</v>
       </c>
       <c r="AE46" t="n">
         <v>10.5</v>
@@ -8836,16 +8836,16 @@
         <v>250</v>
       </c>
       <c r="AH46" t="n">
+        <v>9</v>
+      </c>
+      <c r="AI46" t="n">
+        <v>14</v>
+      </c>
+      <c r="AJ46" t="n">
         <v>9.25</v>
       </c>
-      <c r="AI46" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="AJ46" t="n">
-        <v>9</v>
-      </c>
       <c r="AK46" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AL46" t="n">
         <v>20</v>
@@ -8857,28 +8857,28 @@
         <v>4.1</v>
       </c>
       <c r="AO46" t="n">
-        <v>10.75</v>
+        <v>10.5</v>
       </c>
       <c r="AP46" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="AQ46" t="n">
         <v>40</v>
       </c>
       <c r="AR46" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AS46" t="n">
         <v>200</v>
       </c>
       <c r="AT46" t="n">
-        <v>2.85</v>
+        <v>2.9</v>
       </c>
       <c r="AU46" t="n">
         <v>6.6</v>
       </c>
       <c r="AV46" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AW46" t="n">
         <v>5.1</v>
@@ -8937,145 +8937,145 @@
         </is>
       </c>
       <c r="G47" t="n">
-        <v>1.65</v>
+        <v>1.8</v>
       </c>
       <c r="H47" t="n">
-        <v>3.7</v>
+        <v>3.45</v>
       </c>
       <c r="I47" t="n">
-        <v>4.25</v>
+        <v>3.8</v>
       </c>
       <c r="J47" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="K47" t="n">
         <v>2.18</v>
       </c>
-      <c r="K47" t="n">
-        <v>2.25</v>
-      </c>
       <c r="L47" t="n">
-        <v>4.5</v>
+        <v>4.15</v>
       </c>
       <c r="M47" t="n">
-        <v>1.03</v>
+        <v>1.01</v>
       </c>
       <c r="N47" t="n">
-        <v>12.7</v>
+        <v>11</v>
       </c>
       <c r="O47" t="n">
-        <v>1.18</v>
+        <v>1.19</v>
       </c>
       <c r="P47" t="n">
-        <v>3.74</v>
+        <v>3.64</v>
       </c>
       <c r="Q47" t="n">
-        <v>1.65</v>
+        <v>1.7</v>
       </c>
       <c r="R47" t="n">
-        <v>1.98</v>
+        <v>1.93</v>
       </c>
       <c r="S47" t="n">
         <v>1.33</v>
       </c>
       <c r="T47" t="n">
-        <v>3.14</v>
+        <v>3.13</v>
       </c>
       <c r="U47" t="n">
-        <v>1.68</v>
+        <v>1.66</v>
       </c>
       <c r="V47" t="n">
-        <v>2.13</v>
+        <v>2.16</v>
       </c>
       <c r="W47" t="n">
-        <v>6.9</v>
+        <v>7</v>
       </c>
       <c r="X47" t="n">
-        <v>7.3</v>
+        <v>8</v>
       </c>
       <c r="Y47" t="n">
-        <v>6.9</v>
+        <v>7</v>
       </c>
       <c r="Z47" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AA47" t="n">
-        <v>10.25</v>
+        <v>11.25</v>
       </c>
       <c r="AB47" t="n">
         <v>18</v>
       </c>
       <c r="AC47" t="n">
-        <v>12</v>
+        <v>11.25</v>
       </c>
       <c r="AD47" t="n">
-        <v>6.5</v>
+        <v>6.1</v>
       </c>
       <c r="AE47" t="n">
-        <v>12</v>
+        <v>11.25</v>
       </c>
       <c r="AF47" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="AG47" t="n">
         <v>250</v>
       </c>
       <c r="AH47" t="n">
-        <v>11.5</v>
+        <v>10.25</v>
       </c>
       <c r="AI47" t="n">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="AJ47" t="n">
-        <v>11.75</v>
+        <v>10.75</v>
       </c>
       <c r="AK47" t="n">
+        <v>45</v>
+      </c>
+      <c r="AL47" t="n">
+        <v>26</v>
+      </c>
+      <c r="AM47" t="n">
+        <v>28</v>
+      </c>
+      <c r="AN47" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="AO47" t="n">
+        <v>8.75</v>
+      </c>
+      <c r="AP47" t="n">
+        <v>16</v>
+      </c>
+      <c r="AQ47" t="n">
+        <v>29</v>
+      </c>
+      <c r="AR47" t="n">
         <v>55</v>
-      </c>
-      <c r="AL47" t="n">
-        <v>30</v>
-      </c>
-      <c r="AM47" t="n">
-        <v>30</v>
-      </c>
-      <c r="AN47" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="AO47" t="n">
-        <v>7.9</v>
-      </c>
-      <c r="AP47" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="AQ47" t="n">
-        <v>25</v>
-      </c>
-      <c r="AR47" t="n">
-        <v>50</v>
       </c>
       <c r="AS47" t="n">
         <v>175</v>
       </c>
       <c r="AT47" t="n">
-        <v>3</v>
+        <v>2.92</v>
       </c>
       <c r="AU47" t="n">
-        <v>7.1</v>
+        <v>6.8</v>
       </c>
       <c r="AV47" t="n">
         <v>55</v>
       </c>
       <c r="AW47" t="n">
-        <v>6.2</v>
+        <v>5.8</v>
       </c>
       <c r="AX47" t="n">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="AY47" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="AZ47" t="n">
+        <v>110</v>
+      </c>
+      <c r="BA47" t="n">
         <v>120</v>
-      </c>
-      <c r="BA47" t="n">
-        <v>150</v>
       </c>
       <c r="BB47" t="n">
         <v>300</v>
@@ -9119,7 +9119,7 @@
         </is>
       </c>
       <c r="G48" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="H48" t="n">
         <v>3.4</v>
@@ -9134,7 +9134,7 @@
         <v>2.3</v>
       </c>
       <c r="L48" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="M48" t="n">
         <v>1.04</v>
@@ -9173,7 +9173,7 @@
         <v>12</v>
       </c>
       <c r="Y48" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="Z48" t="n">
         <v>21</v>
@@ -9212,10 +9212,10 @@
         <v>34</v>
       </c>
       <c r="AL48" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AM48" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AN48" t="n">
         <v>4.5</v>
@@ -9483,13 +9483,13 @@
         </is>
       </c>
       <c r="G50" t="n">
-        <v>1.5</v>
+        <v>1.48</v>
       </c>
       <c r="H50" t="n">
         <v>4.33</v>
       </c>
       <c r="I50" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="J50" t="n">
         <v>2</v>
@@ -9531,16 +9531,16 @@
         <v>1.95</v>
       </c>
       <c r="W50" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="X50" t="n">
         <v>7.5</v>
       </c>
       <c r="Y50" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="Z50" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AA50" t="n">
         <v>12</v>
@@ -9561,7 +9561,7 @@
         <v>51</v>
       </c>
       <c r="AG50" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="AH50" t="n">
         <v>19</v>
@@ -9570,22 +9570,22 @@
         <v>34</v>
       </c>
       <c r="AJ50" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AK50" t="n">
         <v>67</v>
       </c>
       <c r="AL50" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AM50" t="n">
         <v>41</v>
       </c>
       <c r="AN50" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="AO50" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AP50" t="n">
         <v>17</v>
@@ -9597,13 +9597,13 @@
         <v>41</v>
       </c>
       <c r="AS50" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="AT50" t="n">
         <v>3.4</v>
       </c>
       <c r="AU50" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AV50" t="n">
         <v>51</v>
@@ -9612,7 +9612,7 @@
         <v>7.5</v>
       </c>
       <c r="AX50" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AY50" t="n">
         <v>34</v>
@@ -9686,7 +9686,7 @@
         <v>1.01</v>
       </c>
       <c r="N51" t="n">
-        <v>10.3</v>
+        <v>10.4</v>
       </c>
       <c r="O51" t="n">
         <v>1.26</v>
@@ -9695,10 +9695,10 @@
         <v>3.15</v>
       </c>
       <c r="Q51" t="n">
-        <v>1.82</v>
+        <v>1.83</v>
       </c>
       <c r="R51" t="n">
-        <v>1.88</v>
+        <v>1.87</v>
       </c>
       <c r="S51" t="n">
         <v>1.39</v>
@@ -9713,7 +9713,7 @@
         <v>1.93</v>
       </c>
       <c r="W51" t="n">
-        <v>7.6</v>
+        <v>7.5</v>
       </c>
       <c r="X51" t="n">
         <v>9.25</v>
@@ -9731,7 +9731,7 @@
         <v>24</v>
       </c>
       <c r="AC51" t="n">
-        <v>10.5</v>
+        <v>10.25</v>
       </c>
       <c r="AD51" t="n">
         <v>6.7</v>
@@ -9746,7 +9746,7 @@
         <v>450</v>
       </c>
       <c r="AH51" t="n">
-        <v>11.5</v>
+        <v>11.25</v>
       </c>
       <c r="AI51" t="n">
         <v>22</v>
@@ -9758,7 +9758,7 @@
         <v>60</v>
       </c>
       <c r="AL51" t="n">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="AM51" t="n">
         <v>40</v>
@@ -9785,7 +9785,7 @@
         <v>2.55</v>
       </c>
       <c r="AU51" t="n">
-        <v>7</v>
+        <v>7.1</v>
       </c>
       <c r="AV51" t="n">
         <v>60</v>
@@ -9850,7 +9850,7 @@
         <v>1.72</v>
       </c>
       <c r="H52" t="n">
-        <v>3.65</v>
+        <v>3.6</v>
       </c>
       <c r="I52" t="n">
         <v>4.3</v>
@@ -9865,10 +9865,10 @@
         <v>4.6</v>
       </c>
       <c r="M52" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="N52" t="n">
         <v>10.4</v>
-      </c>
-      <c r="N52" t="n">
-        <v>1.04</v>
       </c>
       <c r="O52" t="n">
         <v>1.25</v>
@@ -9877,10 +9877,10 @@
         <v>3.2</v>
       </c>
       <c r="Q52" t="n">
-        <v>1.8</v>
+        <v>1.78</v>
       </c>
       <c r="R52" t="n">
-        <v>1.91</v>
+        <v>1.93</v>
       </c>
       <c r="S52" t="n">
         <v>1.39</v>
@@ -9889,10 +9889,10 @@
         <v>2.57</v>
       </c>
       <c r="U52" t="n">
-        <v>1.72</v>
+        <v>1.7</v>
       </c>
       <c r="V52" t="n">
-        <v>1.9</v>
+        <v>1.91</v>
       </c>
       <c r="W52" t="n">
         <v>7.4</v>
@@ -9904,7 +9904,7 @@
         <v>8</v>
       </c>
       <c r="Z52" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="AA52" t="n">
         <v>13</v>
@@ -9913,7 +9913,7 @@
         <v>24</v>
       </c>
       <c r="AC52" t="n">
-        <v>11</v>
+        <v>10.75</v>
       </c>
       <c r="AD52" t="n">
         <v>7.1</v>
@@ -9946,7 +9946,7 @@
         <v>45</v>
       </c>
       <c r="AN52" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="AO52" t="n">
         <v>8.5</v>
@@ -9973,7 +9973,7 @@
         <v>65</v>
       </c>
       <c r="AW52" t="n">
-        <v>6</v>
+        <v>6.1</v>
       </c>
       <c r="AX52" t="n">
         <v>24</v>
@@ -10211,10 +10211,10 @@
         </is>
       </c>
       <c r="G54" t="n">
-        <v>2.6</v>
+        <v>2.7</v>
       </c>
       <c r="H54" t="n">
-        <v>3.7</v>
+        <v>3.6</v>
       </c>
       <c r="I54" t="n">
         <v>2.5</v>
@@ -10223,7 +10223,7 @@
         <v>3.1</v>
       </c>
       <c r="K54" t="n">
-        <v>2.4</v>
+        <v>2.38</v>
       </c>
       <c r="L54" t="n">
         <v>3</v>
@@ -10232,7 +10232,7 @@
         <v>1.03</v>
       </c>
       <c r="N54" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="O54" t="n">
         <v>1.17</v>
@@ -10241,16 +10241,16 @@
         <v>5</v>
       </c>
       <c r="Q54" t="n">
-        <v>1.53</v>
+        <v>1.6</v>
       </c>
       <c r="R54" t="n">
-        <v>2.4</v>
+        <v>2.3</v>
       </c>
       <c r="S54" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="T54" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="U54" t="n">
         <v>1.5</v>
@@ -10259,7 +10259,7 @@
         <v>2.5</v>
       </c>
       <c r="W54" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="X54" t="n">
         <v>15</v>
@@ -10274,13 +10274,13 @@
         <v>19</v>
       </c>
       <c r="AB54" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AC54" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AD54" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AE54" t="n">
         <v>11</v>
@@ -10292,7 +10292,7 @@
         <v>101</v>
       </c>
       <c r="AH54" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AI54" t="n">
         <v>15</v>
@@ -10301,13 +10301,13 @@
         <v>10</v>
       </c>
       <c r="AK54" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AL54" t="n">
         <v>17</v>
       </c>
       <c r="AM54" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AN54" t="n">
         <v>5</v>
@@ -10328,7 +10328,7 @@
         <v>101</v>
       </c>
       <c r="AT54" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="AU54" t="n">
         <v>7</v>
@@ -10337,7 +10337,7 @@
         <v>41</v>
       </c>
       <c r="AW54" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="AX54" t="n">
         <v>13</v>
@@ -10355,7 +10355,7 @@
         <v>101</v>
       </c>
       <c r="BC54" t="n">
-        <v>301</v>
+        <v>351</v>
       </c>
       <c r="BD54" t="n">
         <v>151</v>
@@ -10423,10 +10423,10 @@
         <v>6</v>
       </c>
       <c r="Q55" t="n">
-        <v>1.48</v>
+        <v>1.44</v>
       </c>
       <c r="R55" t="n">
-        <v>2.6</v>
+        <v>2.7</v>
       </c>
       <c r="S55" t="n">
         <v>1.25</v>
@@ -10575,22 +10575,22 @@
         </is>
       </c>
       <c r="G56" t="n">
-        <v>1.73</v>
+        <v>1.65</v>
       </c>
       <c r="H56" t="n">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="I56" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="J56" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="K56" t="n">
         <v>2.5</v>
       </c>
       <c r="L56" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="M56" t="n">
         <v>1.03</v>
@@ -10611,16 +10611,16 @@
         <v>2.4</v>
       </c>
       <c r="S56" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="T56" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="U56" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="V56" t="n">
-        <v>2.38</v>
+        <v>2.25</v>
       </c>
       <c r="W56" t="n">
         <v>10</v>
@@ -10683,7 +10683,7 @@
         <v>15</v>
       </c>
       <c r="AQ56" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AR56" t="n">
         <v>41</v>
@@ -10692,7 +10692,7 @@
         <v>81</v>
       </c>
       <c r="AT56" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="AU56" t="n">
         <v>7.5</v>
@@ -10704,7 +10704,7 @@
         <v>6.5</v>
       </c>
       <c r="AX56" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AY56" t="n">
         <v>23</v>
@@ -10713,7 +10713,7 @@
         <v>67</v>
       </c>
       <c r="BA56" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="BB56" t="n">
         <v>126</v>
@@ -10787,10 +10787,10 @@
         <v>5</v>
       </c>
       <c r="Q57" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="R57" t="n">
-        <v>2.35</v>
+        <v>2.4</v>
       </c>
       <c r="S57" t="n">
         <v>1.29</v>
@@ -10969,10 +10969,10 @@
         <v>2.5</v>
       </c>
       <c r="Q58" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="R58" t="n">
-        <v>1.5</v>
+        <v>1.48</v>
       </c>
       <c r="S58" t="n">
         <v>1.57</v>
@@ -11303,28 +11303,28 @@
         </is>
       </c>
       <c r="G60" t="n">
-        <v>2.88</v>
+        <v>3</v>
       </c>
       <c r="H60" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="I60" t="n">
-        <v>2.55</v>
+        <v>2.4</v>
       </c>
       <c r="J60" t="n">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="K60" t="n">
         <v>2</v>
       </c>
       <c r="L60" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="M60" t="n">
         <v>1.08</v>
       </c>
       <c r="N60" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="O60" t="n">
         <v>1.4</v>
@@ -11333,10 +11333,10 @@
         <v>2.75</v>
       </c>
       <c r="Q60" t="n">
-        <v>2.35</v>
+        <v>2.3</v>
       </c>
       <c r="R60" t="n">
-        <v>1.57</v>
+        <v>1.6</v>
       </c>
       <c r="S60" t="n">
         <v>1.5</v>
@@ -11351,16 +11351,16 @@
         <v>1.8</v>
       </c>
       <c r="W60" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="X60" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="Y60" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="Z60" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AA60" t="n">
         <v>26</v>
@@ -11369,13 +11369,13 @@
         <v>41</v>
       </c>
       <c r="AC60" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AD60" t="n">
         <v>6</v>
       </c>
       <c r="AE60" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AF60" t="n">
         <v>51</v>
@@ -11393,10 +11393,10 @@
         <v>10</v>
       </c>
       <c r="AK60" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AL60" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AM60" t="n">
         <v>34</v>
@@ -11429,22 +11429,22 @@
         <v>67</v>
       </c>
       <c r="AW60" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="AX60" t="n">
         <v>15</v>
       </c>
       <c r="AY60" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AZ60" t="n">
         <v>51</v>
       </c>
       <c r="BA60" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="BB60" t="n">
-        <v>251</v>
+        <v>201</v>
       </c>
       <c r="BC60" t="n">
         <v>126</v>
@@ -11670,7 +11670,7 @@
         <v>2.6</v>
       </c>
       <c r="H62" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="I62" t="n">
         <v>2.45</v>
@@ -11679,7 +11679,7 @@
         <v>3.1</v>
       </c>
       <c r="K62" t="n">
-        <v>2.3</v>
+        <v>2.38</v>
       </c>
       <c r="L62" t="n">
         <v>3</v>
@@ -11697,46 +11697,46 @@
         <v>4.5</v>
       </c>
       <c r="Q62" t="n">
-        <v>1.62</v>
+        <v>1.6</v>
       </c>
       <c r="R62" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="S62" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="T62" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="U62" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="V62" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="W62" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="X62" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="Y62" t="n">
         <v>10</v>
       </c>
       <c r="Z62" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AA62" t="n">
         <v>19</v>
       </c>
       <c r="AB62" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AC62" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AD62" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AE62" t="n">
         <v>11</v>
@@ -11745,10 +11745,10 @@
         <v>34</v>
       </c>
       <c r="AG62" t="n">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="AH62" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AI62" t="n">
         <v>15</v>
@@ -11763,7 +11763,7 @@
         <v>17</v>
       </c>
       <c r="AM62" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AN62" t="n">
         <v>5</v>
@@ -11784,7 +11784,7 @@
         <v>101</v>
       </c>
       <c r="AT62" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="AU62" t="n">
         <v>7</v>
@@ -11811,7 +11811,7 @@
         <v>101</v>
       </c>
       <c r="BC62" t="n">
-        <v>351</v>
+        <v>301</v>
       </c>
       <c r="BD62" t="n">
         <v>81</v>
@@ -11855,7 +11855,7 @@
         <v>4.75</v>
       </c>
       <c r="I63" t="n">
-        <v>6.5</v>
+        <v>6.25</v>
       </c>
       <c r="J63" t="n">
         <v>1.91</v>
@@ -11864,7 +11864,7 @@
         <v>2.5</v>
       </c>
       <c r="L63" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="M63" t="n">
         <v>1.03</v>
@@ -11879,10 +11879,10 @@
         <v>4.33</v>
       </c>
       <c r="Q63" t="n">
-        <v>1.65</v>
+        <v>1.67</v>
       </c>
       <c r="R63" t="n">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="S63" t="n">
         <v>1.3</v>
@@ -11897,13 +11897,13 @@
         <v>1.83</v>
       </c>
       <c r="W63" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="X63" t="n">
         <v>7</v>
       </c>
       <c r="Y63" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="Z63" t="n">
         <v>9.5</v>
@@ -11930,13 +11930,13 @@
         <v>301</v>
       </c>
       <c r="AH63" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AI63" t="n">
         <v>34</v>
       </c>
       <c r="AJ63" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AK63" t="n">
         <v>81</v>
@@ -11969,7 +11969,7 @@
         <v>3.4</v>
       </c>
       <c r="AU63" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AV63" t="n">
         <v>51</v>
@@ -12031,97 +12031,97 @@
         </is>
       </c>
       <c r="G64" t="n">
+        <v>13</v>
+      </c>
+      <c r="H64" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="I64" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="J64" t="n">
+        <v>11</v>
+      </c>
+      <c r="K64" t="n">
+        <v>3</v>
+      </c>
+      <c r="L64" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="M64" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="N64" t="n">
+        <v>21</v>
+      </c>
+      <c r="O64" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="P64" t="n">
+        <v>6</v>
+      </c>
+      <c r="Q64" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="R64" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="S64" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="T64" t="n">
+        <v>4</v>
+      </c>
+      <c r="U64" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="V64" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="W64" t="n">
+        <v>29</v>
+      </c>
+      <c r="X64" t="n">
+        <v>51</v>
+      </c>
+      <c r="Y64" t="n">
+        <v>34</v>
+      </c>
+      <c r="Z64" t="n">
+        <v>151</v>
+      </c>
+      <c r="AA64" t="n">
+        <v>81</v>
+      </c>
+      <c r="AB64" t="n">
+        <v>67</v>
+      </c>
+      <c r="AC64" t="n">
+        <v>21</v>
+      </c>
+      <c r="AD64" t="n">
         <v>15</v>
       </c>
-      <c r="H64" t="n">
-        <v>9</v>
-      </c>
-      <c r="I64" t="n">
-        <v>1.13</v>
-      </c>
-      <c r="J64" t="n">
-        <v>13</v>
-      </c>
-      <c r="K64" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="L64" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="M64" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="N64" t="n">
-        <v>26</v>
-      </c>
-      <c r="O64" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="P64" t="n">
-        <v>7</v>
-      </c>
-      <c r="Q64" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="R64" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="S64" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="T64" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="U64" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="V64" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="W64" t="n">
-        <v>41</v>
-      </c>
-      <c r="X64" t="n">
-        <v>81</v>
-      </c>
-      <c r="Y64" t="n">
-        <v>41</v>
-      </c>
-      <c r="Z64" t="n">
-        <v>251</v>
-      </c>
-      <c r="AA64" t="n">
-        <v>101</v>
-      </c>
-      <c r="AB64" t="n">
-        <v>81</v>
-      </c>
-      <c r="AC64" t="n">
-        <v>23</v>
-      </c>
-      <c r="AD64" t="n">
-        <v>17</v>
-      </c>
       <c r="AE64" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AF64" t="n">
         <v>81</v>
       </c>
       <c r="AG64" t="n">
-        <v>501</v>
+        <v>401</v>
       </c>
       <c r="AH64" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AI64" t="n">
         <v>7</v>
       </c>
       <c r="AJ64" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AK64" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AL64" t="n">
         <v>11</v>
@@ -12130,46 +12130,46 @@
         <v>29</v>
       </c>
       <c r="AN64" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AO64" t="n">
         <v>51</v>
       </c>
       <c r="AP64" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AQ64" t="n">
-        <v>401</v>
+        <v>301</v>
       </c>
       <c r="AR64" t="n">
-        <v>301</v>
+        <v>251</v>
       </c>
       <c r="AS64" t="n">
-        <v>401</v>
+        <v>351</v>
       </c>
       <c r="AT64" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="AU64" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AV64" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AW64" t="n">
         <v>3.25</v>
       </c>
       <c r="AX64" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="AY64" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AZ64" t="n">
-        <v>9.5</v>
+        <v>11</v>
       </c>
       <c r="BA64" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="BB64" t="n">
         <v>101</v>
@@ -12213,16 +12213,16 @@
         </is>
       </c>
       <c r="G65" t="n">
-        <v>2.5</v>
+        <v>2.57</v>
       </c>
       <c r="H65" t="n">
-        <v>3.35</v>
+        <v>3.3</v>
       </c>
       <c r="I65" t="n">
-        <v>2.65</v>
+        <v>2.57</v>
       </c>
       <c r="J65" t="n">
-        <v>3.1</v>
+        <v>3.05</v>
       </c>
       <c r="K65" t="n">
         <v>2.15</v>
@@ -12234,19 +12234,19 @@
         <v>1.05</v>
       </c>
       <c r="N65" t="n">
-        <v>8</v>
+        <v>7.9</v>
       </c>
       <c r="O65" t="n">
-        <v>1.23</v>
+        <v>1.24</v>
       </c>
       <c r="P65" t="n">
-        <v>3.75</v>
+        <v>3.7</v>
       </c>
       <c r="Q65" t="n">
-        <v>1.7</v>
+        <v>1.72</v>
       </c>
       <c r="R65" t="n">
-        <v>2.07</v>
+        <v>2.05</v>
       </c>
       <c r="S65" t="n">
         <v>1.36</v>
@@ -12261,28 +12261,28 @@
         <v>2.3</v>
       </c>
       <c r="W65" t="n">
-        <v>9.75</v>
+        <v>10.75</v>
       </c>
       <c r="X65" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="Y65" t="n">
-        <v>9.25</v>
+        <v>9.5</v>
       </c>
       <c r="Z65" t="n">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="AA65" t="n">
         <v>19</v>
       </c>
       <c r="AB65" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AC65" t="n">
-        <v>8</v>
+        <v>7.9</v>
       </c>
       <c r="AD65" t="n">
-        <v>6.6</v>
+        <v>6.5</v>
       </c>
       <c r="AE65" t="n">
         <v>11.5</v>
@@ -12294,37 +12294,37 @@
         <v>250</v>
       </c>
       <c r="AH65" t="n">
-        <v>11</v>
+        <v>9.75</v>
       </c>
       <c r="AI65" t="n">
-        <v>15.5</v>
+        <v>14</v>
       </c>
       <c r="AJ65" t="n">
         <v>9.5</v>
       </c>
       <c r="AK65" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AL65" t="n">
-        <v>19.5</v>
+        <v>20</v>
       </c>
       <c r="AM65" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="AN65" t="n">
-        <v>4.6</v>
+        <v>4.7</v>
       </c>
       <c r="AO65" t="n">
         <v>13.5</v>
       </c>
       <c r="AP65" t="n">
-        <v>19.5</v>
+        <v>18</v>
       </c>
       <c r="AQ65" t="n">
         <v>55</v>
       </c>
       <c r="AR65" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="AS65" t="n">
         <v>200</v>
@@ -12333,25 +12333,25 @@
         <v>2.9</v>
       </c>
       <c r="AU65" t="n">
-        <v>6.5</v>
+        <v>6.4</v>
       </c>
       <c r="AV65" t="n">
         <v>50</v>
       </c>
       <c r="AW65" t="n">
-        <v>4.75</v>
+        <v>4.7</v>
       </c>
       <c r="AX65" t="n">
         <v>14</v>
       </c>
       <c r="AY65" t="n">
-        <v>18.5</v>
+        <v>19.5</v>
       </c>
       <c r="AZ65" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="BA65" t="n">
-        <v>75</v>
+        <v>90</v>
       </c>
       <c r="BB65" t="n">
         <v>200</v>
@@ -12577,22 +12577,22 @@
         </is>
       </c>
       <c r="G67" t="n">
-        <v>11.25</v>
+        <v>10</v>
       </c>
       <c r="H67" t="n">
         <v>6.1</v>
       </c>
       <c r="I67" t="n">
-        <v>1.21</v>
+        <v>1.22</v>
       </c>
       <c r="J67" t="n">
-        <v>8.25</v>
+        <v>7.3</v>
       </c>
       <c r="K67" t="n">
-        <v>2.92</v>
+        <v>2.9</v>
       </c>
       <c r="L67" t="n">
-        <v>1.55</v>
+        <v>1.6</v>
       </c>
       <c r="M67" t="n">
         <v>1.02</v>
@@ -12613,34 +12613,34 @@
         <v>3.1</v>
       </c>
       <c r="S67" t="n">
-        <v>1.2</v>
+        <v>1.21</v>
       </c>
       <c r="T67" t="n">
-        <v>4.05</v>
+        <v>4</v>
       </c>
       <c r="U67" t="n">
-        <v>1.72</v>
+        <v>1.7</v>
       </c>
       <c r="V67" t="n">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="W67" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="X67" t="n">
-        <v>110</v>
+        <v>90</v>
       </c>
       <c r="Y67" t="n">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="Z67" t="n">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="AA67" t="n">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="AB67" t="n">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="AC67" t="n">
         <v>10.5</v>
@@ -12649,13 +12649,13 @@
         <v>13.5</v>
       </c>
       <c r="AE67" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AF67" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AG67" t="n">
-        <v>400</v>
+        <v>350</v>
       </c>
       <c r="AH67" t="n">
         <v>11.75</v>
@@ -12676,25 +12676,25 @@
         <v>21</v>
       </c>
       <c r="AN67" t="n">
-        <v>11.75</v>
+        <v>10.75</v>
       </c>
       <c r="AO67" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AP67" t="n">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="AQ67" t="n">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="AR67" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="AS67" t="n">
-        <v>400</v>
+        <v>350</v>
       </c>
       <c r="AT67" t="n">
-        <v>4.05</v>
+        <v>4</v>
       </c>
       <c r="AU67" t="n">
         <v>8.25</v>
@@ -12706,19 +12706,19 @@
         <v>3.45</v>
       </c>
       <c r="AX67" t="n">
-        <v>5.1</v>
+        <v>5.2</v>
       </c>
       <c r="AY67" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="AZ67" t="n">
-        <v>10.75</v>
+        <v>11.5</v>
       </c>
       <c r="BA67" t="n">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="BB67" t="n">
-        <v>150</v>
+        <v>120</v>
       </c>
       <c r="BC67" t="n">
         <v>500</v>
@@ -12765,7 +12765,7 @@
         <v>2.9</v>
       </c>
       <c r="I68" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="J68" t="n">
         <v>3.25</v>
@@ -12777,10 +12777,10 @@
         <v>4</v>
       </c>
       <c r="M68" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="N68" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="O68" t="n">
         <v>1.5</v>
@@ -12789,10 +12789,10 @@
         <v>2.5</v>
       </c>
       <c r="Q68" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="R68" t="n">
-        <v>1.5</v>
+        <v>1.48</v>
       </c>
       <c r="S68" t="n">
         <v>1.57</v>
@@ -12801,10 +12801,10 @@
         <v>2.25</v>
       </c>
       <c r="U68" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="V68" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="W68" t="n">
         <v>6</v>
@@ -12834,7 +12834,7 @@
         <v>19</v>
       </c>
       <c r="AF68" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AG68" t="n">
         <v>1250</v>
@@ -12843,16 +12843,16 @@
         <v>7.5</v>
       </c>
       <c r="AI68" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AJ68" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AK68" t="n">
         <v>34</v>
       </c>
       <c r="AL68" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AM68" t="n">
         <v>41</v>
@@ -12882,7 +12882,7 @@
         <v>9</v>
       </c>
       <c r="AV68" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AW68" t="n">
         <v>5</v>
@@ -12900,7 +12900,7 @@
         <v>101</v>
       </c>
       <c r="BB68" t="n">
-        <v>351</v>
+        <v>301</v>
       </c>
       <c r="BC68" t="n">
         <v>51</v>
@@ -12953,7 +12953,7 @@
         <v>2.5</v>
       </c>
       <c r="K69" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="L69" t="n">
         <v>5</v>
@@ -12977,16 +12977,16 @@
         <v>1.65</v>
       </c>
       <c r="S69" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="T69" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="U69" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="V69" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="W69" t="n">
         <v>6</v>
@@ -12998,7 +12998,7 @@
         <v>9</v>
       </c>
       <c r="Z69" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AA69" t="n">
         <v>17</v>
@@ -13037,7 +13037,7 @@
         <v>41</v>
       </c>
       <c r="AM69" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AN69" t="n">
         <v>3.6</v>
@@ -13058,7 +13058,7 @@
         <v>201</v>
       </c>
       <c r="AT69" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="AU69" t="n">
         <v>9</v>
@@ -13073,7 +13073,7 @@
         <v>26</v>
       </c>
       <c r="AY69" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AZ69" t="n">
         <v>101</v>
@@ -13082,7 +13082,7 @@
         <v>126</v>
       </c>
       <c r="BB69" t="n">
-        <v>301</v>
+        <v>351</v>
       </c>
       <c r="BC69" t="n">
         <v>51</v>
@@ -13123,7 +13123,7 @@
         </is>
       </c>
       <c r="G70" t="n">
-        <v>1.13</v>
+        <v>1.14</v>
       </c>
       <c r="H70" t="n">
         <v>7.5</v>
@@ -13135,7 +13135,7 @@
         <v>1.44</v>
       </c>
       <c r="K70" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="L70" t="n">
         <v>9.5</v>
@@ -13147,16 +13147,16 @@
         <v>15</v>
       </c>
       <c r="O70" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="P70" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="Q70" t="n">
-        <v>1.25</v>
+        <v>1.3</v>
       </c>
       <c r="R70" t="n">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="S70" t="n">
         <v>1.17</v>
@@ -13189,10 +13189,10 @@
         <v>26</v>
       </c>
       <c r="AC70" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AD70" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AE70" t="n">
         <v>23</v>
@@ -13201,13 +13201,13 @@
         <v>51</v>
       </c>
       <c r="AG70" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="AH70" t="n">
         <v>41</v>
       </c>
       <c r="AI70" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AJ70" t="n">
         <v>41</v>
@@ -13222,13 +13222,13 @@
         <v>67</v>
       </c>
       <c r="AN70" t="n">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="AO70" t="n">
         <v>5</v>
       </c>
       <c r="AP70" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AQ70" t="n">
         <v>9.5</v>
@@ -13264,7 +13264,7 @@
         <v>151</v>
       </c>
       <c r="BB70" t="n">
-        <v>450</v>
+        <v>500</v>
       </c>
       <c r="BC70" t="n">
         <v>81</v>
@@ -13305,28 +13305,28 @@
         </is>
       </c>
       <c r="G71" t="n">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="H71" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="I71" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="J71" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="K71" t="n">
         <v>2.63</v>
       </c>
       <c r="L71" t="n">
-        <v>6.5</v>
+        <v>7.5</v>
       </c>
       <c r="M71" t="n">
-        <v>19</v>
+        <v>1.02</v>
       </c>
       <c r="N71" t="n">
-        <v>1.03</v>
+        <v>12</v>
       </c>
       <c r="O71" t="n">
         <v>1.14</v>
@@ -13335,10 +13335,10 @@
         <v>5</v>
       </c>
       <c r="Q71" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="R71" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="S71" t="n">
         <v>1.25</v>
@@ -13347,34 +13347,34 @@
         <v>3.75</v>
       </c>
       <c r="U71" t="n">
-        <v>1.83</v>
+        <v>1.91</v>
       </c>
       <c r="V71" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="W71" t="n">
         <v>9</v>
       </c>
       <c r="X71" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="Y71" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="Z71" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AA71" t="n">
         <v>11</v>
       </c>
       <c r="AB71" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AC71" t="n">
         <v>19</v>
       </c>
       <c r="AD71" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AE71" t="n">
         <v>21</v>
@@ -13383,25 +13383,25 @@
         <v>51</v>
       </c>
       <c r="AG71" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="AH71" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AI71" t="n">
         <v>41</v>
       </c>
       <c r="AJ71" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AK71" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="AL71" t="n">
         <v>51</v>
       </c>
       <c r="AM71" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AN71" t="n">
         <v>3.5</v>
@@ -13413,7 +13413,7 @@
         <v>15</v>
       </c>
       <c r="AQ71" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AR71" t="n">
         <v>34</v>
@@ -13425,25 +13425,25 @@
         <v>3.75</v>
       </c>
       <c r="AU71" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AV71" t="n">
         <v>51</v>
       </c>
       <c r="AW71" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AX71" t="n">
         <v>41</v>
       </c>
       <c r="AY71" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AZ71" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="BA71" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="BB71" t="n">
         <v>500</v>
@@ -13487,13 +13487,13 @@
         </is>
       </c>
       <c r="G72" t="n">
-        <v>2.75</v>
+        <v>2.8</v>
       </c>
       <c r="H72" t="n">
         <v>3.4</v>
       </c>
       <c r="I72" t="n">
-        <v>2.4</v>
+        <v>2.35</v>
       </c>
       <c r="J72" t="n">
         <v>3.25</v>
@@ -13535,7 +13535,7 @@
         <v>2</v>
       </c>
       <c r="W72" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="X72" t="n">
         <v>15</v>
@@ -13544,10 +13544,10 @@
         <v>11</v>
       </c>
       <c r="Z72" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AA72" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AB72" t="n">
         <v>29</v>
@@ -13565,10 +13565,10 @@
         <v>41</v>
       </c>
       <c r="AG72" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="AH72" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AI72" t="n">
         <v>12</v>
@@ -13586,7 +13586,7 @@
         <v>29</v>
       </c>
       <c r="AN72" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="AO72" t="n">
         <v>15</v>
@@ -13619,7 +13619,7 @@
         <v>13</v>
       </c>
       <c r="AY72" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AZ72" t="n">
         <v>41</v>
@@ -13669,22 +13669,22 @@
         </is>
       </c>
       <c r="G73" t="n">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="H73" t="n">
         <v>4.33</v>
       </c>
       <c r="I73" t="n">
-        <v>2.8</v>
+        <v>2.63</v>
       </c>
       <c r="J73" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="K73" t="n">
         <v>2.88</v>
       </c>
       <c r="L73" t="n">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="M73" t="n">
         <v>1.01</v>
@@ -13720,7 +13720,7 @@
         <v>21</v>
       </c>
       <c r="X73" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="Y73" t="n">
         <v>11</v>
@@ -13729,7 +13729,7 @@
         <v>23</v>
       </c>
       <c r="AA73" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AB73" t="n">
         <v>15</v>
@@ -13750,37 +13750,37 @@
         <v>51</v>
       </c>
       <c r="AH73" t="n">
+        <v>23</v>
+      </c>
+      <c r="AI73" t="n">
         <v>26</v>
-      </c>
-      <c r="AI73" t="n">
-        <v>29</v>
       </c>
       <c r="AJ73" t="n">
         <v>13</v>
       </c>
       <c r="AK73" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AL73" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AM73" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AN73" t="n">
         <v>5.5</v>
       </c>
       <c r="AO73" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AP73" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AQ73" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AR73" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AS73" t="n">
         <v>51</v>
@@ -13795,10 +13795,10 @@
         <v>26</v>
       </c>
       <c r="AW73" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AX73" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AY73" t="n">
         <v>15</v>
@@ -13851,88 +13851,88 @@
         </is>
       </c>
       <c r="G74" t="n">
-        <v>5</v>
+        <v>5.4</v>
       </c>
       <c r="H74" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="I74" t="n">
-        <v>1.6</v>
+        <v>1.55</v>
       </c>
       <c r="J74" t="n">
-        <v>5</v>
+        <v>5.2</v>
       </c>
       <c r="K74" t="n">
-        <v>2.3</v>
+        <v>2.37</v>
       </c>
       <c r="L74" t="n">
-        <v>2.1</v>
+        <v>2.02</v>
       </c>
       <c r="M74" t="n">
         <v>1.04</v>
       </c>
       <c r="N74" t="n">
-        <v>9</v>
+        <v>9.25</v>
       </c>
       <c r="O74" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="P74" t="n">
-        <v>4</v>
+        <v>4.15</v>
       </c>
       <c r="Q74" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="R74" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="S74" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="T74" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="U74" t="n">
         <v>1.7</v>
       </c>
-      <c r="R74" t="n">
-        <v>2.12</v>
-      </c>
-      <c r="S74" t="n">
-        <v>1.35</v>
-      </c>
-      <c r="T74" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="U74" t="n">
-        <v>1.72</v>
-      </c>
       <c r="V74" t="n">
-        <v>2.02</v>
+        <v>2.05</v>
       </c>
       <c r="W74" t="n">
-        <v>14.5</v>
+        <v>15.5</v>
       </c>
       <c r="X74" t="n">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="Y74" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="Z74" t="n">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="AA74" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="AB74" t="n">
         <v>50</v>
       </c>
       <c r="AC74" t="n">
-        <v>9</v>
+        <v>9.25</v>
       </c>
       <c r="AD74" t="n">
-        <v>8.5</v>
+        <v>8.75</v>
       </c>
       <c r="AE74" t="n">
         <v>16.5</v>
       </c>
       <c r="AF74" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AG74" t="n">
         <v>500</v>
       </c>
       <c r="AH74" t="n">
-        <v>7.6</v>
+        <v>7.9</v>
       </c>
       <c r="AI74" t="n">
         <v>8.75</v>
@@ -13941,58 +13941,58 @@
         <v>8.5</v>
       </c>
       <c r="AK74" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AL74" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AM74" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AN74" t="n">
-        <v>6.7</v>
+        <v>7.1</v>
       </c>
       <c r="AO74" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AP74" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AQ74" t="n">
         <v>175</v>
       </c>
       <c r="AR74" t="n">
-        <v>200</v>
+        <v>175</v>
       </c>
       <c r="AS74" t="n">
-        <v>400</v>
+        <v>350</v>
       </c>
       <c r="AT74" t="n">
-        <v>3.05</v>
+        <v>3.2</v>
       </c>
       <c r="AU74" t="n">
-        <v>7.5</v>
+        <v>7.4</v>
       </c>
       <c r="AV74" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AW74" t="n">
-        <v>3.5</v>
+        <v>3.55</v>
       </c>
       <c r="AX74" t="n">
-        <v>7.5</v>
+        <v>7.2</v>
       </c>
       <c r="AY74" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AZ74" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="BA74" t="n">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="BB74" t="n">
-        <v>200</v>
+        <v>175</v>
       </c>
       <c r="BC74" t="n">
         <v>51</v>
@@ -14033,19 +14033,19 @@
         </is>
       </c>
       <c r="G75" t="n">
-        <v>3.8</v>
+        <v>3.7</v>
       </c>
       <c r="H75" t="n">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="I75" t="n">
-        <v>1.9</v>
+        <v>1.91</v>
       </c>
       <c r="J75" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="K75" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="L75" t="n">
         <v>2.5</v>
@@ -14057,28 +14057,28 @@
         <v>13</v>
       </c>
       <c r="O75" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="P75" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="Q75" t="n">
-        <v>1.83</v>
+        <v>1.75</v>
       </c>
       <c r="R75" t="n">
-        <v>2.03</v>
+        <v>2.05</v>
       </c>
       <c r="S75" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="T75" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U75" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="V75" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="W75" t="n">
         <v>12</v>
@@ -14087,7 +14087,7 @@
         <v>21</v>
       </c>
       <c r="Y75" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="Z75" t="n">
         <v>41</v>
@@ -14099,25 +14099,25 @@
         <v>34</v>
       </c>
       <c r="AC75" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AD75" t="n">
         <v>7</v>
       </c>
       <c r="AE75" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AF75" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AG75" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="AH75" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AI75" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AJ75" t="n">
         <v>8.5</v>
@@ -14129,16 +14129,16 @@
         <v>15</v>
       </c>
       <c r="AM75" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AN75" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="AO75" t="n">
         <v>21</v>
       </c>
       <c r="AP75" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AQ75" t="n">
         <v>67</v>
@@ -14147,13 +14147,13 @@
         <v>81</v>
       </c>
       <c r="AS75" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="AT75" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="AU75" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AV75" t="n">
         <v>51</v>
@@ -14215,7 +14215,7 @@
         </is>
       </c>
       <c r="G76" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="H76" t="n">
         <v>3.4</v>
@@ -14224,7 +14224,7 @@
         <v>3.2</v>
       </c>
       <c r="J76" t="n">
-        <v>3</v>
+        <v>2.88</v>
       </c>
       <c r="K76" t="n">
         <v>2.1</v>
@@ -14233,22 +14233,22 @@
         <v>3.75</v>
       </c>
       <c r="M76" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="N76" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="O76" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="P76" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="Q76" t="n">
-        <v>2.03</v>
+        <v>1.98</v>
       </c>
       <c r="R76" t="n">
-        <v>1.83</v>
+        <v>1.88</v>
       </c>
       <c r="S76" t="n">
         <v>1.4</v>
@@ -14257,31 +14257,31 @@
         <v>2.75</v>
       </c>
       <c r="U76" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="V76" t="n">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="W76" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="X76" t="n">
         <v>11</v>
       </c>
       <c r="Y76" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="Z76" t="n">
         <v>21</v>
       </c>
       <c r="AA76" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AB76" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AC76" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AD76" t="n">
         <v>6.5</v>
@@ -14293,16 +14293,16 @@
         <v>51</v>
       </c>
       <c r="AG76" t="n">
-        <v>251</v>
+        <v>201</v>
       </c>
       <c r="AH76" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AI76" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AJ76" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AK76" t="n">
         <v>34</v>
@@ -14317,16 +14317,16 @@
         <v>4.33</v>
       </c>
       <c r="AO76" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AP76" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AQ76" t="n">
         <v>41</v>
       </c>
       <c r="AR76" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AS76" t="n">
         <v>151</v>
@@ -14356,7 +14356,7 @@
         <v>81</v>
       </c>
       <c r="BB76" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="BC76" t="n">
         <v>51</v>
@@ -14397,10 +14397,10 @@
         </is>
       </c>
       <c r="G77" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="H77" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="I77" t="n">
         <v>3.25</v>
@@ -14409,10 +14409,10 @@
         <v>2.88</v>
       </c>
       <c r="K77" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="L77" t="n">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="M77" t="n">
         <v>1.05</v>
@@ -14421,52 +14421,52 @@
         <v>11</v>
       </c>
       <c r="O77" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="P77" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="Q77" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="R77" t="n">
         <v>1.88</v>
       </c>
-      <c r="R77" t="n">
-        <v>1.98</v>
-      </c>
       <c r="S77" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="T77" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U77" t="n">
-        <v>1.67</v>
+        <v>1.73</v>
       </c>
       <c r="V77" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="W77" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="X77" t="n">
         <v>11</v>
       </c>
       <c r="Y77" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="Z77" t="n">
         <v>21</v>
       </c>
       <c r="AA77" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AB77" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AC77" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AD77" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AE77" t="n">
         <v>13</v>
@@ -14475,10 +14475,10 @@
         <v>41</v>
       </c>
       <c r="AG77" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="AH77" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AI77" t="n">
         <v>17</v>
@@ -14490,7 +14490,7 @@
         <v>34</v>
       </c>
       <c r="AL77" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AM77" t="n">
         <v>34</v>
@@ -14514,10 +14514,10 @@
         <v>151</v>
       </c>
       <c r="AT77" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="AU77" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AV77" t="n">
         <v>51</v>
@@ -14529,13 +14529,13 @@
         <v>17</v>
       </c>
       <c r="AY77" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AZ77" t="n">
         <v>51</v>
       </c>
       <c r="BA77" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="BB77" t="n">
         <v>151</v>
@@ -14582,13 +14582,13 @@
         <v>2.5</v>
       </c>
       <c r="H78" t="n">
-        <v>3.45</v>
+        <v>3.4</v>
       </c>
       <c r="I78" t="n">
-        <v>2.57</v>
+        <v>2.6</v>
       </c>
       <c r="J78" t="n">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="K78" t="n">
         <v>2.18</v>
@@ -14597,16 +14597,16 @@
         <v>3.1</v>
       </c>
       <c r="M78" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="N78" t="n">
-        <v>8.25</v>
+        <v>8</v>
       </c>
       <c r="O78" t="n">
-        <v>1.22</v>
+        <v>1.23</v>
       </c>
       <c r="P78" t="n">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="Q78" t="n">
         <v>1.7</v>
@@ -14621,16 +14621,16 @@
         <v>2.95</v>
       </c>
       <c r="U78" t="n">
-        <v>1.55</v>
+        <v>1.57</v>
       </c>
       <c r="V78" t="n">
-        <v>2.3</v>
+        <v>2.27</v>
       </c>
       <c r="W78" t="n">
-        <v>10.5</v>
+        <v>10.25</v>
       </c>
       <c r="X78" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="Y78" t="n">
         <v>9.5</v>
@@ -14642,13 +14642,13 @@
         <v>18.5</v>
       </c>
       <c r="AB78" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AC78" t="n">
-        <v>8.25</v>
+        <v>8</v>
       </c>
       <c r="AD78" t="n">
-        <v>6.8</v>
+        <v>6.7</v>
       </c>
       <c r="AE78" t="n">
         <v>11.75</v>
@@ -14669,7 +14669,7 @@
         <v>9.5</v>
       </c>
       <c r="AK78" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AL78" t="n">
         <v>19.5</v>
@@ -14687,7 +14687,7 @@
         <v>18.5</v>
       </c>
       <c r="AQ78" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="AR78" t="n">
         <v>75</v>
@@ -14699,7 +14699,7 @@
         <v>2.95</v>
       </c>
       <c r="AU78" t="n">
-        <v>6.6</v>
+        <v>6.5</v>
       </c>
       <c r="AV78" t="n">
         <v>50</v>
@@ -14711,7 +14711,7 @@
         <v>13.5</v>
       </c>
       <c r="AY78" t="n">
-        <v>19.5</v>
+        <v>19</v>
       </c>
       <c r="AZ78" t="n">
         <v>55</v>
@@ -14720,7 +14720,7 @@
         <v>80</v>
       </c>
       <c r="BB78" t="n">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="BC78" t="n">
         <v>51</v>
@@ -14761,7 +14761,7 @@
         </is>
       </c>
       <c r="G79" t="n">
-        <v>2.55</v>
+        <v>2.52</v>
       </c>
       <c r="H79" t="n">
         <v>3.3</v>
@@ -14770,13 +14770,13 @@
         <v>2.62</v>
       </c>
       <c r="J79" t="n">
-        <v>3.15</v>
+        <v>3.05</v>
       </c>
       <c r="K79" t="n">
-        <v>2.12</v>
+        <v>2.15</v>
       </c>
       <c r="L79" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="M79" t="n">
         <v>1.05</v>
@@ -14800,37 +14800,37 @@
         <v>1.37</v>
       </c>
       <c r="T79" t="n">
-        <v>2.85</v>
+        <v>2.87</v>
       </c>
       <c r="U79" t="n">
-        <v>1.57</v>
+        <v>1.6</v>
       </c>
       <c r="V79" t="n">
-        <v>2.25</v>
+        <v>2.22</v>
       </c>
       <c r="W79" t="n">
+        <v>10</v>
+      </c>
+      <c r="X79" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="Y79" t="n">
         <v>9.25</v>
-      </c>
-      <c r="X79" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="Y79" t="n">
-        <v>9.5</v>
       </c>
       <c r="Z79" t="n">
         <v>29</v>
       </c>
       <c r="AA79" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AB79" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="AC79" t="n">
         <v>7.8</v>
       </c>
       <c r="AD79" t="n">
-        <v>6.4</v>
+        <v>6.5</v>
       </c>
       <c r="AE79" t="n">
         <v>11.75</v>
@@ -14842,46 +14842,46 @@
         <v>300</v>
       </c>
       <c r="AH79" t="n">
-        <v>10.5</v>
+        <v>9.5</v>
       </c>
       <c r="AI79" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AJ79" t="n">
         <v>9.5</v>
       </c>
       <c r="AK79" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AL79" t="n">
-        <v>19.5</v>
+        <v>21</v>
       </c>
       <c r="AM79" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="AN79" t="n">
         <v>4.6</v>
       </c>
       <c r="AO79" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AP79" t="n">
-        <v>20</v>
+        <v>18.5</v>
       </c>
       <c r="AQ79" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AR79" t="n">
-        <v>90</v>
+        <v>75</v>
       </c>
       <c r="AS79" t="n">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="AT79" t="n">
-        <v>2.85</v>
+        <v>2.87</v>
       </c>
       <c r="AU79" t="n">
-        <v>6.5</v>
+        <v>6.6</v>
       </c>
       <c r="AV79" t="n">
         <v>50</v>
@@ -14890,19 +14890,19 @@
         <v>4.7</v>
       </c>
       <c r="AX79" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="AY79" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AZ79" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="BA79" t="n">
-        <v>75</v>
+        <v>90</v>
       </c>
       <c r="BB79" t="n">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="BC79" t="n">
         <v>51</v>
@@ -14946,31 +14946,31 @@
         <v>2.5</v>
       </c>
       <c r="H80" t="n">
-        <v>3.35</v>
+        <v>3.45</v>
       </c>
       <c r="I80" t="n">
-        <v>2.6</v>
+        <v>2.57</v>
       </c>
       <c r="J80" t="n">
-        <v>2.95</v>
+        <v>3</v>
       </c>
       <c r="K80" t="n">
-        <v>2.2</v>
+        <v>2.22</v>
       </c>
       <c r="L80" t="n">
-        <v>3.15</v>
+        <v>3.1</v>
       </c>
       <c r="M80" t="n">
         <v>1.04</v>
       </c>
       <c r="N80" t="n">
-        <v>8.25</v>
+        <v>8.5</v>
       </c>
       <c r="O80" t="n">
         <v>1.21</v>
       </c>
       <c r="P80" t="n">
-        <v>3.95</v>
+        <v>4</v>
       </c>
       <c r="Q80" t="n">
         <v>1.65</v>
@@ -14991,28 +14991,28 @@
         <v>2.37</v>
       </c>
       <c r="W80" t="n">
-        <v>11.25</v>
+        <v>11</v>
       </c>
       <c r="X80" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="Y80" t="n">
-        <v>9.25</v>
+        <v>9.5</v>
       </c>
       <c r="Z80" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AA80" t="n">
         <v>18</v>
       </c>
       <c r="AB80" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AC80" t="n">
-        <v>8.25</v>
+        <v>8.5</v>
       </c>
       <c r="AD80" t="n">
-        <v>6.8</v>
+        <v>6.9</v>
       </c>
       <c r="AE80" t="n">
         <v>11.25</v>
@@ -15024,7 +15024,7 @@
         <v>250</v>
       </c>
       <c r="AH80" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="AI80" t="n">
         <v>15</v>
@@ -15036,10 +15036,10 @@
         <v>30</v>
       </c>
       <c r="AL80" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AM80" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AN80" t="n">
         <v>4.7</v>
@@ -15048,13 +15048,13 @@
         <v>13</v>
       </c>
       <c r="AP80" t="n">
-        <v>17</v>
+        <v>17.5</v>
       </c>
       <c r="AQ80" t="n">
         <v>50</v>
       </c>
       <c r="AR80" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="AS80" t="n">
         <v>175</v>
@@ -15063,7 +15063,7 @@
         <v>3.05</v>
       </c>
       <c r="AU80" t="n">
-        <v>6.3</v>
+        <v>6.4</v>
       </c>
       <c r="AV80" t="n">
         <v>45</v>
@@ -15072,16 +15072,16 @@
         <v>4.8</v>
       </c>
       <c r="AX80" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AY80" t="n">
-        <v>19</v>
+        <v>18.5</v>
       </c>
       <c r="AZ80" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="BA80" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="BB80" t="n">
         <v>200</v>
@@ -15131,16 +15131,16 @@
         <v>3.6</v>
       </c>
       <c r="I81" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="J81" t="n">
-        <v>2.52</v>
+        <v>2.5</v>
       </c>
       <c r="K81" t="n">
-        <v>2.27</v>
+        <v>2.25</v>
       </c>
       <c r="L81" t="n">
-        <v>3.65</v>
+        <v>3.8</v>
       </c>
       <c r="M81" t="n">
         <v>1.04</v>
@@ -15155,13 +15155,13 @@
         <v>4.15</v>
       </c>
       <c r="Q81" t="n">
-        <v>1.6</v>
+        <v>1.57</v>
       </c>
       <c r="R81" t="n">
-        <v>2.22</v>
+        <v>2.25</v>
       </c>
       <c r="S81" t="n">
-        <v>1.31</v>
+        <v>1.32</v>
       </c>
       <c r="T81" t="n">
         <v>3.15</v>
@@ -15173,28 +15173,28 @@
         <v>2.37</v>
       </c>
       <c r="W81" t="n">
-        <v>9.75</v>
+        <v>10.25</v>
       </c>
       <c r="X81" t="n">
-        <v>11.25</v>
+        <v>11.75</v>
       </c>
       <c r="Y81" t="n">
         <v>8.5</v>
       </c>
       <c r="Z81" t="n">
-        <v>18.5</v>
+        <v>19.5</v>
       </c>
       <c r="AA81" t="n">
         <v>14</v>
       </c>
       <c r="AB81" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AC81" t="n">
         <v>8.75</v>
       </c>
       <c r="AD81" t="n">
-        <v>7.3</v>
+        <v>7.2</v>
       </c>
       <c r="AE81" t="n">
         <v>11.75</v>
@@ -15206,10 +15206,10 @@
         <v>250</v>
       </c>
       <c r="AH81" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AI81" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AJ81" t="n">
         <v>11.5</v>
@@ -15218,28 +15218,28 @@
         <v>50</v>
       </c>
       <c r="AL81" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AM81" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AN81" t="n">
         <v>4.15</v>
       </c>
       <c r="AO81" t="n">
-        <v>10</v>
+        <v>9.75</v>
       </c>
       <c r="AP81" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AQ81" t="n">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="AR81" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AS81" t="n">
-        <v>175</v>
+        <v>150</v>
       </c>
       <c r="AT81" t="n">
         <v>3.15</v>
@@ -15254,16 +15254,16 @@
         <v>5.6</v>
       </c>
       <c r="AX81" t="n">
-        <v>17.5</v>
+        <v>18</v>
       </c>
       <c r="AY81" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AZ81" t="n">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="BA81" t="n">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="BB81" t="n">
         <v>200</v>
@@ -15307,13 +15307,13 @@
         </is>
       </c>
       <c r="G82" t="n">
-        <v>2.88</v>
+        <v>2.8</v>
       </c>
       <c r="H82" t="n">
         <v>3.25</v>
       </c>
       <c r="I82" t="n">
-        <v>2.45</v>
+        <v>2.5</v>
       </c>
       <c r="J82" t="n">
         <v>3.5</v>
@@ -15403,7 +15403,7 @@
         <v>21</v>
       </c>
       <c r="AM82" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AN82" t="n">
         <v>4.75</v>
@@ -15436,13 +15436,13 @@
         <v>4.5</v>
       </c>
       <c r="AX82" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AY82" t="n">
         <v>23</v>
       </c>
       <c r="AZ82" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="BA82" t="n">
         <v>67</v>
@@ -15507,22 +15507,22 @@
         <v>5</v>
       </c>
       <c r="M83" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N83" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="O83" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="P83" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="Q83" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="R83" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="S83" t="n">
         <v>1.4</v>
@@ -15671,46 +15671,46 @@
         </is>
       </c>
       <c r="G84" t="n">
-        <v>10.25</v>
+        <v>10.75</v>
       </c>
       <c r="H84" t="n">
-        <v>5.1</v>
+        <v>5.2</v>
       </c>
       <c r="I84" t="n">
-        <v>1.26</v>
+        <v>1.24</v>
       </c>
       <c r="J84" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="K84" t="n">
         <v>2.47</v>
       </c>
       <c r="L84" t="n">
-        <v>1.7</v>
+        <v>1.65</v>
       </c>
       <c r="M84" t="n">
         <v>1.01</v>
       </c>
       <c r="N84" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="O84" t="n">
         <v>1.2</v>
       </c>
       <c r="P84" t="n">
-        <v>3.6</v>
+        <v>3.65</v>
       </c>
       <c r="Q84" t="n">
-        <v>1.62</v>
+        <v>1.6</v>
       </c>
       <c r="R84" t="n">
-        <v>2.02</v>
+        <v>2.07</v>
       </c>
       <c r="S84" t="n">
-        <v>1.31</v>
+        <v>1.3</v>
       </c>
       <c r="T84" t="n">
-        <v>3.27</v>
+        <v>3.3</v>
       </c>
       <c r="U84" t="n">
         <v>2.15</v>
@@ -15719,16 +15719,16 @@
         <v>1.55</v>
       </c>
       <c r="W84" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="X84" t="n">
         <v>80</v>
       </c>
       <c r="Y84" t="n">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="Z84" t="n">
-        <v>350</v>
+        <v>400</v>
       </c>
       <c r="AA84" t="n">
         <v>150</v>
@@ -15737,13 +15737,13 @@
         <v>120</v>
       </c>
       <c r="AC84" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="AD84" t="n">
-        <v>10.5</v>
+        <v>10.75</v>
       </c>
       <c r="AE84" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AF84" t="n">
         <v>150</v>
@@ -15752,16 +15752,16 @@
         <v>900</v>
       </c>
       <c r="AH84" t="n">
-        <v>6.6</v>
+        <v>6.8</v>
       </c>
       <c r="AI84" t="n">
         <v>5.7</v>
       </c>
       <c r="AJ84" t="n">
-        <v>9</v>
+        <v>9.25</v>
       </c>
       <c r="AK84" t="n">
-        <v>7.1</v>
+        <v>7</v>
       </c>
       <c r="AL84" t="n">
         <v>11.25</v>
@@ -15770,13 +15770,13 @@
         <v>35</v>
       </c>
       <c r="AN84" t="n">
-        <v>10.25</v>
+        <v>10.5</v>
       </c>
       <c r="AO84" t="n">
+        <v>65</v>
+      </c>
+      <c r="AP84" t="n">
         <v>60</v>
-      </c>
-      <c r="AP84" t="n">
-        <v>55</v>
       </c>
       <c r="AQ84" t="n">
         <v>500</v>
@@ -15800,13 +15800,13 @@
         <v>2.95</v>
       </c>
       <c r="AX84" t="n">
-        <v>5.3</v>
+        <v>5.2</v>
       </c>
       <c r="AY84" t="n">
         <v>17</v>
       </c>
       <c r="AZ84" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="BA84" t="n">
         <v>45</v>
@@ -15824,7 +15824,7 @@
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>WO4p0Rj2</t>
+          <t>C60eykDl</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
@@ -15834,167 +15834,167 @@
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>15:45</t>
+          <t>18:00</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>WALES - CYMRU PREMIER</t>
+          <t>VENEZUELA - LIGA FUTVE</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>Barry</t>
+          <t>Monagas</t>
         </is>
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>Aberystwyth</t>
+          <t>Puerto Cabello</t>
         </is>
       </c>
       <c r="G85" t="n">
-        <v>1.34</v>
+        <v>2.3</v>
       </c>
       <c r="H85" t="n">
-        <v>4.45</v>
+        <v>2.92</v>
       </c>
       <c r="I85" t="n">
-        <v>7.8</v>
+        <v>3.2</v>
       </c>
       <c r="J85" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="K85" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="L85" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="M85" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="N85" t="n">
+        <v>6.95</v>
+      </c>
+      <c r="O85" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="P85" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="Q85" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="R85" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="S85" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="T85" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="U85" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="V85" t="n">
         <v>1.82</v>
       </c>
-      <c r="K85" t="n">
+      <c r="W85" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="X85" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="Y85" t="n">
+        <v>9.25</v>
+      </c>
+      <c r="Z85" t="n">
+        <v>24</v>
+      </c>
+      <c r="AA85" t="n">
+        <v>21</v>
+      </c>
+      <c r="AB85" t="n">
+        <v>35</v>
+      </c>
+      <c r="AC85" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="AD85" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="AE85" t="n">
+        <v>14</v>
+      </c>
+      <c r="AF85" t="n">
+        <v>70</v>
+      </c>
+      <c r="AG85" t="n">
+        <v>600</v>
+      </c>
+      <c r="AH85" t="n">
+        <v>9</v>
+      </c>
+      <c r="AI85" t="n">
+        <v>17</v>
+      </c>
+      <c r="AJ85" t="n">
+        <v>11</v>
+      </c>
+      <c r="AK85" t="n">
+        <v>45</v>
+      </c>
+      <c r="AL85" t="n">
+        <v>29</v>
+      </c>
+      <c r="AM85" t="n">
+        <v>37</v>
+      </c>
+      <c r="AN85" t="n">
+        <v>4.15</v>
+      </c>
+      <c r="AO85" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AP85" t="n">
+        <v>21</v>
+      </c>
+      <c r="AQ85" t="n">
+        <v>55</v>
+      </c>
+      <c r="AR85" t="n">
+        <v>90</v>
+      </c>
+      <c r="AS85" t="n">
+        <v>300</v>
+      </c>
+      <c r="AT85" t="n">
         <v>2.4</v>
       </c>
-      <c r="L85" t="n">
-        <v>7</v>
-      </c>
-      <c r="M85" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="N85" t="n">
-        <v>8.25</v>
-      </c>
-      <c r="O85" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="P85" t="n">
-        <v>3.8</v>
-      </c>
-      <c r="Q85" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="R85" t="n">
-        <v>2.07</v>
-      </c>
-      <c r="S85" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="T85" t="n">
-        <v>3.05</v>
-      </c>
-      <c r="U85" t="n">
-        <v>2</v>
-      </c>
-      <c r="V85" t="n">
-        <v>1.72</v>
-      </c>
-      <c r="W85" t="n">
-        <v>6.9</v>
-      </c>
-      <c r="X85" t="n">
-        <v>6.3</v>
-      </c>
-      <c r="Y85" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="Z85" t="n">
-        <v>8.25</v>
-      </c>
-      <c r="AA85" t="n">
-        <v>11.25</v>
-      </c>
-      <c r="AB85" t="n">
-        <v>28</v>
-      </c>
-      <c r="AC85" t="n">
-        <v>8.25</v>
-      </c>
-      <c r="AD85" t="n">
-        <v>9.25</v>
-      </c>
-      <c r="AE85" t="n">
-        <v>21</v>
-      </c>
-      <c r="AF85" t="n">
-        <v>100</v>
-      </c>
-      <c r="AG85" t="n">
-        <v>800</v>
-      </c>
-      <c r="AH85" t="n">
-        <v>21</v>
-      </c>
-      <c r="AI85" t="n">
-        <v>55</v>
-      </c>
-      <c r="AJ85" t="n">
-        <v>25</v>
-      </c>
-      <c r="AK85" t="n">
-        <v>200</v>
-      </c>
-      <c r="AL85" t="n">
-        <v>100</v>
-      </c>
-      <c r="AM85" t="n">
+      <c r="AU85" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="AV85" t="n">
+        <v>60</v>
+      </c>
+      <c r="AW85" t="n">
+        <v>5</v>
+      </c>
+      <c r="AX85" t="n">
+        <v>17</v>
+      </c>
+      <c r="AY85" t="n">
+        <v>23</v>
+      </c>
+      <c r="AZ85" t="n">
         <v>80</v>
       </c>
-      <c r="AN85" t="n">
-        <v>3.15</v>
-      </c>
-      <c r="AO85" t="n">
-        <v>6</v>
-      </c>
-      <c r="AP85" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="AQ85" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="AR85" t="n">
-        <v>45</v>
-      </c>
-      <c r="AS85" t="n">
-        <v>250</v>
-      </c>
-      <c r="AT85" t="n">
-        <v>3.05</v>
-      </c>
-      <c r="AU85" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AV85" t="n">
-        <v>80</v>
-      </c>
-      <c r="AW85" t="n">
-        <v>9</v>
-      </c>
-      <c r="AX85" t="n">
-        <v>45</v>
-      </c>
-      <c r="AY85" t="n">
-        <v>45</v>
-      </c>
-      <c r="AZ85" t="n">
-        <v>350</v>
-      </c>
       <c r="BA85" t="n">
-        <v>350</v>
+        <v>110</v>
       </c>
       <c r="BB85" t="n">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="BC85" t="n">
         <v>51</v>
@@ -16006,7 +16006,7 @@
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>x2RBGnyq</t>
+          <t>fVTUKTS7</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
@@ -16016,158 +16016,158 @@
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>15:45</t>
+          <t>20:45</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>WALES - CYMRU PREMIER</t>
+          <t>VENEZUELA - LIGA FUTVE</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>Haverfordwest</t>
+          <t>La Guaira</t>
         </is>
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>Cardiff Metropolitan</t>
+          <t>Estudiantes Merida</t>
         </is>
       </c>
       <c r="G86" t="n">
-        <v>2.07</v>
+        <v>1.93</v>
       </c>
       <c r="H86" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="I86" t="n">
-        <v>3.5</v>
+        <v>3.8</v>
       </c>
       <c r="J86" t="n">
-        <v>2.7</v>
+        <v>2.55</v>
       </c>
       <c r="K86" t="n">
-        <v>2.02</v>
+        <v>2.05</v>
       </c>
       <c r="L86" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="M86" t="n">
-        <v>1.09</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="N86" t="n">
-        <v>6.2</v>
+        <v>1.05</v>
       </c>
       <c r="O86" t="n">
-        <v>1.39</v>
+        <v>1.28</v>
       </c>
       <c r="P86" t="n">
-        <v>2.77</v>
+        <v>3.05</v>
       </c>
       <c r="Q86" t="n">
-        <v>2.15</v>
+        <v>1.87</v>
       </c>
       <c r="R86" t="n">
-        <v>1.65</v>
+        <v>1.83</v>
       </c>
       <c r="S86" t="n">
-        <v>1.45</v>
+        <v>1.4</v>
       </c>
       <c r="T86" t="n">
-        <v>2.57</v>
+        <v>2.52</v>
       </c>
       <c r="U86" t="n">
-        <v>1.87</v>
+        <v>1.7</v>
       </c>
       <c r="V86" t="n">
-        <v>1.83</v>
+        <v>1.93</v>
       </c>
       <c r="W86" t="n">
-        <v>6.6</v>
+        <v>7.4</v>
       </c>
       <c r="X86" t="n">
         <v>9.5</v>
       </c>
       <c r="Y86" t="n">
-        <v>8.75</v>
+        <v>8.25</v>
       </c>
       <c r="Z86" t="n">
-        <v>20</v>
+        <v>17.5</v>
       </c>
       <c r="AA86" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="AB86" t="n">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="AC86" t="n">
-        <v>6.2</v>
+        <v>10</v>
       </c>
       <c r="AD86" t="n">
-        <v>5.9</v>
+        <v>6.4</v>
       </c>
       <c r="AE86" t="n">
-        <v>15</v>
+        <v>13.5</v>
       </c>
       <c r="AF86" t="n">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="AG86" t="n">
-        <v>700</v>
+        <v>450</v>
       </c>
       <c r="AH86" t="n">
-        <v>9</v>
+        <v>11.25</v>
       </c>
       <c r="AI86" t="n">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="AJ86" t="n">
         <v>12.5</v>
       </c>
       <c r="AK86" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AL86" t="n">
+        <v>35</v>
+      </c>
+      <c r="AM86" t="n">
         <v>37</v>
       </c>
-      <c r="AM86" t="n">
-        <v>45</v>
-      </c>
       <c r="AN86" t="n">
-        <v>3.95</v>
+        <v>3.8</v>
       </c>
       <c r="AO86" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AP86" t="n">
-        <v>19.5</v>
+        <v>18.5</v>
       </c>
       <c r="AQ86" t="n">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="AR86" t="n">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="AS86" t="n">
         <v>250</v>
       </c>
       <c r="AT86" t="n">
-        <v>2.57</v>
+        <v>2.5</v>
       </c>
       <c r="AU86" t="n">
-        <v>7.1</v>
+        <v>6.9</v>
       </c>
       <c r="AV86" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AW86" t="n">
-        <v>5.4</v>
+        <v>5.6</v>
       </c>
       <c r="AX86" t="n">
         <v>21</v>
       </c>
       <c r="AY86" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AZ86" t="n">
         <v>110</v>
@@ -16176,7 +16176,7 @@
         <v>150</v>
       </c>
       <c r="BB86" t="n">
-        <v>400</v>
+        <v>350</v>
       </c>
       <c r="BC86" t="n">
         <v>51</v>
@@ -16188,182 +16188,546 @@
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
+          <t>WO4p0Rj2</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>27/09/2024</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>15:45</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>WALES - CYMRU PREMIER</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>Barry</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>Aberystwyth</t>
+        </is>
+      </c>
+      <c r="G87" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="H87" t="n">
+        <v>4.45</v>
+      </c>
+      <c r="I87" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="J87" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="K87" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="L87" t="n">
+        <v>7</v>
+      </c>
+      <c r="M87" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="N87" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="O87" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="P87" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="Q87" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="R87" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="S87" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="T87" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="U87" t="n">
+        <v>2</v>
+      </c>
+      <c r="V87" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="W87" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="X87" t="n">
+        <v>6.3</v>
+      </c>
+      <c r="Y87" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Z87" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="AA87" t="n">
+        <v>11.25</v>
+      </c>
+      <c r="AB87" t="n">
+        <v>28</v>
+      </c>
+      <c r="AC87" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="AD87" t="n">
+        <v>9.25</v>
+      </c>
+      <c r="AE87" t="n">
+        <v>21</v>
+      </c>
+      <c r="AF87" t="n">
+        <v>100</v>
+      </c>
+      <c r="AG87" t="n">
+        <v>800</v>
+      </c>
+      <c r="AH87" t="n">
+        <v>21</v>
+      </c>
+      <c r="AI87" t="n">
+        <v>55</v>
+      </c>
+      <c r="AJ87" t="n">
+        <v>25</v>
+      </c>
+      <c r="AK87" t="n">
+        <v>200</v>
+      </c>
+      <c r="AL87" t="n">
+        <v>100</v>
+      </c>
+      <c r="AM87" t="n">
+        <v>80</v>
+      </c>
+      <c r="AN87" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="AO87" t="n">
+        <v>6</v>
+      </c>
+      <c r="AP87" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AQ87" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AR87" t="n">
+        <v>45</v>
+      </c>
+      <c r="AS87" t="n">
+        <v>250</v>
+      </c>
+      <c r="AT87" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="AU87" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AV87" t="n">
+        <v>80</v>
+      </c>
+      <c r="AW87" t="n">
+        <v>9</v>
+      </c>
+      <c r="AX87" t="n">
+        <v>45</v>
+      </c>
+      <c r="AY87" t="n">
+        <v>45</v>
+      </c>
+      <c r="AZ87" t="n">
+        <v>350</v>
+      </c>
+      <c r="BA87" t="n">
+        <v>350</v>
+      </c>
+      <c r="BB87" t="n">
+        <v>500</v>
+      </c>
+      <c r="BC87" t="n">
+        <v>51</v>
+      </c>
+      <c r="BD87" t="n">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>x2RBGnyq</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>27/09/2024</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>15:45</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>WALES - CYMRU PREMIER</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>Haverfordwest</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>Cardiff Metropolitan</t>
+        </is>
+      </c>
+      <c r="G88" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="H88" t="n">
+        <v>3</v>
+      </c>
+      <c r="I88" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="J88" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="K88" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="L88" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="M88" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="N88" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="O88" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="P88" t="n">
+        <v>2.77</v>
+      </c>
+      <c r="Q88" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="R88" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="S88" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="T88" t="n">
+        <v>2.57</v>
+      </c>
+      <c r="U88" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="V88" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="W88" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="X88" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="Y88" t="n">
+        <v>8.75</v>
+      </c>
+      <c r="Z88" t="n">
+        <v>20</v>
+      </c>
+      <c r="AA88" t="n">
+        <v>18</v>
+      </c>
+      <c r="AB88" t="n">
+        <v>32</v>
+      </c>
+      <c r="AC88" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="AD88" t="n">
+        <v>5.9</v>
+      </c>
+      <c r="AE88" t="n">
+        <v>15</v>
+      </c>
+      <c r="AF88" t="n">
+        <v>80</v>
+      </c>
+      <c r="AG88" t="n">
+        <v>700</v>
+      </c>
+      <c r="AH88" t="n">
+        <v>9</v>
+      </c>
+      <c r="AI88" t="n">
+        <v>18</v>
+      </c>
+      <c r="AJ88" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AK88" t="n">
+        <v>55</v>
+      </c>
+      <c r="AL88" t="n">
+        <v>37</v>
+      </c>
+      <c r="AM88" t="n">
+        <v>45</v>
+      </c>
+      <c r="AN88" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="AO88" t="n">
+        <v>11</v>
+      </c>
+      <c r="AP88" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="AQ88" t="n">
+        <v>45</v>
+      </c>
+      <c r="AR88" t="n">
+        <v>80</v>
+      </c>
+      <c r="AS88" t="n">
+        <v>250</v>
+      </c>
+      <c r="AT88" t="n">
+        <v>2.57</v>
+      </c>
+      <c r="AU88" t="n">
+        <v>7.1</v>
+      </c>
+      <c r="AV88" t="n">
+        <v>65</v>
+      </c>
+      <c r="AW88" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="AX88" t="n">
+        <v>21</v>
+      </c>
+      <c r="AY88" t="n">
+        <v>28</v>
+      </c>
+      <c r="AZ88" t="n">
+        <v>110</v>
+      </c>
+      <c r="BA88" t="n">
+        <v>150</v>
+      </c>
+      <c r="BB88" t="n">
+        <v>400</v>
+      </c>
+      <c r="BC88" t="n">
+        <v>51</v>
+      </c>
+      <c r="BD88" t="n">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
           <t>IHpuM8DL</t>
         </is>
       </c>
-      <c r="B87" t="inlineStr">
+      <c r="B89" t="inlineStr">
         <is>
           <t>27/09/2024</t>
         </is>
       </c>
-      <c r="C87" t="inlineStr">
+      <c r="C89" t="inlineStr">
         <is>
           <t>15:45</t>
         </is>
       </c>
-      <c r="D87" t="inlineStr">
+      <c r="D89" t="inlineStr">
         <is>
           <t>WALES - CYMRU PREMIER</t>
         </is>
       </c>
-      <c r="E87" t="inlineStr">
+      <c r="E89" t="inlineStr">
         <is>
           <t>Newtown</t>
         </is>
       </c>
-      <c r="F87" t="inlineStr">
+      <c r="F89" t="inlineStr">
         <is>
           <t>TNS</t>
         </is>
       </c>
-      <c r="G87" t="n">
+      <c r="G89" t="n">
         <v>11</v>
       </c>
-      <c r="H87" t="n">
+      <c r="H89" t="n">
         <v>5.5</v>
       </c>
-      <c r="I87" t="n">
+      <c r="I89" t="n">
         <v>1.21</v>
       </c>
-      <c r="J87" t="n">
+      <c r="J89" t="n">
         <v>9</v>
       </c>
-      <c r="K87" t="n">
+      <c r="K89" t="n">
         <v>2.67</v>
       </c>
-      <c r="L87" t="n">
+      <c r="L89" t="n">
         <v>1.6</v>
       </c>
-      <c r="M87" t="n">
+      <c r="M89" t="n">
         <v>1.03</v>
       </c>
-      <c r="N87" t="n">
+      <c r="N89" t="n">
         <v>9.25</v>
       </c>
-      <c r="O87" t="n">
+      <c r="O89" t="n">
         <v>1.16</v>
       </c>
-      <c r="P87" t="n">
+      <c r="P89" t="n">
         <v>4.55</v>
       </c>
-      <c r="Q87" t="n">
+      <c r="Q89" t="n">
         <v>1.5</v>
       </c>
-      <c r="R87" t="n">
+      <c r="R89" t="n">
         <v>2.42</v>
       </c>
-      <c r="S87" t="n">
+      <c r="S89" t="n">
         <v>1.28</v>
       </c>
-      <c r="T87" t="n">
+      <c r="T89" t="n">
         <v>3.35</v>
       </c>
-      <c r="U87" t="n">
+      <c r="U89" t="n">
         <v>2.1</v>
       </c>
-      <c r="V87" t="n">
+      <c r="V89" t="n">
         <v>1.65</v>
       </c>
-      <c r="W87" t="n">
+      <c r="W89" t="n">
         <v>30</v>
       </c>
-      <c r="X87" t="n">
+      <c r="X89" t="n">
         <v>90</v>
       </c>
-      <c r="Y87" t="n">
+      <c r="Y89" t="n">
         <v>37</v>
       </c>
-      <c r="Z87" t="n">
+      <c r="Z89" t="n">
         <v>400</v>
       </c>
-      <c r="AA87" t="n">
+      <c r="AA89" t="n">
         <v>175</v>
       </c>
-      <c r="AB87" t="n">
+      <c r="AB89" t="n">
         <v>120</v>
       </c>
-      <c r="AC87" t="n">
+      <c r="AC89" t="n">
         <v>9.25</v>
       </c>
-      <c r="AD87" t="n">
+      <c r="AD89" t="n">
         <v>12</v>
       </c>
-      <c r="AE87" t="n">
+      <c r="AE89" t="n">
         <v>27</v>
       </c>
-      <c r="AF87" t="n">
+      <c r="AF89" t="n">
         <v>120</v>
       </c>
-      <c r="AG87" t="n">
+      <c r="AG89" t="n">
         <v>201</v>
       </c>
-      <c r="AH87" t="n">
+      <c r="AH89" t="n">
         <v>8</v>
       </c>
-      <c r="AI87" t="n">
+      <c r="AI89" t="n">
         <v>6.3</v>
       </c>
-      <c r="AJ87" t="n">
+      <c r="AJ89" t="n">
         <v>9.25</v>
       </c>
-      <c r="AK87" t="n">
+      <c r="AK89" t="n">
         <v>7.1</v>
       </c>
-      <c r="AL87" t="n">
+      <c r="AL89" t="n">
         <v>10.5</v>
       </c>
-      <c r="AM87" t="n">
+      <c r="AM89" t="n">
         <v>30</v>
       </c>
-      <c r="AN87" t="n">
+      <c r="AN89" t="n">
         <v>11.25</v>
       </c>
-      <c r="AO87" t="n">
+      <c r="AO89" t="n">
         <v>70</v>
       </c>
-      <c r="AP87" t="n">
+      <c r="AP89" t="n">
         <v>60</v>
       </c>
-      <c r="AQ87" t="n">
+      <c r="AQ89" t="n">
         <v>500</v>
       </c>
-      <c r="AR87" t="n">
+      <c r="AR89" t="n">
         <v>500</v>
       </c>
-      <c r="AS87" t="n">
-        <v>51</v>
-      </c>
-      <c r="AT87" t="n">
+      <c r="AS89" t="n">
+        <v>51</v>
+      </c>
+      <c r="AT89" t="n">
         <v>3.35</v>
       </c>
-      <c r="AU87" t="n">
+      <c r="AU89" t="n">
         <v>9.5</v>
       </c>
-      <c r="AV87" t="n">
+      <c r="AV89" t="n">
         <v>90</v>
       </c>
-      <c r="AW87" t="n">
+      <c r="AW89" t="n">
         <v>3.1</v>
       </c>
-      <c r="AX87" t="n">
+      <c r="AX89" t="n">
         <v>5.1</v>
       </c>
-      <c r="AY87" t="n">
+      <c r="AY89" t="n">
         <v>15.5</v>
       </c>
-      <c r="AZ87" t="n">
+      <c r="AZ89" t="n">
         <v>12</v>
       </c>
-      <c r="BA87" t="n">
+      <c r="BA89" t="n">
         <v>37</v>
       </c>
-      <c r="BB87" t="n">
+      <c r="BB89" t="n">
         <v>200</v>
       </c>
-      <c r="BC87" t="n">
-        <v>51</v>
-      </c>
-      <c r="BD87" t="n">
+      <c r="BC89" t="n">
+        <v>51</v>
+      </c>
+      <c r="BD89" t="n">
         <v>51</v>
       </c>
     </row>

--- a/Jogos_da_Semana_FlashScore_2024-09-27.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-09-27.xlsx
@@ -929,13 +929,13 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>1.42</v>
+        <v>1.4</v>
       </c>
       <c r="H3" t="n">
         <v>5</v>
       </c>
       <c r="I3" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="J3" t="n">
         <v>1.91</v>
@@ -959,10 +959,10 @@
         <v>4.5</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="R3" t="n">
-        <v>2.38</v>
+        <v>2.3</v>
       </c>
       <c r="S3" t="n">
         <v>1.29</v>
@@ -977,7 +977,7 @@
         <v>1.95</v>
       </c>
       <c r="W3" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="X3" t="n">
         <v>7.5</v>
@@ -986,16 +986,16 @@
         <v>8.5</v>
       </c>
       <c r="Z3" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AA3" t="n">
         <v>11</v>
       </c>
       <c r="AB3" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AC3" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AD3" t="n">
         <v>9.5</v>
@@ -1007,7 +1007,7 @@
         <v>51</v>
       </c>
       <c r="AG3" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="AH3" t="n">
         <v>19</v>
@@ -1016,13 +1016,13 @@
         <v>41</v>
       </c>
       <c r="AJ3" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AK3" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AL3" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AM3" t="n">
         <v>41</v>
@@ -1034,7 +1034,7 @@
         <v>6.5</v>
       </c>
       <c r="AP3" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AQ3" t="n">
         <v>19</v>
@@ -1055,7 +1055,7 @@
         <v>51</v>
       </c>
       <c r="AW3" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AX3" t="n">
         <v>34</v>
@@ -1111,13 +1111,13 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>1.27</v>
+        <v>1.22</v>
       </c>
       <c r="H4" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="I4" t="n">
-        <v>9.5</v>
+        <v>10.5</v>
       </c>
       <c r="J4" t="n">
         <v>1.62</v>
@@ -1132,7 +1132,7 @@
         <v>1.01</v>
       </c>
       <c r="N4" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="O4" t="n">
         <v>1.08</v>
@@ -1141,10 +1141,10 @@
         <v>8</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="R4" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="S4" t="n">
         <v>1.17</v>
@@ -1165,7 +1165,7 @@
         <v>9.5</v>
       </c>
       <c r="Y4" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="Z4" t="n">
         <v>9.5</v>
@@ -1180,7 +1180,7 @@
         <v>29</v>
       </c>
       <c r="AD4" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AE4" t="n">
         <v>19</v>
@@ -1189,7 +1189,7 @@
         <v>41</v>
       </c>
       <c r="AG4" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="AH4" t="n">
         <v>34</v>
@@ -1216,7 +1216,7 @@
         <v>5.5</v>
       </c>
       <c r="AP4" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AQ4" t="n">
         <v>12</v>
@@ -1237,7 +1237,7 @@
         <v>41</v>
       </c>
       <c r="AW4" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AX4" t="n">
         <v>41</v>
@@ -1258,7 +1258,7 @@
         <v>301</v>
       </c>
       <c r="BD4" t="n">
-        <v>151</v>
+        <v>176</v>
       </c>
     </row>
     <row r="5">
@@ -1311,10 +1311,10 @@
         <v>7</v>
       </c>
       <c r="M5" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="N5" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="O5" t="n">
         <v>1.17</v>
@@ -1323,10 +1323,10 @@
         <v>5</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="R5" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="S5" t="n">
         <v>1.25</v>
@@ -1341,10 +1341,10 @@
         <v>1.91</v>
       </c>
       <c r="W5" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="X5" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="Y5" t="n">
         <v>8.5</v>
@@ -1359,7 +1359,7 @@
         <v>23</v>
       </c>
       <c r="AC5" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AD5" t="n">
         <v>11</v>
@@ -1389,7 +1389,7 @@
         <v>51</v>
       </c>
       <c r="AM5" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AN5" t="n">
         <v>3.4</v>
@@ -1425,16 +1425,16 @@
         <v>41</v>
       </c>
       <c r="AY5" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AZ5" t="n">
         <v>151</v>
       </c>
       <c r="BA5" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="BB5" t="n">
-        <v>251</v>
+        <v>201</v>
       </c>
       <c r="BC5" t="n">
         <v>501</v>
@@ -1475,10 +1475,10 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>2.75</v>
+        <v>2.8</v>
       </c>
       <c r="H6" t="n">
-        <v>3.7</v>
+        <v>3.6</v>
       </c>
       <c r="I6" t="n">
         <v>2.4</v>
@@ -1487,7 +1487,7 @@
         <v>3.2</v>
       </c>
       <c r="K6" t="n">
-        <v>2.4</v>
+        <v>2.38</v>
       </c>
       <c r="L6" t="n">
         <v>2.88</v>
@@ -1496,7 +1496,7 @@
         <v>1.03</v>
       </c>
       <c r="N6" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="O6" t="n">
         <v>1.17</v>
@@ -1505,16 +1505,16 @@
         <v>5</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.57</v>
+        <v>1.6</v>
       </c>
       <c r="R6" t="n">
-        <v>2.35</v>
+        <v>2.3</v>
       </c>
       <c r="S6" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="T6" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="U6" t="n">
         <v>1.5</v>
@@ -1529,7 +1529,7 @@
         <v>17</v>
       </c>
       <c r="Y6" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="Z6" t="n">
         <v>29</v>
@@ -1538,13 +1538,13 @@
         <v>19</v>
       </c>
       <c r="AB6" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AC6" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AD6" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AE6" t="n">
         <v>11</v>
@@ -1577,7 +1577,7 @@
         <v>5</v>
       </c>
       <c r="AO6" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AP6" t="n">
         <v>19</v>
@@ -1592,7 +1592,7 @@
         <v>101</v>
       </c>
       <c r="AT6" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="AU6" t="n">
         <v>7</v>
@@ -1607,7 +1607,7 @@
         <v>12</v>
       </c>
       <c r="AY6" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AZ6" t="n">
         <v>41</v>
@@ -1619,7 +1619,7 @@
         <v>101</v>
       </c>
       <c r="BC6" t="n">
-        <v>301</v>
+        <v>351</v>
       </c>
       <c r="BD6" t="n">
         <v>151</v>
@@ -1681,16 +1681,16 @@
         <v>6</v>
       </c>
       <c r="O7" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="P7" t="n">
-        <v>2.38</v>
+        <v>2.3</v>
       </c>
       <c r="Q7" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="R7" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="S7" t="n">
         <v>1.62</v>
@@ -1839,13 +1839,13 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>1.93</v>
+        <v>1.91</v>
       </c>
       <c r="H8" t="n">
         <v>3.55</v>
       </c>
       <c r="I8" t="n">
-        <v>3.6</v>
+        <v>3.65</v>
       </c>
       <c r="J8" t="n">
         <v>2.52</v>
@@ -1866,10 +1866,10 @@
         <v>1.28</v>
       </c>
       <c r="P8" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.87</v>
+        <v>1.85</v>
       </c>
       <c r="R8" t="n">
         <v>1.88</v>
@@ -1887,7 +1887,7 @@
         <v>1.98</v>
       </c>
       <c r="W8" t="n">
-        <v>7.5</v>
+        <v>7.4</v>
       </c>
       <c r="X8" t="n">
         <v>9.25</v>
@@ -1917,16 +1917,16 @@
         <v>65</v>
       </c>
       <c r="AG8" t="n">
-        <v>500</v>
+        <v>450</v>
       </c>
       <c r="AH8" t="n">
-        <v>11</v>
+        <v>11.25</v>
       </c>
       <c r="AI8" t="n">
-        <v>19.5</v>
+        <v>20</v>
       </c>
       <c r="AJ8" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="AK8" t="n">
         <v>50</v>
@@ -1971,7 +1971,7 @@
         <v>20</v>
       </c>
       <c r="AY8" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AZ8" t="n">
         <v>100</v>
@@ -2024,7 +2024,7 @@
         <v>3</v>
       </c>
       <c r="H9" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="I9" t="n">
         <v>2.1</v>
@@ -2045,10 +2045,10 @@
         <v>8.5</v>
       </c>
       <c r="O9" t="n">
-        <v>1.22</v>
+        <v>1.21</v>
       </c>
       <c r="P9" t="n">
-        <v>3.85</v>
+        <v>3.9</v>
       </c>
       <c r="Q9" t="n">
         <v>1.65</v>
@@ -2057,19 +2057,19 @@
         <v>2.15</v>
       </c>
       <c r="S9" t="n">
-        <v>1.32</v>
+        <v>1.33</v>
       </c>
       <c r="T9" t="n">
-        <v>3.1</v>
+        <v>3.05</v>
       </c>
       <c r="U9" t="n">
         <v>1.6</v>
       </c>
       <c r="V9" t="n">
-        <v>2.2</v>
+        <v>2.22</v>
       </c>
       <c r="W9" t="n">
-        <v>11.5</v>
+        <v>11.75</v>
       </c>
       <c r="X9" t="n">
         <v>17</v>
@@ -2084,19 +2084,19 @@
         <v>23</v>
       </c>
       <c r="AB9" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AC9" t="n">
         <v>8.5</v>
       </c>
       <c r="AD9" t="n">
-        <v>7.3</v>
+        <v>7.4</v>
       </c>
       <c r="AE9" t="n">
         <v>13</v>
       </c>
       <c r="AF9" t="n">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="AG9" t="n">
         <v>300</v>
@@ -2114,7 +2114,7 @@
         <v>19.5</v>
       </c>
       <c r="AL9" t="n">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="AM9" t="n">
         <v>22</v>
@@ -2129,7 +2129,7 @@
         <v>21</v>
       </c>
       <c r="AQ9" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AR9" t="n">
         <v>90</v>
@@ -2138,13 +2138,13 @@
         <v>250</v>
       </c>
       <c r="AT9" t="n">
-        <v>3.1</v>
+        <v>3.05</v>
       </c>
       <c r="AU9" t="n">
-        <v>6.8</v>
+        <v>6.9</v>
       </c>
       <c r="AV9" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="AW9" t="n">
         <v>4.2</v>
@@ -2162,7 +2162,7 @@
         <v>60</v>
       </c>
       <c r="BB9" t="n">
-        <v>175</v>
+        <v>200</v>
       </c>
       <c r="BC9" t="n">
         <v>81</v>
@@ -2203,22 +2203,22 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>2.82</v>
+        <v>2.87</v>
       </c>
       <c r="H10" t="n">
-        <v>3.7</v>
+        <v>3.6</v>
       </c>
       <c r="I10" t="n">
-        <v>2.18</v>
+        <v>2.2</v>
       </c>
       <c r="J10" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="K10" t="n">
-        <v>2.32</v>
+        <v>2.3</v>
       </c>
       <c r="L10" t="n">
-        <v>2.67</v>
+        <v>2.7</v>
       </c>
       <c r="M10" t="n">
         <v>1.03</v>
@@ -2227,16 +2227,16 @@
         <v>9</v>
       </c>
       <c r="O10" t="n">
-        <v>1.19</v>
+        <v>1.18</v>
       </c>
       <c r="P10" t="n">
-        <v>4.15</v>
+        <v>4.25</v>
       </c>
       <c r="Q10" t="n">
         <v>1.57</v>
       </c>
       <c r="R10" t="n">
-        <v>2.25</v>
+        <v>2.27</v>
       </c>
       <c r="S10" t="n">
         <v>1.3</v>
@@ -2245,16 +2245,16 @@
         <v>3.2</v>
       </c>
       <c r="U10" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="V10" t="n">
-        <v>2.35</v>
+        <v>2.42</v>
       </c>
       <c r="W10" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="X10" t="n">
-        <v>16.5</v>
+        <v>17.5</v>
       </c>
       <c r="Y10" t="n">
         <v>10.5</v>
@@ -2272,40 +2272,40 @@
         <v>9</v>
       </c>
       <c r="AD10" t="n">
-        <v>7.5</v>
+        <v>7.3</v>
       </c>
       <c r="AE10" t="n">
-        <v>12</v>
+        <v>11.25</v>
       </c>
       <c r="AF10" t="n">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="AG10" t="n">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="AH10" t="n">
-        <v>10.75</v>
+        <v>11.25</v>
       </c>
       <c r="AI10" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="AJ10" t="n">
         <v>9</v>
       </c>
       <c r="AK10" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AL10" t="n">
         <v>15.5</v>
       </c>
       <c r="AM10" t="n">
-        <v>21</v>
+        <v>19.5</v>
       </c>
       <c r="AN10" t="n">
-        <v>5.1</v>
+        <v>5.2</v>
       </c>
       <c r="AO10" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="AP10" t="n">
         <v>19</v>
@@ -2317,34 +2317,34 @@
         <v>80</v>
       </c>
       <c r="AS10" t="n">
-        <v>200</v>
+        <v>175</v>
       </c>
       <c r="AT10" t="n">
         <v>3.2</v>
       </c>
       <c r="AU10" t="n">
-        <v>6.6</v>
+        <v>6.4</v>
       </c>
       <c r="AV10" t="n">
         <v>45</v>
       </c>
       <c r="AW10" t="n">
-        <v>4.4</v>
+        <v>4.45</v>
       </c>
       <c r="AX10" t="n">
-        <v>10.75</v>
+        <v>11</v>
       </c>
       <c r="AY10" t="n">
-        <v>16.5</v>
+        <v>15.5</v>
       </c>
       <c r="AZ10" t="n">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="BA10" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="BB10" t="n">
-        <v>175</v>
+        <v>150</v>
       </c>
       <c r="BC10" t="n">
         <v>500</v>
@@ -2388,10 +2388,10 @@
         <v>2.67</v>
       </c>
       <c r="H11" t="n">
-        <v>3.9</v>
+        <v>3.85</v>
       </c>
       <c r="I11" t="n">
-        <v>2.22</v>
+        <v>2.25</v>
       </c>
       <c r="J11" t="n">
         <v>3.1</v>
@@ -2424,13 +2424,13 @@
         <v>1.27</v>
       </c>
       <c r="T11" t="n">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="U11" t="n">
         <v>1.47</v>
       </c>
       <c r="V11" t="n">
-        <v>2.5</v>
+        <v>2.52</v>
       </c>
       <c r="W11" t="n">
         <v>13.5</v>
@@ -2442,7 +2442,7 @@
         <v>10.25</v>
       </c>
       <c r="Z11" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="AA11" t="n">
         <v>19</v>
@@ -2460,13 +2460,13 @@
         <v>11.75</v>
       </c>
       <c r="AF11" t="n">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="AG11" t="n">
-        <v>200</v>
+        <v>175</v>
       </c>
       <c r="AH11" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="AI11" t="n">
         <v>14</v>
@@ -2475,7 +2475,7 @@
         <v>9.25</v>
       </c>
       <c r="AK11" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AL11" t="n">
         <v>15.5</v>
@@ -2484,10 +2484,10 @@
         <v>19.5</v>
       </c>
       <c r="AN11" t="n">
-        <v>5</v>
+        <v>5.1</v>
       </c>
       <c r="AO11" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="AP11" t="n">
         <v>17</v>
@@ -2502,16 +2502,16 @@
         <v>150</v>
       </c>
       <c r="AT11" t="n">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="AU11" t="n">
-        <v>6.5</v>
+        <v>6.4</v>
       </c>
       <c r="AV11" t="n">
         <v>40</v>
       </c>
       <c r="AW11" t="n">
-        <v>4.55</v>
+        <v>4.6</v>
       </c>
       <c r="AX11" t="n">
         <v>11</v>
@@ -2523,13 +2523,13 @@
         <v>37</v>
       </c>
       <c r="BA11" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="BB11" t="n">
         <v>150</v>
       </c>
       <c r="BC11" t="n">
-        <v>81</v>
+        <v>500</v>
       </c>
       <c r="BD11" t="n">
         <v>81</v>
@@ -2567,22 +2567,22 @@
         </is>
       </c>
       <c r="G12" t="n">
-        <v>1.33</v>
+        <v>1.32</v>
       </c>
       <c r="H12" t="n">
         <v>5.1</v>
       </c>
       <c r="I12" t="n">
-        <v>7.6</v>
+        <v>7.7</v>
       </c>
       <c r="J12" t="n">
         <v>1.72</v>
       </c>
       <c r="K12" t="n">
-        <v>2.72</v>
+        <v>2.7</v>
       </c>
       <c r="L12" t="n">
-        <v>6.3</v>
+        <v>6.4</v>
       </c>
       <c r="M12" t="n">
         <v>1.02</v>
@@ -2603,10 +2603,10 @@
         <v>2.67</v>
       </c>
       <c r="S12" t="n">
-        <v>1.22</v>
+        <v>1.23</v>
       </c>
       <c r="T12" t="n">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="U12" t="n">
         <v>1.7</v>
@@ -2618,7 +2618,7 @@
         <v>10</v>
       </c>
       <c r="X12" t="n">
-        <v>8</v>
+        <v>7.9</v>
       </c>
       <c r="Y12" t="n">
         <v>8.5</v>
@@ -2639,7 +2639,7 @@
         <v>10.75</v>
       </c>
       <c r="AE12" t="n">
-        <v>17</v>
+        <v>17.5</v>
       </c>
       <c r="AF12" t="n">
         <v>60</v>
@@ -2648,25 +2648,25 @@
         <v>350</v>
       </c>
       <c r="AH12" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AI12" t="n">
         <v>60</v>
       </c>
       <c r="AJ12" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AK12" t="n">
         <v>175</v>
       </c>
       <c r="AL12" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="AM12" t="n">
         <v>55</v>
       </c>
       <c r="AN12" t="n">
-        <v>3.55</v>
+        <v>3.5</v>
       </c>
       <c r="AO12" t="n">
         <v>5.8</v>
@@ -2675,7 +2675,7 @@
         <v>12.5</v>
       </c>
       <c r="AQ12" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="AR12" t="n">
         <v>30</v>
@@ -2684,10 +2684,10 @@
         <v>120</v>
       </c>
       <c r="AT12" t="n">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="AU12" t="n">
-        <v>7.5</v>
+        <v>7.6</v>
       </c>
       <c r="AV12" t="n">
         <v>50</v>
@@ -2696,7 +2696,7 @@
         <v>9.25</v>
       </c>
       <c r="AX12" t="n">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="AY12" t="n">
         <v>32</v>
@@ -2705,7 +2705,7 @@
         <v>250</v>
       </c>
       <c r="BA12" t="n">
-        <v>175</v>
+        <v>200</v>
       </c>
       <c r="BB12" t="n">
         <v>300</v>
@@ -2749,13 +2749,13 @@
         </is>
       </c>
       <c r="G13" t="n">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="H13" t="n">
         <v>3.75</v>
       </c>
       <c r="I13" t="n">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="J13" t="n">
         <v>4.33</v>
@@ -2764,25 +2764,25 @@
         <v>2.3</v>
       </c>
       <c r="L13" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="M13" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="N13" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="O13" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="P13" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="Q13" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="R13" t="n">
-        <v>2.08</v>
+        <v>2.15</v>
       </c>
       <c r="S13" t="n">
         <v>1.33</v>
@@ -2791,10 +2791,10 @@
         <v>3.25</v>
       </c>
       <c r="U13" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="V13" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="W13" t="n">
         <v>13</v>
@@ -2821,7 +2821,7 @@
         <v>7.5</v>
       </c>
       <c r="AE13" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AF13" t="n">
         <v>41</v>
@@ -2833,19 +2833,19 @@
         <v>8.5</v>
       </c>
       <c r="AI13" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AJ13" t="n">
         <v>8.5</v>
       </c>
       <c r="AK13" t="n">
+        <v>17</v>
+      </c>
+      <c r="AL13" t="n">
         <v>15</v>
       </c>
-      <c r="AL13" t="n">
-        <v>13</v>
-      </c>
       <c r="AM13" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AN13" t="n">
         <v>6</v>
@@ -2872,7 +2872,7 @@
         <v>7.5</v>
       </c>
       <c r="AV13" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AW13" t="n">
         <v>4</v>
@@ -2890,10 +2890,10 @@
         <v>51</v>
       </c>
       <c r="BB13" t="n">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="BC13" t="n">
-        <v>501</v>
+        <v>451</v>
       </c>
       <c r="BD13" t="n">
         <v>151</v>
@@ -3113,22 +3113,22 @@
         </is>
       </c>
       <c r="G15" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="H15" t="n">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="I15" t="n">
-        <v>1.75</v>
+        <v>1.73</v>
       </c>
       <c r="J15" t="n">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="K15" t="n">
         <v>2.3</v>
       </c>
       <c r="L15" t="n">
-        <v>2.38</v>
+        <v>2.3</v>
       </c>
       <c r="M15" t="n">
         <v>1.04</v>
@@ -3161,7 +3161,7 @@
         <v>2</v>
       </c>
       <c r="W15" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="X15" t="n">
         <v>23</v>
@@ -3170,13 +3170,13 @@
         <v>15</v>
       </c>
       <c r="Z15" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AA15" t="n">
         <v>34</v>
       </c>
       <c r="AB15" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AC15" t="n">
         <v>13</v>
@@ -3203,7 +3203,7 @@
         <v>8.5</v>
       </c>
       <c r="AK15" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AL15" t="n">
         <v>13</v>
@@ -3212,7 +3212,7 @@
         <v>23</v>
       </c>
       <c r="AN15" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AO15" t="n">
         <v>23</v>
@@ -3221,7 +3221,7 @@
         <v>29</v>
       </c>
       <c r="AQ15" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AR15" t="n">
         <v>81</v>
@@ -3233,13 +3233,13 @@
         <v>3.25</v>
       </c>
       <c r="AU15" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AV15" t="n">
         <v>51</v>
       </c>
       <c r="AW15" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="AX15" t="n">
         <v>9</v>
@@ -3841,16 +3841,16 @@
         </is>
       </c>
       <c r="G19" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="H19" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="I19" t="n">
         <v>4.75</v>
       </c>
       <c r="J19" t="n">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="K19" t="n">
         <v>2.1</v>
@@ -3859,10 +3859,10 @@
         <v>5</v>
       </c>
       <c r="M19" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="N19" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="O19" t="n">
         <v>1.36</v>
@@ -3871,10 +3871,10 @@
         <v>3</v>
       </c>
       <c r="Q19" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="R19" t="n">
-        <v>1.65</v>
+        <v>1.7</v>
       </c>
       <c r="S19" t="n">
         <v>1.44</v>
@@ -3901,13 +3901,13 @@
         <v>13</v>
       </c>
       <c r="AA19" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AB19" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AC19" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AD19" t="n">
         <v>6.5</v>
@@ -3928,7 +3928,7 @@
         <v>23</v>
       </c>
       <c r="AJ19" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AK19" t="n">
         <v>51</v>
@@ -3937,7 +3937,7 @@
         <v>41</v>
       </c>
       <c r="AM19" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AN19" t="n">
         <v>3.6</v>
@@ -3955,7 +3955,7 @@
         <v>51</v>
       </c>
       <c r="AS19" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="AT19" t="n">
         <v>2.63</v>
@@ -4205,88 +4205,88 @@
         </is>
       </c>
       <c r="G21" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="H21" t="n">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="I21" t="n">
-        <v>3.9</v>
+        <v>4.1</v>
       </c>
       <c r="J21" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="K21" t="n">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="L21" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="M21" t="n">
-        <v>1.1</v>
+        <v>1.13</v>
       </c>
       <c r="N21" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="O21" t="n">
-        <v>1.44</v>
+        <v>1.57</v>
       </c>
       <c r="P21" t="n">
-        <v>2.63</v>
+        <v>2.25</v>
       </c>
       <c r="Q21" t="n">
-        <v>2.4</v>
+        <v>2.88</v>
       </c>
       <c r="R21" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="S21" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="T21" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="U21" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="V21" t="n">
         <v>1.53</v>
       </c>
-      <c r="S21" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="T21" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="U21" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="V21" t="n">
-        <v>1.67</v>
-      </c>
       <c r="W21" t="n">
+        <v>5</v>
+      </c>
+      <c r="X21" t="n">
+        <v>8</v>
+      </c>
+      <c r="Y21" t="n">
+        <v>10</v>
+      </c>
+      <c r="Z21" t="n">
+        <v>19</v>
+      </c>
+      <c r="AA21" t="n">
+        <v>23</v>
+      </c>
+      <c r="AB21" t="n">
+        <v>41</v>
+      </c>
+      <c r="AC21" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AD21" t="n">
         <v>6</v>
       </c>
-      <c r="X21" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="Y21" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="Z21" t="n">
-        <v>17</v>
-      </c>
-      <c r="AA21" t="n">
-        <v>19</v>
-      </c>
-      <c r="AB21" t="n">
-        <v>34</v>
-      </c>
-      <c r="AC21" t="n">
-        <v>7</v>
-      </c>
-      <c r="AD21" t="n">
-        <v>6.5</v>
-      </c>
       <c r="AE21" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AF21" t="n">
-        <v>67</v>
+        <v>101</v>
       </c>
       <c r="AG21" t="n">
         <v>900</v>
       </c>
       <c r="AH21" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AI21" t="n">
         <v>19</v>
@@ -4298,52 +4298,52 @@
         <v>41</v>
       </c>
       <c r="AL21" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AM21" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AN21" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="AO21" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AP21" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AQ21" t="n">
         <v>41</v>
       </c>
       <c r="AR21" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AS21" t="n">
-        <v>251</v>
+        <v>351</v>
       </c>
       <c r="AT21" t="n">
-        <v>2.38</v>
+        <v>2.2</v>
       </c>
       <c r="AU21" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AV21" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AW21" t="n">
         <v>5.5</v>
       </c>
       <c r="AX21" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AY21" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AZ21" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="BA21" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="BB21" t="n">
         <v>351</v>
@@ -4387,13 +4387,13 @@
         </is>
       </c>
       <c r="G22" t="n">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="H22" t="n">
         <v>3.2</v>
       </c>
       <c r="I22" t="n">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="J22" t="n">
         <v>2.88</v>
@@ -4405,10 +4405,10 @@
         <v>4</v>
       </c>
       <c r="M22" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="N22" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="O22" t="n">
         <v>1.4</v>
@@ -4435,7 +4435,7 @@
         <v>1.8</v>
       </c>
       <c r="W22" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="X22" t="n">
         <v>9.5</v>
@@ -4474,7 +4474,7 @@
         <v>17</v>
       </c>
       <c r="AJ22" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AK22" t="n">
         <v>41</v>
@@ -4510,13 +4510,13 @@
         <v>8.5</v>
       </c>
       <c r="AV22" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AW22" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="AX22" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AY22" t="n">
         <v>29</v>
@@ -4575,16 +4575,16 @@
         <v>7</v>
       </c>
       <c r="I23" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="J23" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="K23" t="n">
         <v>2.88</v>
       </c>
       <c r="L23" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="M23" t="n">
         <v>1.02</v>
@@ -4617,13 +4617,13 @@
         <v>1.75</v>
       </c>
       <c r="W23" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="X23" t="n">
         <v>7</v>
       </c>
       <c r="Y23" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="Z23" t="n">
         <v>7.5</v>
@@ -4650,7 +4650,7 @@
         <v>351</v>
       </c>
       <c r="AH23" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AI23" t="n">
         <v>51</v>
@@ -4668,7 +4668,7 @@
         <v>51</v>
       </c>
       <c r="AN23" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="AO23" t="n">
         <v>5.5</v>
@@ -4677,7 +4677,7 @@
         <v>15</v>
       </c>
       <c r="AQ23" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AR23" t="n">
         <v>34</v>
@@ -4689,22 +4689,22 @@
         <v>4</v>
       </c>
       <c r="AU23" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AV23" t="n">
         <v>51</v>
       </c>
       <c r="AW23" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AX23" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AY23" t="n">
         <v>41</v>
       </c>
       <c r="AZ23" t="n">
-        <v>251</v>
+        <v>201</v>
       </c>
       <c r="BA23" t="n">
         <v>201</v>
@@ -4751,19 +4751,19 @@
         </is>
       </c>
       <c r="G24" t="n">
-        <v>3.7</v>
+        <v>3.8</v>
       </c>
       <c r="H24" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="I24" t="n">
         <v>1.95</v>
       </c>
       <c r="J24" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="K24" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="L24" t="n">
         <v>2.6</v>
@@ -4775,28 +4775,28 @@
         <v>11</v>
       </c>
       <c r="O24" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="P24" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="Q24" t="n">
-        <v>1.88</v>
+        <v>1.93</v>
       </c>
       <c r="R24" t="n">
-        <v>1.98</v>
+        <v>1.93</v>
       </c>
       <c r="S24" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="T24" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U24" t="n">
-        <v>1.67</v>
+        <v>1.73</v>
       </c>
       <c r="V24" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="W24" t="n">
         <v>12</v>
@@ -4817,28 +4817,28 @@
         <v>34</v>
       </c>
       <c r="AC24" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AD24" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AE24" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AF24" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AG24" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="AH24" t="n">
-        <v>8.5</v>
+        <v>7.5</v>
       </c>
       <c r="AI24" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AJ24" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AK24" t="n">
         <v>17</v>
@@ -4847,16 +4847,16 @@
         <v>15</v>
       </c>
       <c r="AM24" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AN24" t="n">
         <v>5.5</v>
       </c>
       <c r="AO24" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AP24" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AQ24" t="n">
         <v>67</v>
@@ -4865,13 +4865,13 @@
         <v>81</v>
       </c>
       <c r="AS24" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="AT24" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="AU24" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AV24" t="n">
         <v>51</v>
@@ -4883,7 +4883,7 @@
         <v>10</v>
       </c>
       <c r="AY24" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AZ24" t="n">
         <v>34</v>
@@ -4892,7 +4892,7 @@
         <v>51</v>
       </c>
       <c r="BB24" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="BC24" t="n">
         <v>126</v>
@@ -4954,7 +4954,7 @@
         <v>1.08</v>
       </c>
       <c r="N25" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="O25" t="n">
         <v>1.44</v>
@@ -5121,7 +5121,7 @@
         <v>3.7</v>
       </c>
       <c r="I26" t="n">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="J26" t="n">
         <v>4</v>
@@ -5130,7 +5130,7 @@
         <v>2.38</v>
       </c>
       <c r="L26" t="n">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="M26" t="n">
         <v>1.03</v>
@@ -5139,10 +5139,10 @@
         <v>15</v>
       </c>
       <c r="O26" t="n">
-        <v>1.2</v>
+        <v>1.17</v>
       </c>
       <c r="P26" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="Q26" t="n">
         <v>1.62</v>
@@ -5166,7 +5166,7 @@
         <v>15</v>
       </c>
       <c r="X26" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="Y26" t="n">
         <v>13</v>
@@ -5175,7 +5175,7 @@
         <v>41</v>
       </c>
       <c r="AA26" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AB26" t="n">
         <v>29</v>
@@ -5190,7 +5190,7 @@
         <v>12</v>
       </c>
       <c r="AF26" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AG26" t="n">
         <v>126</v>
@@ -5244,7 +5244,7 @@
         <v>4.33</v>
       </c>
       <c r="AX26" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AY26" t="n">
         <v>17</v>
@@ -5297,22 +5297,22 @@
         </is>
       </c>
       <c r="G27" t="n">
-        <v>1.11</v>
+        <v>1.12</v>
       </c>
       <c r="H27" t="n">
-        <v>6.5</v>
+        <v>6.3</v>
       </c>
       <c r="I27" t="n">
-        <v>19</v>
+        <v>16.5</v>
       </c>
       <c r="J27" t="n">
-        <v>1.39</v>
+        <v>1.44</v>
       </c>
       <c r="K27" t="n">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="L27" t="n">
-        <v>13</v>
+        <v>11.25</v>
       </c>
       <c r="M27" t="n">
         <v>1.01</v>
@@ -5324,112 +5324,112 @@
         <v>1.04</v>
       </c>
       <c r="P27" t="n">
-        <v>6.45</v>
+        <v>6.3</v>
       </c>
       <c r="Q27" t="n">
-        <v>1.25</v>
+        <v>1.27</v>
       </c>
       <c r="R27" t="n">
-        <v>3.14</v>
+        <v>3.04</v>
       </c>
       <c r="S27" t="n">
-        <v>1.17</v>
+        <v>1.18</v>
       </c>
       <c r="T27" t="n">
-        <v>4.65</v>
+        <v>4.55</v>
       </c>
       <c r="U27" t="n">
-        <v>2.03</v>
+        <v>1.98</v>
       </c>
       <c r="V27" t="n">
-        <v>1.75</v>
+        <v>1.79</v>
       </c>
       <c r="W27" t="n">
-        <v>9</v>
+        <v>8.75</v>
       </c>
       <c r="X27" t="n">
-        <v>6.2</v>
+        <v>6.1</v>
       </c>
       <c r="Y27" t="n">
-        <v>9.25</v>
+        <v>8.75</v>
       </c>
       <c r="Z27" t="n">
-        <v>5.9</v>
+        <v>6</v>
       </c>
       <c r="AA27" t="n">
         <v>8.75</v>
       </c>
       <c r="AB27" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="AC27" t="n">
-        <v>20</v>
+        <v>19.5</v>
       </c>
       <c r="AD27" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AE27" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AF27" t="n">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AG27" t="n">
-        <v>500</v>
+        <v>450</v>
       </c>
       <c r="AH27" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AI27" t="n">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="AJ27" t="n">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="AK27" t="n">
         <v>500</v>
       </c>
       <c r="AL27" t="n">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="AM27" t="n">
-        <v>150</v>
+        <v>110</v>
       </c>
       <c r="AN27" t="n">
-        <v>3.2</v>
+        <v>3.15</v>
       </c>
       <c r="AO27" t="n">
-        <v>4.35</v>
+        <v>4.5</v>
       </c>
       <c r="AP27" t="n">
         <v>13.5</v>
       </c>
       <c r="AQ27" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AR27" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AS27" t="n">
         <v>150</v>
       </c>
       <c r="AT27" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="AU27" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AV27" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="AW27" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="AX27" t="n">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="AY27" t="n">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="AZ27" t="n">
         <v>500</v>
@@ -5479,40 +5479,40 @@
         </is>
       </c>
       <c r="G28" t="n">
-        <v>1.65</v>
+        <v>1.62</v>
       </c>
       <c r="H28" t="n">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="I28" t="n">
         <v>4.33</v>
       </c>
       <c r="J28" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="K28" t="n">
         <v>2.4</v>
       </c>
       <c r="L28" t="n">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="M28" t="n">
         <v>1.03</v>
       </c>
       <c r="N28" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="O28" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="P28" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="Q28" t="n">
-        <v>1.6</v>
+        <v>1.57</v>
       </c>
       <c r="R28" t="n">
-        <v>2.3</v>
+        <v>2.35</v>
       </c>
       <c r="S28" t="n">
         <v>1.29</v>
@@ -5545,7 +5545,7 @@
         <v>21</v>
       </c>
       <c r="AC28" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AD28" t="n">
         <v>8</v>
@@ -5587,7 +5587,7 @@
         <v>17</v>
       </c>
       <c r="AQ28" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AR28" t="n">
         <v>41</v>
@@ -5685,22 +5685,22 @@
         <v>9.5</v>
       </c>
       <c r="O29" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="P29" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="Q29" t="n">
         <v>2.05</v>
       </c>
       <c r="R29" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="S29" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="T29" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="U29" t="n">
         <v>1.8</v>
@@ -5778,7 +5778,7 @@
         <v>151</v>
       </c>
       <c r="AT29" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="AU29" t="n">
         <v>8</v>
@@ -5843,130 +5843,130 @@
         </is>
       </c>
       <c r="G30" t="n">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="H30" t="n">
-        <v>3.1</v>
+        <v>2.88</v>
       </c>
       <c r="I30" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="J30" t="n">
         <v>3.2</v>
       </c>
-      <c r="J30" t="n">
-        <v>3</v>
-      </c>
       <c r="K30" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="L30" t="n">
+        <v>4</v>
+      </c>
+      <c r="M30" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="N30" t="n">
+        <v>7</v>
+      </c>
+      <c r="O30" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="P30" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Q30" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="R30" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="S30" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="T30" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="U30" t="n">
         <v>2.1</v>
       </c>
-      <c r="L30" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="M30" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="N30" t="n">
-        <v>9</v>
-      </c>
-      <c r="O30" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="P30" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="Q30" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="R30" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="S30" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="T30" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="U30" t="n">
-        <v>1.83</v>
-      </c>
       <c r="V30" t="n">
-        <v>1.83</v>
+        <v>1.67</v>
       </c>
       <c r="W30" t="n">
-        <v>7.5</v>
+        <v>6</v>
       </c>
       <c r="X30" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="Y30" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="Z30" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AA30" t="n">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="AB30" t="n">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="AC30" t="n">
-        <v>8.5</v>
+        <v>6.5</v>
       </c>
       <c r="AD30" t="n">
         <v>6</v>
       </c>
       <c r="AE30" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AF30" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AG30" t="n">
-        <v>251</v>
+        <v>351</v>
       </c>
       <c r="AH30" t="n">
-        <v>9.5</v>
+        <v>8</v>
       </c>
       <c r="AI30" t="n">
         <v>15</v>
       </c>
       <c r="AJ30" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AK30" t="n">
         <v>34</v>
       </c>
       <c r="AL30" t="n">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="AM30" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AN30" t="n">
         <v>4.33</v>
       </c>
       <c r="AO30" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AP30" t="n">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="AQ30" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AR30" t="n">
+        <v>81</v>
+      </c>
+      <c r="AS30" t="n">
+        <v>251</v>
+      </c>
+      <c r="AT30" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AU30" t="n">
+        <v>9</v>
+      </c>
+      <c r="AV30" t="n">
         <v>67</v>
-      </c>
-      <c r="AS30" t="n">
-        <v>151</v>
-      </c>
-      <c r="AT30" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="AU30" t="n">
-        <v>8</v>
-      </c>
-      <c r="AV30" t="n">
-        <v>51</v>
       </c>
       <c r="AW30" t="n">
         <v>5</v>
@@ -5975,16 +5975,16 @@
         <v>19</v>
       </c>
       <c r="AY30" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AZ30" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="BA30" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="BB30" t="n">
-        <v>201</v>
+        <v>301</v>
       </c>
       <c r="BC30" t="n">
         <v>81</v>
@@ -6025,28 +6025,28 @@
         </is>
       </c>
       <c r="G31" t="n">
-        <v>2.3</v>
+        <v>2.35</v>
       </c>
       <c r="H31" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="I31" t="n">
-        <v>2.9</v>
+        <v>2.8</v>
       </c>
       <c r="J31" t="n">
         <v>3.1</v>
       </c>
       <c r="K31" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="L31" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="M31" t="n">
         <v>1.06</v>
       </c>
       <c r="N31" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="O31" t="n">
         <v>1.3</v>
@@ -6058,22 +6058,22 @@
         <v>2.05</v>
       </c>
       <c r="R31" t="n">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="S31" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="T31" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="U31" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="V31" t="n">
-        <v>1.83</v>
+        <v>1.91</v>
       </c>
       <c r="W31" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="X31" t="n">
         <v>11</v>
@@ -6088,10 +6088,10 @@
         <v>21</v>
       </c>
       <c r="AB31" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AC31" t="n">
-        <v>8.5</v>
+        <v>9.5</v>
       </c>
       <c r="AD31" t="n">
         <v>6.5</v>
@@ -6103,10 +6103,10 @@
         <v>51</v>
       </c>
       <c r="AG31" t="n">
-        <v>301</v>
+        <v>251</v>
       </c>
       <c r="AH31" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AI31" t="n">
         <v>15</v>
@@ -6118,13 +6118,13 @@
         <v>29</v>
       </c>
       <c r="AL31" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AM31" t="n">
         <v>34</v>
       </c>
       <c r="AN31" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="AO31" t="n">
         <v>13</v>
@@ -6139,10 +6139,10 @@
         <v>67</v>
       </c>
       <c r="AS31" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="AT31" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="AU31" t="n">
         <v>8</v>
@@ -6157,7 +6157,7 @@
         <v>17</v>
       </c>
       <c r="AY31" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AZ31" t="n">
         <v>51</v>
@@ -6207,19 +6207,19 @@
         </is>
       </c>
       <c r="G32" t="n">
-        <v>2.35</v>
+        <v>2.38</v>
       </c>
       <c r="H32" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="I32" t="n">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="J32" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="K32" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="L32" t="n">
         <v>3.6</v>
@@ -6231,22 +6231,22 @@
         <v>9</v>
       </c>
       <c r="O32" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="P32" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="Q32" t="n">
-        <v>2.08</v>
+        <v>2.2</v>
       </c>
       <c r="R32" t="n">
-        <v>1.73</v>
+        <v>1.65</v>
       </c>
       <c r="S32" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="T32" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="U32" t="n">
         <v>1.83</v>
@@ -6255,7 +6255,7 @@
         <v>1.83</v>
       </c>
       <c r="W32" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="X32" t="n">
         <v>11</v>
@@ -6270,10 +6270,10 @@
         <v>21</v>
       </c>
       <c r="AB32" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AC32" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AD32" t="n">
         <v>6</v>
@@ -6285,49 +6285,49 @@
         <v>51</v>
       </c>
       <c r="AG32" t="n">
-        <v>251</v>
+        <v>301</v>
       </c>
       <c r="AH32" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AI32" t="n">
         <v>15</v>
       </c>
       <c r="AJ32" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AK32" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AL32" t="n">
         <v>26</v>
       </c>
       <c r="AM32" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AN32" t="n">
         <v>4.33</v>
       </c>
       <c r="AO32" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AP32" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AQ32" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AR32" t="n">
         <v>67</v>
       </c>
       <c r="AS32" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="AT32" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="AU32" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AV32" t="n">
         <v>51</v>
@@ -6339,7 +6339,7 @@
         <v>17</v>
       </c>
       <c r="AY32" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AZ32" t="n">
         <v>51</v>
@@ -6389,10 +6389,10 @@
         </is>
       </c>
       <c r="G33" t="n">
-        <v>1.5</v>
+        <v>1.48</v>
       </c>
       <c r="H33" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="I33" t="n">
         <v>5.5</v>
@@ -6407,10 +6407,10 @@
         <v>6.5</v>
       </c>
       <c r="M33" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="N33" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="O33" t="n">
         <v>1.33</v>
@@ -6419,10 +6419,10 @@
         <v>3.25</v>
       </c>
       <c r="Q33" t="n">
-        <v>2.08</v>
+        <v>2.05</v>
       </c>
       <c r="R33" t="n">
-        <v>1.73</v>
+        <v>1.75</v>
       </c>
       <c r="S33" t="n">
         <v>1.44</v>
@@ -6431,10 +6431,10 @@
         <v>2.63</v>
       </c>
       <c r="U33" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="V33" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="W33" t="n">
         <v>5.5</v>
@@ -6455,10 +6455,10 @@
         <v>34</v>
       </c>
       <c r="AC33" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AD33" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AE33" t="n">
         <v>23</v>
@@ -6491,13 +6491,13 @@
         <v>3.4</v>
       </c>
       <c r="AO33" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AP33" t="n">
         <v>21</v>
       </c>
       <c r="AQ33" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AR33" t="n">
         <v>51</v>
@@ -6527,7 +6527,7 @@
         <v>151</v>
       </c>
       <c r="BA33" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="BB33" t="n">
         <v>351</v>
@@ -6601,10 +6601,10 @@
         <v>2.75</v>
       </c>
       <c r="Q34" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="R34" t="n">
-        <v>1.6</v>
+        <v>1.62</v>
       </c>
       <c r="S34" t="n">
         <v>1.5</v>
@@ -6753,19 +6753,19 @@
         </is>
       </c>
       <c r="G35" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="H35" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="I35" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="J35" t="n">
         <v>3.4</v>
       </c>
       <c r="K35" t="n">
-        <v>2.4</v>
+        <v>2.38</v>
       </c>
       <c r="L35" t="n">
         <v>2.75</v>
@@ -6783,10 +6783,10 @@
         <v>5</v>
       </c>
       <c r="Q35" t="n">
-        <v>1.6</v>
+        <v>1.57</v>
       </c>
       <c r="R35" t="n">
-        <v>2.3</v>
+        <v>2.35</v>
       </c>
       <c r="S35" t="n">
         <v>1.29</v>
@@ -6807,7 +6807,7 @@
         <v>19</v>
       </c>
       <c r="Y35" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="Z35" t="n">
         <v>34</v>
@@ -6816,10 +6816,10 @@
         <v>21</v>
       </c>
       <c r="AB35" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AC35" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AD35" t="n">
         <v>7</v>
@@ -6861,7 +6861,7 @@
         <v>21</v>
       </c>
       <c r="AQ35" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AR35" t="n">
         <v>51</v>
@@ -6879,10 +6879,10 @@
         <v>41</v>
       </c>
       <c r="AW35" t="n">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="AX35" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AY35" t="n">
         <v>17</v>
@@ -7317,22 +7317,22 @@
         <v>4.33</v>
       </c>
       <c r="M38" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="N38" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="O38" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="P38" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="Q38" t="n">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="R38" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="S38" t="n">
         <v>1.36</v>
@@ -7487,7 +7487,7 @@
         <v>3.6</v>
       </c>
       <c r="I39" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="J39" t="n">
         <v>5</v>
@@ -7505,16 +7505,16 @@
         <v>11</v>
       </c>
       <c r="O39" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="P39" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="Q39" t="n">
-        <v>2.05</v>
+        <v>2.03</v>
       </c>
       <c r="R39" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="S39" t="n">
         <v>1.4</v>
@@ -7663,13 +7663,13 @@
         </is>
       </c>
       <c r="G40" t="n">
-        <v>2.8</v>
+        <v>2.75</v>
       </c>
       <c r="H40" t="n">
         <v>3.6</v>
       </c>
       <c r="I40" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="J40" t="n">
         <v>3.6</v>
@@ -7681,22 +7681,22 @@
         <v>2.88</v>
       </c>
       <c r="M40" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="N40" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="O40" t="n">
-        <v>1.3</v>
+        <v>1.25</v>
       </c>
       <c r="P40" t="n">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="Q40" t="n">
-        <v>1.98</v>
+        <v>1.85</v>
       </c>
       <c r="R40" t="n">
-        <v>1.88</v>
+        <v>2</v>
       </c>
       <c r="S40" t="n">
         <v>1.36</v>
@@ -7705,13 +7705,13 @@
         <v>3</v>
       </c>
       <c r="U40" t="n">
-        <v>1.75</v>
+        <v>1.7</v>
       </c>
       <c r="V40" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="W40" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="X40" t="n">
         <v>15</v>
@@ -7729,22 +7729,22 @@
         <v>29</v>
       </c>
       <c r="AC40" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AD40" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AE40" t="n">
         <v>15</v>
       </c>
       <c r="AF40" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AG40" t="n">
         <v>201</v>
       </c>
       <c r="AH40" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AI40" t="n">
         <v>11</v>
@@ -7804,7 +7804,7 @@
         <v>51</v>
       </c>
       <c r="BB40" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="BC40" t="n">
         <v>501</v>
@@ -7845,10 +7845,10 @@
         </is>
       </c>
       <c r="G41" t="n">
-        <v>1.65</v>
+        <v>1.62</v>
       </c>
       <c r="H41" t="n">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="I41" t="n">
         <v>4.75</v>
@@ -7875,16 +7875,16 @@
         <v>3.25</v>
       </c>
       <c r="Q41" t="n">
-        <v>2.05</v>
+        <v>2.08</v>
       </c>
       <c r="R41" t="n">
-        <v>1.75</v>
+        <v>1.73</v>
       </c>
       <c r="S41" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="T41" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="U41" t="n">
         <v>2</v>
@@ -7893,16 +7893,16 @@
         <v>1.75</v>
       </c>
       <c r="W41" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="X41" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="Y41" t="n">
         <v>8.5</v>
       </c>
       <c r="Z41" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AA41" t="n">
         <v>15</v>
@@ -7914,22 +7914,22 @@
         <v>9.5</v>
       </c>
       <c r="AD41" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AE41" t="n">
         <v>19</v>
       </c>
       <c r="AF41" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AG41" t="n">
-        <v>401</v>
+        <v>451</v>
       </c>
       <c r="AH41" t="n">
         <v>12</v>
       </c>
       <c r="AI41" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AJ41" t="n">
         <v>17</v>
@@ -7944,10 +7944,10 @@
         <v>41</v>
       </c>
       <c r="AN41" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="AO41" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AP41" t="n">
         <v>21</v>
@@ -7962,28 +7962,28 @@
         <v>151</v>
       </c>
       <c r="AT41" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="AU41" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AV41" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AW41" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AX41" t="n">
         <v>29</v>
       </c>
       <c r="AY41" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AZ41" t="n">
         <v>101</v>
       </c>
       <c r="BA41" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="BB41" t="n">
         <v>301</v>
@@ -8239,10 +8239,10 @@
         <v>3.5</v>
       </c>
       <c r="Q43" t="n">
-        <v>1.9</v>
+        <v>1.93</v>
       </c>
       <c r="R43" t="n">
-        <v>1.95</v>
+        <v>1.93</v>
       </c>
       <c r="S43" t="n">
         <v>1.36</v>
@@ -8391,16 +8391,16 @@
         </is>
       </c>
       <c r="G44" t="n">
-        <v>2.4</v>
+        <v>2.45</v>
       </c>
       <c r="H44" t="n">
         <v>3.25</v>
       </c>
       <c r="I44" t="n">
-        <v>2.9</v>
+        <v>2.88</v>
       </c>
       <c r="J44" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="K44" t="n">
         <v>2.05</v>
@@ -8412,7 +8412,7 @@
         <v>1.07</v>
       </c>
       <c r="N44" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="O44" t="n">
         <v>1.36</v>
@@ -8445,7 +8445,7 @@
         <v>11</v>
       </c>
       <c r="Y44" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="Z44" t="n">
         <v>23</v>
@@ -8454,10 +8454,10 @@
         <v>21</v>
       </c>
       <c r="AB44" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AC44" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AD44" t="n">
         <v>6</v>
@@ -8475,7 +8475,7 @@
         <v>8.5</v>
       </c>
       <c r="AI44" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AJ44" t="n">
         <v>11</v>
@@ -8484,22 +8484,22 @@
         <v>29</v>
       </c>
       <c r="AL44" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AM44" t="n">
         <v>34</v>
       </c>
       <c r="AN44" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="AO44" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AP44" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AQ44" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AR44" t="n">
         <v>67</v>
@@ -8573,22 +8573,22 @@
         </is>
       </c>
       <c r="G45" t="n">
-        <v>2.05</v>
+        <v>2.15</v>
       </c>
       <c r="H45" t="n">
         <v>3.6</v>
       </c>
       <c r="I45" t="n">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="J45" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="K45" t="n">
-        <v>2.38</v>
+        <v>2.3</v>
       </c>
       <c r="L45" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="M45" t="n">
         <v>1.03</v>
@@ -8597,16 +8597,16 @@
         <v>15</v>
       </c>
       <c r="O45" t="n">
-        <v>1.18</v>
+        <v>1.2</v>
       </c>
       <c r="P45" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="Q45" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="R45" t="n">
-        <v>2.25</v>
+        <v>2.15</v>
       </c>
       <c r="S45" t="n">
         <v>1.3</v>
@@ -8630,7 +8630,7 @@
         <v>9</v>
       </c>
       <c r="Z45" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AA45" t="n">
         <v>15</v>
@@ -8642,7 +8642,7 @@
         <v>15</v>
       </c>
       <c r="AD45" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AE45" t="n">
         <v>12</v>
@@ -8657,10 +8657,10 @@
         <v>13</v>
       </c>
       <c r="AI45" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AJ45" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AK45" t="n">
         <v>34</v>
@@ -8678,7 +8678,7 @@
         <v>11</v>
       </c>
       <c r="AP45" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AQ45" t="n">
         <v>34</v>
@@ -8782,13 +8782,13 @@
         <v>1.2</v>
       </c>
       <c r="P46" t="n">
-        <v>3.52</v>
+        <v>3.54</v>
       </c>
       <c r="Q46" t="n">
-        <v>1.72</v>
+        <v>1.75</v>
       </c>
       <c r="R46" t="n">
-        <v>1.91</v>
+        <v>1.9</v>
       </c>
       <c r="S46" t="n">
         <v>1.34</v>
@@ -8830,16 +8830,16 @@
         <v>10.5</v>
       </c>
       <c r="AF46" t="n">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="AG46" t="n">
         <v>250</v>
       </c>
       <c r="AH46" t="n">
-        <v>9</v>
+        <v>8.75</v>
       </c>
       <c r="AI46" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AJ46" t="n">
         <v>9.25</v>
@@ -8851,7 +8851,7 @@
         <v>20</v>
       </c>
       <c r="AM46" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AN46" t="n">
         <v>4.1</v>
@@ -8863,10 +8863,10 @@
         <v>17</v>
       </c>
       <c r="AQ46" t="n">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="AR46" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AS46" t="n">
         <v>200</v>
@@ -8875,7 +8875,7 @@
         <v>2.9</v>
       </c>
       <c r="AU46" t="n">
-        <v>6.6</v>
+        <v>6.7</v>
       </c>
       <c r="AV46" t="n">
         <v>50</v>
@@ -8940,19 +8940,19 @@
         <v>1.8</v>
       </c>
       <c r="H47" t="n">
-        <v>3.45</v>
+        <v>3.5</v>
       </c>
       <c r="I47" t="n">
-        <v>3.8</v>
+        <v>3.7</v>
       </c>
       <c r="J47" t="n">
-        <v>2.32</v>
+        <v>2.37</v>
       </c>
       <c r="K47" t="n">
         <v>2.18</v>
       </c>
       <c r="L47" t="n">
-        <v>4.15</v>
+        <v>4</v>
       </c>
       <c r="M47" t="n">
         <v>1.01</v>
@@ -8985,25 +8985,25 @@
         <v>2.16</v>
       </c>
       <c r="W47" t="n">
-        <v>7</v>
+        <v>6.8</v>
       </c>
       <c r="X47" t="n">
-        <v>8</v>
+        <v>7.8</v>
       </c>
       <c r="Y47" t="n">
         <v>7</v>
       </c>
       <c r="Z47" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AA47" t="n">
-        <v>11.25</v>
+        <v>11.5</v>
       </c>
       <c r="AB47" t="n">
-        <v>18</v>
+        <v>18.5</v>
       </c>
       <c r="AC47" t="n">
-        <v>11.25</v>
+        <v>11.75</v>
       </c>
       <c r="AD47" t="n">
         <v>6.1</v>
@@ -9018,61 +9018,61 @@
         <v>250</v>
       </c>
       <c r="AH47" t="n">
-        <v>10.25</v>
+        <v>10.5</v>
       </c>
       <c r="AI47" t="n">
         <v>18</v>
       </c>
       <c r="AJ47" t="n">
-        <v>10.75</v>
+        <v>10.5</v>
       </c>
       <c r="AK47" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="AL47" t="n">
+        <v>25</v>
+      </c>
+      <c r="AM47" t="n">
         <v>26</v>
-      </c>
-      <c r="AM47" t="n">
-        <v>28</v>
       </c>
       <c r="AN47" t="n">
         <v>3.8</v>
       </c>
       <c r="AO47" t="n">
-        <v>8.75</v>
+        <v>9</v>
       </c>
       <c r="AP47" t="n">
-        <v>16</v>
+        <v>16.5</v>
       </c>
       <c r="AQ47" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AR47" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AS47" t="n">
-        <v>175</v>
+        <v>200</v>
       </c>
       <c r="AT47" t="n">
         <v>2.92</v>
       </c>
       <c r="AU47" t="n">
-        <v>6.8</v>
+        <v>6.9</v>
       </c>
       <c r="AV47" t="n">
         <v>55</v>
       </c>
       <c r="AW47" t="n">
-        <v>5.8</v>
+        <v>5.7</v>
       </c>
       <c r="AX47" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AY47" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AZ47" t="n">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="BA47" t="n">
         <v>120</v>
@@ -9266,7 +9266,7 @@
         <v>451</v>
       </c>
       <c r="BD48" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
     </row>
     <row r="49">
@@ -9301,22 +9301,22 @@
         </is>
       </c>
       <c r="G49" t="n">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="H49" t="n">
         <v>3.4</v>
       </c>
       <c r="I49" t="n">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="J49" t="n">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="K49" t="n">
         <v>2.2</v>
       </c>
       <c r="L49" t="n">
-        <v>2.88</v>
+        <v>3</v>
       </c>
       <c r="M49" t="n">
         <v>1.05</v>
@@ -9343,25 +9343,25 @@
         <v>2.75</v>
       </c>
       <c r="U49" t="n">
-        <v>1.75</v>
+        <v>1.7</v>
       </c>
       <c r="V49" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="W49" t="n">
         <v>10</v>
       </c>
       <c r="X49" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="Y49" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="Z49" t="n">
         <v>34</v>
       </c>
       <c r="AA49" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AB49" t="n">
         <v>34</v>
@@ -9382,19 +9382,19 @@
         <v>201</v>
       </c>
       <c r="AH49" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AI49" t="n">
         <v>11</v>
       </c>
       <c r="AJ49" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AK49" t="n">
         <v>21</v>
       </c>
       <c r="AL49" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AM49" t="n">
         <v>26</v>
@@ -9406,13 +9406,13 @@
         <v>17</v>
       </c>
       <c r="AP49" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AQ49" t="n">
         <v>51</v>
       </c>
       <c r="AR49" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AS49" t="n">
         <v>151</v>
@@ -9430,7 +9430,7 @@
         <v>4.33</v>
       </c>
       <c r="AX49" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AY49" t="n">
         <v>21</v>
@@ -9486,16 +9486,16 @@
         <v>1.48</v>
       </c>
       <c r="H50" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="I50" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="J50" t="n">
         <v>2</v>
       </c>
       <c r="K50" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="L50" t="n">
         <v>6</v>
@@ -9507,16 +9507,16 @@
         <v>15</v>
       </c>
       <c r="O50" t="n">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="P50" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="Q50" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="R50" t="n">
-        <v>2.15</v>
+        <v>2.25</v>
       </c>
       <c r="S50" t="n">
         <v>1.3</v>
@@ -9525,31 +9525,31 @@
         <v>3.4</v>
       </c>
       <c r="U50" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="V50" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="W50" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="X50" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="Y50" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="Z50" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AA50" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AB50" t="n">
         <v>23</v>
       </c>
       <c r="AC50" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AD50" t="n">
         <v>8.5</v>
@@ -9561,7 +9561,7 @@
         <v>51</v>
       </c>
       <c r="AG50" t="n">
-        <v>251</v>
+        <v>201</v>
       </c>
       <c r="AH50" t="n">
         <v>19</v>
@@ -9570,19 +9570,19 @@
         <v>34</v>
       </c>
       <c r="AJ50" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AK50" t="n">
         <v>67</v>
       </c>
       <c r="AL50" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AM50" t="n">
         <v>41</v>
       </c>
       <c r="AN50" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="AO50" t="n">
         <v>7</v>
@@ -9597,13 +9597,13 @@
         <v>41</v>
       </c>
       <c r="AS50" t="n">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="AT50" t="n">
         <v>3.4</v>
       </c>
       <c r="AU50" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AV50" t="n">
         <v>51</v>
@@ -9612,7 +9612,7 @@
         <v>7.5</v>
       </c>
       <c r="AX50" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AY50" t="n">
         <v>34</v>
@@ -9621,13 +9621,13 @@
         <v>101</v>
       </c>
       <c r="BA50" t="n">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="BB50" t="n">
         <v>201</v>
       </c>
       <c r="BC50" t="n">
-        <v>126</v>
+        <v>501</v>
       </c>
       <c r="BD50" t="n">
         <v>151</v>
@@ -9665,55 +9665,55 @@
         </is>
       </c>
       <c r="G51" t="n">
-        <v>1.85</v>
+        <v>1.93</v>
       </c>
       <c r="H51" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="I51" t="n">
-        <v>3.9</v>
+        <v>3.7</v>
       </c>
       <c r="J51" t="n">
-        <v>2.42</v>
+        <v>2.55</v>
       </c>
       <c r="K51" t="n">
-        <v>2.1</v>
+        <v>2.07</v>
       </c>
       <c r="L51" t="n">
-        <v>4.3</v>
+        <v>4.1</v>
       </c>
       <c r="M51" t="n">
-        <v>1.01</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="N51" t="n">
-        <v>10.4</v>
+        <v>1.05</v>
       </c>
       <c r="O51" t="n">
-        <v>1.26</v>
+        <v>1.29</v>
       </c>
       <c r="P51" t="n">
-        <v>3.15</v>
+        <v>3</v>
       </c>
       <c r="Q51" t="n">
-        <v>1.83</v>
+        <v>1.9</v>
       </c>
       <c r="R51" t="n">
-        <v>1.87</v>
+        <v>1.8</v>
       </c>
       <c r="S51" t="n">
-        <v>1.39</v>
+        <v>1.4</v>
       </c>
       <c r="T51" t="n">
-        <v>2.57</v>
+        <v>2.52</v>
       </c>
       <c r="U51" t="n">
         <v>1.7</v>
       </c>
       <c r="V51" t="n">
-        <v>1.93</v>
+        <v>1.9</v>
       </c>
       <c r="W51" t="n">
-        <v>7.5</v>
+        <v>7.2</v>
       </c>
       <c r="X51" t="n">
         <v>9.25</v>
@@ -9722,85 +9722,85 @@
         <v>8.25</v>
       </c>
       <c r="Z51" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AA51" t="n">
-        <v>14</v>
+        <v>15.5</v>
       </c>
       <c r="AB51" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="AC51" t="n">
-        <v>10.25</v>
+        <v>9.75</v>
       </c>
       <c r="AD51" t="n">
-        <v>6.7</v>
+        <v>6.5</v>
       </c>
       <c r="AE51" t="n">
         <v>14</v>
       </c>
       <c r="AF51" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="AG51" t="n">
-        <v>450</v>
+        <v>500</v>
       </c>
       <c r="AH51" t="n">
-        <v>11.25</v>
+        <v>11</v>
       </c>
       <c r="AI51" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AJ51" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AK51" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AL51" t="n">
+        <v>35</v>
+      </c>
+      <c r="AM51" t="n">
         <v>37</v>
       </c>
-      <c r="AM51" t="n">
-        <v>40</v>
-      </c>
       <c r="AN51" t="n">
-        <v>3.7</v>
+        <v>3.8</v>
       </c>
       <c r="AO51" t="n">
-        <v>9.25</v>
+        <v>10</v>
       </c>
       <c r="AP51" t="n">
-        <v>17.5</v>
+        <v>18.5</v>
       </c>
       <c r="AQ51" t="n">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="AR51" t="n">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="AS51" t="n">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="AT51" t="n">
-        <v>2.55</v>
+        <v>2.5</v>
       </c>
       <c r="AU51" t="n">
         <v>7.1</v>
       </c>
       <c r="AV51" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="AW51" t="n">
-        <v>5.7</v>
+        <v>5.5</v>
       </c>
       <c r="AX51" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="AY51" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AZ51" t="n">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="BA51" t="n">
         <v>150</v>
@@ -9850,37 +9850,37 @@
         <v>1.72</v>
       </c>
       <c r="H52" t="n">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="I52" t="n">
-        <v>4.3</v>
+        <v>4.25</v>
       </c>
       <c r="J52" t="n">
         <v>2.27</v>
       </c>
       <c r="K52" t="n">
-        <v>2.15</v>
+        <v>2.18</v>
       </c>
       <c r="L52" t="n">
-        <v>4.6</v>
+        <v>4.5</v>
       </c>
       <c r="M52" t="n">
-        <v>1.01</v>
+        <v>10.4</v>
       </c>
       <c r="N52" t="n">
-        <v>10.4</v>
+        <v>1.04</v>
       </c>
       <c r="O52" t="n">
-        <v>1.25</v>
+        <v>1.23</v>
       </c>
       <c r="P52" t="n">
-        <v>3.2</v>
+        <v>3.35</v>
       </c>
       <c r="Q52" t="n">
-        <v>1.78</v>
+        <v>1.7</v>
       </c>
       <c r="R52" t="n">
-        <v>1.93</v>
+        <v>1.91</v>
       </c>
       <c r="S52" t="n">
         <v>1.39</v>
@@ -9892,10 +9892,10 @@
         <v>1.7</v>
       </c>
       <c r="V52" t="n">
-        <v>1.91</v>
+        <v>1.93</v>
       </c>
       <c r="W52" t="n">
-        <v>7.4</v>
+        <v>7.6</v>
       </c>
       <c r="X52" t="n">
         <v>8.5</v>
@@ -9904,31 +9904,31 @@
         <v>8</v>
       </c>
       <c r="Z52" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AA52" t="n">
         <v>13</v>
       </c>
       <c r="AB52" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AC52" t="n">
-        <v>10.75</v>
+        <v>11.5</v>
       </c>
       <c r="AD52" t="n">
-        <v>7.1</v>
+        <v>7.2</v>
       </c>
       <c r="AE52" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="AF52" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AG52" t="n">
-        <v>500</v>
+        <v>450</v>
       </c>
       <c r="AH52" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="AI52" t="n">
         <v>25</v>
@@ -9952,10 +9952,10 @@
         <v>8.5</v>
       </c>
       <c r="AP52" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="AQ52" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AR52" t="n">
         <v>55</v>
@@ -9964,31 +9964,31 @@
         <v>200</v>
       </c>
       <c r="AT52" t="n">
-        <v>2.6</v>
+        <v>2.67</v>
       </c>
       <c r="AU52" t="n">
-        <v>7.3</v>
+        <v>7.2</v>
       </c>
       <c r="AV52" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AW52" t="n">
-        <v>6.1</v>
+        <v>6</v>
       </c>
       <c r="AX52" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AY52" t="n">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="AZ52" t="n">
+        <v>120</v>
+      </c>
+      <c r="BA52" t="n">
         <v>150</v>
       </c>
-      <c r="BA52" t="n">
-        <v>175</v>
-      </c>
       <c r="BB52" t="n">
-        <v>400</v>
+        <v>350</v>
       </c>
       <c r="BC52" t="n">
         <v>51</v>
@@ -10038,7 +10038,7 @@
         <v>7</v>
       </c>
       <c r="J53" t="n">
-        <v>1.83</v>
+        <v>1.91</v>
       </c>
       <c r="K53" t="n">
         <v>2.63</v>
@@ -10059,10 +10059,10 @@
         <v>6</v>
       </c>
       <c r="Q53" t="n">
-        <v>1.48</v>
+        <v>1.44</v>
       </c>
       <c r="R53" t="n">
-        <v>2.6</v>
+        <v>2.7</v>
       </c>
       <c r="S53" t="n">
         <v>1.25</v>
@@ -10077,16 +10077,16 @@
         <v>2.2</v>
       </c>
       <c r="W53" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="X53" t="n">
         <v>8.5</v>
       </c>
       <c r="Y53" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="Z53" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AA53" t="n">
         <v>11</v>
@@ -10098,7 +10098,7 @@
         <v>19</v>
       </c>
       <c r="AD53" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AE53" t="n">
         <v>15</v>
@@ -10119,7 +10119,7 @@
         <v>21</v>
       </c>
       <c r="AK53" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AL53" t="n">
         <v>41</v>
@@ -10131,7 +10131,7 @@
         <v>3.75</v>
       </c>
       <c r="AO53" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AP53" t="n">
         <v>15</v>
@@ -10214,10 +10214,10 @@
         <v>2.7</v>
       </c>
       <c r="H54" t="n">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="I54" t="n">
-        <v>2.5</v>
+        <v>2.45</v>
       </c>
       <c r="J54" t="n">
         <v>3.1</v>
@@ -10247,10 +10247,10 @@
         <v>2.3</v>
       </c>
       <c r="S54" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="T54" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="U54" t="n">
         <v>1.5</v>
@@ -10259,16 +10259,16 @@
         <v>2.5</v>
       </c>
       <c r="W54" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="X54" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="Y54" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="Z54" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AA54" t="n">
         <v>19</v>
@@ -10307,7 +10307,7 @@
         <v>17</v>
       </c>
       <c r="AM54" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AN54" t="n">
         <v>5</v>
@@ -10328,7 +10328,7 @@
         <v>101</v>
       </c>
       <c r="AT54" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="AU54" t="n">
         <v>7</v>
@@ -10399,13 +10399,13 @@
         <v>4.5</v>
       </c>
       <c r="I55" t="n">
-        <v>6.5</v>
+        <v>6.25</v>
       </c>
       <c r="J55" t="n">
         <v>1.91</v>
       </c>
       <c r="K55" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="L55" t="n">
         <v>5.5</v>
@@ -10414,43 +10414,43 @@
         <v>1.02</v>
       </c>
       <c r="N55" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="O55" t="n">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="P55" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="Q55" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="R55" t="n">
-        <v>2.7</v>
+        <v>2.88</v>
       </c>
       <c r="S55" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="T55" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="U55" t="n">
-        <v>1.62</v>
+        <v>1.53</v>
       </c>
       <c r="V55" t="n">
-        <v>2.2</v>
+        <v>2.38</v>
       </c>
       <c r="W55" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="X55" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="Y55" t="n">
         <v>9</v>
       </c>
-      <c r="Y55" t="n">
-        <v>8.5</v>
-      </c>
       <c r="Z55" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AA55" t="n">
         <v>11</v>
@@ -10459,19 +10459,19 @@
         <v>19</v>
       </c>
       <c r="AC55" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AD55" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AE55" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AF55" t="n">
         <v>41</v>
       </c>
       <c r="AG55" t="n">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="AH55" t="n">
         <v>23</v>
@@ -10480,7 +10480,7 @@
         <v>41</v>
       </c>
       <c r="AJ55" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AK55" t="n">
         <v>67</v>
@@ -10489,16 +10489,16 @@
         <v>41</v>
       </c>
       <c r="AM55" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AN55" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="AO55" t="n">
         <v>7</v>
       </c>
       <c r="AP55" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AQ55" t="n">
         <v>19</v>
@@ -10510,10 +10510,10 @@
         <v>81</v>
       </c>
       <c r="AT55" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="AU55" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AV55" t="n">
         <v>41</v>
@@ -10522,10 +10522,10 @@
         <v>8</v>
       </c>
       <c r="AX55" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AY55" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AZ55" t="n">
         <v>81</v>
@@ -10534,10 +10534,10 @@
         <v>81</v>
       </c>
       <c r="BB55" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="BC55" t="n">
-        <v>351</v>
+        <v>301</v>
       </c>
       <c r="BD55" t="n">
         <v>151</v>
@@ -10581,7 +10581,7 @@
         <v>4</v>
       </c>
       <c r="I56" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="J56" t="n">
         <v>2.2</v>
@@ -10617,10 +10617,10 @@
         <v>3.75</v>
       </c>
       <c r="U56" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="V56" t="n">
-        <v>2.25</v>
+        <v>2.38</v>
       </c>
       <c r="W56" t="n">
         <v>10</v>
@@ -10704,7 +10704,7 @@
         <v>6.5</v>
       </c>
       <c r="AX56" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AY56" t="n">
         <v>23</v>
@@ -10713,7 +10713,7 @@
         <v>67</v>
       </c>
       <c r="BA56" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="BB56" t="n">
         <v>126</v>
@@ -10757,22 +10757,22 @@
         </is>
       </c>
       <c r="G57" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="H57" t="n">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="I57" t="n">
-        <v>4.2</v>
+        <v>4.33</v>
       </c>
       <c r="J57" t="n">
         <v>2.3</v>
       </c>
       <c r="K57" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="L57" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="M57" t="n">
         <v>1.03</v>
@@ -10841,7 +10841,7 @@
         <v>17</v>
       </c>
       <c r="AI57" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AJ57" t="n">
         <v>15</v>
@@ -10862,7 +10862,7 @@
         <v>9</v>
       </c>
       <c r="AP57" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AQ57" t="n">
         <v>26</v>
@@ -10883,7 +10883,7 @@
         <v>41</v>
       </c>
       <c r="AW57" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AX57" t="n">
         <v>21</v>
@@ -11303,22 +11303,22 @@
         </is>
       </c>
       <c r="G60" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="H60" t="n">
         <v>3</v>
       </c>
-      <c r="H60" t="n">
-        <v>3.1</v>
-      </c>
       <c r="I60" t="n">
-        <v>2.4</v>
+        <v>2.55</v>
       </c>
       <c r="J60" t="n">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="K60" t="n">
         <v>2</v>
       </c>
       <c r="L60" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="M60" t="n">
         <v>1.08</v>
@@ -11333,10 +11333,10 @@
         <v>2.75</v>
       </c>
       <c r="Q60" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="R60" t="n">
-        <v>1.6</v>
+        <v>1.62</v>
       </c>
       <c r="S60" t="n">
         <v>1.5</v>
@@ -11351,16 +11351,16 @@
         <v>1.8</v>
       </c>
       <c r="W60" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="X60" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="Y60" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="Z60" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AA60" t="n">
         <v>26</v>
@@ -11369,13 +11369,13 @@
         <v>41</v>
       </c>
       <c r="AC60" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AD60" t="n">
         <v>6</v>
       </c>
       <c r="AE60" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AF60" t="n">
         <v>51</v>
@@ -11393,10 +11393,10 @@
         <v>10</v>
       </c>
       <c r="AK60" t="n">
+        <v>26</v>
+      </c>
+      <c r="AL60" t="n">
         <v>23</v>
-      </c>
-      <c r="AL60" t="n">
-        <v>21</v>
       </c>
       <c r="AM60" t="n">
         <v>34</v>
@@ -11429,22 +11429,22 @@
         <v>67</v>
       </c>
       <c r="AW60" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="AX60" t="n">
         <v>15</v>
       </c>
       <c r="AY60" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AZ60" t="n">
         <v>51</v>
       </c>
       <c r="BA60" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="BB60" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="BC60" t="n">
         <v>126</v>
@@ -11697,10 +11697,10 @@
         <v>4.5</v>
       </c>
       <c r="Q62" t="n">
-        <v>1.6</v>
+        <v>1.62</v>
       </c>
       <c r="R62" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="S62" t="n">
         <v>1.29</v>
@@ -12073,10 +12073,10 @@
         <v>4</v>
       </c>
       <c r="U64" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="V64" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="W64" t="n">
         <v>29</v>
@@ -12109,13 +12109,13 @@
         <v>81</v>
       </c>
       <c r="AG64" t="n">
-        <v>401</v>
+        <v>451</v>
       </c>
       <c r="AH64" t="n">
         <v>9.5</v>
       </c>
       <c r="AI64" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AJ64" t="n">
         <v>10</v>
@@ -12136,7 +12136,7 @@
         <v>51</v>
       </c>
       <c r="AP64" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AQ64" t="n">
         <v>301</v>
@@ -12163,7 +12163,7 @@
         <v>5</v>
       </c>
       <c r="AY64" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AZ64" t="n">
         <v>11</v>
@@ -12213,34 +12213,34 @@
         </is>
       </c>
       <c r="G65" t="n">
-        <v>2.57</v>
+        <v>2.62</v>
       </c>
       <c r="H65" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="I65" t="n">
-        <v>2.57</v>
+        <v>2.5</v>
       </c>
       <c r="J65" t="n">
-        <v>3.05</v>
+        <v>3.15</v>
       </c>
       <c r="K65" t="n">
         <v>2.15</v>
       </c>
       <c r="L65" t="n">
-        <v>3.15</v>
+        <v>3.05</v>
       </c>
       <c r="M65" t="n">
         <v>1.05</v>
       </c>
       <c r="N65" t="n">
-        <v>7.9</v>
+        <v>8</v>
       </c>
       <c r="O65" t="n">
-        <v>1.24</v>
+        <v>1.23</v>
       </c>
       <c r="P65" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="Q65" t="n">
         <v>1.72</v>
@@ -12255,16 +12255,16 @@
         <v>2.9</v>
       </c>
       <c r="U65" t="n">
-        <v>1.55</v>
+        <v>1.57</v>
       </c>
       <c r="V65" t="n">
-        <v>2.3</v>
+        <v>2.27</v>
       </c>
       <c r="W65" t="n">
         <v>10.75</v>
       </c>
       <c r="X65" t="n">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="Y65" t="n">
         <v>9.5</v>
@@ -12273,58 +12273,58 @@
         <v>30</v>
       </c>
       <c r="AA65" t="n">
-        <v>19</v>
+        <v>19.5</v>
       </c>
       <c r="AB65" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AC65" t="n">
-        <v>7.9</v>
+        <v>8</v>
       </c>
       <c r="AD65" t="n">
-        <v>6.5</v>
+        <v>6.6</v>
       </c>
       <c r="AE65" t="n">
-        <v>11.5</v>
+        <v>11.75</v>
       </c>
       <c r="AF65" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="AG65" t="n">
         <v>250</v>
       </c>
       <c r="AH65" t="n">
-        <v>9.75</v>
+        <v>10</v>
       </c>
       <c r="AI65" t="n">
         <v>14</v>
       </c>
       <c r="AJ65" t="n">
-        <v>9.5</v>
+        <v>9.25</v>
       </c>
       <c r="AK65" t="n">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="AL65" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AM65" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AN65" t="n">
-        <v>4.7</v>
+        <v>4.75</v>
       </c>
       <c r="AO65" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="AP65" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AQ65" t="n">
         <v>55</v>
       </c>
       <c r="AR65" t="n">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="AS65" t="n">
         <v>200</v>
@@ -12333,25 +12333,25 @@
         <v>2.9</v>
       </c>
       <c r="AU65" t="n">
-        <v>6.4</v>
+        <v>6.5</v>
       </c>
       <c r="AV65" t="n">
         <v>50</v>
       </c>
       <c r="AW65" t="n">
-        <v>4.7</v>
+        <v>4.6</v>
       </c>
       <c r="AX65" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AY65" t="n">
-        <v>19.5</v>
+        <v>19</v>
       </c>
       <c r="AZ65" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="BA65" t="n">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="BB65" t="n">
         <v>200</v>
@@ -12398,7 +12398,7 @@
         <v>2.42</v>
       </c>
       <c r="H66" t="n">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="I66" t="n">
         <v>2.67</v>
@@ -12467,7 +12467,7 @@
         <v>6.8</v>
       </c>
       <c r="AE66" t="n">
-        <v>11.5</v>
+        <v>11.75</v>
       </c>
       <c r="AF66" t="n">
         <v>40</v>
@@ -12485,7 +12485,7 @@
         <v>9.75</v>
       </c>
       <c r="AK66" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AL66" t="n">
         <v>20</v>
@@ -12524,7 +12524,7 @@
         <v>4.8</v>
       </c>
       <c r="AX66" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="AY66" t="n">
         <v>20</v>
@@ -12577,7 +12577,7 @@
         </is>
       </c>
       <c r="G67" t="n">
-        <v>10</v>
+        <v>10.25</v>
       </c>
       <c r="H67" t="n">
         <v>6.1</v>
@@ -12586,13 +12586,13 @@
         <v>1.22</v>
       </c>
       <c r="J67" t="n">
-        <v>7.3</v>
+        <v>7.6</v>
       </c>
       <c r="K67" t="n">
         <v>2.9</v>
       </c>
       <c r="L67" t="n">
-        <v>1.6</v>
+        <v>1.57</v>
       </c>
       <c r="M67" t="n">
         <v>1.02</v>
@@ -12604,7 +12604,7 @@
         <v>1.1</v>
       </c>
       <c r="P67" t="n">
-        <v>6</v>
+        <v>5.9</v>
       </c>
       <c r="Q67" t="n">
         <v>1.32</v>
@@ -12616,10 +12616,10 @@
         <v>1.21</v>
       </c>
       <c r="T67" t="n">
-        <v>4</v>
+        <v>3.95</v>
       </c>
       <c r="U67" t="n">
-        <v>1.7</v>
+        <v>1.72</v>
       </c>
       <c r="V67" t="n">
         <v>2.02</v>
@@ -12637,10 +12637,10 @@
         <v>300</v>
       </c>
       <c r="AA67" t="n">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="AB67" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="AC67" t="n">
         <v>10.5</v>
@@ -12649,13 +12649,13 @@
         <v>13.5</v>
       </c>
       <c r="AE67" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AF67" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="AG67" t="n">
-        <v>350</v>
+        <v>400</v>
       </c>
       <c r="AH67" t="n">
         <v>11.75</v>
@@ -12682,19 +12682,19 @@
         <v>50</v>
       </c>
       <c r="AP67" t="n">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="AQ67" t="n">
-        <v>300</v>
+        <v>350</v>
       </c>
       <c r="AR67" t="n">
         <v>250</v>
       </c>
       <c r="AS67" t="n">
-        <v>350</v>
+        <v>400</v>
       </c>
       <c r="AT67" t="n">
-        <v>4</v>
+        <v>3.95</v>
       </c>
       <c r="AU67" t="n">
         <v>8.25</v>
@@ -12712,7 +12712,7 @@
         <v>12.5</v>
       </c>
       <c r="AZ67" t="n">
-        <v>11.5</v>
+        <v>11.25</v>
       </c>
       <c r="BA67" t="n">
         <v>28</v>
@@ -12759,16 +12759,16 @@
         </is>
       </c>
       <c r="G68" t="n">
-        <v>2.35</v>
+        <v>2.25</v>
       </c>
       <c r="H68" t="n">
-        <v>2.9</v>
+        <v>2.8</v>
       </c>
       <c r="I68" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="J68" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="K68" t="n">
         <v>1.91</v>
@@ -12777,10 +12777,10 @@
         <v>4</v>
       </c>
       <c r="M68" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="N68" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="O68" t="n">
         <v>1.5</v>
@@ -12789,10 +12789,10 @@
         <v>2.5</v>
       </c>
       <c r="Q68" t="n">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="R68" t="n">
-        <v>1.48</v>
+        <v>1.5</v>
       </c>
       <c r="S68" t="n">
         <v>1.57</v>
@@ -12843,16 +12843,16 @@
         <v>7.5</v>
       </c>
       <c r="AI68" t="n">
+        <v>15</v>
+      </c>
+      <c r="AJ68" t="n">
         <v>13</v>
-      </c>
-      <c r="AJ68" t="n">
-        <v>12</v>
       </c>
       <c r="AK68" t="n">
         <v>34</v>
       </c>
       <c r="AL68" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AM68" t="n">
         <v>41</v>
@@ -12873,7 +12873,7 @@
         <v>81</v>
       </c>
       <c r="AS68" t="n">
-        <v>301</v>
+        <v>251</v>
       </c>
       <c r="AT68" t="n">
         <v>2.25</v>
@@ -12888,7 +12888,7 @@
         <v>5</v>
       </c>
       <c r="AX68" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AY68" t="n">
         <v>34</v>
@@ -13123,7 +13123,7 @@
         </is>
       </c>
       <c r="G70" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="H70" t="n">
         <v>7.5</v>
@@ -13138,7 +13138,7 @@
         <v>3.2</v>
       </c>
       <c r="L70" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="M70" t="n">
         <v>1.01</v>
@@ -13165,22 +13165,22 @@
         <v>4.5</v>
       </c>
       <c r="U70" t="n">
-        <v>1.83</v>
+        <v>2</v>
       </c>
       <c r="V70" t="n">
-        <v>1.83</v>
+        <v>1.73</v>
       </c>
       <c r="W70" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="X70" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="Y70" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="Z70" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AA70" t="n">
         <v>11</v>
@@ -13189,16 +13189,16 @@
         <v>26</v>
       </c>
       <c r="AC70" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AD70" t="n">
         <v>15</v>
       </c>
       <c r="AE70" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AF70" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AG70" t="n">
         <v>700</v>
@@ -13207,7 +13207,7 @@
         <v>41</v>
       </c>
       <c r="AI70" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AJ70" t="n">
         <v>41</v>
@@ -13222,7 +13222,7 @@
         <v>67</v>
       </c>
       <c r="AN70" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="AO70" t="n">
         <v>5</v>
@@ -13234,7 +13234,7 @@
         <v>9.5</v>
       </c>
       <c r="AR70" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AS70" t="n">
         <v>81</v>
@@ -13243,7 +13243,7 @@
         <v>4.5</v>
       </c>
       <c r="AU70" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AV70" t="n">
         <v>51</v>
@@ -13305,58 +13305,58 @@
         </is>
       </c>
       <c r="G71" t="n">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="H71" t="n">
-        <v>6</v>
+        <v>6.25</v>
       </c>
       <c r="I71" t="n">
         <v>8</v>
       </c>
       <c r="J71" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="K71" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="L71" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="M71" t="n">
-        <v>1.02</v>
+        <v>1.01</v>
       </c>
       <c r="N71" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="O71" t="n">
-        <v>1.14</v>
+        <v>1.11</v>
       </c>
       <c r="P71" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="Q71" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="R71" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="S71" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="T71" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="U71" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="V71" t="n">
         <v>1.91</v>
       </c>
-      <c r="V71" t="n">
-        <v>1.8</v>
-      </c>
       <c r="W71" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="X71" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="Y71" t="n">
         <v>9.5</v>
@@ -13368,13 +13368,13 @@
         <v>11</v>
       </c>
       <c r="AB71" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AC71" t="n">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="AD71" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AE71" t="n">
         <v>21</v>
@@ -13383,10 +13383,10 @@
         <v>51</v>
       </c>
       <c r="AG71" t="n">
-        <v>700</v>
+        <v>450</v>
       </c>
       <c r="AH71" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AI71" t="n">
         <v>41</v>
@@ -13395,16 +13395,16 @@
         <v>23</v>
       </c>
       <c r="AK71" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="AL71" t="n">
         <v>51</v>
       </c>
       <c r="AM71" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AN71" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="AO71" t="n">
         <v>6</v>
@@ -13416,16 +13416,16 @@
         <v>13</v>
       </c>
       <c r="AR71" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AS71" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="AT71" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="AU71" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AV71" t="n">
         <v>51</v>
@@ -13437,16 +13437,16 @@
         <v>41</v>
       </c>
       <c r="AY71" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AZ71" t="n">
         <v>151</v>
       </c>
       <c r="BA71" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="BB71" t="n">
-        <v>500</v>
+        <v>450</v>
       </c>
       <c r="BC71" t="n">
         <v>81</v>
@@ -13487,28 +13487,28 @@
         </is>
       </c>
       <c r="G72" t="n">
-        <v>2.8</v>
+        <v>2.88</v>
       </c>
       <c r="H72" t="n">
         <v>3.4</v>
       </c>
       <c r="I72" t="n">
-        <v>2.35</v>
+        <v>2.3</v>
       </c>
       <c r="J72" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="K72" t="n">
         <v>2.1</v>
       </c>
       <c r="L72" t="n">
-        <v>3</v>
+        <v>2.88</v>
       </c>
       <c r="M72" t="n">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="N72" t="n">
-        <v>11</v>
+        <v>8.5</v>
       </c>
       <c r="O72" t="n">
         <v>1.29</v>
@@ -13577,7 +13577,7 @@
         <v>10</v>
       </c>
       <c r="AK72" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AL72" t="n">
         <v>19</v>
@@ -13669,22 +13669,22 @@
         </is>
       </c>
       <c r="G73" t="n">
-        <v>2</v>
+        <v>2.15</v>
       </c>
       <c r="H73" t="n">
-        <v>4.33</v>
+        <v>4.2</v>
       </c>
       <c r="I73" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="J73" t="n">
         <v>2.63</v>
       </c>
-      <c r="J73" t="n">
-        <v>2.5</v>
-      </c>
       <c r="K73" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="L73" t="n">
         <v>2.88</v>
-      </c>
-      <c r="L73" t="n">
-        <v>3.1</v>
       </c>
       <c r="M73" t="n">
         <v>1.01</v>
@@ -13693,22 +13693,22 @@
         <v>34</v>
       </c>
       <c r="O73" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="P73" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="Q73" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="R73" t="n">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="S73" t="n">
-        <v>1.14</v>
+        <v>1.17</v>
       </c>
       <c r="T73" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="U73" t="n">
         <v>1.25</v>
@@ -13726,7 +13726,7 @@
         <v>11</v>
       </c>
       <c r="Z73" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AA73" t="n">
         <v>15</v>
@@ -13738,7 +13738,7 @@
         <v>34</v>
       </c>
       <c r="AD73" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AE73" t="n">
         <v>11</v>
@@ -13750,19 +13750,19 @@
         <v>51</v>
       </c>
       <c r="AH73" t="n">
+        <v>21</v>
+      </c>
+      <c r="AI73" t="n">
         <v>23</v>
       </c>
-      <c r="AI73" t="n">
-        <v>26</v>
-      </c>
       <c r="AJ73" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AK73" t="n">
         <v>34</v>
       </c>
       <c r="AL73" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AM73" t="n">
         <v>17</v>
@@ -13786,13 +13786,13 @@
         <v>51</v>
       </c>
       <c r="AT73" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="AU73" t="n">
         <v>6.5</v>
       </c>
       <c r="AV73" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AW73" t="n">
         <v>6</v>
@@ -13804,7 +13804,7 @@
         <v>15</v>
       </c>
       <c r="AZ73" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="BA73" t="n">
         <v>41</v>
@@ -13813,7 +13813,7 @@
         <v>51</v>
       </c>
       <c r="BC73" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="BD73" t="n">
         <v>51</v>
@@ -13851,34 +13851,34 @@
         </is>
       </c>
       <c r="G74" t="n">
-        <v>5.4</v>
+        <v>5.2</v>
       </c>
       <c r="H74" t="n">
         <v>4.2</v>
       </c>
       <c r="I74" t="n">
-        <v>1.55</v>
+        <v>1.57</v>
       </c>
       <c r="J74" t="n">
-        <v>5.2</v>
+        <v>5</v>
       </c>
       <c r="K74" t="n">
-        <v>2.37</v>
+        <v>2.35</v>
       </c>
       <c r="L74" t="n">
-        <v>2.02</v>
+        <v>2.07</v>
       </c>
       <c r="M74" t="n">
         <v>1.04</v>
       </c>
       <c r="N74" t="n">
-        <v>9.25</v>
+        <v>9.5</v>
       </c>
       <c r="O74" t="n">
         <v>1.2</v>
       </c>
       <c r="P74" t="n">
-        <v>4.15</v>
+        <v>4.2</v>
       </c>
       <c r="Q74" t="n">
         <v>1.62</v>
@@ -13899,40 +13899,40 @@
         <v>2.05</v>
       </c>
       <c r="W74" t="n">
-        <v>15.5</v>
+        <v>16</v>
       </c>
       <c r="X74" t="n">
         <v>37</v>
       </c>
       <c r="Y74" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="Z74" t="n">
         <v>110</v>
       </c>
       <c r="AA74" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AB74" t="n">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="AC74" t="n">
-        <v>9.25</v>
+        <v>9.5</v>
       </c>
       <c r="AD74" t="n">
         <v>8.75</v>
       </c>
       <c r="AE74" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="AF74" t="n">
         <v>65</v>
       </c>
       <c r="AG74" t="n">
-        <v>500</v>
+        <v>450</v>
       </c>
       <c r="AH74" t="n">
-        <v>7.9</v>
+        <v>7.8</v>
       </c>
       <c r="AI74" t="n">
         <v>8.75</v>
@@ -13944,34 +13944,34 @@
         <v>12.5</v>
       </c>
       <c r="AL74" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="AM74" t="n">
         <v>23</v>
       </c>
       <c r="AN74" t="n">
-        <v>7.1</v>
+        <v>6.9</v>
       </c>
       <c r="AO74" t="n">
+        <v>27</v>
+      </c>
+      <c r="AP74" t="n">
         <v>29</v>
       </c>
-      <c r="AP74" t="n">
-        <v>30</v>
-      </c>
       <c r="AQ74" t="n">
-        <v>175</v>
+        <v>150</v>
       </c>
       <c r="AR74" t="n">
         <v>175</v>
       </c>
       <c r="AS74" t="n">
-        <v>350</v>
+        <v>300</v>
       </c>
       <c r="AT74" t="n">
         <v>3.2</v>
       </c>
       <c r="AU74" t="n">
-        <v>7.4</v>
+        <v>7.3</v>
       </c>
       <c r="AV74" t="n">
         <v>60</v>
@@ -13980,13 +13980,13 @@
         <v>3.55</v>
       </c>
       <c r="AX74" t="n">
-        <v>7.2</v>
+        <v>7.3</v>
       </c>
       <c r="AY74" t="n">
         <v>15</v>
       </c>
       <c r="AZ74" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="BA74" t="n">
         <v>45</v>
@@ -14033,76 +14033,76 @@
         </is>
       </c>
       <c r="G75" t="n">
-        <v>3.7</v>
+        <v>3.25</v>
       </c>
       <c r="H75" t="n">
-        <v>3.7</v>
+        <v>3.4</v>
       </c>
       <c r="I75" t="n">
-        <v>1.91</v>
+        <v>2.15</v>
       </c>
       <c r="J75" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="K75" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="L75" t="n">
-        <v>2.5</v>
+        <v>2.88</v>
       </c>
       <c r="M75" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="N75" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="O75" t="n">
-        <v>1.22</v>
+        <v>1.29</v>
       </c>
       <c r="P75" t="n">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="Q75" t="n">
-        <v>1.75</v>
+        <v>1.95</v>
       </c>
       <c r="R75" t="n">
-        <v>2.05</v>
+        <v>1.9</v>
       </c>
       <c r="S75" t="n">
-        <v>1.33</v>
+        <v>1.4</v>
       </c>
       <c r="T75" t="n">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U75" t="n">
-        <v>1.67</v>
+        <v>1.73</v>
       </c>
       <c r="V75" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="W75" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="X75" t="n">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="Y75" t="n">
         <v>12</v>
       </c>
       <c r="Z75" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AA75" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AB75" t="n">
         <v>34</v>
       </c>
       <c r="AC75" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AD75" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AE75" t="n">
         <v>13</v>
@@ -14111,37 +14111,37 @@
         <v>41</v>
       </c>
       <c r="AG75" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="AH75" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AI75" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AJ75" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AK75" t="n">
+        <v>21</v>
+      </c>
+      <c r="AL75" t="n">
         <v>17</v>
       </c>
-      <c r="AL75" t="n">
-        <v>15</v>
-      </c>
       <c r="AM75" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AN75" t="n">
         <v>5.5</v>
       </c>
       <c r="AO75" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AP75" t="n">
         <v>26</v>
       </c>
       <c r="AQ75" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AR75" t="n">
         <v>81</v>
@@ -14150,7 +14150,7 @@
         <v>151</v>
       </c>
       <c r="AT75" t="n">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="AU75" t="n">
         <v>7.5</v>
@@ -14159,22 +14159,22 @@
         <v>51</v>
       </c>
       <c r="AW75" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="AX75" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AY75" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AZ75" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="BA75" t="n">
         <v>51</v>
       </c>
       <c r="BB75" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="BC75" t="n">
         <v>501</v>
@@ -14239,16 +14239,16 @@
         <v>11</v>
       </c>
       <c r="O76" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="P76" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="Q76" t="n">
-        <v>1.98</v>
+        <v>2.03</v>
       </c>
       <c r="R76" t="n">
-        <v>1.88</v>
+        <v>1.83</v>
       </c>
       <c r="S76" t="n">
         <v>1.4</v>
@@ -14397,10 +14397,10 @@
         </is>
       </c>
       <c r="G77" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="H77" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="I77" t="n">
         <v>3.25</v>
@@ -14409,28 +14409,28 @@
         <v>2.88</v>
       </c>
       <c r="K77" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="L77" t="n">
         <v>3.75</v>
       </c>
       <c r="M77" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N77" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="O77" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="P77" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="Q77" t="n">
-        <v>1.98</v>
+        <v>1.93</v>
       </c>
       <c r="R77" t="n">
-        <v>1.88</v>
+        <v>1.93</v>
       </c>
       <c r="S77" t="n">
         <v>1.4</v>
@@ -14439,34 +14439,34 @@
         <v>2.75</v>
       </c>
       <c r="U77" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="V77" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="W77" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="X77" t="n">
         <v>11</v>
       </c>
       <c r="Y77" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="Z77" t="n">
         <v>21</v>
       </c>
       <c r="AA77" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AB77" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AC77" t="n">
         <v>10</v>
       </c>
       <c r="AD77" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AE77" t="n">
         <v>13</v>
@@ -14478,7 +14478,7 @@
         <v>201</v>
       </c>
       <c r="AH77" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AI77" t="n">
         <v>17</v>
@@ -14517,7 +14517,7 @@
         <v>2.75</v>
       </c>
       <c r="AU77" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AV77" t="n">
         <v>51</v>
@@ -14535,7 +14535,7 @@
         <v>51</v>
       </c>
       <c r="BA77" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="BB77" t="n">
         <v>151</v>
@@ -14579,91 +14579,91 @@
         </is>
       </c>
       <c r="G78" t="n">
-        <v>2.5</v>
+        <v>2.57</v>
       </c>
       <c r="H78" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="I78" t="n">
-        <v>2.6</v>
+        <v>2.62</v>
       </c>
       <c r="J78" t="n">
         <v>3.05</v>
       </c>
       <c r="K78" t="n">
-        <v>2.18</v>
+        <v>2.12</v>
       </c>
       <c r="L78" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="M78" t="n">
         <v>1.05</v>
       </c>
       <c r="N78" t="n">
-        <v>8</v>
+        <v>7.8</v>
       </c>
       <c r="O78" t="n">
-        <v>1.23</v>
+        <v>1.25</v>
       </c>
       <c r="P78" t="n">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="Q78" t="n">
-        <v>1.7</v>
+        <v>1.75</v>
       </c>
       <c r="R78" t="n">
-        <v>2.07</v>
+        <v>2</v>
       </c>
       <c r="S78" t="n">
-        <v>1.35</v>
+        <v>1.37</v>
       </c>
       <c r="T78" t="n">
-        <v>2.95</v>
+        <v>2.87</v>
       </c>
       <c r="U78" t="n">
         <v>1.57</v>
       </c>
       <c r="V78" t="n">
-        <v>2.27</v>
+        <v>2.25</v>
       </c>
       <c r="W78" t="n">
-        <v>10.25</v>
+        <v>10.5</v>
       </c>
       <c r="X78" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="Y78" t="n">
-        <v>9.5</v>
+        <v>9.25</v>
       </c>
       <c r="Z78" t="n">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="AA78" t="n">
-        <v>18.5</v>
+        <v>19</v>
       </c>
       <c r="AB78" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AC78" t="n">
-        <v>8</v>
+        <v>7.8</v>
       </c>
       <c r="AD78" t="n">
-        <v>6.7</v>
+        <v>6.4</v>
       </c>
       <c r="AE78" t="n">
-        <v>11.75</v>
+        <v>11.5</v>
       </c>
       <c r="AF78" t="n">
         <v>45</v>
       </c>
       <c r="AG78" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="AH78" t="n">
-        <v>10.25</v>
+        <v>9.5</v>
       </c>
       <c r="AI78" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="AJ78" t="n">
         <v>9.5</v>
@@ -14672,19 +14672,19 @@
         <v>30</v>
       </c>
       <c r="AL78" t="n">
-        <v>19.5</v>
+        <v>21</v>
       </c>
       <c r="AM78" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="AN78" t="n">
-        <v>4.6</v>
+        <v>4.65</v>
       </c>
       <c r="AO78" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="AP78" t="n">
-        <v>18.5</v>
+        <v>18</v>
       </c>
       <c r="AQ78" t="n">
         <v>55</v>
@@ -14696,10 +14696,10 @@
         <v>200</v>
       </c>
       <c r="AT78" t="n">
-        <v>2.95</v>
+        <v>2.87</v>
       </c>
       <c r="AU78" t="n">
-        <v>6.5</v>
+        <v>6.4</v>
       </c>
       <c r="AV78" t="n">
         <v>50</v>
@@ -14708,16 +14708,16 @@
         <v>4.7</v>
       </c>
       <c r="AX78" t="n">
-        <v>13.5</v>
+        <v>14.5</v>
       </c>
       <c r="AY78" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AZ78" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="BA78" t="n">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="BB78" t="n">
         <v>250</v>
@@ -14761,52 +14761,52 @@
         </is>
       </c>
       <c r="G79" t="n">
-        <v>2.52</v>
+        <v>2.55</v>
       </c>
       <c r="H79" t="n">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="I79" t="n">
-        <v>2.62</v>
+        <v>2.67</v>
       </c>
       <c r="J79" t="n">
         <v>3.05</v>
       </c>
       <c r="K79" t="n">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="L79" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="M79" t="n">
         <v>1.05</v>
       </c>
       <c r="N79" t="n">
-        <v>7.8</v>
+        <v>7.6</v>
       </c>
       <c r="O79" t="n">
         <v>1.25</v>
       </c>
       <c r="P79" t="n">
-        <v>3.6</v>
+        <v>3.55</v>
       </c>
       <c r="Q79" t="n">
-        <v>1.75</v>
+        <v>1.78</v>
       </c>
       <c r="R79" t="n">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="S79" t="n">
         <v>1.37</v>
       </c>
       <c r="T79" t="n">
-        <v>2.87</v>
+        <v>2.85</v>
       </c>
       <c r="U79" t="n">
-        <v>1.6</v>
+        <v>1.57</v>
       </c>
       <c r="V79" t="n">
-        <v>2.22</v>
+        <v>2.25</v>
       </c>
       <c r="W79" t="n">
         <v>10</v>
@@ -14818,22 +14818,22 @@
         <v>9.25</v>
       </c>
       <c r="Z79" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AA79" t="n">
-        <v>19</v>
+        <v>19.5</v>
       </c>
       <c r="AB79" t="n">
         <v>24</v>
       </c>
       <c r="AC79" t="n">
-        <v>7.8</v>
+        <v>7.6</v>
       </c>
       <c r="AD79" t="n">
-        <v>6.5</v>
+        <v>6.2</v>
       </c>
       <c r="AE79" t="n">
-        <v>11.75</v>
+        <v>11.5</v>
       </c>
       <c r="AF79" t="n">
         <v>45</v>
@@ -14845,13 +14845,13 @@
         <v>9.5</v>
       </c>
       <c r="AI79" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="AJ79" t="n">
         <v>9.5</v>
       </c>
       <c r="AK79" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="AL79" t="n">
         <v>21</v>
@@ -14860,10 +14860,10 @@
         <v>26</v>
       </c>
       <c r="AN79" t="n">
-        <v>4.6</v>
+        <v>4.65</v>
       </c>
       <c r="AO79" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="AP79" t="n">
         <v>18.5</v>
@@ -14878,25 +14878,25 @@
         <v>200</v>
       </c>
       <c r="AT79" t="n">
-        <v>2.87</v>
+        <v>2.85</v>
       </c>
       <c r="AU79" t="n">
-        <v>6.6</v>
+        <v>6.4</v>
       </c>
       <c r="AV79" t="n">
         <v>50</v>
       </c>
       <c r="AW79" t="n">
-        <v>4.7</v>
+        <v>4.75</v>
       </c>
       <c r="AX79" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="AY79" t="n">
         <v>20</v>
       </c>
       <c r="AZ79" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="BA79" t="n">
         <v>90</v>
@@ -14943,10 +14943,10 @@
         </is>
       </c>
       <c r="G80" t="n">
-        <v>2.5</v>
+        <v>2.55</v>
       </c>
       <c r="H80" t="n">
-        <v>3.45</v>
+        <v>3.35</v>
       </c>
       <c r="I80" t="n">
         <v>2.57</v>
@@ -14955,28 +14955,28 @@
         <v>3</v>
       </c>
       <c r="K80" t="n">
-        <v>2.22</v>
+        <v>2.2</v>
       </c>
       <c r="L80" t="n">
         <v>3.1</v>
       </c>
       <c r="M80" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="N80" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="O80" t="n">
-        <v>1.21</v>
+        <v>1.23</v>
       </c>
       <c r="P80" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="Q80" t="n">
-        <v>1.65</v>
+        <v>1.7</v>
       </c>
       <c r="R80" t="n">
-        <v>2.15</v>
+        <v>2.07</v>
       </c>
       <c r="S80" t="n">
         <v>1.33</v>
@@ -14985,13 +14985,13 @@
         <v>3.05</v>
       </c>
       <c r="U80" t="n">
-        <v>1.52</v>
+        <v>1.55</v>
       </c>
       <c r="V80" t="n">
-        <v>2.37</v>
+        <v>2.3</v>
       </c>
       <c r="W80" t="n">
-        <v>11</v>
+        <v>10.75</v>
       </c>
       <c r="X80" t="n">
         <v>15</v>
@@ -15000,22 +15000,22 @@
         <v>9.5</v>
       </c>
       <c r="Z80" t="n">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="AA80" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AB80" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AC80" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AD80" t="n">
-        <v>6.9</v>
+        <v>6.7</v>
       </c>
       <c r="AE80" t="n">
-        <v>11.25</v>
+        <v>11.5</v>
       </c>
       <c r="AF80" t="n">
         <v>40</v>
@@ -15024,25 +15024,25 @@
         <v>250</v>
       </c>
       <c r="AH80" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AI80" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AJ80" t="n">
         <v>9.5</v>
       </c>
       <c r="AK80" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AL80" t="n">
-        <v>19</v>
+        <v>19.5</v>
       </c>
       <c r="AM80" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="AN80" t="n">
-        <v>4.7</v>
+        <v>4.75</v>
       </c>
       <c r="AO80" t="n">
         <v>13</v>
@@ -15054,7 +15054,7 @@
         <v>50</v>
       </c>
       <c r="AR80" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AS80" t="n">
         <v>175</v>
@@ -15069,7 +15069,7 @@
         <v>45</v>
       </c>
       <c r="AW80" t="n">
-        <v>4.8</v>
+        <v>4.75</v>
       </c>
       <c r="AX80" t="n">
         <v>13.5</v>
@@ -15081,7 +15081,7 @@
         <v>55</v>
       </c>
       <c r="BA80" t="n">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="BB80" t="n">
         <v>200</v>
@@ -15125,22 +15125,22 @@
         </is>
       </c>
       <c r="G81" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="H81" t="n">
-        <v>3.6</v>
+        <v>3.55</v>
       </c>
       <c r="I81" t="n">
         <v>3.4</v>
       </c>
       <c r="J81" t="n">
-        <v>2.5</v>
+        <v>2.52</v>
       </c>
       <c r="K81" t="n">
         <v>2.25</v>
       </c>
       <c r="L81" t="n">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="M81" t="n">
         <v>1.04</v>
@@ -15155,16 +15155,16 @@
         <v>4.15</v>
       </c>
       <c r="Q81" t="n">
-        <v>1.57</v>
+        <v>1.6</v>
       </c>
       <c r="R81" t="n">
-        <v>2.25</v>
+        <v>2.22</v>
       </c>
       <c r="S81" t="n">
         <v>1.32</v>
       </c>
       <c r="T81" t="n">
-        <v>3.15</v>
+        <v>3.1</v>
       </c>
       <c r="U81" t="n">
         <v>1.52</v>
@@ -15197,7 +15197,7 @@
         <v>7.2</v>
       </c>
       <c r="AE81" t="n">
-        <v>11.75</v>
+        <v>11.5</v>
       </c>
       <c r="AF81" t="n">
         <v>40</v>
@@ -15227,22 +15227,22 @@
         <v>4.15</v>
       </c>
       <c r="AO81" t="n">
-        <v>9.75</v>
+        <v>10</v>
       </c>
       <c r="AP81" t="n">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="AQ81" t="n">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="AR81" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="AS81" t="n">
         <v>150</v>
       </c>
       <c r="AT81" t="n">
-        <v>3.15</v>
+        <v>3.1</v>
       </c>
       <c r="AU81" t="n">
         <v>6.5</v>
@@ -15307,19 +15307,19 @@
         </is>
       </c>
       <c r="G82" t="n">
-        <v>2.8</v>
+        <v>2.88</v>
       </c>
       <c r="H82" t="n">
         <v>3.25</v>
       </c>
       <c r="I82" t="n">
-        <v>2.5</v>
+        <v>2.45</v>
       </c>
       <c r="J82" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="K82" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="L82" t="n">
         <v>3.2</v>
@@ -15337,10 +15337,10 @@
         <v>3.25</v>
       </c>
       <c r="Q82" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="R82" t="n">
-        <v>1.73</v>
+        <v>1.7</v>
       </c>
       <c r="S82" t="n">
         <v>1.44</v>
@@ -15373,7 +15373,7 @@
         <v>34</v>
       </c>
       <c r="AC82" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AD82" t="n">
         <v>6</v>
@@ -15385,10 +15385,10 @@
         <v>51</v>
       </c>
       <c r="AG82" t="n">
-        <v>251</v>
+        <v>301</v>
       </c>
       <c r="AH82" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AI82" t="n">
         <v>12</v>
@@ -15489,22 +15489,22 @@
         </is>
       </c>
       <c r="G83" t="n">
-        <v>1.73</v>
+        <v>1.8</v>
       </c>
       <c r="H83" t="n">
         <v>3.5</v>
       </c>
       <c r="I83" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="J83" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="K83" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="L83" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="M83" t="n">
         <v>1.06</v>
@@ -15546,7 +15546,7 @@
         <v>8.5</v>
       </c>
       <c r="Z83" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AA83" t="n">
         <v>15</v>
@@ -15567,7 +15567,7 @@
         <v>51</v>
       </c>
       <c r="AG83" t="n">
-        <v>351</v>
+        <v>301</v>
       </c>
       <c r="AH83" t="n">
         <v>11</v>
@@ -15579,10 +15579,10 @@
         <v>15</v>
       </c>
       <c r="AK83" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AL83" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AM83" t="n">
         <v>41</v>
@@ -15591,7 +15591,7 @@
         <v>3.75</v>
       </c>
       <c r="AO83" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AP83" t="n">
         <v>21</v>
@@ -15618,7 +15618,7 @@
         <v>6</v>
       </c>
       <c r="AX83" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AY83" t="n">
         <v>34</v>
@@ -15671,46 +15671,46 @@
         </is>
       </c>
       <c r="G84" t="n">
-        <v>10.75</v>
+        <v>13</v>
       </c>
       <c r="H84" t="n">
-        <v>5.2</v>
+        <v>5.4</v>
       </c>
       <c r="I84" t="n">
-        <v>1.24</v>
+        <v>1.21</v>
       </c>
       <c r="J84" t="n">
-        <v>9</v>
+        <v>9.75</v>
       </c>
       <c r="K84" t="n">
-        <v>2.47</v>
+        <v>2.52</v>
       </c>
       <c r="L84" t="n">
-        <v>1.65</v>
+        <v>1.6</v>
       </c>
       <c r="M84" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="N84" t="n">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="O84" t="n">
-        <v>1.2</v>
+        <v>1.19</v>
       </c>
       <c r="P84" t="n">
-        <v>3.65</v>
+        <v>3.75</v>
       </c>
       <c r="Q84" t="n">
-        <v>1.6</v>
+        <v>1.55</v>
       </c>
       <c r="R84" t="n">
-        <v>2.07</v>
+        <v>2.15</v>
       </c>
       <c r="S84" t="n">
-        <v>1.3</v>
+        <v>1.28</v>
       </c>
       <c r="T84" t="n">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="U84" t="n">
         <v>2.15</v>
@@ -15719,28 +15719,28 @@
         <v>1.55</v>
       </c>
       <c r="W84" t="n">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="X84" t="n">
-        <v>80</v>
+        <v>120</v>
       </c>
       <c r="Y84" t="n">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="Z84" t="n">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="AA84" t="n">
+        <v>200</v>
+      </c>
+      <c r="AB84" t="n">
         <v>150</v>
       </c>
-      <c r="AB84" t="n">
-        <v>120</v>
-      </c>
       <c r="AC84" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="AD84" t="n">
-        <v>10.75</v>
+        <v>11.5</v>
       </c>
       <c r="AE84" t="n">
         <v>28</v>
@@ -15752,7 +15752,7 @@
         <v>900</v>
       </c>
       <c r="AH84" t="n">
-        <v>6.8</v>
+        <v>7</v>
       </c>
       <c r="AI84" t="n">
         <v>5.7</v>
@@ -15761,22 +15761,22 @@
         <v>9.25</v>
       </c>
       <c r="AK84" t="n">
-        <v>7</v>
+        <v>6.8</v>
       </c>
       <c r="AL84" t="n">
-        <v>11.25</v>
+        <v>11</v>
       </c>
       <c r="AM84" t="n">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="AN84" t="n">
-        <v>10.5</v>
+        <v>12</v>
       </c>
       <c r="AO84" t="n">
+        <v>80</v>
+      </c>
+      <c r="AP84" t="n">
         <v>65</v>
-      </c>
-      <c r="AP84" t="n">
-        <v>60</v>
       </c>
       <c r="AQ84" t="n">
         <v>500</v>
@@ -15788,7 +15788,7 @@
         <v>67</v>
       </c>
       <c r="AT84" t="n">
-        <v>3.05</v>
+        <v>3.15</v>
       </c>
       <c r="AU84" t="n">
         <v>9.5</v>
@@ -15800,16 +15800,16 @@
         <v>2.95</v>
       </c>
       <c r="AX84" t="n">
-        <v>5.2</v>
+        <v>5</v>
       </c>
       <c r="AY84" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="AZ84" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="BA84" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="BB84" t="n">
         <v>250</v>
@@ -15853,64 +15853,64 @@
         </is>
       </c>
       <c r="G85" t="n">
-        <v>2.3</v>
+        <v>2.27</v>
       </c>
       <c r="H85" t="n">
-        <v>2.92</v>
+        <v>2.95</v>
       </c>
       <c r="I85" t="n">
         <v>3.2</v>
       </c>
       <c r="J85" t="n">
-        <v>2.95</v>
+        <v>2.9</v>
       </c>
       <c r="K85" t="n">
         <v>1.98</v>
       </c>
       <c r="L85" t="n">
-        <v>3.65</v>
+        <v>3.7</v>
       </c>
       <c r="M85" t="n">
         <v>1.03</v>
       </c>
       <c r="N85" t="n">
-        <v>6.95</v>
+        <v>7</v>
       </c>
       <c r="O85" t="n">
-        <v>1.37</v>
+        <v>1.38</v>
       </c>
       <c r="P85" t="n">
-        <v>2.62</v>
+        <v>2.6</v>
       </c>
       <c r="Q85" t="n">
-        <v>2.07</v>
+        <v>2.1</v>
       </c>
       <c r="R85" t="n">
-        <v>1.6</v>
+        <v>1.57</v>
       </c>
       <c r="S85" t="n">
-        <v>1.42</v>
+        <v>1.44</v>
       </c>
       <c r="T85" t="n">
-        <v>2.45</v>
+        <v>2.42</v>
       </c>
       <c r="U85" t="n">
         <v>1.8</v>
       </c>
       <c r="V85" t="n">
-        <v>1.82</v>
+        <v>1.8</v>
       </c>
       <c r="W85" t="n">
         <v>6.6</v>
       </c>
       <c r="X85" t="n">
-        <v>10.5</v>
+        <v>10.25</v>
       </c>
       <c r="Y85" t="n">
-        <v>9.25</v>
+        <v>9</v>
       </c>
       <c r="Z85" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AA85" t="n">
         <v>21</v>
@@ -15922,46 +15922,46 @@
         <v>7.6</v>
       </c>
       <c r="AD85" t="n">
-        <v>5.7</v>
+        <v>5.8</v>
       </c>
       <c r="AE85" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="AF85" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="AG85" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="AH85" t="n">
-        <v>9</v>
+        <v>8.75</v>
       </c>
       <c r="AI85" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="AJ85" t="n">
-        <v>11</v>
+        <v>11.25</v>
       </c>
       <c r="AK85" t="n">
         <v>45</v>
       </c>
       <c r="AL85" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AM85" t="n">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="AN85" t="n">
-        <v>4.15</v>
+        <v>4.1</v>
       </c>
       <c r="AO85" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AP85" t="n">
         <v>21</v>
       </c>
       <c r="AQ85" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AR85" t="n">
         <v>90</v>
@@ -15973,25 +15973,25 @@
         <v>2.4</v>
       </c>
       <c r="AU85" t="n">
-        <v>6.8</v>
+        <v>6.9</v>
       </c>
       <c r="AV85" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="AW85" t="n">
         <v>5</v>
       </c>
       <c r="AX85" t="n">
-        <v>17</v>
+        <v>17.5</v>
       </c>
       <c r="AY85" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AZ85" t="n">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="BA85" t="n">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="BB85" t="n">
         <v>300</v>
@@ -16038,13 +16038,13 @@
         <v>1.93</v>
       </c>
       <c r="H86" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="I86" t="n">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="J86" t="n">
-        <v>2.55</v>
+        <v>2.52</v>
       </c>
       <c r="K86" t="n">
         <v>2.05</v>
@@ -16053,10 +16053,10 @@
         <v>4.2</v>
       </c>
       <c r="M86" t="n">
-        <v>8.300000000000001</v>
+        <v>1.02</v>
       </c>
       <c r="N86" t="n">
-        <v>1.05</v>
+        <v>9.550000000000001</v>
       </c>
       <c r="O86" t="n">
         <v>1.28</v>
@@ -16065,7 +16065,7 @@
         <v>3.05</v>
       </c>
       <c r="Q86" t="n">
-        <v>1.87</v>
+        <v>1.88</v>
       </c>
       <c r="R86" t="n">
         <v>1.83</v>
@@ -16083,16 +16083,16 @@
         <v>1.93</v>
       </c>
       <c r="W86" t="n">
-        <v>7.4</v>
+        <v>7.3</v>
       </c>
       <c r="X86" t="n">
-        <v>9.5</v>
+        <v>9.25</v>
       </c>
       <c r="Y86" t="n">
         <v>8.25</v>
       </c>
       <c r="Z86" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="AA86" t="n">
         <v>15</v>
@@ -16101,7 +16101,7 @@
         <v>25</v>
       </c>
       <c r="AC86" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AD86" t="n">
         <v>6.4</v>
@@ -16137,7 +16137,7 @@
         <v>3.8</v>
       </c>
       <c r="AO86" t="n">
-        <v>10</v>
+        <v>9.75</v>
       </c>
       <c r="AP86" t="n">
         <v>18.5</v>
@@ -16155,7 +16155,7 @@
         <v>2.5</v>
       </c>
       <c r="AU86" t="n">
-        <v>6.9</v>
+        <v>7</v>
       </c>
       <c r="AV86" t="n">
         <v>60</v>
@@ -16581,19 +16581,19 @@
         </is>
       </c>
       <c r="G89" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="H89" t="n">
-        <v>5.5</v>
+        <v>5.6</v>
       </c>
       <c r="I89" t="n">
         <v>1.21</v>
       </c>
       <c r="J89" t="n">
-        <v>9</v>
+        <v>8.75</v>
       </c>
       <c r="K89" t="n">
-        <v>2.67</v>
+        <v>2.7</v>
       </c>
       <c r="L89" t="n">
         <v>1.6</v>
@@ -16614,16 +16614,16 @@
         <v>1.5</v>
       </c>
       <c r="R89" t="n">
-        <v>2.42</v>
+        <v>2.4</v>
       </c>
       <c r="S89" t="n">
-        <v>1.28</v>
+        <v>1.27</v>
       </c>
       <c r="T89" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="U89" t="n">
-        <v>2.1</v>
+        <v>2.12</v>
       </c>
       <c r="V89" t="n">
         <v>1.65</v>
@@ -16635,13 +16635,13 @@
         <v>90</v>
       </c>
       <c r="Y89" t="n">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="Z89" t="n">
-        <v>400</v>
+        <v>350</v>
       </c>
       <c r="AA89" t="n">
-        <v>175</v>
+        <v>150</v>
       </c>
       <c r="AB89" t="n">
         <v>120</v>
@@ -16653,7 +16653,7 @@
         <v>12</v>
       </c>
       <c r="AE89" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AF89" t="n">
         <v>120</v>
@@ -16665,25 +16665,25 @@
         <v>8</v>
       </c>
       <c r="AI89" t="n">
-        <v>6.3</v>
+        <v>6.2</v>
       </c>
       <c r="AJ89" t="n">
-        <v>9.25</v>
+        <v>9.5</v>
       </c>
       <c r="AK89" t="n">
-        <v>7.1</v>
+        <v>7</v>
       </c>
       <c r="AL89" t="n">
-        <v>10.5</v>
+        <v>10.75</v>
       </c>
       <c r="AM89" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="AN89" t="n">
-        <v>11.25</v>
+        <v>11</v>
       </c>
       <c r="AO89" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AP89" t="n">
         <v>60</v>
@@ -16698,22 +16698,22 @@
         <v>51</v>
       </c>
       <c r="AT89" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="AU89" t="n">
-        <v>9.5</v>
+        <v>9.75</v>
       </c>
       <c r="AV89" t="n">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="AW89" t="n">
-        <v>3.1</v>
+        <v>3.05</v>
       </c>
       <c r="AX89" t="n">
-        <v>5.1</v>
+        <v>5</v>
       </c>
       <c r="AY89" t="n">
-        <v>15.5</v>
+        <v>16</v>
       </c>
       <c r="AZ89" t="n">
         <v>12</v>
@@ -16722,7 +16722,7 @@
         <v>37</v>
       </c>
       <c r="BB89" t="n">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="BC89" t="n">
         <v>51</v>

--- a/Jogos_da_Semana_FlashScore_2024-09-27.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-09-27.xlsx
@@ -777,10 +777,10 @@
         <v>3.75</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.9</v>
+        <v>1.93</v>
       </c>
       <c r="R2" t="n">
-        <v>2</v>
+        <v>1.97</v>
       </c>
       <c r="S2" t="n">
         <v>1.36</v>
@@ -941,7 +941,7 @@
         <v>1.91</v>
       </c>
       <c r="K3" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="L3" t="n">
         <v>6.5</v>
@@ -953,16 +953,16 @@
         <v>15</v>
       </c>
       <c r="O3" t="n">
-        <v>1.2</v>
+        <v>1.17</v>
       </c>
       <c r="P3" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="R3" t="n">
-        <v>2.3</v>
+        <v>2.38</v>
       </c>
       <c r="S3" t="n">
         <v>1.29</v>
@@ -977,7 +977,7 @@
         <v>1.95</v>
       </c>
       <c r="W3" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="X3" t="n">
         <v>7.5</v>
@@ -995,7 +995,7 @@
         <v>23</v>
       </c>
       <c r="AC3" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AD3" t="n">
         <v>9.5</v>
@@ -1007,10 +1007,10 @@
         <v>51</v>
       </c>
       <c r="AG3" t="n">
-        <v>251</v>
+        <v>201</v>
       </c>
       <c r="AH3" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AI3" t="n">
         <v>41</v>
@@ -1022,7 +1022,7 @@
         <v>81</v>
       </c>
       <c r="AL3" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AM3" t="n">
         <v>41</v>
@@ -1034,7 +1034,7 @@
         <v>6.5</v>
       </c>
       <c r="AP3" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AQ3" t="n">
         <v>19</v>
@@ -1076,7 +1076,7 @@
         <v>501</v>
       </c>
       <c r="BD3" t="n">
-        <v>151</v>
+        <v>176</v>
       </c>
     </row>
     <row r="4">
@@ -1111,13 +1111,13 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="H4" t="n">
         <v>7</v>
       </c>
       <c r="I4" t="n">
-        <v>10.5</v>
+        <v>9</v>
       </c>
       <c r="J4" t="n">
         <v>1.62</v>
@@ -1132,7 +1132,7 @@
         <v>1.01</v>
       </c>
       <c r="N4" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="O4" t="n">
         <v>1.08</v>
@@ -1174,7 +1174,7 @@
         <v>10</v>
       </c>
       <c r="AB4" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AC4" t="n">
         <v>29</v>
@@ -1189,7 +1189,7 @@
         <v>41</v>
       </c>
       <c r="AG4" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="AH4" t="n">
         <v>34</v>
@@ -1216,7 +1216,7 @@
         <v>5.5</v>
       </c>
       <c r="AP4" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AQ4" t="n">
         <v>12</v>
@@ -1323,10 +1323,10 @@
         <v>5</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="R5" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="S5" t="n">
         <v>1.25</v>
@@ -1475,13 +1475,13 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>2.8</v>
+        <v>2.88</v>
       </c>
       <c r="H6" t="n">
         <v>3.6</v>
       </c>
       <c r="I6" t="n">
-        <v>2.4</v>
+        <v>2.38</v>
       </c>
       <c r="J6" t="n">
         <v>3.2</v>
@@ -1499,16 +1499,16 @@
         <v>15</v>
       </c>
       <c r="O6" t="n">
-        <v>1.17</v>
+        <v>1.18</v>
       </c>
       <c r="P6" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.6</v>
+        <v>1.62</v>
       </c>
       <c r="R6" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="S6" t="n">
         <v>1.3</v>
@@ -1535,7 +1535,7 @@
         <v>29</v>
       </c>
       <c r="AA6" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AB6" t="n">
         <v>23</v>
@@ -1556,10 +1556,10 @@
         <v>101</v>
       </c>
       <c r="AH6" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AI6" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AJ6" t="n">
         <v>9.5</v>
@@ -1675,10 +1675,10 @@
         <v>3.6</v>
       </c>
       <c r="M7" t="n">
-        <v>1.13</v>
+        <v>1.14</v>
       </c>
       <c r="N7" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="O7" t="n">
         <v>1.62</v>
@@ -1693,22 +1693,22 @@
         <v>1.4</v>
       </c>
       <c r="S7" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="T7" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="U7" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="V7" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="W7" t="n">
         <v>6.5</v>
       </c>
       <c r="X7" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="Y7" t="n">
         <v>12</v>
@@ -1717,13 +1717,13 @@
         <v>34</v>
       </c>
       <c r="AA7" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AB7" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AC7" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="AD7" t="n">
         <v>6</v>
@@ -1747,7 +1747,7 @@
         <v>11</v>
       </c>
       <c r="AK7" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AL7" t="n">
         <v>29</v>
@@ -1768,13 +1768,13 @@
         <v>67</v>
       </c>
       <c r="AR7" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="AS7" t="n">
-        <v>351</v>
+        <v>401</v>
       </c>
       <c r="AT7" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="AU7" t="n">
         <v>9.5</v>
@@ -1839,22 +1839,22 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>1.91</v>
+        <v>1.98</v>
       </c>
       <c r="H8" t="n">
-        <v>3.55</v>
+        <v>3.5</v>
       </c>
       <c r="I8" t="n">
-        <v>3.65</v>
+        <v>3.45</v>
       </c>
       <c r="J8" t="n">
-        <v>2.52</v>
+        <v>2.6</v>
       </c>
       <c r="K8" t="n">
-        <v>2.15</v>
+        <v>2.12</v>
       </c>
       <c r="L8" t="n">
-        <v>4.05</v>
+        <v>3.9</v>
       </c>
       <c r="M8" t="n">
         <v>1.06</v>
@@ -1878,28 +1878,28 @@
         <v>1.4</v>
       </c>
       <c r="T8" t="n">
-        <v>2.75</v>
+        <v>2.72</v>
       </c>
       <c r="U8" t="n">
-        <v>1.75</v>
+        <v>1.72</v>
       </c>
       <c r="V8" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="W8" t="n">
-        <v>7.4</v>
+        <v>7.6</v>
       </c>
       <c r="X8" t="n">
-        <v>9.25</v>
+        <v>9.5</v>
       </c>
       <c r="Y8" t="n">
         <v>8.5</v>
       </c>
       <c r="Z8" t="n">
-        <v>16.5</v>
+        <v>17.5</v>
       </c>
       <c r="AA8" t="n">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="AB8" t="n">
         <v>26</v>
@@ -1908,67 +1908,67 @@
         <v>7.5</v>
       </c>
       <c r="AD8" t="n">
-        <v>6.8</v>
+        <v>6.7</v>
       </c>
       <c r="AE8" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="AF8" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AG8" t="n">
         <v>450</v>
       </c>
       <c r="AH8" t="n">
-        <v>11.25</v>
+        <v>11</v>
       </c>
       <c r="AI8" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AJ8" t="n">
-        <v>12.5</v>
+        <v>11.75</v>
       </c>
       <c r="AK8" t="n">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="AL8" t="n">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="AM8" t="n">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="AN8" t="n">
-        <v>3.8</v>
+        <v>3.9</v>
       </c>
       <c r="AO8" t="n">
-        <v>9.75</v>
+        <v>10.25</v>
       </c>
       <c r="AP8" t="n">
-        <v>19</v>
+        <v>19.5</v>
       </c>
       <c r="AQ8" t="n">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="AR8" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="AS8" t="n">
         <v>250</v>
       </c>
       <c r="AT8" t="n">
-        <v>2.75</v>
+        <v>2.72</v>
       </c>
       <c r="AU8" t="n">
-        <v>7.3</v>
+        <v>7.2</v>
       </c>
       <c r="AV8" t="n">
         <v>65</v>
       </c>
       <c r="AW8" t="n">
-        <v>5.5</v>
+        <v>5.3</v>
       </c>
       <c r="AX8" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AY8" t="n">
         <v>26</v>
@@ -1977,7 +1977,7 @@
         <v>100</v>
       </c>
       <c r="BA8" t="n">
-        <v>150</v>
+        <v>120</v>
       </c>
       <c r="BB8" t="n">
         <v>350</v>
@@ -2021,88 +2021,88 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>3</v>
+        <v>2.95</v>
       </c>
       <c r="H9" t="n">
-        <v>3.75</v>
+        <v>3.7</v>
       </c>
       <c r="I9" t="n">
-        <v>2.1</v>
+        <v>2.12</v>
       </c>
       <c r="J9" t="n">
         <v>3.45</v>
       </c>
       <c r="K9" t="n">
-        <v>2.27</v>
+        <v>2.25</v>
       </c>
       <c r="L9" t="n">
-        <v>2.62</v>
+        <v>2.67</v>
       </c>
       <c r="M9" t="n">
         <v>1.04</v>
       </c>
       <c r="N9" t="n">
-        <v>8.5</v>
+        <v>8.25</v>
       </c>
       <c r="O9" t="n">
-        <v>1.21</v>
+        <v>1.23</v>
       </c>
       <c r="P9" t="n">
-        <v>3.9</v>
+        <v>3.75</v>
       </c>
       <c r="Q9" t="n">
-        <v>1.65</v>
+        <v>1.7</v>
       </c>
       <c r="R9" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="S9" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="T9" t="n">
+        <v>3</v>
+      </c>
+      <c r="U9" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="V9" t="n">
         <v>2.15</v>
       </c>
-      <c r="S9" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="T9" t="n">
-        <v>3.05</v>
-      </c>
-      <c r="U9" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="V9" t="n">
-        <v>2.22</v>
-      </c>
       <c r="W9" t="n">
-        <v>11.75</v>
+        <v>11</v>
       </c>
       <c r="X9" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="Y9" t="n">
         <v>10.75</v>
       </c>
       <c r="Z9" t="n">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="AA9" t="n">
         <v>23</v>
       </c>
       <c r="AB9" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AC9" t="n">
-        <v>8.5</v>
+        <v>8.25</v>
       </c>
       <c r="AD9" t="n">
-        <v>7.4</v>
+        <v>7.2</v>
       </c>
       <c r="AE9" t="n">
         <v>13</v>
       </c>
       <c r="AF9" t="n">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="AG9" t="n">
-        <v>300</v>
+        <v>350</v>
       </c>
       <c r="AH9" t="n">
-        <v>9.5</v>
+        <v>9.25</v>
       </c>
       <c r="AI9" t="n">
         <v>11.25</v>
@@ -2111,37 +2111,37 @@
         <v>8.75</v>
       </c>
       <c r="AK9" t="n">
-        <v>19.5</v>
+        <v>20</v>
       </c>
       <c r="AL9" t="n">
         <v>15.5</v>
       </c>
       <c r="AM9" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AN9" t="n">
-        <v>5.1</v>
+        <v>5</v>
       </c>
       <c r="AO9" t="n">
         <v>15.5</v>
       </c>
       <c r="AP9" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AQ9" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="AR9" t="n">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="AS9" t="n">
         <v>250</v>
       </c>
       <c r="AT9" t="n">
-        <v>3.05</v>
+        <v>3</v>
       </c>
       <c r="AU9" t="n">
-        <v>6.9</v>
+        <v>7</v>
       </c>
       <c r="AV9" t="n">
         <v>55</v>
@@ -2150,16 +2150,16 @@
         <v>4.2</v>
       </c>
       <c r="AX9" t="n">
-        <v>10.5</v>
+        <v>10.75</v>
       </c>
       <c r="AY9" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AZ9" t="n">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="BA9" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="BB9" t="n">
         <v>200</v>
@@ -2203,22 +2203,22 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>2.87</v>
+        <v>2.92</v>
       </c>
       <c r="H10" t="n">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="I10" t="n">
-        <v>2.2</v>
+        <v>2.12</v>
       </c>
       <c r="J10" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="K10" t="n">
-        <v>2.3</v>
+        <v>2.32</v>
       </c>
       <c r="L10" t="n">
-        <v>2.7</v>
+        <v>2.65</v>
       </c>
       <c r="M10" t="n">
         <v>1.03</v>
@@ -2227,7 +2227,7 @@
         <v>9</v>
       </c>
       <c r="O10" t="n">
-        <v>1.18</v>
+        <v>1.19</v>
       </c>
       <c r="P10" t="n">
         <v>4.25</v>
@@ -2245,22 +2245,22 @@
         <v>3.2</v>
       </c>
       <c r="U10" t="n">
-        <v>1.5</v>
+        <v>1.52</v>
       </c>
       <c r="V10" t="n">
-        <v>2.42</v>
+        <v>2.37</v>
       </c>
       <c r="W10" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="X10" t="n">
-        <v>17.5</v>
+        <v>18</v>
       </c>
       <c r="Y10" t="n">
-        <v>10.5</v>
+        <v>10.75</v>
       </c>
       <c r="Z10" t="n">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="AA10" t="n">
         <v>21</v>
@@ -2272,34 +2272,34 @@
         <v>9</v>
       </c>
       <c r="AD10" t="n">
-        <v>7.3</v>
+        <v>7.6</v>
       </c>
       <c r="AE10" t="n">
-        <v>11.25</v>
+        <v>12</v>
       </c>
       <c r="AF10" t="n">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="AG10" t="n">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="AH10" t="n">
-        <v>11.25</v>
+        <v>10.5</v>
       </c>
       <c r="AI10" t="n">
-        <v>13.5</v>
+        <v>12.5</v>
       </c>
       <c r="AJ10" t="n">
-        <v>9</v>
+        <v>8.75</v>
       </c>
       <c r="AK10" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AL10" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="AM10" t="n">
-        <v>19.5</v>
+        <v>20</v>
       </c>
       <c r="AN10" t="n">
         <v>5.2</v>
@@ -2317,34 +2317,34 @@
         <v>80</v>
       </c>
       <c r="AS10" t="n">
-        <v>175</v>
+        <v>200</v>
       </c>
       <c r="AT10" t="n">
         <v>3.2</v>
       </c>
       <c r="AU10" t="n">
-        <v>6.4</v>
+        <v>6.6</v>
       </c>
       <c r="AV10" t="n">
         <v>45</v>
       </c>
       <c r="AW10" t="n">
-        <v>4.45</v>
+        <v>4.35</v>
       </c>
       <c r="AX10" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AY10" t="n">
-        <v>15.5</v>
+        <v>16</v>
       </c>
       <c r="AZ10" t="n">
         <v>37</v>
       </c>
       <c r="BA10" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="BB10" t="n">
-        <v>150</v>
+        <v>175</v>
       </c>
       <c r="BC10" t="n">
         <v>500</v>
@@ -2385,22 +2385,22 @@
         </is>
       </c>
       <c r="G11" t="n">
-        <v>2.67</v>
+        <v>2.72</v>
       </c>
       <c r="H11" t="n">
-        <v>3.85</v>
+        <v>3.9</v>
       </c>
       <c r="I11" t="n">
-        <v>2.25</v>
+        <v>2.18</v>
       </c>
       <c r="J11" t="n">
         <v>3.1</v>
       </c>
       <c r="K11" t="n">
-        <v>2.4</v>
+        <v>2.42</v>
       </c>
       <c r="L11" t="n">
-        <v>2.7</v>
+        <v>2.67</v>
       </c>
       <c r="M11" t="n">
         <v>1.03</v>
@@ -2409,16 +2409,16 @@
         <v>9.5</v>
       </c>
       <c r="O11" t="n">
-        <v>1.16</v>
+        <v>1.15</v>
       </c>
       <c r="P11" t="n">
-        <v>4.6</v>
+        <v>4.65</v>
       </c>
       <c r="Q11" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="R11" t="n">
-        <v>2.42</v>
+        <v>2.5</v>
       </c>
       <c r="S11" t="n">
         <v>1.27</v>
@@ -2433,13 +2433,13 @@
         <v>2.52</v>
       </c>
       <c r="W11" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="X11" t="n">
-        <v>17</v>
+        <v>17.5</v>
       </c>
       <c r="Y11" t="n">
-        <v>10.25</v>
+        <v>10.5</v>
       </c>
       <c r="Z11" t="n">
         <v>32</v>
@@ -2454,7 +2454,7 @@
         <v>9.5</v>
       </c>
       <c r="AD11" t="n">
-        <v>8</v>
+        <v>8.25</v>
       </c>
       <c r="AE11" t="n">
         <v>11.75</v>
@@ -2475,10 +2475,10 @@
         <v>9.25</v>
       </c>
       <c r="AK11" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AL11" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="AM11" t="n">
         <v>19.5</v>
@@ -2505,16 +2505,16 @@
         <v>3.45</v>
       </c>
       <c r="AU11" t="n">
-        <v>6.4</v>
+        <v>6.5</v>
       </c>
       <c r="AV11" t="n">
         <v>40</v>
       </c>
       <c r="AW11" t="n">
-        <v>4.6</v>
+        <v>4.55</v>
       </c>
       <c r="AX11" t="n">
-        <v>11</v>
+        <v>10.75</v>
       </c>
       <c r="AY11" t="n">
         <v>15.5</v>
@@ -2567,13 +2567,13 @@
         </is>
       </c>
       <c r="G12" t="n">
-        <v>1.32</v>
+        <v>1.34</v>
       </c>
       <c r="H12" t="n">
-        <v>5.1</v>
+        <v>5</v>
       </c>
       <c r="I12" t="n">
-        <v>7.7</v>
+        <v>7.3</v>
       </c>
       <c r="J12" t="n">
         <v>1.72</v>
@@ -2582,25 +2582,25 @@
         <v>2.7</v>
       </c>
       <c r="L12" t="n">
-        <v>6.4</v>
+        <v>6.2</v>
       </c>
       <c r="M12" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="N12" t="n">
         <v>9.75</v>
       </c>
       <c r="O12" t="n">
-        <v>1.13</v>
+        <v>1.14</v>
       </c>
       <c r="P12" t="n">
-        <v>5.1</v>
+        <v>4.9</v>
       </c>
       <c r="Q12" t="n">
-        <v>1.42</v>
+        <v>1.45</v>
       </c>
       <c r="R12" t="n">
-        <v>2.67</v>
+        <v>2.57</v>
       </c>
       <c r="S12" t="n">
         <v>1.23</v>
@@ -2612,13 +2612,13 @@
         <v>1.7</v>
       </c>
       <c r="V12" t="n">
-        <v>2.05</v>
+        <v>2.02</v>
       </c>
       <c r="W12" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="X12" t="n">
-        <v>7.9</v>
+        <v>7.8</v>
       </c>
       <c r="Y12" t="n">
         <v>8.5</v>
@@ -2627,16 +2627,16 @@
         <v>9.25</v>
       </c>
       <c r="AA12" t="n">
-        <v>10</v>
+        <v>10.25</v>
       </c>
       <c r="AB12" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AC12" t="n">
         <v>9.75</v>
       </c>
       <c r="AD12" t="n">
-        <v>10.75</v>
+        <v>10.5</v>
       </c>
       <c r="AE12" t="n">
         <v>17.5</v>
@@ -2648,19 +2648,19 @@
         <v>350</v>
       </c>
       <c r="AH12" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AI12" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AJ12" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="AK12" t="n">
         <v>175</v>
       </c>
       <c r="AL12" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="AM12" t="n">
         <v>55</v>
@@ -2669,16 +2669,16 @@
         <v>3.5</v>
       </c>
       <c r="AO12" t="n">
-        <v>5.8</v>
+        <v>5.9</v>
       </c>
       <c r="AP12" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="AQ12" t="n">
         <v>14</v>
       </c>
       <c r="AR12" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="AS12" t="n">
         <v>120</v>
@@ -2693,16 +2693,16 @@
         <v>50</v>
       </c>
       <c r="AW12" t="n">
-        <v>9.25</v>
+        <v>9</v>
       </c>
       <c r="AX12" t="n">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="AY12" t="n">
         <v>32</v>
       </c>
       <c r="AZ12" t="n">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="BA12" t="n">
         <v>200</v>
@@ -2749,16 +2749,16 @@
         </is>
       </c>
       <c r="G13" t="n">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="H13" t="n">
         <v>3.75</v>
       </c>
       <c r="I13" t="n">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="J13" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="K13" t="n">
         <v>2.3</v>
@@ -2791,10 +2791,10 @@
         <v>3.25</v>
       </c>
       <c r="U13" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="V13" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="W13" t="n">
         <v>13</v>
@@ -2803,19 +2803,19 @@
         <v>21</v>
       </c>
       <c r="Y13" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="Z13" t="n">
         <v>41</v>
       </c>
       <c r="AA13" t="n">
+        <v>26</v>
+      </c>
+      <c r="AB13" t="n">
         <v>29</v>
       </c>
-      <c r="AB13" t="n">
-        <v>34</v>
-      </c>
       <c r="AC13" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AD13" t="n">
         <v>7.5</v>
@@ -2830,7 +2830,7 @@
         <v>151</v>
       </c>
       <c r="AH13" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AI13" t="n">
         <v>10</v>
@@ -2851,16 +2851,16 @@
         <v>6</v>
       </c>
       <c r="AO13" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AP13" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AQ13" t="n">
+        <v>51</v>
+      </c>
+      <c r="AR13" t="n">
         <v>67</v>
-      </c>
-      <c r="AR13" t="n">
-        <v>81</v>
       </c>
       <c r="AS13" t="n">
         <v>151</v>
@@ -2878,16 +2878,16 @@
         <v>4</v>
       </c>
       <c r="AX13" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AY13" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AZ13" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="BA13" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="BB13" t="n">
         <v>101</v>
@@ -3143,10 +3143,10 @@
         <v>4</v>
       </c>
       <c r="Q15" t="n">
-        <v>1.73</v>
+        <v>1.7</v>
       </c>
       <c r="R15" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="S15" t="n">
         <v>1.33</v>
@@ -3295,88 +3295,88 @@
         </is>
       </c>
       <c r="G16" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="H16" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="I16" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="J16" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="K16" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="L16" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="M16" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="N16" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="O16" t="n">
         <v>1.33</v>
       </c>
-      <c r="H16" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="I16" t="n">
-        <v>10</v>
-      </c>
-      <c r="J16" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="K16" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="L16" t="n">
-        <v>8</v>
-      </c>
-      <c r="M16" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="N16" t="n">
-        <v>10</v>
-      </c>
-      <c r="O16" t="n">
-        <v>1.29</v>
-      </c>
       <c r="P16" t="n">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="Q16" t="n">
-        <v>1.95</v>
+        <v>2.08</v>
       </c>
       <c r="R16" t="n">
-        <v>1.9</v>
+        <v>1.73</v>
       </c>
       <c r="S16" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="T16" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="U16" t="n">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="V16" t="n">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="W16" t="n">
         <v>5.5</v>
       </c>
       <c r="X16" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="Y16" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="Z16" t="n">
+        <v>8</v>
+      </c>
+      <c r="AA16" t="n">
+        <v>15</v>
+      </c>
+      <c r="AB16" t="n">
+        <v>41</v>
+      </c>
+      <c r="AC16" t="n">
         <v>8.5</v>
       </c>
-      <c r="Z16" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AA16" t="n">
-        <v>13</v>
-      </c>
-      <c r="AB16" t="n">
-        <v>34</v>
-      </c>
-      <c r="AC16" t="n">
-        <v>10</v>
-      </c>
       <c r="AD16" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AE16" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AF16" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="AG16" t="n">
         <v>201</v>
       </c>
       <c r="AH16" t="n">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="AI16" t="n">
         <v>41</v>
@@ -3394,46 +3394,46 @@
         <v>67</v>
       </c>
       <c r="AN16" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="AO16" t="n">
         <v>6.5</v>
       </c>
       <c r="AP16" t="n">
+        <v>23</v>
+      </c>
+      <c r="AQ16" t="n">
         <v>21</v>
       </c>
-      <c r="AQ16" t="n">
-        <v>19</v>
-      </c>
       <c r="AR16" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AS16" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="AT16" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="AU16" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AV16" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AW16" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AX16" t="n">
         <v>41</v>
       </c>
       <c r="AY16" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AZ16" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="BA16" t="n">
-        <v>251</v>
+        <v>301</v>
       </c>
       <c r="BB16" t="n">
         <v>501</v>
@@ -3659,22 +3659,22 @@
         </is>
       </c>
       <c r="G18" t="n">
-        <v>1.83</v>
+        <v>1.75</v>
       </c>
       <c r="H18" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="I18" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="J18" t="n">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="K18" t="n">
         <v>2.05</v>
       </c>
       <c r="L18" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="M18" t="n">
         <v>1.08</v>
@@ -3689,10 +3689,10 @@
         <v>3</v>
       </c>
       <c r="Q18" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="R18" t="n">
-        <v>1.62</v>
+        <v>1.65</v>
       </c>
       <c r="S18" t="n">
         <v>1.5</v>
@@ -3701,10 +3701,10 @@
         <v>2.5</v>
       </c>
       <c r="U18" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="V18" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="W18" t="n">
         <v>6</v>
@@ -3716,7 +3716,7 @@
         <v>9</v>
       </c>
       <c r="Z18" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AA18" t="n">
         <v>17</v>
@@ -3740,10 +3740,10 @@
         <v>1250</v>
       </c>
       <c r="AH18" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AI18" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AJ18" t="n">
         <v>17</v>
@@ -3758,10 +3758,10 @@
         <v>51</v>
       </c>
       <c r="AN18" t="n">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="AO18" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AP18" t="n">
         <v>23</v>
@@ -3785,22 +3785,22 @@
         <v>67</v>
       </c>
       <c r="AW18" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AX18" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AY18" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AZ18" t="n">
         <v>101</v>
       </c>
       <c r="BA18" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="BB18" t="n">
-        <v>301</v>
+        <v>351</v>
       </c>
       <c r="BC18" t="n">
         <v>81</v>
@@ -3841,22 +3841,22 @@
         </is>
       </c>
       <c r="G19" t="n">
-        <v>1.75</v>
+        <v>1.73</v>
       </c>
       <c r="H19" t="n">
         <v>3.5</v>
       </c>
       <c r="I19" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="J19" t="n">
-        <v>2.4</v>
+        <v>2.38</v>
       </c>
       <c r="K19" t="n">
         <v>2.1</v>
       </c>
       <c r="L19" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="M19" t="n">
         <v>1.07</v>
@@ -3871,10 +3871,10 @@
         <v>3</v>
       </c>
       <c r="Q19" t="n">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="R19" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="S19" t="n">
         <v>1.44</v>
@@ -3904,13 +3904,13 @@
         <v>15</v>
       </c>
       <c r="AB19" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AC19" t="n">
         <v>8.5</v>
       </c>
       <c r="AD19" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AE19" t="n">
         <v>19</v>
@@ -3922,13 +3922,13 @@
         <v>1250</v>
       </c>
       <c r="AH19" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AI19" t="n">
         <v>23</v>
       </c>
       <c r="AJ19" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AK19" t="n">
         <v>51</v>
@@ -3937,13 +3937,13 @@
         <v>41</v>
       </c>
       <c r="AM19" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AN19" t="n">
         <v>3.6</v>
       </c>
       <c r="AO19" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AP19" t="n">
         <v>23</v>
@@ -3955,7 +3955,7 @@
         <v>51</v>
       </c>
       <c r="AS19" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="AT19" t="n">
         <v>2.63</v>
@@ -3970,16 +3970,16 @@
         <v>6.5</v>
       </c>
       <c r="AX19" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AY19" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AZ19" t="n">
         <v>101</v>
       </c>
       <c r="BA19" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="BB19" t="n">
         <v>301</v>
@@ -4208,7 +4208,7 @@
         <v>2.1</v>
       </c>
       <c r="H21" t="n">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="I21" t="n">
         <v>4.1</v>
@@ -4229,10 +4229,10 @@
         <v>6</v>
       </c>
       <c r="O21" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="P21" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="Q21" t="n">
         <v>2.88</v>
@@ -4241,16 +4241,16 @@
         <v>1.4</v>
       </c>
       <c r="S21" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="T21" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="U21" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="V21" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="W21" t="n">
         <v>5</v>
@@ -4277,7 +4277,7 @@
         <v>6</v>
       </c>
       <c r="AE21" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AF21" t="n">
         <v>101</v>
@@ -4292,7 +4292,7 @@
         <v>19</v>
       </c>
       <c r="AJ21" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AK21" t="n">
         <v>41</v>
@@ -4310,7 +4310,7 @@
         <v>13</v>
       </c>
       <c r="AP21" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AQ21" t="n">
         <v>41</v>
@@ -4322,7 +4322,7 @@
         <v>351</v>
       </c>
       <c r="AT21" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="AU21" t="n">
         <v>10</v>
@@ -4387,13 +4387,13 @@
         </is>
       </c>
       <c r="G22" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="H22" t="n">
         <v>3.2</v>
       </c>
       <c r="I22" t="n">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="J22" t="n">
         <v>2.88</v>
@@ -4402,7 +4402,7 @@
         <v>2.05</v>
       </c>
       <c r="L22" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="M22" t="n">
         <v>1.08</v>
@@ -4438,7 +4438,7 @@
         <v>6.5</v>
       </c>
       <c r="X22" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="Y22" t="n">
         <v>9.5</v>
@@ -4480,7 +4480,7 @@
         <v>41</v>
       </c>
       <c r="AL22" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AM22" t="n">
         <v>41</v>
@@ -4519,7 +4519,7 @@
         <v>21</v>
       </c>
       <c r="AY22" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AZ22" t="n">
         <v>67</v>
@@ -4569,13 +4569,13 @@
         </is>
       </c>
       <c r="G23" t="n">
-        <v>1.2</v>
+        <v>1.22</v>
       </c>
       <c r="H23" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="I23" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="J23" t="n">
         <v>1.62</v>
@@ -4584,7 +4584,7 @@
         <v>2.88</v>
       </c>
       <c r="L23" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="M23" t="n">
         <v>1.02</v>
@@ -4611,10 +4611,10 @@
         <v>4</v>
       </c>
       <c r="U23" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="V23" t="n">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="W23" t="n">
         <v>9</v>
@@ -4626,10 +4626,10 @@
         <v>9.5</v>
       </c>
       <c r="Z23" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AA23" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AB23" t="n">
         <v>26</v>
@@ -4638,19 +4638,19 @@
         <v>21</v>
       </c>
       <c r="AD23" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AE23" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AF23" t="n">
         <v>67</v>
       </c>
       <c r="AG23" t="n">
-        <v>351</v>
+        <v>301</v>
       </c>
       <c r="AH23" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AI23" t="n">
         <v>51</v>
@@ -4662,7 +4662,7 @@
         <v>126</v>
       </c>
       <c r="AL23" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AM23" t="n">
         <v>51</v>
@@ -4707,10 +4707,10 @@
         <v>201</v>
       </c>
       <c r="BA23" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="BB23" t="n">
-        <v>301</v>
+        <v>251</v>
       </c>
       <c r="BC23" t="n">
         <v>81</v>
@@ -4751,7 +4751,7 @@
         </is>
       </c>
       <c r="G24" t="n">
-        <v>3.8</v>
+        <v>3.7</v>
       </c>
       <c r="H24" t="n">
         <v>3.4</v>
@@ -4760,13 +4760,13 @@
         <v>1.95</v>
       </c>
       <c r="J24" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="K24" t="n">
         <v>2.2</v>
       </c>
       <c r="L24" t="n">
-        <v>2.6</v>
+        <v>2.63</v>
       </c>
       <c r="M24" t="n">
         <v>1.05</v>
@@ -4781,10 +4781,10 @@
         <v>3.5</v>
       </c>
       <c r="Q24" t="n">
-        <v>1.93</v>
+        <v>1.98</v>
       </c>
       <c r="R24" t="n">
-        <v>1.93</v>
+        <v>1.88</v>
       </c>
       <c r="S24" t="n">
         <v>1.4</v>
@@ -4802,7 +4802,7 @@
         <v>12</v>
       </c>
       <c r="X24" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="Y24" t="n">
         <v>13</v>
@@ -4817,7 +4817,7 @@
         <v>34</v>
       </c>
       <c r="AC24" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AD24" t="n">
         <v>6.5</v>
@@ -4826,13 +4826,13 @@
         <v>15</v>
       </c>
       <c r="AF24" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AG24" t="n">
         <v>201</v>
       </c>
       <c r="AH24" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AI24" t="n">
         <v>9.5</v>
@@ -4856,7 +4856,7 @@
         <v>21</v>
       </c>
       <c r="AP24" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AQ24" t="n">
         <v>67</v>
@@ -4880,7 +4880,7 @@
         <v>4</v>
       </c>
       <c r="AX24" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AY24" t="n">
         <v>21</v>
@@ -5115,7 +5115,7 @@
         </is>
       </c>
       <c r="G26" t="n">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="H26" t="n">
         <v>3.7</v>
@@ -5127,7 +5127,7 @@
         <v>4</v>
       </c>
       <c r="K26" t="n">
-        <v>2.38</v>
+        <v>2.4</v>
       </c>
       <c r="L26" t="n">
         <v>2.4</v>
@@ -5139,10 +5139,10 @@
         <v>15</v>
       </c>
       <c r="O26" t="n">
-        <v>1.17</v>
+        <v>1.2</v>
       </c>
       <c r="P26" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="Q26" t="n">
         <v>1.62</v>
@@ -5297,13 +5297,13 @@
         </is>
       </c>
       <c r="G27" t="n">
-        <v>1.12</v>
+        <v>1.13</v>
       </c>
       <c r="H27" t="n">
-        <v>6.3</v>
+        <v>6.1</v>
       </c>
       <c r="I27" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="J27" t="n">
         <v>1.44</v>
@@ -5318,67 +5318,67 @@
         <v>1.01</v>
       </c>
       <c r="N27" t="n">
-        <v>19.5</v>
+        <v>18.5</v>
       </c>
       <c r="O27" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="P27" t="n">
-        <v>6.3</v>
+        <v>6.05</v>
       </c>
       <c r="Q27" t="n">
-        <v>1.27</v>
+        <v>1.29</v>
       </c>
       <c r="R27" t="n">
-        <v>3.04</v>
+        <v>2.94</v>
       </c>
       <c r="S27" t="n">
-        <v>1.18</v>
+        <v>1.19</v>
       </c>
       <c r="T27" t="n">
-        <v>4.55</v>
+        <v>4.45</v>
       </c>
       <c r="U27" t="n">
-        <v>1.98</v>
+        <v>2.01</v>
       </c>
       <c r="V27" t="n">
-        <v>1.79</v>
+        <v>1.76</v>
       </c>
       <c r="W27" t="n">
-        <v>8.75</v>
+        <v>8.25</v>
       </c>
       <c r="X27" t="n">
-        <v>6.1</v>
+        <v>5.9</v>
       </c>
       <c r="Y27" t="n">
         <v>8.75</v>
       </c>
       <c r="Z27" t="n">
-        <v>6</v>
+        <v>5.9</v>
       </c>
       <c r="AA27" t="n">
         <v>8.75</v>
       </c>
       <c r="AB27" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AC27" t="n">
-        <v>19.5</v>
+        <v>18.5</v>
       </c>
       <c r="AD27" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AE27" t="n">
         <v>23</v>
       </c>
       <c r="AF27" t="n">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AG27" t="n">
-        <v>450</v>
+        <v>500</v>
       </c>
       <c r="AH27" t="n">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="AI27" t="n">
         <v>150</v>
@@ -5420,7 +5420,7 @@
         <v>9.5</v>
       </c>
       <c r="AV27" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="AW27" t="n">
         <v>16</v>
@@ -5435,7 +5435,7 @@
         <v>500</v>
       </c>
       <c r="BA27" t="n">
-        <v>450</v>
+        <v>500</v>
       </c>
       <c r="BB27" t="n">
         <v>500</v>
@@ -5479,22 +5479,22 @@
         </is>
       </c>
       <c r="G28" t="n">
-        <v>1.62</v>
+        <v>1.7</v>
       </c>
       <c r="H28" t="n">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="I28" t="n">
-        <v>4.33</v>
+        <v>4.1</v>
       </c>
       <c r="J28" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="K28" t="n">
         <v>2.4</v>
       </c>
       <c r="L28" t="n">
-        <v>4.75</v>
+        <v>4.33</v>
       </c>
       <c r="M28" t="n">
         <v>1.03</v>
@@ -5521,25 +5521,25 @@
         <v>3.5</v>
       </c>
       <c r="U28" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="V28" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="W28" t="n">
         <v>9.5</v>
       </c>
       <c r="X28" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="Y28" t="n">
         <v>8.5</v>
       </c>
       <c r="Z28" t="n">
+        <v>15</v>
+      </c>
+      <c r="AA28" t="n">
         <v>13</v>
-      </c>
-      <c r="AA28" t="n">
-        <v>12</v>
       </c>
       <c r="AB28" t="n">
         <v>21</v>
@@ -5557,7 +5557,7 @@
         <v>41</v>
       </c>
       <c r="AG28" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="AH28" t="n">
         <v>17</v>
@@ -5569,10 +5569,10 @@
         <v>15</v>
       </c>
       <c r="AK28" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AL28" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AM28" t="n">
         <v>34</v>
@@ -5581,13 +5581,13 @@
         <v>4</v>
       </c>
       <c r="AO28" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AP28" t="n">
         <v>17</v>
       </c>
       <c r="AQ28" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AR28" t="n">
         <v>41</v>
@@ -5608,10 +5608,10 @@
         <v>6.5</v>
       </c>
       <c r="AX28" t="n">
+        <v>21</v>
+      </c>
+      <c r="AY28" t="n">
         <v>23</v>
-      </c>
-      <c r="AY28" t="n">
-        <v>26</v>
       </c>
       <c r="AZ28" t="n">
         <v>67</v>
@@ -5620,7 +5620,7 @@
         <v>81</v>
       </c>
       <c r="BB28" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="BC28" t="n">
         <v>401</v>
@@ -5661,13 +5661,13 @@
         </is>
       </c>
       <c r="G29" t="n">
-        <v>2.35</v>
+        <v>2.3</v>
       </c>
       <c r="H29" t="n">
         <v>3.25</v>
       </c>
       <c r="I29" t="n">
-        <v>2.8</v>
+        <v>2.88</v>
       </c>
       <c r="J29" t="n">
         <v>3.1</v>
@@ -5676,7 +5676,7 @@
         <v>2.1</v>
       </c>
       <c r="L29" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="M29" t="n">
         <v>1.06</v>
@@ -5685,22 +5685,22 @@
         <v>9.5</v>
       </c>
       <c r="O29" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="P29" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="Q29" t="n">
         <v>2.05</v>
       </c>
       <c r="R29" t="n">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="S29" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="T29" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="U29" t="n">
         <v>1.8</v>
@@ -5718,10 +5718,10 @@
         <v>9.5</v>
       </c>
       <c r="Z29" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AA29" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AB29" t="n">
         <v>29</v>
@@ -5760,7 +5760,7 @@
         <v>34</v>
       </c>
       <c r="AN29" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="AO29" t="n">
         <v>13</v>
@@ -5778,7 +5778,7 @@
         <v>151</v>
       </c>
       <c r="AT29" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="AU29" t="n">
         <v>8</v>
@@ -5843,19 +5843,19 @@
         </is>
       </c>
       <c r="G30" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="H30" t="n">
         <v>2.88</v>
       </c>
       <c r="I30" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="J30" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="K30" t="n">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="L30" t="n">
         <v>4</v>
@@ -5894,13 +5894,13 @@
         <v>6</v>
       </c>
       <c r="X30" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="Y30" t="n">
         <v>10</v>
       </c>
       <c r="Z30" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AA30" t="n">
         <v>23</v>
@@ -5915,7 +5915,7 @@
         <v>6</v>
       </c>
       <c r="AE30" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AF30" t="n">
         <v>67</v>
@@ -5933,7 +5933,7 @@
         <v>13</v>
       </c>
       <c r="AK30" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AL30" t="n">
         <v>34</v>
@@ -5942,10 +5942,10 @@
         <v>41</v>
       </c>
       <c r="AN30" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="AO30" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AP30" t="n">
         <v>29</v>
@@ -5972,7 +5972,7 @@
         <v>5</v>
       </c>
       <c r="AX30" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AY30" t="n">
         <v>34</v>
@@ -5984,7 +5984,7 @@
         <v>101</v>
       </c>
       <c r="BB30" t="n">
-        <v>301</v>
+        <v>351</v>
       </c>
       <c r="BC30" t="n">
         <v>81</v>
@@ -6392,10 +6392,10 @@
         <v>1.48</v>
       </c>
       <c r="H33" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="I33" t="n">
-        <v>5.5</v>
+        <v>5.75</v>
       </c>
       <c r="J33" t="n">
         <v>2.1</v>
@@ -6404,13 +6404,13 @@
         <v>2.2</v>
       </c>
       <c r="L33" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="M33" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N33" t="n">
-        <v>11</v>
+        <v>9.5</v>
       </c>
       <c r="O33" t="n">
         <v>1.33</v>
@@ -6431,16 +6431,16 @@
         <v>2.63</v>
       </c>
       <c r="U33" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="V33" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="W33" t="n">
         <v>5.5</v>
       </c>
       <c r="X33" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="Y33" t="n">
         <v>9</v>
@@ -6470,7 +6470,7 @@
         <v>201</v>
       </c>
       <c r="AH33" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AI33" t="n">
         <v>29</v>
@@ -6488,7 +6488,7 @@
         <v>51</v>
       </c>
       <c r="AN33" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="AO33" t="n">
         <v>7.5</v>
@@ -6515,10 +6515,10 @@
         <v>67</v>
       </c>
       <c r="AW33" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AX33" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AY33" t="n">
         <v>41</v>
@@ -6527,7 +6527,7 @@
         <v>151</v>
       </c>
       <c r="BA33" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="BB33" t="n">
         <v>351</v>
@@ -6571,13 +6571,13 @@
         </is>
       </c>
       <c r="G34" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="H34" t="n">
         <v>2.9</v>
       </c>
       <c r="I34" t="n">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="J34" t="n">
         <v>4</v>
@@ -6586,7 +6586,7 @@
         <v>2</v>
       </c>
       <c r="L34" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="M34" t="n">
         <v>1.08</v>
@@ -6619,10 +6619,10 @@
         <v>1.8</v>
       </c>
       <c r="W34" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="X34" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="Y34" t="n">
         <v>13</v>
@@ -6658,7 +6658,7 @@
         <v>10</v>
       </c>
       <c r="AJ34" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AK34" t="n">
         <v>21</v>
@@ -7117,34 +7117,34 @@
         </is>
       </c>
       <c r="G37" t="n">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="H37" t="n">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="I37" t="n">
-        <v>2.15</v>
+        <v>2.05</v>
       </c>
       <c r="J37" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="K37" t="n">
         <v>2.3</v>
       </c>
       <c r="L37" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="M37" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="N37" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="O37" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="P37" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="Q37" t="n">
         <v>1.7</v>
@@ -7168,10 +7168,10 @@
         <v>12</v>
       </c>
       <c r="X37" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="Y37" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="Z37" t="n">
         <v>34</v>
@@ -7180,7 +7180,7 @@
         <v>23</v>
       </c>
       <c r="AB37" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AC37" t="n">
         <v>13</v>
@@ -7198,31 +7198,31 @@
         <v>151</v>
       </c>
       <c r="AH37" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AI37" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AJ37" t="n">
         <v>9</v>
       </c>
       <c r="AK37" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AL37" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AM37" t="n">
         <v>23</v>
       </c>
       <c r="AN37" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="AO37" t="n">
         <v>17</v>
       </c>
       <c r="AP37" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AQ37" t="n">
         <v>51</v>
@@ -7231,7 +7231,7 @@
         <v>67</v>
       </c>
       <c r="AS37" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="AT37" t="n">
         <v>3.25</v>
@@ -7243,22 +7243,22 @@
         <v>41</v>
       </c>
       <c r="AW37" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="AX37" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AY37" t="n">
         <v>19</v>
       </c>
       <c r="AZ37" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="BA37" t="n">
         <v>51</v>
       </c>
       <c r="BB37" t="n">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="BC37" t="n">
         <v>81</v>
@@ -7302,19 +7302,19 @@
         <v>1.85</v>
       </c>
       <c r="H38" t="n">
-        <v>3.75</v>
+        <v>3.7</v>
       </c>
       <c r="I38" t="n">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="J38" t="n">
         <v>2.5</v>
       </c>
       <c r="K38" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="L38" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="M38" t="n">
         <v>1.05</v>
@@ -7329,25 +7329,25 @@
         <v>3.5</v>
       </c>
       <c r="Q38" t="n">
-        <v>1.9</v>
+        <v>1.98</v>
       </c>
       <c r="R38" t="n">
-        <v>1.95</v>
+        <v>1.88</v>
       </c>
       <c r="S38" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="T38" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U38" t="n">
-        <v>1.73</v>
+        <v>1.83</v>
       </c>
       <c r="V38" t="n">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="W38" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="X38" t="n">
         <v>9</v>
@@ -7365,22 +7365,22 @@
         <v>26</v>
       </c>
       <c r="AC38" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AD38" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AE38" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AF38" t="n">
         <v>51</v>
       </c>
       <c r="AG38" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="AH38" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AI38" t="n">
         <v>21</v>
@@ -7392,10 +7392,10 @@
         <v>41</v>
       </c>
       <c r="AL38" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AM38" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AN38" t="n">
         <v>4</v>
@@ -7404,7 +7404,7 @@
         <v>10</v>
       </c>
       <c r="AP38" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AQ38" t="n">
         <v>34</v>
@@ -7413,10 +7413,10 @@
         <v>51</v>
       </c>
       <c r="AS38" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="AT38" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="AU38" t="n">
         <v>8</v>
@@ -7437,10 +7437,10 @@
         <v>67</v>
       </c>
       <c r="BA38" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="BB38" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="BC38" t="n">
         <v>51</v>
@@ -7481,46 +7481,46 @@
         </is>
       </c>
       <c r="G39" t="n">
-        <v>4.5</v>
+        <v>4.1</v>
       </c>
       <c r="H39" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="I39" t="n">
-        <v>1.7</v>
+        <v>1.8</v>
       </c>
       <c r="J39" t="n">
         <v>5</v>
       </c>
       <c r="K39" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="L39" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="M39" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N39" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="O39" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="P39" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="Q39" t="n">
-        <v>2.03</v>
+        <v>2.08</v>
       </c>
       <c r="R39" t="n">
-        <v>1.83</v>
+        <v>1.73</v>
       </c>
       <c r="S39" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="T39" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="U39" t="n">
         <v>1.95</v>
@@ -7529,10 +7529,10 @@
         <v>1.8</v>
       </c>
       <c r="W39" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="X39" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="Y39" t="n">
         <v>15</v>
@@ -7547,7 +7547,7 @@
         <v>41</v>
       </c>
       <c r="AC39" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AD39" t="n">
         <v>7</v>
@@ -7565,13 +7565,13 @@
         <v>6.5</v>
       </c>
       <c r="AI39" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AJ39" t="n">
         <v>8.5</v>
       </c>
       <c r="AK39" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AL39" t="n">
         <v>15</v>
@@ -7580,25 +7580,25 @@
         <v>29</v>
       </c>
       <c r="AN39" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AO39" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AP39" t="n">
         <v>34</v>
       </c>
       <c r="AQ39" t="n">
+        <v>81</v>
+      </c>
+      <c r="AR39" t="n">
         <v>101</v>
-      </c>
-      <c r="AR39" t="n">
-        <v>126</v>
       </c>
       <c r="AS39" t="n">
         <v>251</v>
       </c>
       <c r="AT39" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="AU39" t="n">
         <v>8.5</v>
@@ -7607,16 +7607,16 @@
         <v>51</v>
       </c>
       <c r="AW39" t="n">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="AX39" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AY39" t="n">
         <v>21</v>
       </c>
       <c r="AZ39" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="BA39" t="n">
         <v>51</v>
@@ -7693,10 +7693,10 @@
         <v>3.75</v>
       </c>
       <c r="Q40" t="n">
-        <v>1.85</v>
+        <v>1.83</v>
       </c>
       <c r="R40" t="n">
-        <v>2</v>
+        <v>2.03</v>
       </c>
       <c r="S40" t="n">
         <v>1.36</v>
@@ -7845,28 +7845,28 @@
         </is>
       </c>
       <c r="G41" t="n">
-        <v>1.62</v>
+        <v>1.6</v>
       </c>
       <c r="H41" t="n">
         <v>3.7</v>
       </c>
       <c r="I41" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="J41" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="K41" t="n">
         <v>2.2</v>
       </c>
       <c r="L41" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="M41" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="N41" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="O41" t="n">
         <v>1.33</v>
@@ -7875,10 +7875,10 @@
         <v>3.25</v>
       </c>
       <c r="Q41" t="n">
-        <v>2.08</v>
+        <v>2.05</v>
       </c>
       <c r="R41" t="n">
-        <v>1.73</v>
+        <v>1.75</v>
       </c>
       <c r="S41" t="n">
         <v>1.44</v>
@@ -7887,10 +7887,10 @@
         <v>2.63</v>
       </c>
       <c r="U41" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="V41" t="n">
-        <v>1.75</v>
+        <v>1.7</v>
       </c>
       <c r="W41" t="n">
         <v>6</v>
@@ -7911,7 +7911,7 @@
         <v>29</v>
       </c>
       <c r="AC41" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AD41" t="n">
         <v>7.5</v>
@@ -7941,7 +7941,7 @@
         <v>41</v>
       </c>
       <c r="AM41" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AN41" t="n">
         <v>3.5</v>
@@ -7980,13 +7980,13 @@
         <v>41</v>
       </c>
       <c r="AZ41" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="BA41" t="n">
         <v>151</v>
       </c>
       <c r="BB41" t="n">
-        <v>301</v>
+        <v>351</v>
       </c>
       <c r="BC41" t="n">
         <v>81</v>
@@ -8027,22 +8027,22 @@
         </is>
       </c>
       <c r="G42" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="H42" t="n">
         <v>3.1</v>
       </c>
       <c r="I42" t="n">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="J42" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="K42" t="n">
         <v>2</v>
       </c>
       <c r="L42" t="n">
-        <v>2.88</v>
+        <v>3</v>
       </c>
       <c r="M42" t="n">
         <v>1.08</v>
@@ -8078,16 +8078,16 @@
         <v>8.5</v>
       </c>
       <c r="X42" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="Y42" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="Z42" t="n">
         <v>41</v>
       </c>
       <c r="AA42" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AB42" t="n">
         <v>41</v>
@@ -8102,10 +8102,10 @@
         <v>17</v>
       </c>
       <c r="AF42" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AG42" t="n">
-        <v>451</v>
+        <v>401</v>
       </c>
       <c r="AH42" t="n">
         <v>6.5</v>
@@ -8117,7 +8117,7 @@
         <v>9.5</v>
       </c>
       <c r="AK42" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AL42" t="n">
         <v>21</v>
@@ -8126,13 +8126,13 @@
         <v>34</v>
       </c>
       <c r="AN42" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="AO42" t="n">
         <v>21</v>
       </c>
       <c r="AP42" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AQ42" t="n">
         <v>67</v>
@@ -8141,7 +8141,7 @@
         <v>101</v>
       </c>
       <c r="AS42" t="n">
-        <v>301</v>
+        <v>251</v>
       </c>
       <c r="AT42" t="n">
         <v>2.5</v>
@@ -8209,13 +8209,13 @@
         </is>
       </c>
       <c r="G43" t="n">
-        <v>1.65</v>
+        <v>1.62</v>
       </c>
       <c r="H43" t="n">
         <v>3.9</v>
       </c>
       <c r="I43" t="n">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="J43" t="n">
         <v>2.3</v>
@@ -8251,16 +8251,16 @@
         <v>3</v>
       </c>
       <c r="U43" t="n">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="V43" t="n">
-        <v>1.91</v>
+        <v>1.8</v>
       </c>
       <c r="W43" t="n">
         <v>7</v>
       </c>
       <c r="X43" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="Y43" t="n">
         <v>8.5</v>
@@ -8275,19 +8275,19 @@
         <v>26</v>
       </c>
       <c r="AC43" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AD43" t="n">
         <v>8</v>
       </c>
       <c r="AE43" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AF43" t="n">
         <v>51</v>
       </c>
       <c r="AG43" t="n">
-        <v>301</v>
+        <v>351</v>
       </c>
       <c r="AH43" t="n">
         <v>12</v>
@@ -8296,22 +8296,22 @@
         <v>23</v>
       </c>
       <c r="AJ43" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AK43" t="n">
         <v>51</v>
       </c>
       <c r="AL43" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AM43" t="n">
         <v>41</v>
       </c>
       <c r="AN43" t="n">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="AO43" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AP43" t="n">
         <v>19</v>
@@ -8329,7 +8329,7 @@
         <v>3</v>
       </c>
       <c r="AU43" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AV43" t="n">
         <v>51</v>
@@ -8344,13 +8344,13 @@
         <v>34</v>
       </c>
       <c r="AZ43" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="BA43" t="n">
         <v>101</v>
       </c>
       <c r="BB43" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="BC43" t="n">
         <v>81</v>
@@ -8764,10 +8764,10 @@
         <v>3.05</v>
       </c>
       <c r="J46" t="n">
-        <v>2.62</v>
+        <v>2.65</v>
       </c>
       <c r="K46" t="n">
-        <v>2.15</v>
+        <v>2.12</v>
       </c>
       <c r="L46" t="n">
         <v>3.55</v>
@@ -8776,13 +8776,13 @@
         <v>10.4</v>
       </c>
       <c r="N46" t="n">
-        <v>1.04</v>
+        <v>1.01</v>
       </c>
       <c r="O46" t="n">
-        <v>1.2</v>
+        <v>1.21</v>
       </c>
       <c r="P46" t="n">
-        <v>3.54</v>
+        <v>3.44</v>
       </c>
       <c r="Q46" t="n">
         <v>1.75</v>
@@ -8797,13 +8797,13 @@
         <v>2.99</v>
       </c>
       <c r="U46" t="n">
-        <v>1.62</v>
+        <v>1.64</v>
       </c>
       <c r="V46" t="n">
-        <v>2.23</v>
+        <v>2.2</v>
       </c>
       <c r="W46" t="n">
-        <v>7.4</v>
+        <v>7.3</v>
       </c>
       <c r="X46" t="n">
         <v>9.25</v>
@@ -8818,16 +8818,16 @@
         <v>13</v>
       </c>
       <c r="AB46" t="n">
-        <v>18.5</v>
+        <v>19</v>
       </c>
       <c r="AC46" t="n">
-        <v>11</v>
+        <v>10.75</v>
       </c>
       <c r="AD46" t="n">
-        <v>5.8</v>
+        <v>5.7</v>
       </c>
       <c r="AE46" t="n">
-        <v>10.5</v>
+        <v>10.75</v>
       </c>
       <c r="AF46" t="n">
         <v>40</v>
@@ -8839,7 +8839,7 @@
         <v>8.75</v>
       </c>
       <c r="AI46" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="AJ46" t="n">
         <v>9.25</v>
@@ -8857,28 +8857,28 @@
         <v>4.1</v>
       </c>
       <c r="AO46" t="n">
-        <v>10.5</v>
+        <v>10.75</v>
       </c>
       <c r="AP46" t="n">
-        <v>17</v>
+        <v>17.5</v>
       </c>
       <c r="AQ46" t="n">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="AR46" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="AS46" t="n">
         <v>200</v>
       </c>
       <c r="AT46" t="n">
-        <v>2.9</v>
+        <v>2.85</v>
       </c>
       <c r="AU46" t="n">
         <v>6.7</v>
       </c>
       <c r="AV46" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="AW46" t="n">
         <v>5.1</v>
@@ -8937,94 +8937,94 @@
         </is>
       </c>
       <c r="G47" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="H47" t="n">
-        <v>3.5</v>
+        <v>3.7</v>
       </c>
       <c r="I47" t="n">
         <v>3.7</v>
       </c>
       <c r="J47" t="n">
-        <v>2.37</v>
+        <v>2.4</v>
       </c>
       <c r="K47" t="n">
-        <v>2.18</v>
+        <v>2.12</v>
       </c>
       <c r="L47" t="n">
+        <v>4.15</v>
+      </c>
+      <c r="M47" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="N47" t="n">
+        <v>12</v>
+      </c>
+      <c r="O47" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="P47" t="n">
         <v>4</v>
       </c>
-      <c r="M47" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="N47" t="n">
-        <v>11</v>
-      </c>
-      <c r="O47" t="n">
-        <v>1.19</v>
-      </c>
-      <c r="P47" t="n">
-        <v>3.64</v>
-      </c>
       <c r="Q47" t="n">
-        <v>1.7</v>
+        <v>1.65</v>
       </c>
       <c r="R47" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="S47" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="T47" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="U47" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="V47" t="n">
         <v>1.93</v>
       </c>
-      <c r="S47" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="T47" t="n">
-        <v>3.13</v>
-      </c>
-      <c r="U47" t="n">
-        <v>1.66</v>
-      </c>
-      <c r="V47" t="n">
-        <v>2.16</v>
-      </c>
       <c r="W47" t="n">
-        <v>6.8</v>
+        <v>7.1</v>
       </c>
       <c r="X47" t="n">
         <v>7.8</v>
       </c>
       <c r="Y47" t="n">
-        <v>7</v>
+        <v>7.1</v>
       </c>
       <c r="Z47" t="n">
+        <v>12</v>
+      </c>
+      <c r="AA47" t="n">
+        <v>11</v>
+      </c>
+      <c r="AB47" t="n">
+        <v>18</v>
+      </c>
+      <c r="AC47" t="n">
         <v>12.5</v>
       </c>
-      <c r="AA47" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AB47" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="AC47" t="n">
+      <c r="AD47" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AE47" t="n">
         <v>11.75</v>
       </c>
-      <c r="AD47" t="n">
-        <v>6.1</v>
-      </c>
-      <c r="AE47" t="n">
-        <v>11.25</v>
-      </c>
       <c r="AF47" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="AG47" t="n">
         <v>250</v>
       </c>
       <c r="AH47" t="n">
-        <v>10.5</v>
+        <v>10.75</v>
       </c>
       <c r="AI47" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="AJ47" t="n">
-        <v>10.5</v>
+        <v>10.75</v>
       </c>
       <c r="AK47" t="n">
         <v>40</v>
@@ -9033,52 +9033,52 @@
         <v>25</v>
       </c>
       <c r="AM47" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AN47" t="n">
-        <v>3.8</v>
+        <v>3.65</v>
       </c>
       <c r="AO47" t="n">
         <v>9</v>
       </c>
       <c r="AP47" t="n">
-        <v>16.5</v>
+        <v>18.5</v>
       </c>
       <c r="AQ47" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="AR47" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="AS47" t="n">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="AT47" t="n">
-        <v>2.92</v>
+        <v>2.52</v>
       </c>
       <c r="AU47" t="n">
-        <v>6.9</v>
+        <v>7.5</v>
       </c>
       <c r="AV47" t="n">
-        <v>55</v>
+        <v>70</v>
       </c>
       <c r="AW47" t="n">
-        <v>5.7</v>
+        <v>5.5</v>
       </c>
       <c r="AX47" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AY47" t="n">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="AZ47" t="n">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="BA47" t="n">
-        <v>120</v>
+        <v>150</v>
       </c>
       <c r="BB47" t="n">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="BC47" t="n">
         <v>51</v>
@@ -9143,16 +9143,16 @@
         <v>13</v>
       </c>
       <c r="O48" t="n">
-        <v>1.2</v>
+        <v>1.22</v>
       </c>
       <c r="P48" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="Q48" t="n">
-        <v>1.7</v>
+        <v>1.8</v>
       </c>
       <c r="R48" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="S48" t="n">
         <v>1.33</v>
@@ -9266,7 +9266,7 @@
         <v>451</v>
       </c>
       <c r="BD48" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
     </row>
     <row r="49">
@@ -9531,7 +9531,7 @@
         <v>2</v>
       </c>
       <c r="W50" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="X50" t="n">
         <v>8</v>
@@ -9668,19 +9668,19 @@
         <v>1.93</v>
       </c>
       <c r="H51" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="I51" t="n">
-        <v>3.7</v>
+        <v>3.8</v>
       </c>
       <c r="J51" t="n">
-        <v>2.55</v>
+        <v>2.57</v>
       </c>
       <c r="K51" t="n">
-        <v>2.07</v>
+        <v>2.05</v>
       </c>
       <c r="L51" t="n">
-        <v>4.1</v>
+        <v>4.15</v>
       </c>
       <c r="M51" t="n">
         <v>8.699999999999999</v>
@@ -9689,7 +9689,7 @@
         <v>1.05</v>
       </c>
       <c r="O51" t="n">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="P51" t="n">
         <v>3</v>
@@ -9710,13 +9710,13 @@
         <v>1.7</v>
       </c>
       <c r="V51" t="n">
-        <v>1.9</v>
+        <v>1.91</v>
       </c>
       <c r="W51" t="n">
-        <v>7.2</v>
+        <v>7</v>
       </c>
       <c r="X51" t="n">
-        <v>9.25</v>
+        <v>9</v>
       </c>
       <c r="Y51" t="n">
         <v>8.25</v>
@@ -9734,28 +9734,28 @@
         <v>9.75</v>
       </c>
       <c r="AD51" t="n">
-        <v>6.5</v>
+        <v>6.4</v>
       </c>
       <c r="AE51" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AF51" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AG51" t="n">
-        <v>500</v>
+        <v>450</v>
       </c>
       <c r="AH51" t="n">
-        <v>11</v>
+        <v>11.5</v>
       </c>
       <c r="AI51" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AJ51" t="n">
         <v>12.5</v>
       </c>
       <c r="AK51" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AL51" t="n">
         <v>35</v>
@@ -9770,13 +9770,13 @@
         <v>10</v>
       </c>
       <c r="AP51" t="n">
-        <v>18.5</v>
+        <v>19</v>
       </c>
       <c r="AQ51" t="n">
         <v>37</v>
       </c>
       <c r="AR51" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="AS51" t="n">
         <v>250</v>
@@ -9785,19 +9785,19 @@
         <v>2.5</v>
       </c>
       <c r="AU51" t="n">
-        <v>7.1</v>
+        <v>6.9</v>
       </c>
       <c r="AV51" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AW51" t="n">
-        <v>5.5</v>
+        <v>5.6</v>
       </c>
       <c r="AX51" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AY51" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AZ51" t="n">
         <v>110</v>
@@ -9806,7 +9806,7 @@
         <v>150</v>
       </c>
       <c r="BB51" t="n">
-        <v>350</v>
+        <v>300</v>
       </c>
       <c r="BC51" t="n">
         <v>51</v>
@@ -9847,22 +9847,22 @@
         </is>
       </c>
       <c r="G52" t="n">
-        <v>1.72</v>
+        <v>1.7</v>
       </c>
       <c r="H52" t="n">
-        <v>3.7</v>
+        <v>3.65</v>
       </c>
       <c r="I52" t="n">
-        <v>4.25</v>
+        <v>4.35</v>
       </c>
       <c r="J52" t="n">
-        <v>2.27</v>
+        <v>2.25</v>
       </c>
       <c r="K52" t="n">
-        <v>2.18</v>
+        <v>2.2</v>
       </c>
       <c r="L52" t="n">
-        <v>4.5</v>
+        <v>4.55</v>
       </c>
       <c r="M52" t="n">
         <v>10.4</v>
@@ -9928,10 +9928,10 @@
         <v>450</v>
       </c>
       <c r="AH52" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="AI52" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AJ52" t="n">
         <v>14</v>
@@ -9943,13 +9943,13 @@
         <v>40</v>
       </c>
       <c r="AM52" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="AN52" t="n">
         <v>3.6</v>
       </c>
       <c r="AO52" t="n">
-        <v>8.5</v>
+        <v>8.25</v>
       </c>
       <c r="AP52" t="n">
         <v>16.5</v>
@@ -9967,16 +9967,16 @@
         <v>2.67</v>
       </c>
       <c r="AU52" t="n">
-        <v>7.2</v>
+        <v>7.1</v>
       </c>
       <c r="AV52" t="n">
         <v>60</v>
       </c>
       <c r="AW52" t="n">
-        <v>6</v>
+        <v>6.1</v>
       </c>
       <c r="AX52" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AY52" t="n">
         <v>28</v>
@@ -10029,16 +10029,16 @@
         </is>
       </c>
       <c r="G53" t="n">
-        <v>1.42</v>
+        <v>1.38</v>
       </c>
       <c r="H53" t="n">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="I53" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="J53" t="n">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="K53" t="n">
         <v>2.63</v>
@@ -10077,13 +10077,13 @@
         <v>2.2</v>
       </c>
       <c r="W53" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="X53" t="n">
         <v>8.5</v>
       </c>
       <c r="Y53" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="Z53" t="n">
         <v>11</v>
@@ -10092,7 +10092,7 @@
         <v>11</v>
       </c>
       <c r="AB53" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AC53" t="n">
         <v>19</v>
@@ -10119,7 +10119,7 @@
         <v>21</v>
       </c>
       <c r="AK53" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AL53" t="n">
         <v>41</v>
@@ -10131,7 +10131,7 @@
         <v>3.75</v>
       </c>
       <c r="AO53" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AP53" t="n">
         <v>15</v>
@@ -10211,13 +10211,13 @@
         </is>
       </c>
       <c r="G54" t="n">
-        <v>2.7</v>
+        <v>2.63</v>
       </c>
       <c r="H54" t="n">
-        <v>3.7</v>
+        <v>3.6</v>
       </c>
       <c r="I54" t="n">
-        <v>2.45</v>
+        <v>2.5</v>
       </c>
       <c r="J54" t="n">
         <v>3.1</v>
@@ -10247,10 +10247,10 @@
         <v>2.3</v>
       </c>
       <c r="S54" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="T54" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="U54" t="n">
         <v>1.5</v>
@@ -10259,16 +10259,16 @@
         <v>2.5</v>
       </c>
       <c r="W54" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="X54" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="Y54" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="Z54" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AA54" t="n">
         <v>19</v>
@@ -10301,7 +10301,7 @@
         <v>10</v>
       </c>
       <c r="AK54" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AL54" t="n">
         <v>17</v>
@@ -10328,7 +10328,7 @@
         <v>101</v>
       </c>
       <c r="AT54" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="AU54" t="n">
         <v>7</v>
@@ -10399,7 +10399,7 @@
         <v>4.5</v>
       </c>
       <c r="I55" t="n">
-        <v>6.25</v>
+        <v>6</v>
       </c>
       <c r="J55" t="n">
         <v>1.91</v>
@@ -10408,7 +10408,7 @@
         <v>2.75</v>
       </c>
       <c r="L55" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="M55" t="n">
         <v>1.02</v>
@@ -10429,25 +10429,25 @@
         <v>2.88</v>
       </c>
       <c r="S55" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="T55" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="U55" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="V55" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="W55" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="X55" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="Y55" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="Z55" t="n">
         <v>12</v>
@@ -10456,10 +10456,10 @@
         <v>11</v>
       </c>
       <c r="AB55" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AC55" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AD55" t="n">
         <v>9.5</v>
@@ -10468,19 +10468,19 @@
         <v>13</v>
       </c>
       <c r="AF55" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AG55" t="n">
         <v>101</v>
       </c>
       <c r="AH55" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AI55" t="n">
         <v>41</v>
       </c>
       <c r="AJ55" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AK55" t="n">
         <v>67</v>
@@ -10501,16 +10501,16 @@
         <v>13</v>
       </c>
       <c r="AQ55" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AR55" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AS55" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AT55" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="AU55" t="n">
         <v>7.5</v>
@@ -10537,7 +10537,7 @@
         <v>126</v>
       </c>
       <c r="BC55" t="n">
-        <v>301</v>
+        <v>251</v>
       </c>
       <c r="BD55" t="n">
         <v>151</v>
@@ -10575,22 +10575,22 @@
         </is>
       </c>
       <c r="G56" t="n">
-        <v>1.65</v>
+        <v>1.62</v>
       </c>
       <c r="H56" t="n">
         <v>4</v>
       </c>
       <c r="I56" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="J56" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="K56" t="n">
         <v>2.5</v>
       </c>
       <c r="L56" t="n">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="M56" t="n">
         <v>1.03</v>
@@ -10677,7 +10677,7 @@
         <v>4</v>
       </c>
       <c r="AO56" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AP56" t="n">
         <v>15</v>
@@ -10701,19 +10701,19 @@
         <v>41</v>
       </c>
       <c r="AW56" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AX56" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AY56" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AZ56" t="n">
         <v>67</v>
       </c>
       <c r="BA56" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="BB56" t="n">
         <v>126</v>
@@ -11121,16 +11121,16 @@
         </is>
       </c>
       <c r="G59" t="n">
-        <v>1.9</v>
+        <v>1.91</v>
       </c>
       <c r="H59" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="I59" t="n">
-        <v>3.9</v>
+        <v>3.75</v>
       </c>
       <c r="J59" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="K59" t="n">
         <v>2.05</v>
@@ -11187,7 +11187,7 @@
         <v>34</v>
       </c>
       <c r="AC59" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AD59" t="n">
         <v>6.5</v>
@@ -11202,13 +11202,13 @@
         <v>1000</v>
       </c>
       <c r="AH59" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AI59" t="n">
         <v>19</v>
       </c>
       <c r="AJ59" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AK59" t="n">
         <v>41</v>
@@ -11220,7 +11220,7 @@
         <v>41</v>
       </c>
       <c r="AN59" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="AO59" t="n">
         <v>11</v>
@@ -11232,7 +11232,7 @@
         <v>41</v>
       </c>
       <c r="AR59" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AS59" t="n">
         <v>201</v>
@@ -11247,7 +11247,7 @@
         <v>67</v>
       </c>
       <c r="AW59" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="AX59" t="n">
         <v>23</v>
@@ -11303,22 +11303,22 @@
         </is>
       </c>
       <c r="G60" t="n">
-        <v>2.88</v>
+        <v>2.8</v>
       </c>
       <c r="H60" t="n">
         <v>3</v>
       </c>
       <c r="I60" t="n">
-        <v>2.55</v>
+        <v>2.6</v>
       </c>
       <c r="J60" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="K60" t="n">
         <v>2</v>
       </c>
       <c r="L60" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="M60" t="n">
         <v>1.08</v>
@@ -11375,7 +11375,7 @@
         <v>6</v>
       </c>
       <c r="AE60" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AF60" t="n">
         <v>51</v>
@@ -11384,13 +11384,13 @@
         <v>351</v>
       </c>
       <c r="AH60" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AI60" t="n">
+        <v>12</v>
+      </c>
+      <c r="AJ60" t="n">
         <v>11</v>
-      </c>
-      <c r="AJ60" t="n">
-        <v>10</v>
       </c>
       <c r="AK60" t="n">
         <v>26</v>
@@ -11435,7 +11435,7 @@
         <v>15</v>
       </c>
       <c r="AY60" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AZ60" t="n">
         <v>51</v>
@@ -11444,7 +11444,7 @@
         <v>81</v>
       </c>
       <c r="BB60" t="n">
-        <v>251</v>
+        <v>201</v>
       </c>
       <c r="BC60" t="n">
         <v>126</v>
@@ -11485,16 +11485,16 @@
         </is>
       </c>
       <c r="G61" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="H61" t="n">
         <v>3.4</v>
       </c>
       <c r="I61" t="n">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="J61" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="K61" t="n">
         <v>2.3</v>
@@ -11533,13 +11533,13 @@
         <v>2.25</v>
       </c>
       <c r="W61" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="X61" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="Y61" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="Z61" t="n">
         <v>34</v>
@@ -11581,10 +11581,10 @@
         <v>17</v>
       </c>
       <c r="AM61" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AN61" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="AO61" t="n">
         <v>17</v>
@@ -11605,16 +11605,16 @@
         <v>3.25</v>
       </c>
       <c r="AU61" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AV61" t="n">
         <v>41</v>
       </c>
       <c r="AW61" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="AX61" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AY61" t="n">
         <v>19</v>
@@ -11667,10 +11667,10 @@
         </is>
       </c>
       <c r="G62" t="n">
-        <v>2.6</v>
+        <v>2.55</v>
       </c>
       <c r="H62" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="I62" t="n">
         <v>2.45</v>
@@ -11679,7 +11679,7 @@
         <v>3.1</v>
       </c>
       <c r="K62" t="n">
-        <v>2.38</v>
+        <v>2.3</v>
       </c>
       <c r="L62" t="n">
         <v>3</v>
@@ -11703,52 +11703,52 @@
         <v>2.25</v>
       </c>
       <c r="S62" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="T62" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="U62" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="V62" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="W62" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="X62" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="Y62" t="n">
         <v>10</v>
       </c>
       <c r="Z62" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AA62" t="n">
         <v>19</v>
       </c>
       <c r="AB62" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AC62" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AD62" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AE62" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AF62" t="n">
         <v>34</v>
       </c>
       <c r="AG62" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="AH62" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AI62" t="n">
         <v>15</v>
@@ -11760,10 +11760,10 @@
         <v>26</v>
       </c>
       <c r="AL62" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AM62" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AN62" t="n">
         <v>5</v>
@@ -11784,7 +11784,7 @@
         <v>101</v>
       </c>
       <c r="AT62" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="AU62" t="n">
         <v>7</v>
@@ -11811,7 +11811,7 @@
         <v>101</v>
       </c>
       <c r="BC62" t="n">
-        <v>301</v>
+        <v>351</v>
       </c>
       <c r="BD62" t="n">
         <v>81</v>
@@ -12079,19 +12079,19 @@
         <v>1.67</v>
       </c>
       <c r="W64" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="X64" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="Y64" t="n">
         <v>34</v>
       </c>
       <c r="Z64" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="AA64" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="AB64" t="n">
         <v>67</v>
@@ -12112,7 +12112,7 @@
         <v>451</v>
       </c>
       <c r="AH64" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AI64" t="n">
         <v>6.5</v>
@@ -12145,7 +12145,7 @@
         <v>251</v>
       </c>
       <c r="AS64" t="n">
-        <v>351</v>
+        <v>401</v>
       </c>
       <c r="AT64" t="n">
         <v>4</v>
@@ -12213,22 +12213,22 @@
         </is>
       </c>
       <c r="G65" t="n">
-        <v>2.62</v>
+        <v>2.92</v>
       </c>
       <c r="H65" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="I65" t="n">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="J65" t="n">
-        <v>3.15</v>
+        <v>3.4</v>
       </c>
       <c r="K65" t="n">
-        <v>2.15</v>
+        <v>2.18</v>
       </c>
       <c r="L65" t="n">
-        <v>3.05</v>
+        <v>2.8</v>
       </c>
       <c r="M65" t="n">
         <v>1.05</v>
@@ -12249,40 +12249,40 @@
         <v>2.05</v>
       </c>
       <c r="S65" t="n">
-        <v>1.36</v>
+        <v>1.35</v>
       </c>
       <c r="T65" t="n">
-        <v>2.9</v>
+        <v>2.95</v>
       </c>
       <c r="U65" t="n">
         <v>1.57</v>
       </c>
       <c r="V65" t="n">
-        <v>2.27</v>
+        <v>2.25</v>
       </c>
       <c r="W65" t="n">
-        <v>10.75</v>
+        <v>11.25</v>
       </c>
       <c r="X65" t="n">
-        <v>15.5</v>
+        <v>17</v>
       </c>
       <c r="Y65" t="n">
-        <v>9.5</v>
+        <v>10.25</v>
       </c>
       <c r="Z65" t="n">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="AA65" t="n">
-        <v>19.5</v>
+        <v>23</v>
       </c>
       <c r="AB65" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="AC65" t="n">
         <v>8</v>
       </c>
       <c r="AD65" t="n">
-        <v>6.6</v>
+        <v>6.7</v>
       </c>
       <c r="AE65" t="n">
         <v>11.75</v>
@@ -12291,46 +12291,46 @@
         <v>45</v>
       </c>
       <c r="AG65" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="AH65" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AI65" t="n">
-        <v>14</v>
+        <v>12.5</v>
       </c>
       <c r="AJ65" t="n">
-        <v>9.25</v>
+        <v>8.75</v>
       </c>
       <c r="AK65" t="n">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="AL65" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AM65" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AN65" t="n">
-        <v>4.75</v>
+        <v>5.1</v>
       </c>
       <c r="AO65" t="n">
-        <v>14</v>
+        <v>15.5</v>
       </c>
       <c r="AP65" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AQ65" t="n">
-        <v>55</v>
+        <v>70</v>
       </c>
       <c r="AR65" t="n">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AS65" t="n">
         <v>200</v>
       </c>
       <c r="AT65" t="n">
-        <v>2.9</v>
+        <v>2.95</v>
       </c>
       <c r="AU65" t="n">
         <v>6.5</v>
@@ -12339,19 +12339,19 @@
         <v>50</v>
       </c>
       <c r="AW65" t="n">
-        <v>4.6</v>
+        <v>4.35</v>
       </c>
       <c r="AX65" t="n">
-        <v>13.5</v>
+        <v>11.75</v>
       </c>
       <c r="AY65" t="n">
-        <v>19</v>
+        <v>17.5</v>
       </c>
       <c r="AZ65" t="n">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="BA65" t="n">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="BB65" t="n">
         <v>200</v>
@@ -12577,10 +12577,10 @@
         </is>
       </c>
       <c r="G67" t="n">
-        <v>10.25</v>
+        <v>10.5</v>
       </c>
       <c r="H67" t="n">
-        <v>6.1</v>
+        <v>6.2</v>
       </c>
       <c r="I67" t="n">
         <v>1.22</v>
@@ -12601,34 +12601,34 @@
         <v>10</v>
       </c>
       <c r="O67" t="n">
-        <v>1.1</v>
+        <v>1.09</v>
       </c>
       <c r="P67" t="n">
-        <v>5.9</v>
+        <v>6.1</v>
       </c>
       <c r="Q67" t="n">
-        <v>1.32</v>
+        <v>1.31</v>
       </c>
       <c r="R67" t="n">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="S67" t="n">
-        <v>1.21</v>
+        <v>1.2</v>
       </c>
       <c r="T67" t="n">
-        <v>3.95</v>
+        <v>4</v>
       </c>
       <c r="U67" t="n">
-        <v>1.72</v>
+        <v>1.7</v>
       </c>
       <c r="V67" t="n">
         <v>2.02</v>
       </c>
       <c r="W67" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="X67" t="n">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="Y67" t="n">
         <v>32</v>
@@ -12643,25 +12643,25 @@
         <v>70</v>
       </c>
       <c r="AC67" t="n">
-        <v>10.5</v>
+        <v>10.75</v>
       </c>
       <c r="AD67" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="AE67" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AF67" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AG67" t="n">
-        <v>400</v>
+        <v>350</v>
       </c>
       <c r="AH67" t="n">
-        <v>11.75</v>
+        <v>12</v>
       </c>
       <c r="AI67" t="n">
-        <v>8.25</v>
+        <v>8.5</v>
       </c>
       <c r="AJ67" t="n">
         <v>9.5</v>
@@ -12676,13 +12676,13 @@
         <v>21</v>
       </c>
       <c r="AN67" t="n">
-        <v>10.75</v>
+        <v>11</v>
       </c>
       <c r="AO67" t="n">
         <v>50</v>
       </c>
       <c r="AP67" t="n">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="AQ67" t="n">
         <v>350</v>
@@ -12691,10 +12691,10 @@
         <v>250</v>
       </c>
       <c r="AS67" t="n">
-        <v>400</v>
+        <v>350</v>
       </c>
       <c r="AT67" t="n">
-        <v>3.95</v>
+        <v>4</v>
       </c>
       <c r="AU67" t="n">
         <v>8.25</v>
@@ -12715,7 +12715,7 @@
         <v>11.25</v>
       </c>
       <c r="BA67" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="BB67" t="n">
         <v>120</v>
@@ -12759,19 +12759,19 @@
         </is>
       </c>
       <c r="G68" t="n">
-        <v>2.25</v>
+        <v>2.15</v>
       </c>
       <c r="H68" t="n">
-        <v>2.8</v>
+        <v>2.9</v>
       </c>
       <c r="I68" t="n">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="J68" t="n">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="K68" t="n">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="L68" t="n">
         <v>4</v>
@@ -12783,22 +12783,22 @@
         <v>7</v>
       </c>
       <c r="O68" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="P68" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="Q68" t="n">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="R68" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="S68" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="T68" t="n">
-        <v>2.25</v>
+        <v>2.38</v>
       </c>
       <c r="U68" t="n">
         <v>2.1</v>
@@ -12810,22 +12810,22 @@
         <v>6</v>
       </c>
       <c r="X68" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="Y68" t="n">
         <v>10</v>
       </c>
       <c r="Z68" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AA68" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AB68" t="n">
         <v>41</v>
       </c>
       <c r="AC68" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AD68" t="n">
         <v>6</v>
@@ -12840,7 +12840,7 @@
         <v>1250</v>
       </c>
       <c r="AH68" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AI68" t="n">
         <v>15</v>
@@ -12849,7 +12849,7 @@
         <v>13</v>
       </c>
       <c r="AK68" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AL68" t="n">
         <v>34</v>
@@ -12858,16 +12858,16 @@
         <v>41</v>
       </c>
       <c r="AN68" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="AO68" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AP68" t="n">
         <v>29</v>
       </c>
       <c r="AQ68" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AR68" t="n">
         <v>81</v>
@@ -12876,7 +12876,7 @@
         <v>251</v>
       </c>
       <c r="AT68" t="n">
-        <v>2.25</v>
+        <v>2.38</v>
       </c>
       <c r="AU68" t="n">
         <v>9</v>
@@ -13123,22 +13123,22 @@
         </is>
       </c>
       <c r="G70" t="n">
-        <v>1.13</v>
+        <v>1.14</v>
       </c>
       <c r="H70" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="I70" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="J70" t="n">
         <v>1.44</v>
       </c>
       <c r="K70" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="L70" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="M70" t="n">
         <v>1.01</v>
@@ -13147,16 +13147,16 @@
         <v>15</v>
       </c>
       <c r="O70" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="P70" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="Q70" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="R70" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="S70" t="n">
         <v>1.17</v>
@@ -13165,13 +13165,13 @@
         <v>4.5</v>
       </c>
       <c r="U70" t="n">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="V70" t="n">
-        <v>1.73</v>
+        <v>1.83</v>
       </c>
       <c r="W70" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="X70" t="n">
         <v>8</v>
@@ -13180,7 +13180,7 @@
         <v>11</v>
       </c>
       <c r="Z70" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AA70" t="n">
         <v>11</v>
@@ -13189,28 +13189,28 @@
         <v>26</v>
       </c>
       <c r="AC70" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AD70" t="n">
         <v>15</v>
       </c>
       <c r="AE70" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AF70" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AG70" t="n">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="AH70" t="n">
         <v>41</v>
       </c>
       <c r="AI70" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AJ70" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AK70" t="n">
         <v>151</v>
@@ -13219,10 +13219,10 @@
         <v>81</v>
       </c>
       <c r="AM70" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AN70" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="AO70" t="n">
         <v>5</v>
@@ -13231,10 +13231,10 @@
         <v>15</v>
       </c>
       <c r="AQ70" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AR70" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AS70" t="n">
         <v>81</v>
@@ -13243,7 +13243,7 @@
         <v>4.5</v>
       </c>
       <c r="AU70" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AV70" t="n">
         <v>51</v>
@@ -13264,7 +13264,7 @@
         <v>151</v>
       </c>
       <c r="BB70" t="n">
-        <v>500</v>
+        <v>450</v>
       </c>
       <c r="BC70" t="n">
         <v>81</v>
@@ -13305,22 +13305,22 @@
         </is>
       </c>
       <c r="G71" t="n">
-        <v>1.25</v>
+        <v>1.3</v>
       </c>
       <c r="H71" t="n">
-        <v>6.25</v>
+        <v>5.75</v>
       </c>
       <c r="I71" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J71" t="n">
-        <v>1.62</v>
+        <v>1.73</v>
       </c>
       <c r="K71" t="n">
         <v>2.75</v>
       </c>
       <c r="L71" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="M71" t="n">
         <v>1.01</v>
@@ -13329,16 +13329,16 @@
         <v>13</v>
       </c>
       <c r="O71" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="P71" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="Q71" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="R71" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="S71" t="n">
         <v>1.22</v>
@@ -13347,43 +13347,43 @@
         <v>4</v>
       </c>
       <c r="U71" t="n">
-        <v>1.8</v>
+        <v>1.67</v>
       </c>
       <c r="V71" t="n">
-        <v>1.91</v>
+        <v>2.1</v>
       </c>
       <c r="W71" t="n">
         <v>11</v>
       </c>
       <c r="X71" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="Y71" t="n">
         <v>9.5</v>
       </c>
       <c r="Z71" t="n">
-        <v>8.5</v>
+        <v>9.5</v>
       </c>
       <c r="AA71" t="n">
         <v>11</v>
       </c>
       <c r="AB71" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AC71" t="n">
         <v>23</v>
       </c>
       <c r="AD71" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AE71" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AF71" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AG71" t="n">
-        <v>450</v>
+        <v>151</v>
       </c>
       <c r="AH71" t="n">
         <v>26</v>
@@ -13392,19 +13392,19 @@
         <v>41</v>
       </c>
       <c r="AJ71" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AK71" t="n">
         <v>81</v>
       </c>
       <c r="AL71" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AM71" t="n">
         <v>41</v>
       </c>
       <c r="AN71" t="n">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="AO71" t="n">
         <v>6</v>
@@ -13413,7 +13413,7 @@
         <v>15</v>
       </c>
       <c r="AQ71" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AR71" t="n">
         <v>29</v>
@@ -13425,28 +13425,28 @@
         <v>4</v>
       </c>
       <c r="AU71" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AV71" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AW71" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AX71" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AY71" t="n">
         <v>34</v>
       </c>
       <c r="AZ71" t="n">
+        <v>101</v>
+      </c>
+      <c r="BA71" t="n">
+        <v>101</v>
+      </c>
+      <c r="BB71" t="n">
         <v>151</v>
-      </c>
-      <c r="BA71" t="n">
-        <v>126</v>
-      </c>
-      <c r="BB71" t="n">
-        <v>450</v>
       </c>
       <c r="BC71" t="n">
         <v>81</v>
@@ -13487,16 +13487,16 @@
         </is>
       </c>
       <c r="G72" t="n">
-        <v>2.88</v>
+        <v>3</v>
       </c>
       <c r="H72" t="n">
         <v>3.4</v>
       </c>
       <c r="I72" t="n">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="J72" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="K72" t="n">
         <v>2.1</v>
@@ -13541,7 +13541,7 @@
         <v>15</v>
       </c>
       <c r="Y72" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="Z72" t="n">
         <v>29</v>
@@ -13550,7 +13550,7 @@
         <v>23</v>
       </c>
       <c r="AB72" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AC72" t="n">
         <v>11</v>
@@ -13559,22 +13559,22 @@
         <v>6.5</v>
       </c>
       <c r="AE72" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AF72" t="n">
         <v>41</v>
       </c>
       <c r="AG72" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="AH72" t="n">
         <v>8.5</v>
       </c>
       <c r="AI72" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AJ72" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AK72" t="n">
         <v>21</v>
@@ -13583,16 +13583,16 @@
         <v>19</v>
       </c>
       <c r="AM72" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AN72" t="n">
         <v>5</v>
       </c>
       <c r="AO72" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AP72" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AQ72" t="n">
         <v>51</v>
@@ -13613,10 +13613,10 @@
         <v>51</v>
       </c>
       <c r="AW72" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="AX72" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AY72" t="n">
         <v>21</v>
@@ -13851,22 +13851,22 @@
         </is>
       </c>
       <c r="G74" t="n">
-        <v>5.2</v>
+        <v>5.4</v>
       </c>
       <c r="H74" t="n">
         <v>4.2</v>
       </c>
       <c r="I74" t="n">
-        <v>1.57</v>
+        <v>1.55</v>
       </c>
       <c r="J74" t="n">
-        <v>5</v>
+        <v>5.2</v>
       </c>
       <c r="K74" t="n">
         <v>2.35</v>
       </c>
       <c r="L74" t="n">
-        <v>2.07</v>
+        <v>2.05</v>
       </c>
       <c r="M74" t="n">
         <v>1.04</v>
@@ -13887,10 +13887,10 @@
         <v>2.25</v>
       </c>
       <c r="S74" t="n">
-        <v>1.32</v>
+        <v>1.33</v>
       </c>
       <c r="T74" t="n">
-        <v>3.2</v>
+        <v>3.15</v>
       </c>
       <c r="U74" t="n">
         <v>1.7</v>
@@ -13899,22 +13899,22 @@
         <v>2.05</v>
       </c>
       <c r="W74" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="X74" t="n">
         <v>37</v>
       </c>
       <c r="Y74" t="n">
-        <v>17.5</v>
+        <v>18</v>
       </c>
       <c r="Z74" t="n">
         <v>110</v>
       </c>
       <c r="AA74" t="n">
+        <v>55</v>
+      </c>
+      <c r="AB74" t="n">
         <v>50</v>
-      </c>
-      <c r="AB74" t="n">
-        <v>45</v>
       </c>
       <c r="AC74" t="n">
         <v>9.5</v>
@@ -13932,7 +13932,7 @@
         <v>450</v>
       </c>
       <c r="AH74" t="n">
-        <v>7.8</v>
+        <v>7.9</v>
       </c>
       <c r="AI74" t="n">
         <v>8.75</v>
@@ -13944,31 +13944,31 @@
         <v>12.5</v>
       </c>
       <c r="AL74" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AM74" t="n">
         <v>23</v>
       </c>
       <c r="AN74" t="n">
-        <v>6.9</v>
+        <v>7</v>
       </c>
       <c r="AO74" t="n">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="AP74" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AQ74" t="n">
-        <v>150</v>
+        <v>175</v>
       </c>
       <c r="AR74" t="n">
         <v>175</v>
       </c>
       <c r="AS74" t="n">
-        <v>300</v>
+        <v>350</v>
       </c>
       <c r="AT74" t="n">
-        <v>3.2</v>
+        <v>3.15</v>
       </c>
       <c r="AU74" t="n">
         <v>7.3</v>
@@ -13986,7 +13986,7 @@
         <v>15</v>
       </c>
       <c r="AZ74" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="BA74" t="n">
         <v>45</v>
@@ -14403,7 +14403,7 @@
         <v>3.3</v>
       </c>
       <c r="I77" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="J77" t="n">
         <v>2.88</v>
@@ -14415,22 +14415,22 @@
         <v>3.75</v>
       </c>
       <c r="M77" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="N77" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="O77" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="P77" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="Q77" t="n">
-        <v>1.93</v>
+        <v>1.95</v>
       </c>
       <c r="R77" t="n">
-        <v>1.93</v>
+        <v>1.9</v>
       </c>
       <c r="S77" t="n">
         <v>1.4</v>
@@ -14439,13 +14439,13 @@
         <v>2.75</v>
       </c>
       <c r="U77" t="n">
-        <v>1.67</v>
+        <v>1.73</v>
       </c>
       <c r="V77" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="W77" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="X77" t="n">
         <v>11</v>
@@ -14517,7 +14517,7 @@
         <v>2.75</v>
       </c>
       <c r="AU77" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AV77" t="n">
         <v>51</v>
@@ -14535,7 +14535,7 @@
         <v>51</v>
       </c>
       <c r="BA77" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="BB77" t="n">
         <v>151</v>
@@ -14588,70 +14588,70 @@
         <v>2.62</v>
       </c>
       <c r="J78" t="n">
-        <v>3.05</v>
+        <v>3.15</v>
       </c>
       <c r="K78" t="n">
-        <v>2.12</v>
+        <v>2.1</v>
       </c>
       <c r="L78" t="n">
-        <v>3.2</v>
+        <v>3.15</v>
       </c>
       <c r="M78" t="n">
         <v>1.05</v>
       </c>
       <c r="N78" t="n">
-        <v>7.8</v>
+        <v>7.6</v>
       </c>
       <c r="O78" t="n">
-        <v>1.25</v>
+        <v>1.26</v>
       </c>
       <c r="P78" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="Q78" t="n">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="R78" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="S78" t="n">
-        <v>1.37</v>
+        <v>1.39</v>
       </c>
       <c r="T78" t="n">
-        <v>2.87</v>
+        <v>2.8</v>
       </c>
       <c r="U78" t="n">
-        <v>1.57</v>
+        <v>1.6</v>
       </c>
       <c r="V78" t="n">
-        <v>2.25</v>
+        <v>2.18</v>
       </c>
       <c r="W78" t="n">
-        <v>10.5</v>
+        <v>9.25</v>
       </c>
       <c r="X78" t="n">
-        <v>15</v>
+        <v>13.5</v>
       </c>
       <c r="Y78" t="n">
-        <v>9.25</v>
+        <v>9.5</v>
       </c>
       <c r="Z78" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AA78" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AB78" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AC78" t="n">
-        <v>7.8</v>
+        <v>7.6</v>
       </c>
       <c r="AD78" t="n">
-        <v>6.4</v>
+        <v>6.3</v>
       </c>
       <c r="AE78" t="n">
-        <v>11.5</v>
+        <v>12</v>
       </c>
       <c r="AF78" t="n">
         <v>45</v>
@@ -14660,10 +14660,10 @@
         <v>300</v>
       </c>
       <c r="AH78" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AI78" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AJ78" t="n">
         <v>9.5</v>
@@ -14672,55 +14672,55 @@
         <v>30</v>
       </c>
       <c r="AL78" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AM78" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AN78" t="n">
-        <v>4.65</v>
+        <v>4.6</v>
       </c>
       <c r="AO78" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="AP78" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="AQ78" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AR78" t="n">
-        <v>75</v>
+        <v>90</v>
       </c>
       <c r="AS78" t="n">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="AT78" t="n">
-        <v>2.87</v>
+        <v>2.8</v>
       </c>
       <c r="AU78" t="n">
-        <v>6.4</v>
+        <v>6.6</v>
       </c>
       <c r="AV78" t="n">
         <v>50</v>
       </c>
       <c r="AW78" t="n">
-        <v>4.7</v>
+        <v>4.65</v>
       </c>
       <c r="AX78" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="AY78" t="n">
-        <v>20</v>
+        <v>19.5</v>
       </c>
       <c r="AZ78" t="n">
         <v>60</v>
       </c>
       <c r="BA78" t="n">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="BB78" t="n">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="BC78" t="n">
         <v>51</v>
@@ -14761,10 +14761,10 @@
         </is>
       </c>
       <c r="G79" t="n">
-        <v>2.55</v>
+        <v>2.52</v>
       </c>
       <c r="H79" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="I79" t="n">
         <v>2.67</v>
@@ -14773,16 +14773,16 @@
         <v>3.05</v>
       </c>
       <c r="K79" t="n">
-        <v>2.1</v>
+        <v>2.12</v>
       </c>
       <c r="L79" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="M79" t="n">
         <v>1.05</v>
       </c>
       <c r="N79" t="n">
-        <v>7.6</v>
+        <v>7.7</v>
       </c>
       <c r="O79" t="n">
         <v>1.25</v>
@@ -14800,40 +14800,40 @@
         <v>1.37</v>
       </c>
       <c r="T79" t="n">
-        <v>2.85</v>
+        <v>2.87</v>
       </c>
       <c r="U79" t="n">
-        <v>1.57</v>
+        <v>1.6</v>
       </c>
       <c r="V79" t="n">
-        <v>2.25</v>
+        <v>2.22</v>
       </c>
       <c r="W79" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="X79" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="Y79" t="n">
         <v>9.25</v>
       </c>
       <c r="Z79" t="n">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="AA79" t="n">
         <v>19.5</v>
       </c>
       <c r="AB79" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AC79" t="n">
-        <v>7.6</v>
+        <v>7.7</v>
       </c>
       <c r="AD79" t="n">
-        <v>6.2</v>
+        <v>6.4</v>
       </c>
       <c r="AE79" t="n">
-        <v>11.5</v>
+        <v>11.75</v>
       </c>
       <c r="AF79" t="n">
         <v>45</v>
@@ -14842,13 +14842,13 @@
         <v>300</v>
       </c>
       <c r="AH79" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AI79" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="AJ79" t="n">
-        <v>9.5</v>
+        <v>9.75</v>
       </c>
       <c r="AK79" t="n">
         <v>32</v>
@@ -14860,7 +14860,7 @@
         <v>26</v>
       </c>
       <c r="AN79" t="n">
-        <v>4.65</v>
+        <v>4.6</v>
       </c>
       <c r="AO79" t="n">
         <v>13.5</v>
@@ -14878,7 +14878,7 @@
         <v>200</v>
       </c>
       <c r="AT79" t="n">
-        <v>2.85</v>
+        <v>2.87</v>
       </c>
       <c r="AU79" t="n">
         <v>6.4</v>
@@ -14890,19 +14890,19 @@
         <v>4.75</v>
       </c>
       <c r="AX79" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="AY79" t="n">
-        <v>20</v>
+        <v>19.5</v>
       </c>
       <c r="AZ79" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="BA79" t="n">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="BB79" t="n">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="BC79" t="n">
         <v>51</v>
@@ -14946,19 +14946,19 @@
         <v>2.55</v>
       </c>
       <c r="H80" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="I80" t="n">
-        <v>2.57</v>
+        <v>2.55</v>
       </c>
       <c r="J80" t="n">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="K80" t="n">
         <v>2.2</v>
       </c>
       <c r="L80" t="n">
-        <v>3.1</v>
+        <v>3.05</v>
       </c>
       <c r="M80" t="n">
         <v>1.05</v>
@@ -14979,10 +14979,10 @@
         <v>2.07</v>
       </c>
       <c r="S80" t="n">
-        <v>1.33</v>
+        <v>1.34</v>
       </c>
       <c r="T80" t="n">
-        <v>3.05</v>
+        <v>3</v>
       </c>
       <c r="U80" t="n">
         <v>1.55</v>
@@ -14991,16 +14991,16 @@
         <v>2.3</v>
       </c>
       <c r="W80" t="n">
-        <v>10.75</v>
+        <v>10.5</v>
       </c>
       <c r="X80" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="Y80" t="n">
         <v>9.5</v>
       </c>
       <c r="Z80" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AA80" t="n">
         <v>19</v>
@@ -15015,19 +15015,19 @@
         <v>6.7</v>
       </c>
       <c r="AE80" t="n">
-        <v>11.5</v>
+        <v>11.75</v>
       </c>
       <c r="AF80" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="AG80" t="n">
         <v>250</v>
       </c>
       <c r="AH80" t="n">
-        <v>10</v>
+        <v>10.25</v>
       </c>
       <c r="AI80" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="AJ80" t="n">
         <v>9.5</v>
@@ -15039,28 +15039,28 @@
         <v>19.5</v>
       </c>
       <c r="AM80" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AN80" t="n">
-        <v>4.75</v>
+        <v>4.7</v>
       </c>
       <c r="AO80" t="n">
         <v>13</v>
       </c>
       <c r="AP80" t="n">
-        <v>17.5</v>
+        <v>18</v>
       </c>
       <c r="AQ80" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="AR80" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="AS80" t="n">
         <v>175</v>
       </c>
       <c r="AT80" t="n">
-        <v>3.05</v>
+        <v>3</v>
       </c>
       <c r="AU80" t="n">
         <v>6.4</v>
@@ -15069,7 +15069,7 @@
         <v>45</v>
       </c>
       <c r="AW80" t="n">
-        <v>4.75</v>
+        <v>4.7</v>
       </c>
       <c r="AX80" t="n">
         <v>13.5</v>
@@ -15081,7 +15081,7 @@
         <v>55</v>
       </c>
       <c r="BA80" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="BB80" t="n">
         <v>200</v>
@@ -15146,13 +15146,13 @@
         <v>1.04</v>
       </c>
       <c r="N81" t="n">
-        <v>8.75</v>
+        <v>8.5</v>
       </c>
       <c r="O81" t="n">
         <v>1.19</v>
       </c>
       <c r="P81" t="n">
-        <v>4.15</v>
+        <v>4.1</v>
       </c>
       <c r="Q81" t="n">
         <v>1.6</v>
@@ -15164,7 +15164,7 @@
         <v>1.32</v>
       </c>
       <c r="T81" t="n">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="U81" t="n">
         <v>1.52</v>
@@ -15173,7 +15173,7 @@
         <v>2.37</v>
       </c>
       <c r="W81" t="n">
-        <v>10.25</v>
+        <v>10</v>
       </c>
       <c r="X81" t="n">
         <v>11.75</v>
@@ -15188,13 +15188,13 @@
         <v>14</v>
       </c>
       <c r="AB81" t="n">
-        <v>19</v>
+        <v>19.5</v>
       </c>
       <c r="AC81" t="n">
-        <v>8.75</v>
+        <v>8.5</v>
       </c>
       <c r="AD81" t="n">
-        <v>7.2</v>
+        <v>7.1</v>
       </c>
       <c r="AE81" t="n">
         <v>11.5</v>
@@ -15224,7 +15224,7 @@
         <v>27</v>
       </c>
       <c r="AN81" t="n">
-        <v>4.15</v>
+        <v>4.2</v>
       </c>
       <c r="AO81" t="n">
         <v>10</v>
@@ -15242,10 +15242,10 @@
         <v>150</v>
       </c>
       <c r="AT81" t="n">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="AU81" t="n">
-        <v>6.5</v>
+        <v>6.4</v>
       </c>
       <c r="AV81" t="n">
         <v>45</v>
@@ -15328,7 +15328,7 @@
         <v>1.07</v>
       </c>
       <c r="N82" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="O82" t="n">
         <v>1.33</v>
@@ -15489,16 +15489,16 @@
         </is>
       </c>
       <c r="G83" t="n">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="H83" t="n">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="I83" t="n">
-        <v>4.1</v>
+        <v>3.8</v>
       </c>
       <c r="J83" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="K83" t="n">
         <v>2.1</v>
@@ -15507,28 +15507,28 @@
         <v>4.75</v>
       </c>
       <c r="M83" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="N83" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="O83" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="P83" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="Q83" t="n">
-        <v>2.05</v>
+        <v>2.15</v>
       </c>
       <c r="R83" t="n">
-        <v>1.75</v>
+        <v>1.67</v>
       </c>
       <c r="S83" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="T83" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="U83" t="n">
         <v>1.91</v>
@@ -15540,25 +15540,25 @@
         <v>6.5</v>
       </c>
       <c r="X83" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="Y83" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="Z83" t="n">
         <v>15</v>
       </c>
       <c r="AA83" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AB83" t="n">
         <v>29</v>
       </c>
       <c r="AC83" t="n">
-        <v>9.5</v>
+        <v>8.5</v>
       </c>
       <c r="AD83" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AE83" t="n">
         <v>17</v>
@@ -15567,16 +15567,16 @@
         <v>51</v>
       </c>
       <c r="AG83" t="n">
-        <v>301</v>
+        <v>351</v>
       </c>
       <c r="AH83" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AI83" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AJ83" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AK83" t="n">
         <v>41</v>
@@ -15591,10 +15591,10 @@
         <v>3.75</v>
       </c>
       <c r="AO83" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AP83" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AQ83" t="n">
         <v>34</v>
@@ -15606,7 +15606,7 @@
         <v>151</v>
       </c>
       <c r="AT83" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="AU83" t="n">
         <v>8.5</v>
@@ -15671,7 +15671,7 @@
         </is>
       </c>
       <c r="G84" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="H84" t="n">
         <v>5.4</v>
@@ -15680,13 +15680,13 @@
         <v>1.21</v>
       </c>
       <c r="J84" t="n">
-        <v>9.75</v>
+        <v>9.5</v>
       </c>
       <c r="K84" t="n">
         <v>2.52</v>
       </c>
       <c r="L84" t="n">
-        <v>1.6</v>
+        <v>1.62</v>
       </c>
       <c r="M84" t="n">
         <v>1.02</v>
@@ -15707,7 +15707,7 @@
         <v>2.15</v>
       </c>
       <c r="S84" t="n">
-        <v>1.28</v>
+        <v>1.27</v>
       </c>
       <c r="T84" t="n">
         <v>3.5</v>
@@ -15719,16 +15719,16 @@
         <v>1.55</v>
       </c>
       <c r="W84" t="n">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="X84" t="n">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="Y84" t="n">
         <v>40</v>
       </c>
       <c r="Z84" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="AA84" t="n">
         <v>200</v>
@@ -15758,25 +15758,25 @@
         <v>5.7</v>
       </c>
       <c r="AJ84" t="n">
-        <v>9.25</v>
+        <v>9.5</v>
       </c>
       <c r="AK84" t="n">
-        <v>6.8</v>
+        <v>6.7</v>
       </c>
       <c r="AL84" t="n">
-        <v>11</v>
+        <v>11.25</v>
       </c>
       <c r="AM84" t="n">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="AN84" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="AO84" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="AP84" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AQ84" t="n">
         <v>500</v>
@@ -15800,10 +15800,10 @@
         <v>2.95</v>
       </c>
       <c r="AX84" t="n">
-        <v>5</v>
+        <v>5.1</v>
       </c>
       <c r="AY84" t="n">
-        <v>16.5</v>
+        <v>17</v>
       </c>
       <c r="AZ84" t="n">
         <v>12.5</v>
@@ -15862,7 +15862,7 @@
         <v>3.2</v>
       </c>
       <c r="J85" t="n">
-        <v>2.9</v>
+        <v>2.92</v>
       </c>
       <c r="K85" t="n">
         <v>1.98</v>
@@ -15907,7 +15907,7 @@
         <v>10.25</v>
       </c>
       <c r="Y85" t="n">
-        <v>9</v>
+        <v>9.25</v>
       </c>
       <c r="Z85" t="n">
         <v>23</v>
@@ -15955,7 +15955,7 @@
         <v>4.1</v>
       </c>
       <c r="AO85" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="AP85" t="n">
         <v>21</v>
@@ -16047,10 +16047,10 @@
         <v>2.52</v>
       </c>
       <c r="K86" t="n">
-        <v>2.05</v>
+        <v>2.07</v>
       </c>
       <c r="L86" t="n">
-        <v>4.2</v>
+        <v>4.15</v>
       </c>
       <c r="M86" t="n">
         <v>1.02</v>
@@ -16068,13 +16068,13 @@
         <v>1.88</v>
       </c>
       <c r="R86" t="n">
-        <v>1.83</v>
+        <v>1.82</v>
       </c>
       <c r="S86" t="n">
-        <v>1.4</v>
+        <v>1.39</v>
       </c>
       <c r="T86" t="n">
-        <v>2.52</v>
+        <v>2.55</v>
       </c>
       <c r="U86" t="n">
         <v>1.7</v>
@@ -16086,7 +16086,7 @@
         <v>7.3</v>
       </c>
       <c r="X86" t="n">
-        <v>9.25</v>
+        <v>9.5</v>
       </c>
       <c r="Y86" t="n">
         <v>8.25</v>
@@ -16101,13 +16101,13 @@
         <v>25</v>
       </c>
       <c r="AC86" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AD86" t="n">
         <v>6.4</v>
       </c>
       <c r="AE86" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="AF86" t="n">
         <v>60</v>
@@ -16116,22 +16116,22 @@
         <v>450</v>
       </c>
       <c r="AH86" t="n">
-        <v>11.25</v>
+        <v>11</v>
       </c>
       <c r="AI86" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AJ86" t="n">
         <v>12.5</v>
       </c>
       <c r="AK86" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AL86" t="n">
         <v>35</v>
       </c>
       <c r="AM86" t="n">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="AN86" t="n">
         <v>3.8</v>
@@ -16140,19 +16140,19 @@
         <v>9.75</v>
       </c>
       <c r="AP86" t="n">
-        <v>18.5</v>
+        <v>18</v>
       </c>
       <c r="AQ86" t="n">
         <v>37</v>
       </c>
       <c r="AR86" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AS86" t="n">
         <v>250</v>
       </c>
       <c r="AT86" t="n">
-        <v>2.5</v>
+        <v>2.52</v>
       </c>
       <c r="AU86" t="n">
         <v>7</v>
@@ -16217,22 +16217,22 @@
         </is>
       </c>
       <c r="G87" t="n">
-        <v>1.34</v>
+        <v>1.33</v>
       </c>
       <c r="H87" t="n">
         <v>4.45</v>
       </c>
       <c r="I87" t="n">
-        <v>7.8</v>
+        <v>8</v>
       </c>
       <c r="J87" t="n">
         <v>1.82</v>
       </c>
       <c r="K87" t="n">
-        <v>2.4</v>
+        <v>2.37</v>
       </c>
       <c r="L87" t="n">
-        <v>7</v>
+        <v>7.2</v>
       </c>
       <c r="M87" t="n">
         <v>1.04</v>
@@ -16244,7 +16244,7 @@
         <v>1.22</v>
       </c>
       <c r="P87" t="n">
-        <v>3.8</v>
+        <v>3.85</v>
       </c>
       <c r="Q87" t="n">
         <v>1.7</v>
@@ -16253,10 +16253,10 @@
         <v>2.07</v>
       </c>
       <c r="S87" t="n">
-        <v>1.33</v>
+        <v>1.34</v>
       </c>
       <c r="T87" t="n">
-        <v>3.05</v>
+        <v>3</v>
       </c>
       <c r="U87" t="n">
         <v>2</v>
@@ -16298,16 +16298,16 @@
         <v>800</v>
       </c>
       <c r="AH87" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AI87" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AJ87" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AK87" t="n">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="AL87" t="n">
         <v>100</v>
@@ -16334,7 +16334,7 @@
         <v>250</v>
       </c>
       <c r="AT87" t="n">
-        <v>3.05</v>
+        <v>3</v>
       </c>
       <c r="AU87" t="n">
         <v>8.5</v>
@@ -16346,7 +16346,7 @@
         <v>9</v>
       </c>
       <c r="AX87" t="n">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="AY87" t="n">
         <v>45</v>
@@ -16408,13 +16408,13 @@
         <v>3.5</v>
       </c>
       <c r="J88" t="n">
-        <v>2.7</v>
+        <v>2.67</v>
       </c>
       <c r="K88" t="n">
         <v>2.02</v>
       </c>
       <c r="L88" t="n">
-        <v>4.1</v>
+        <v>4.15</v>
       </c>
       <c r="M88" t="n">
         <v>1.09</v>
@@ -16450,7 +16450,7 @@
         <v>6.6</v>
       </c>
       <c r="X88" t="n">
-        <v>9.5</v>
+        <v>9.75</v>
       </c>
       <c r="Y88" t="n">
         <v>8.75</v>
@@ -16462,7 +16462,7 @@
         <v>18</v>
       </c>
       <c r="AB88" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AC88" t="n">
         <v>6.2</v>
@@ -16483,7 +16483,7 @@
         <v>9</v>
       </c>
       <c r="AI88" t="n">
-        <v>18</v>
+        <v>18.5</v>
       </c>
       <c r="AJ88" t="n">
         <v>12.5</v>
@@ -16501,7 +16501,7 @@
         <v>3.95</v>
       </c>
       <c r="AO88" t="n">
-        <v>11</v>
+        <v>10.75</v>
       </c>
       <c r="AP88" t="n">
         <v>19.5</v>
@@ -16510,7 +16510,7 @@
         <v>45</v>
       </c>
       <c r="AR88" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="AS88" t="n">
         <v>250</v>
@@ -16534,7 +16534,7 @@
         <v>28</v>
       </c>
       <c r="AZ88" t="n">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="BA88" t="n">
         <v>150</v>
@@ -16581,19 +16581,19 @@
         </is>
       </c>
       <c r="G89" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="H89" t="n">
-        <v>5.6</v>
+        <v>5.5</v>
       </c>
       <c r="I89" t="n">
         <v>1.21</v>
       </c>
       <c r="J89" t="n">
-        <v>8.75</v>
+        <v>9</v>
       </c>
       <c r="K89" t="n">
-        <v>2.7</v>
+        <v>2.67</v>
       </c>
       <c r="L89" t="n">
         <v>1.6</v>
@@ -16614,16 +16614,16 @@
         <v>1.5</v>
       </c>
       <c r="R89" t="n">
-        <v>2.4</v>
+        <v>2.42</v>
       </c>
       <c r="S89" t="n">
-        <v>1.27</v>
+        <v>1.28</v>
       </c>
       <c r="T89" t="n">
-        <v>3.4</v>
+        <v>3.35</v>
       </c>
       <c r="U89" t="n">
-        <v>2.12</v>
+        <v>2.1</v>
       </c>
       <c r="V89" t="n">
         <v>1.65</v>
@@ -16635,13 +16635,13 @@
         <v>90</v>
       </c>
       <c r="Y89" t="n">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="Z89" t="n">
-        <v>350</v>
+        <v>400</v>
       </c>
       <c r="AA89" t="n">
-        <v>150</v>
+        <v>175</v>
       </c>
       <c r="AB89" t="n">
         <v>120</v>
@@ -16653,7 +16653,7 @@
         <v>12</v>
       </c>
       <c r="AE89" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AF89" t="n">
         <v>120</v>
@@ -16665,25 +16665,25 @@
         <v>8</v>
       </c>
       <c r="AI89" t="n">
-        <v>6.2</v>
+        <v>6.3</v>
       </c>
       <c r="AJ89" t="n">
-        <v>9.5</v>
+        <v>9.25</v>
       </c>
       <c r="AK89" t="n">
-        <v>7</v>
+        <v>7.1</v>
       </c>
       <c r="AL89" t="n">
-        <v>10.75</v>
+        <v>10.5</v>
       </c>
       <c r="AM89" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AN89" t="n">
-        <v>11</v>
+        <v>11.25</v>
       </c>
       <c r="AO89" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="AP89" t="n">
         <v>60</v>
@@ -16698,22 +16698,22 @@
         <v>51</v>
       </c>
       <c r="AT89" t="n">
-        <v>3.4</v>
+        <v>3.35</v>
       </c>
       <c r="AU89" t="n">
-        <v>9.75</v>
+        <v>9.5</v>
       </c>
       <c r="AV89" t="n">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="AW89" t="n">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="AX89" t="n">
-        <v>5</v>
+        <v>5.1</v>
       </c>
       <c r="AY89" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="AZ89" t="n">
         <v>12</v>
@@ -16722,7 +16722,7 @@
         <v>37</v>
       </c>
       <c r="BB89" t="n">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="BC89" t="n">
         <v>51</v>

--- a/Jogos_da_Semana_FlashScore_2024-09-27.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-09-27.xlsx
@@ -747,22 +747,22 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="H2" t="n">
         <v>3.4</v>
       </c>
       <c r="I2" t="n">
-        <v>2.55</v>
+        <v>2.4</v>
       </c>
       <c r="J2" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="K2" t="n">
         <v>2.2</v>
       </c>
       <c r="L2" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="M2" t="n">
         <v>1.05</v>
@@ -777,22 +777,22 @@
         <v>3.75</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.93</v>
+        <v>1.92</v>
       </c>
       <c r="R2" t="n">
-        <v>1.97</v>
+        <v>1.98</v>
       </c>
       <c r="S2" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="T2" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U2" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="V2" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="W2" t="n">
         <v>10</v>
@@ -801,13 +801,13 @@
         <v>15</v>
       </c>
       <c r="Y2" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="Z2" t="n">
         <v>29</v>
       </c>
       <c r="AA2" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AB2" t="n">
         <v>29</v>
@@ -825,16 +825,16 @@
         <v>41</v>
       </c>
       <c r="AG2" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="AH2" t="n">
+        <v>9</v>
+      </c>
+      <c r="AI2" t="n">
+        <v>12</v>
+      </c>
+      <c r="AJ2" t="n">
         <v>9.5</v>
-      </c>
-      <c r="AI2" t="n">
-        <v>13</v>
-      </c>
-      <c r="AJ2" t="n">
-        <v>10</v>
       </c>
       <c r="AK2" t="n">
         <v>23</v>
@@ -846,7 +846,7 @@
         <v>26</v>
       </c>
       <c r="AN2" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="AO2" t="n">
         <v>15</v>
@@ -864,7 +864,7 @@
         <v>151</v>
       </c>
       <c r="AT2" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="AU2" t="n">
         <v>7.5</v>
@@ -894,7 +894,7 @@
         <v>501</v>
       </c>
       <c r="BD2" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
     </row>
     <row r="3">
@@ -953,10 +953,10 @@
         <v>15</v>
       </c>
       <c r="O3" t="n">
-        <v>1.17</v>
+        <v>1.2</v>
       </c>
       <c r="P3" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="Q3" t="n">
         <v>1.57</v>
@@ -1076,7 +1076,7 @@
         <v>501</v>
       </c>
       <c r="BD3" t="n">
-        <v>176</v>
+        <v>151</v>
       </c>
     </row>
     <row r="4">
@@ -1111,16 +1111,16 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="H4" t="n">
         <v>7</v>
       </c>
       <c r="I4" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="J4" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="K4" t="n">
         <v>3.1</v>
@@ -1165,7 +1165,7 @@
         <v>9.5</v>
       </c>
       <c r="Y4" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="Z4" t="n">
         <v>9.5</v>
@@ -1174,7 +1174,7 @@
         <v>10</v>
       </c>
       <c r="AB4" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AC4" t="n">
         <v>29</v>
@@ -1192,22 +1192,22 @@
         <v>151</v>
       </c>
       <c r="AH4" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AI4" t="n">
         <v>51</v>
       </c>
       <c r="AJ4" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AK4" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="AL4" t="n">
         <v>51</v>
       </c>
       <c r="AM4" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AN4" t="n">
         <v>3.75</v>
@@ -1216,7 +1216,7 @@
         <v>5.5</v>
       </c>
       <c r="AP4" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AQ4" t="n">
         <v>12</v>
@@ -1246,7 +1246,7 @@
         <v>34</v>
       </c>
       <c r="AZ4" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="BA4" t="n">
         <v>101</v>
@@ -1302,7 +1302,7 @@
         <v>8</v>
       </c>
       <c r="J5" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="K5" t="n">
         <v>2.63</v>
@@ -1335,19 +1335,19 @@
         <v>3.75</v>
       </c>
       <c r="U5" t="n">
-        <v>1.91</v>
+        <v>1.8</v>
       </c>
       <c r="V5" t="n">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="W5" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="X5" t="n">
         <v>7.5</v>
       </c>
       <c r="Y5" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="Z5" t="n">
         <v>9</v>
@@ -1392,7 +1392,7 @@
         <v>41</v>
       </c>
       <c r="AN5" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="AO5" t="n">
         <v>6</v>
@@ -1401,7 +1401,7 @@
         <v>15</v>
       </c>
       <c r="AQ5" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AR5" t="n">
         <v>34</v>
@@ -1475,16 +1475,16 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>2.88</v>
+        <v>2.9</v>
       </c>
       <c r="H6" t="n">
         <v>3.6</v>
       </c>
       <c r="I6" t="n">
-        <v>2.38</v>
+        <v>2.3</v>
       </c>
       <c r="J6" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="K6" t="n">
         <v>2.38</v>
@@ -1517,10 +1517,10 @@
         <v>3.4</v>
       </c>
       <c r="U6" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="V6" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="W6" t="n">
         <v>13</v>
@@ -1580,7 +1580,7 @@
         <v>15</v>
       </c>
       <c r="AP6" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AQ6" t="n">
         <v>41</v>
@@ -1657,13 +1657,13 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="H7" t="n">
-        <v>2.9</v>
+        <v>2.88</v>
       </c>
       <c r="I7" t="n">
-        <v>2.63</v>
+        <v>2.7</v>
       </c>
       <c r="J7" t="n">
         <v>3.75</v>
@@ -1714,13 +1714,13 @@
         <v>12</v>
       </c>
       <c r="Z7" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AA7" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AB7" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AC7" t="n">
         <v>5.5</v>
@@ -1744,7 +1744,7 @@
         <v>11</v>
       </c>
       <c r="AJ7" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AK7" t="n">
         <v>29</v>
@@ -1842,43 +1842,43 @@
         <v>1.98</v>
       </c>
       <c r="H8" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="I8" t="n">
-        <v>3.45</v>
+        <v>3.55</v>
       </c>
       <c r="J8" t="n">
-        <v>2.6</v>
+        <v>2.55</v>
       </c>
       <c r="K8" t="n">
         <v>2.12</v>
       </c>
       <c r="L8" t="n">
-        <v>3.9</v>
+        <v>4.05</v>
       </c>
       <c r="M8" t="n">
         <v>1.06</v>
       </c>
       <c r="N8" t="n">
-        <v>7.5</v>
+        <v>7.4</v>
       </c>
       <c r="O8" t="n">
-        <v>1.28</v>
+        <v>1.29</v>
       </c>
       <c r="P8" t="n">
-        <v>3.35</v>
+        <v>3.3</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.85</v>
+        <v>1.87</v>
       </c>
       <c r="R8" t="n">
-        <v>1.88</v>
+        <v>1.87</v>
       </c>
       <c r="S8" t="n">
         <v>1.4</v>
       </c>
       <c r="T8" t="n">
-        <v>2.72</v>
+        <v>2.75</v>
       </c>
       <c r="U8" t="n">
         <v>1.72</v>
@@ -1887,28 +1887,28 @@
         <v>2</v>
       </c>
       <c r="W8" t="n">
-        <v>7.6</v>
+        <v>7.7</v>
       </c>
       <c r="X8" t="n">
-        <v>9.5</v>
+        <v>9.75</v>
       </c>
       <c r="Y8" t="n">
-        <v>8.5</v>
+        <v>8.25</v>
       </c>
       <c r="Z8" t="n">
         <v>17.5</v>
       </c>
       <c r="AA8" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="AB8" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AC8" t="n">
-        <v>7.5</v>
+        <v>7.4</v>
       </c>
       <c r="AD8" t="n">
-        <v>6.7</v>
+        <v>6.6</v>
       </c>
       <c r="AE8" t="n">
         <v>14</v>
@@ -1920,64 +1920,64 @@
         <v>450</v>
       </c>
       <c r="AH8" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AI8" t="n">
         <v>19</v>
       </c>
       <c r="AJ8" t="n">
-        <v>11.75</v>
+        <v>12</v>
       </c>
       <c r="AK8" t="n">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="AL8" t="n">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="AM8" t="n">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="AN8" t="n">
         <v>3.9</v>
       </c>
       <c r="AO8" t="n">
-        <v>10.25</v>
+        <v>10</v>
       </c>
       <c r="AP8" t="n">
-        <v>19.5</v>
+        <v>18</v>
       </c>
       <c r="AQ8" t="n">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="AR8" t="n">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="AS8" t="n">
         <v>250</v>
       </c>
       <c r="AT8" t="n">
-        <v>2.72</v>
+        <v>2.75</v>
       </c>
       <c r="AU8" t="n">
-        <v>7.2</v>
+        <v>7.1</v>
       </c>
       <c r="AV8" t="n">
         <v>65</v>
       </c>
       <c r="AW8" t="n">
-        <v>5.3</v>
+        <v>5.5</v>
       </c>
       <c r="AX8" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AY8" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AZ8" t="n">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="BA8" t="n">
-        <v>120</v>
+        <v>150</v>
       </c>
       <c r="BB8" t="n">
         <v>350</v>
@@ -2021,139 +2021,139 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>2.95</v>
+        <v>2.75</v>
       </c>
       <c r="H9" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="I9" t="n">
-        <v>2.12</v>
+        <v>2.22</v>
       </c>
       <c r="J9" t="n">
-        <v>3.45</v>
+        <v>3.2</v>
       </c>
       <c r="K9" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="L9" t="n">
-        <v>2.67</v>
+        <v>2.75</v>
       </c>
       <c r="M9" t="n">
         <v>1.04</v>
       </c>
       <c r="N9" t="n">
-        <v>8.25</v>
+        <v>8.5</v>
       </c>
       <c r="O9" t="n">
-        <v>1.23</v>
+        <v>1.21</v>
       </c>
       <c r="P9" t="n">
-        <v>3.75</v>
+        <v>3.95</v>
       </c>
       <c r="Q9" t="n">
-        <v>1.7</v>
+        <v>1.65</v>
       </c>
       <c r="R9" t="n">
-        <v>2.07</v>
+        <v>2.15</v>
       </c>
       <c r="S9" t="n">
-        <v>1.34</v>
+        <v>1.32</v>
       </c>
       <c r="T9" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="U9" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="V9" t="n">
-        <v>2.15</v>
+        <v>2.25</v>
       </c>
       <c r="W9" t="n">
-        <v>11</v>
+        <v>11.25</v>
       </c>
       <c r="X9" t="n">
-        <v>16.5</v>
+        <v>15.5</v>
       </c>
       <c r="Y9" t="n">
-        <v>10.75</v>
+        <v>10.25</v>
       </c>
       <c r="Z9" t="n">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="AA9" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AB9" t="n">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="AC9" t="n">
-        <v>8.25</v>
+        <v>8.5</v>
       </c>
       <c r="AD9" t="n">
-        <v>7.2</v>
+        <v>7.4</v>
       </c>
       <c r="AE9" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AF9" t="n">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="AG9" t="n">
-        <v>350</v>
+        <v>300</v>
       </c>
       <c r="AH9" t="n">
-        <v>9.25</v>
+        <v>10</v>
       </c>
       <c r="AI9" t="n">
-        <v>11.25</v>
+        <v>12.5</v>
       </c>
       <c r="AJ9" t="n">
-        <v>8.75</v>
+        <v>9</v>
       </c>
       <c r="AK9" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="AL9" t="n">
-        <v>15.5</v>
+        <v>16</v>
       </c>
       <c r="AM9" t="n">
         <v>23</v>
       </c>
       <c r="AN9" t="n">
-        <v>5</v>
+        <v>4.9</v>
       </c>
       <c r="AO9" t="n">
-        <v>15.5</v>
+        <v>14</v>
       </c>
       <c r="AP9" t="n">
-        <v>22</v>
+        <v>19.5</v>
       </c>
       <c r="AQ9" t="n">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="AR9" t="n">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="AS9" t="n">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="AT9" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="AU9" t="n">
-        <v>7</v>
+        <v>6.8</v>
       </c>
       <c r="AV9" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AW9" t="n">
-        <v>4.2</v>
+        <v>4.35</v>
       </c>
       <c r="AX9" t="n">
-        <v>10.75</v>
+        <v>11.25</v>
       </c>
       <c r="AY9" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="AZ9" t="n">
         <v>40</v>
@@ -2203,22 +2203,22 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>2.92</v>
+        <v>2.95</v>
       </c>
       <c r="H10" t="n">
         <v>3.75</v>
       </c>
       <c r="I10" t="n">
-        <v>2.12</v>
+        <v>2.1</v>
       </c>
       <c r="J10" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="K10" t="n">
         <v>2.32</v>
       </c>
       <c r="L10" t="n">
-        <v>2.65</v>
+        <v>2.62</v>
       </c>
       <c r="M10" t="n">
         <v>1.03</v>
@@ -2230,13 +2230,13 @@
         <v>1.19</v>
       </c>
       <c r="P10" t="n">
-        <v>4.25</v>
+        <v>4.15</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.57</v>
+        <v>1.6</v>
       </c>
       <c r="R10" t="n">
-        <v>2.27</v>
+        <v>2.22</v>
       </c>
       <c r="S10" t="n">
         <v>1.3</v>
@@ -2245,16 +2245,16 @@
         <v>3.2</v>
       </c>
       <c r="U10" t="n">
-        <v>1.52</v>
+        <v>1.53</v>
       </c>
       <c r="V10" t="n">
-        <v>2.37</v>
+        <v>2.35</v>
       </c>
       <c r="W10" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="X10" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="Y10" t="n">
         <v>10.75</v>
@@ -2263,16 +2263,16 @@
         <v>37</v>
       </c>
       <c r="AA10" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AB10" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AC10" t="n">
         <v>9</v>
       </c>
       <c r="AD10" t="n">
-        <v>7.6</v>
+        <v>7.5</v>
       </c>
       <c r="AE10" t="n">
         <v>12</v>
@@ -2287,7 +2287,7 @@
         <v>10.5</v>
       </c>
       <c r="AI10" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AJ10" t="n">
         <v>8.75</v>
@@ -2299,19 +2299,19 @@
         <v>15</v>
       </c>
       <c r="AM10" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AN10" t="n">
         <v>5.2</v>
       </c>
       <c r="AO10" t="n">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="AP10" t="n">
-        <v>19</v>
+        <v>19.5</v>
       </c>
       <c r="AQ10" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="AR10" t="n">
         <v>80</v>
@@ -2329,7 +2329,7 @@
         <v>45</v>
       </c>
       <c r="AW10" t="n">
-        <v>4.35</v>
+        <v>4.3</v>
       </c>
       <c r="AX10" t="n">
         <v>10.5</v>
@@ -2341,10 +2341,10 @@
         <v>37</v>
       </c>
       <c r="BA10" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="BB10" t="n">
-        <v>175</v>
+        <v>150</v>
       </c>
       <c r="BC10" t="n">
         <v>500</v>
@@ -2385,22 +2385,22 @@
         </is>
       </c>
       <c r="G11" t="n">
-        <v>2.72</v>
+        <v>2.92</v>
       </c>
       <c r="H11" t="n">
-        <v>3.9</v>
+        <v>3.85</v>
       </c>
       <c r="I11" t="n">
-        <v>2.18</v>
+        <v>2.1</v>
       </c>
       <c r="J11" t="n">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="K11" t="n">
-        <v>2.42</v>
+        <v>2.4</v>
       </c>
       <c r="L11" t="n">
-        <v>2.67</v>
+        <v>2.55</v>
       </c>
       <c r="M11" t="n">
         <v>1.03</v>
@@ -2409,19 +2409,19 @@
         <v>9.5</v>
       </c>
       <c r="O11" t="n">
-        <v>1.15</v>
+        <v>1.16</v>
       </c>
       <c r="P11" t="n">
-        <v>4.65</v>
+        <v>4.6</v>
       </c>
       <c r="Q11" t="n">
-        <v>1.47</v>
+        <v>1.5</v>
       </c>
       <c r="R11" t="n">
-        <v>2.5</v>
+        <v>2.42</v>
       </c>
       <c r="S11" t="n">
-        <v>1.27</v>
+        <v>1.26</v>
       </c>
       <c r="T11" t="n">
         <v>3.45</v>
@@ -2436,28 +2436,28 @@
         <v>14</v>
       </c>
       <c r="X11" t="n">
-        <v>17.5</v>
+        <v>19</v>
       </c>
       <c r="Y11" t="n">
-        <v>10.5</v>
+        <v>10.75</v>
       </c>
       <c r="Z11" t="n">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="AA11" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AB11" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AC11" t="n">
         <v>9.5</v>
       </c>
       <c r="AD11" t="n">
-        <v>8.25</v>
+        <v>8</v>
       </c>
       <c r="AE11" t="n">
-        <v>11.75</v>
+        <v>11.5</v>
       </c>
       <c r="AF11" t="n">
         <v>35</v>
@@ -2466,67 +2466,67 @@
         <v>175</v>
       </c>
       <c r="AH11" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AI11" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AJ11" t="n">
-        <v>9.25</v>
+        <v>9</v>
       </c>
       <c r="AK11" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AL11" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AM11" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AN11" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="AO11" t="n">
         <v>15</v>
       </c>
-      <c r="AM11" t="n">
-        <v>19.5</v>
-      </c>
-      <c r="AN11" t="n">
-        <v>5.1</v>
-      </c>
-      <c r="AO11" t="n">
-        <v>13.5</v>
-      </c>
       <c r="AP11" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AQ11" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="AR11" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="AS11" t="n">
-        <v>150</v>
+        <v>175</v>
       </c>
       <c r="AT11" t="n">
         <v>3.45</v>
       </c>
       <c r="AU11" t="n">
-        <v>6.5</v>
+        <v>6.4</v>
       </c>
       <c r="AV11" t="n">
         <v>40</v>
       </c>
       <c r="AW11" t="n">
-        <v>4.55</v>
+        <v>4.45</v>
       </c>
       <c r="AX11" t="n">
-        <v>10.75</v>
+        <v>10.25</v>
       </c>
       <c r="AY11" t="n">
-        <v>15.5</v>
+        <v>14.5</v>
       </c>
       <c r="AZ11" t="n">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="BA11" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="BB11" t="n">
-        <v>150</v>
+        <v>120</v>
       </c>
       <c r="BC11" t="n">
         <v>500</v>
@@ -2570,19 +2570,19 @@
         <v>1.34</v>
       </c>
       <c r="H12" t="n">
-        <v>5</v>
+        <v>5.1</v>
       </c>
       <c r="I12" t="n">
         <v>7.3</v>
       </c>
       <c r="J12" t="n">
-        <v>1.72</v>
+        <v>1.75</v>
       </c>
       <c r="K12" t="n">
         <v>2.7</v>
       </c>
       <c r="L12" t="n">
-        <v>6.2</v>
+        <v>6.1</v>
       </c>
       <c r="M12" t="n">
         <v>1.03</v>
@@ -2606,10 +2606,10 @@
         <v>1.23</v>
       </c>
       <c r="T12" t="n">
-        <v>3.75</v>
+        <v>3.7</v>
       </c>
       <c r="U12" t="n">
-        <v>1.7</v>
+        <v>1.72</v>
       </c>
       <c r="V12" t="n">
         <v>2.02</v>
@@ -2642,13 +2642,13 @@
         <v>17.5</v>
       </c>
       <c r="AF12" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="AG12" t="n">
-        <v>350</v>
+        <v>400</v>
       </c>
       <c r="AH12" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AI12" t="n">
         <v>55</v>
@@ -2684,16 +2684,16 @@
         <v>120</v>
       </c>
       <c r="AT12" t="n">
-        <v>3.75</v>
+        <v>3.7</v>
       </c>
       <c r="AU12" t="n">
-        <v>7.6</v>
+        <v>7.7</v>
       </c>
       <c r="AV12" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="AW12" t="n">
-        <v>9</v>
+        <v>8.75</v>
       </c>
       <c r="AX12" t="n">
         <v>37</v>
@@ -2961,10 +2961,10 @@
         <v>5</v>
       </c>
       <c r="Q14" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="R14" t="n">
-        <v>2.35</v>
+        <v>2.4</v>
       </c>
       <c r="S14" t="n">
         <v>1.29</v>
@@ -3113,22 +3113,22 @@
         </is>
       </c>
       <c r="G15" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="H15" t="n">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="I15" t="n">
-        <v>1.73</v>
+        <v>1.6</v>
       </c>
       <c r="J15" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="K15" t="n">
-        <v>2.3</v>
+        <v>2.38</v>
       </c>
       <c r="L15" t="n">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="M15" t="n">
         <v>1.04</v>
@@ -3164,16 +3164,16 @@
         <v>15</v>
       </c>
       <c r="X15" t="n">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="Y15" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="Z15" t="n">
         <v>51</v>
       </c>
       <c r="AA15" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AB15" t="n">
         <v>41</v>
@@ -3182,13 +3182,13 @@
         <v>13</v>
       </c>
       <c r="AD15" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AE15" t="n">
         <v>15</v>
       </c>
       <c r="AF15" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AG15" t="n">
         <v>201</v>
@@ -3197,13 +3197,13 @@
         <v>8</v>
       </c>
       <c r="AI15" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AJ15" t="n">
         <v>8.5</v>
       </c>
       <c r="AK15" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AL15" t="n">
         <v>13</v>
@@ -3212,10 +3212,10 @@
         <v>23</v>
       </c>
       <c r="AN15" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AO15" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AP15" t="n">
         <v>29</v>
@@ -3224,10 +3224,10 @@
         <v>81</v>
       </c>
       <c r="AR15" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="AS15" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="AT15" t="n">
         <v>3.25</v>
@@ -3242,19 +3242,19 @@
         <v>3.75</v>
       </c>
       <c r="AX15" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AY15" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AZ15" t="n">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="BA15" t="n">
         <v>41</v>
       </c>
       <c r="BB15" t="n">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="BC15" t="n">
         <v>81</v>
@@ -3313,22 +3313,22 @@
         <v>8.5</v>
       </c>
       <c r="M16" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="N16" t="n">
-        <v>8.5</v>
+        <v>10</v>
       </c>
       <c r="O16" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="P16" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="Q16" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="R16" t="n">
-        <v>1.73</v>
+        <v>1.7</v>
       </c>
       <c r="S16" t="n">
         <v>1.44</v>
@@ -3480,10 +3480,10 @@
         <v>1.91</v>
       </c>
       <c r="H17" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="I17" t="n">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="J17" t="n">
         <v>2.63</v>
@@ -3495,10 +3495,10 @@
         <v>5</v>
       </c>
       <c r="M17" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="N17" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="O17" t="n">
         <v>1.5</v>
@@ -3513,16 +3513,16 @@
         <v>1.5</v>
       </c>
       <c r="S17" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="T17" t="n">
-        <v>2.38</v>
+        <v>2.25</v>
       </c>
       <c r="U17" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="V17" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="W17" t="n">
         <v>5.5</v>
@@ -3549,7 +3549,7 @@
         <v>6.5</v>
       </c>
       <c r="AE17" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AF17" t="n">
         <v>81</v>
@@ -3558,7 +3558,7 @@
         <v>201</v>
       </c>
       <c r="AH17" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AI17" t="n">
         <v>21</v>
@@ -3594,7 +3594,7 @@
         <v>251</v>
       </c>
       <c r="AT17" t="n">
-        <v>2.38</v>
+        <v>2.25</v>
       </c>
       <c r="AU17" t="n">
         <v>9.5</v>
@@ -3659,28 +3659,28 @@
         </is>
       </c>
       <c r="G18" t="n">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="H18" t="n">
         <v>3.25</v>
       </c>
       <c r="I18" t="n">
-        <v>5.5</v>
+        <v>5.25</v>
       </c>
       <c r="J18" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="K18" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="L18" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="M18" t="n">
         <v>1.08</v>
       </c>
       <c r="N18" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="O18" t="n">
         <v>1.36</v>
@@ -3695,16 +3695,16 @@
         <v>1.65</v>
       </c>
       <c r="S18" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="T18" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="U18" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="V18" t="n">
-        <v>1.67</v>
+        <v>1.73</v>
       </c>
       <c r="W18" t="n">
         <v>6</v>
@@ -3743,7 +3743,7 @@
         <v>12</v>
       </c>
       <c r="AI18" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AJ18" t="n">
         <v>17</v>
@@ -3761,7 +3761,7 @@
         <v>3.6</v>
       </c>
       <c r="AO18" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AP18" t="n">
         <v>23</v>
@@ -3776,7 +3776,7 @@
         <v>201</v>
       </c>
       <c r="AT18" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="AU18" t="n">
         <v>9</v>
@@ -3785,22 +3785,22 @@
         <v>67</v>
       </c>
       <c r="AW18" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AX18" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AY18" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AZ18" t="n">
         <v>101</v>
       </c>
       <c r="BA18" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="BB18" t="n">
-        <v>351</v>
+        <v>301</v>
       </c>
       <c r="BC18" t="n">
         <v>81</v>
@@ -3844,7 +3844,7 @@
         <v>1.73</v>
       </c>
       <c r="H19" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="I19" t="n">
         <v>5</v>
@@ -3859,22 +3859,22 @@
         <v>5.5</v>
       </c>
       <c r="M19" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="N19" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="O19" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="P19" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="Q19" t="n">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="R19" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="S19" t="n">
         <v>1.44</v>
@@ -3895,7 +3895,7 @@
         <v>7.5</v>
       </c>
       <c r="Y19" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="Z19" t="n">
         <v>13</v>
@@ -3946,10 +3946,10 @@
         <v>9</v>
       </c>
       <c r="AP19" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AQ19" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AR19" t="n">
         <v>51</v>
@@ -3979,7 +3979,7 @@
         <v>101</v>
       </c>
       <c r="BA19" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="BB19" t="n">
         <v>301</v>
@@ -4041,10 +4041,10 @@
         <v>3.6</v>
       </c>
       <c r="M20" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="N20" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="O20" t="n">
         <v>1.5</v>
@@ -4205,28 +4205,28 @@
         </is>
       </c>
       <c r="G21" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="H21" t="n">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="I21" t="n">
-        <v>4.1</v>
+        <v>4.33</v>
       </c>
       <c r="J21" t="n">
-        <v>3</v>
+        <v>2.88</v>
       </c>
       <c r="K21" t="n">
         <v>1.83</v>
       </c>
       <c r="L21" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="M21" t="n">
-        <v>1.13</v>
+        <v>1.14</v>
       </c>
       <c r="N21" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="O21" t="n">
         <v>1.62</v>
@@ -4235,10 +4235,10 @@
         <v>2.2</v>
       </c>
       <c r="Q21" t="n">
-        <v>2.88</v>
+        <v>3.1</v>
       </c>
       <c r="R21" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="S21" t="n">
         <v>1.67</v>
@@ -4256,16 +4256,16 @@
         <v>5</v>
       </c>
       <c r="X21" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="Y21" t="n">
         <v>10</v>
       </c>
       <c r="Z21" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AA21" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AB21" t="n">
         <v>41</v>
@@ -4289,13 +4289,13 @@
         <v>8</v>
       </c>
       <c r="AI21" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AJ21" t="n">
         <v>17</v>
       </c>
       <c r="AK21" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AL21" t="n">
         <v>41</v>
@@ -4307,10 +4307,10 @@
         <v>3.75</v>
       </c>
       <c r="AO21" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AP21" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AQ21" t="n">
         <v>41</v>
@@ -4331,10 +4331,10 @@
         <v>81</v>
       </c>
       <c r="AW21" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="AX21" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AY21" t="n">
         <v>41</v>
@@ -4387,28 +4387,28 @@
         </is>
       </c>
       <c r="G22" t="n">
-        <v>2.05</v>
+        <v>2.15</v>
       </c>
       <c r="H22" t="n">
         <v>3.2</v>
       </c>
       <c r="I22" t="n">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="J22" t="n">
-        <v>2.88</v>
+        <v>3</v>
       </c>
       <c r="K22" t="n">
         <v>2.05</v>
       </c>
       <c r="L22" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="M22" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="N22" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="O22" t="n">
         <v>1.4</v>
@@ -4438,13 +4438,13 @@
         <v>6.5</v>
       </c>
       <c r="X22" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="Y22" t="n">
         <v>9.5</v>
       </c>
       <c r="Z22" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AA22" t="n">
         <v>19</v>
@@ -4468,19 +4468,19 @@
         <v>351</v>
       </c>
       <c r="AH22" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AI22" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AJ22" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AK22" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AL22" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AM22" t="n">
         <v>41</v>
@@ -4489,10 +4489,10 @@
         <v>4</v>
       </c>
       <c r="AO22" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AP22" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AQ22" t="n">
         <v>41</v>
@@ -4513,13 +4513,13 @@
         <v>67</v>
       </c>
       <c r="AW22" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="AX22" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AY22" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AZ22" t="n">
         <v>67</v>
@@ -4569,22 +4569,22 @@
         </is>
       </c>
       <c r="G23" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="H23" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="I23" t="n">
-        <v>8.5</v>
+        <v>9.5</v>
       </c>
       <c r="J23" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="K23" t="n">
         <v>2.88</v>
       </c>
       <c r="L23" t="n">
-        <v>8.5</v>
+        <v>9.5</v>
       </c>
       <c r="M23" t="n">
         <v>1.02</v>
@@ -4611,10 +4611,10 @@
         <v>4</v>
       </c>
       <c r="U23" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="V23" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="W23" t="n">
         <v>9</v>
@@ -4623,16 +4623,16 @@
         <v>7</v>
       </c>
       <c r="Y23" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="Z23" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AA23" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AB23" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AC23" t="n">
         <v>21</v>
@@ -4641,13 +4641,13 @@
         <v>13</v>
       </c>
       <c r="AE23" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AF23" t="n">
         <v>67</v>
       </c>
       <c r="AG23" t="n">
-        <v>301</v>
+        <v>401</v>
       </c>
       <c r="AH23" t="n">
         <v>26</v>
@@ -4656,19 +4656,19 @@
         <v>51</v>
       </c>
       <c r="AJ23" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AK23" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="AL23" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AM23" t="n">
         <v>51</v>
       </c>
       <c r="AN23" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="AO23" t="n">
         <v>5.5</v>
@@ -4677,7 +4677,7 @@
         <v>15</v>
       </c>
       <c r="AQ23" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AR23" t="n">
         <v>34</v>
@@ -4689,28 +4689,28 @@
         <v>4</v>
       </c>
       <c r="AU23" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AV23" t="n">
         <v>51</v>
       </c>
       <c r="AW23" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AX23" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AY23" t="n">
         <v>41</v>
       </c>
       <c r="AZ23" t="n">
+        <v>251</v>
+      </c>
+      <c r="BA23" t="n">
         <v>201</v>
       </c>
-      <c r="BA23" t="n">
-        <v>151</v>
-      </c>
       <c r="BB23" t="n">
-        <v>251</v>
+        <v>301</v>
       </c>
       <c r="BC23" t="n">
         <v>81</v>
@@ -4751,22 +4751,22 @@
         </is>
       </c>
       <c r="G24" t="n">
-        <v>3.7</v>
+        <v>4.5</v>
       </c>
       <c r="H24" t="n">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="I24" t="n">
-        <v>1.95</v>
+        <v>1.75</v>
       </c>
       <c r="J24" t="n">
-        <v>4</v>
+        <v>4.75</v>
       </c>
       <c r="K24" t="n">
         <v>2.2</v>
       </c>
       <c r="L24" t="n">
-        <v>2.63</v>
+        <v>2.4</v>
       </c>
       <c r="M24" t="n">
         <v>1.05</v>
@@ -4781,10 +4781,10 @@
         <v>3.5</v>
       </c>
       <c r="Q24" t="n">
-        <v>1.98</v>
+        <v>1.93</v>
       </c>
       <c r="R24" t="n">
-        <v>1.88</v>
+        <v>1.93</v>
       </c>
       <c r="S24" t="n">
         <v>1.4</v>
@@ -4793,55 +4793,55 @@
         <v>2.75</v>
       </c>
       <c r="U24" t="n">
-        <v>1.73</v>
+        <v>1.8</v>
       </c>
       <c r="V24" t="n">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="W24" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="X24" t="n">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="Y24" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="Z24" t="n">
+        <v>51</v>
+      </c>
+      <c r="AA24" t="n">
+        <v>34</v>
+      </c>
+      <c r="AB24" t="n">
         <v>41</v>
       </c>
-      <c r="AA24" t="n">
-        <v>29</v>
-      </c>
-      <c r="AB24" t="n">
-        <v>34</v>
-      </c>
       <c r="AC24" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AD24" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AE24" t="n">
         <v>15</v>
       </c>
       <c r="AF24" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AG24" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="AH24" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AI24" t="n">
-        <v>9.5</v>
+        <v>8.5</v>
       </c>
       <c r="AJ24" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AK24" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AL24" t="n">
         <v>15</v>
@@ -4850,19 +4850,19 @@
         <v>26</v>
       </c>
       <c r="AN24" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="AO24" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AP24" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AQ24" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AR24" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="AS24" t="n">
         <v>201</v>
@@ -4877,16 +4877,16 @@
         <v>51</v>
       </c>
       <c r="AW24" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="AX24" t="n">
-        <v>11</v>
+        <v>9.5</v>
       </c>
       <c r="AY24" t="n">
         <v>21</v>
       </c>
       <c r="AZ24" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="BA24" t="n">
         <v>51</v>
@@ -4936,7 +4936,7 @@
         <v>1.83</v>
       </c>
       <c r="H25" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="I25" t="n">
         <v>4.5</v>
@@ -4954,13 +4954,13 @@
         <v>1.08</v>
       </c>
       <c r="N25" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="O25" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="P25" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="Q25" t="n">
         <v>2.35</v>
@@ -5020,7 +5020,7 @@
         <v>21</v>
       </c>
       <c r="AJ25" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AK25" t="n">
         <v>51</v>
@@ -5115,7 +5115,7 @@
         </is>
       </c>
       <c r="G26" t="n">
-        <v>4</v>
+        <v>3.9</v>
       </c>
       <c r="H26" t="n">
         <v>3.7</v>
@@ -5139,10 +5139,10 @@
         <v>15</v>
       </c>
       <c r="O26" t="n">
-        <v>1.2</v>
+        <v>1.17</v>
       </c>
       <c r="P26" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="Q26" t="n">
         <v>1.62</v>
@@ -5175,7 +5175,7 @@
         <v>41</v>
       </c>
       <c r="AA26" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AB26" t="n">
         <v>29</v>
@@ -5297,22 +5297,22 @@
         </is>
       </c>
       <c r="G27" t="n">
-        <v>1.13</v>
+        <v>1.14</v>
       </c>
       <c r="H27" t="n">
-        <v>6.1</v>
+        <v>6.2</v>
       </c>
       <c r="I27" t="n">
-        <v>16</v>
+        <v>13.5</v>
       </c>
       <c r="J27" t="n">
-        <v>1.44</v>
+        <v>1.45</v>
       </c>
       <c r="K27" t="n">
-        <v>2.9</v>
+        <v>2.95</v>
       </c>
       <c r="L27" t="n">
-        <v>11.25</v>
+        <v>10</v>
       </c>
       <c r="M27" t="n">
         <v>1.01</v>
@@ -5324,88 +5324,88 @@
         <v>1.05</v>
       </c>
       <c r="P27" t="n">
-        <v>6.05</v>
+        <v>6</v>
       </c>
       <c r="Q27" t="n">
         <v>1.29</v>
       </c>
       <c r="R27" t="n">
-        <v>2.94</v>
+        <v>2.92</v>
       </c>
       <c r="S27" t="n">
         <v>1.19</v>
       </c>
       <c r="T27" t="n">
-        <v>4.45</v>
+        <v>4.4</v>
       </c>
       <c r="U27" t="n">
-        <v>2.01</v>
+        <v>1.97</v>
       </c>
       <c r="V27" t="n">
-        <v>1.76</v>
+        <v>1.79</v>
       </c>
       <c r="W27" t="n">
-        <v>8.25</v>
+        <v>8.5</v>
       </c>
       <c r="X27" t="n">
-        <v>5.9</v>
+        <v>6.1</v>
       </c>
       <c r="Y27" t="n">
         <v>8.75</v>
       </c>
       <c r="Z27" t="n">
-        <v>5.9</v>
+        <v>6.1</v>
       </c>
       <c r="AA27" t="n">
         <v>8.75</v>
       </c>
       <c r="AB27" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AC27" t="n">
-        <v>18.5</v>
+        <v>19.5</v>
       </c>
       <c r="AD27" t="n">
         <v>12.5</v>
       </c>
       <c r="AE27" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AF27" t="n">
+        <v>80</v>
+      </c>
+      <c r="AG27" t="n">
+        <v>450</v>
+      </c>
+      <c r="AH27" t="n">
+        <v>37</v>
+      </c>
+      <c r="AI27" t="n">
+        <v>110</v>
+      </c>
+      <c r="AJ27" t="n">
+        <v>37</v>
+      </c>
+      <c r="AK27" t="n">
+        <v>450</v>
+      </c>
+      <c r="AL27" t="n">
+        <v>150</v>
+      </c>
+      <c r="AM27" t="n">
         <v>90</v>
       </c>
-      <c r="AG27" t="n">
-        <v>500</v>
-      </c>
-      <c r="AH27" t="n">
-        <v>45</v>
-      </c>
-      <c r="AI27" t="n">
-        <v>150</v>
-      </c>
-      <c r="AJ27" t="n">
-        <v>45</v>
-      </c>
-      <c r="AK27" t="n">
-        <v>500</v>
-      </c>
-      <c r="AL27" t="n">
-        <v>200</v>
-      </c>
-      <c r="AM27" t="n">
-        <v>110</v>
-      </c>
       <c r="AN27" t="n">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="AO27" t="n">
-        <v>4.5</v>
+        <v>4.55</v>
       </c>
       <c r="AP27" t="n">
         <v>13.5</v>
       </c>
       <c r="AQ27" t="n">
-        <v>9</v>
+        <v>9.25</v>
       </c>
       <c r="AR27" t="n">
         <v>27</v>
@@ -5414,22 +5414,22 @@
         <v>150</v>
       </c>
       <c r="AT27" t="n">
-        <v>4.1</v>
+        <v>4.15</v>
       </c>
       <c r="AU27" t="n">
         <v>9.5</v>
       </c>
       <c r="AV27" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="AW27" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="AX27" t="n">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="AY27" t="n">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="AZ27" t="n">
         <v>500</v>
@@ -5479,40 +5479,40 @@
         </is>
       </c>
       <c r="G28" t="n">
-        <v>1.7</v>
+        <v>1.75</v>
       </c>
       <c r="H28" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="I28" t="n">
         <v>3.75</v>
       </c>
-      <c r="I28" t="n">
-        <v>4.1</v>
-      </c>
       <c r="J28" t="n">
-        <v>2.25</v>
+        <v>2.38</v>
       </c>
       <c r="K28" t="n">
         <v>2.4</v>
       </c>
       <c r="L28" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="M28" t="n">
         <v>1.03</v>
       </c>
       <c r="N28" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="O28" t="n">
-        <v>1.17</v>
+        <v>1.18</v>
       </c>
       <c r="P28" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="Q28" t="n">
-        <v>1.57</v>
+        <v>1.6</v>
       </c>
       <c r="R28" t="n">
-        <v>2.35</v>
+        <v>2.3</v>
       </c>
       <c r="S28" t="n">
         <v>1.29</v>
@@ -5545,10 +5545,10 @@
         <v>21</v>
       </c>
       <c r="AC28" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AD28" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AE28" t="n">
         <v>13</v>
@@ -5560,13 +5560,13 @@
         <v>126</v>
       </c>
       <c r="AH28" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AI28" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AJ28" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AK28" t="n">
         <v>41</v>
@@ -5575,19 +5575,19 @@
         <v>29</v>
       </c>
       <c r="AM28" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AN28" t="n">
         <v>4</v>
       </c>
       <c r="AO28" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AP28" t="n">
         <v>17</v>
       </c>
       <c r="AQ28" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AR28" t="n">
         <v>41</v>
@@ -5605,7 +5605,7 @@
         <v>41</v>
       </c>
       <c r="AW28" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AX28" t="n">
         <v>21</v>
@@ -5617,7 +5617,7 @@
         <v>67</v>
       </c>
       <c r="BA28" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="BB28" t="n">
         <v>126</v>
@@ -5661,16 +5661,16 @@
         </is>
       </c>
       <c r="G29" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="H29" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="I29" t="n">
-        <v>2.88</v>
+        <v>3</v>
       </c>
       <c r="J29" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="K29" t="n">
         <v>2.1</v>
@@ -5682,7 +5682,7 @@
         <v>1.06</v>
       </c>
       <c r="N29" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="O29" t="n">
         <v>1.3</v>
@@ -5691,10 +5691,10 @@
         <v>3.4</v>
       </c>
       <c r="Q29" t="n">
-        <v>2.05</v>
+        <v>2.03</v>
       </c>
       <c r="R29" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="S29" t="n">
         <v>1.4</v>
@@ -5727,7 +5727,7 @@
         <v>29</v>
       </c>
       <c r="AC29" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AD29" t="n">
         <v>6.5</v>
@@ -5742,7 +5742,7 @@
         <v>251</v>
       </c>
       <c r="AH29" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AI29" t="n">
         <v>15</v>
@@ -5751,7 +5751,7 @@
         <v>11</v>
       </c>
       <c r="AK29" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AL29" t="n">
         <v>23</v>
@@ -5873,10 +5873,10 @@
         <v>2.5</v>
       </c>
       <c r="Q30" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="R30" t="n">
-        <v>1.5</v>
+        <v>1.48</v>
       </c>
       <c r="S30" t="n">
         <v>1.57</v>
@@ -6025,28 +6025,28 @@
         </is>
       </c>
       <c r="G31" t="n">
-        <v>2.35</v>
+        <v>2.3</v>
       </c>
       <c r="H31" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="I31" t="n">
-        <v>2.8</v>
+        <v>2.88</v>
       </c>
       <c r="J31" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="K31" t="n">
         <v>2.1</v>
       </c>
       <c r="L31" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="M31" t="n">
         <v>1.06</v>
       </c>
       <c r="N31" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="O31" t="n">
         <v>1.3</v>
@@ -6055,10 +6055,10 @@
         <v>3.4</v>
       </c>
       <c r="Q31" t="n">
-        <v>2.05</v>
+        <v>2.03</v>
       </c>
       <c r="R31" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="S31" t="n">
         <v>1.4</v>
@@ -6082,16 +6082,16 @@
         <v>9.5</v>
       </c>
       <c r="Z31" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AA31" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AB31" t="n">
         <v>29</v>
       </c>
       <c r="AC31" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AD31" t="n">
         <v>6.5</v>
@@ -6124,7 +6124,7 @@
         <v>34</v>
       </c>
       <c r="AN31" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="AO31" t="n">
         <v>13</v>
@@ -6163,10 +6163,10 @@
         <v>51</v>
       </c>
       <c r="BA31" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="BB31" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="BC31" t="n">
         <v>81</v>
@@ -6225,10 +6225,10 @@
         <v>3.6</v>
       </c>
       <c r="M32" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="N32" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="O32" t="n">
         <v>1.36</v>
@@ -6237,10 +6237,10 @@
         <v>3</v>
       </c>
       <c r="Q32" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="R32" t="n">
-        <v>1.65</v>
+        <v>1.62</v>
       </c>
       <c r="S32" t="n">
         <v>1.5</v>
@@ -6389,16 +6389,16 @@
         </is>
       </c>
       <c r="G33" t="n">
-        <v>1.48</v>
+        <v>1.44</v>
       </c>
       <c r="H33" t="n">
         <v>4.2</v>
       </c>
       <c r="I33" t="n">
-        <v>5.75</v>
+        <v>6</v>
       </c>
       <c r="J33" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="K33" t="n">
         <v>2.2</v>
@@ -6407,10 +6407,10 @@
         <v>7</v>
       </c>
       <c r="M33" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="N33" t="n">
-        <v>9.5</v>
+        <v>11</v>
       </c>
       <c r="O33" t="n">
         <v>1.33</v>
@@ -6446,7 +6446,7 @@
         <v>9</v>
       </c>
       <c r="Z33" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AA33" t="n">
         <v>15</v>
@@ -6473,13 +6473,13 @@
         <v>13</v>
       </c>
       <c r="AI33" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AJ33" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AK33" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AL33" t="n">
         <v>51</v>
@@ -6509,7 +6509,7 @@
         <v>2.63</v>
       </c>
       <c r="AU33" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AV33" t="n">
         <v>67</v>
@@ -6574,10 +6574,10 @@
         <v>3.4</v>
       </c>
       <c r="H34" t="n">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="I34" t="n">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="J34" t="n">
         <v>4</v>
@@ -6628,7 +6628,7 @@
         <v>13</v>
       </c>
       <c r="Z34" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AA34" t="n">
         <v>29</v>
@@ -6652,7 +6652,7 @@
         <v>351</v>
       </c>
       <c r="AH34" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AI34" t="n">
         <v>10</v>
@@ -6673,7 +6673,7 @@
         <v>5</v>
       </c>
       <c r="AO34" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AP34" t="n">
         <v>29</v>
@@ -6697,7 +6697,7 @@
         <v>67</v>
       </c>
       <c r="AW34" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="AX34" t="n">
         <v>13</v>
@@ -6753,22 +6753,22 @@
         </is>
       </c>
       <c r="G35" t="n">
-        <v>3.1</v>
+        <v>2.75</v>
       </c>
       <c r="H35" t="n">
         <v>3.5</v>
       </c>
       <c r="I35" t="n">
-        <v>2.2</v>
+        <v>2.4</v>
       </c>
       <c r="J35" t="n">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="K35" t="n">
         <v>2.38</v>
       </c>
       <c r="L35" t="n">
-        <v>2.75</v>
+        <v>2.88</v>
       </c>
       <c r="M35" t="n">
         <v>1.03</v>
@@ -6783,16 +6783,16 @@
         <v>5</v>
       </c>
       <c r="Q35" t="n">
-        <v>1.57</v>
+        <v>1.6</v>
       </c>
       <c r="R35" t="n">
-        <v>2.35</v>
+        <v>2.3</v>
       </c>
       <c r="S35" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="T35" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="U35" t="n">
         <v>1.5</v>
@@ -6804,19 +6804,19 @@
         <v>13</v>
       </c>
       <c r="X35" t="n">
+        <v>17</v>
+      </c>
+      <c r="Y35" t="n">
+        <v>11</v>
+      </c>
+      <c r="Z35" t="n">
+        <v>29</v>
+      </c>
+      <c r="AA35" t="n">
         <v>19</v>
       </c>
-      <c r="Y35" t="n">
-        <v>12</v>
-      </c>
-      <c r="Z35" t="n">
-        <v>34</v>
-      </c>
-      <c r="AA35" t="n">
-        <v>21</v>
-      </c>
       <c r="AB35" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AC35" t="n">
         <v>15</v>
@@ -6834,34 +6834,34 @@
         <v>101</v>
       </c>
       <c r="AH35" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AI35" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AJ35" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AK35" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AL35" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AM35" t="n">
         <v>21</v>
       </c>
       <c r="AN35" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="AO35" t="n">
         <v>15</v>
       </c>
       <c r="AP35" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AQ35" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AR35" t="n">
         <v>51</v>
@@ -6870,7 +6870,7 @@
         <v>101</v>
       </c>
       <c r="AT35" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="AU35" t="n">
         <v>7</v>
@@ -6879,16 +6879,16 @@
         <v>41</v>
       </c>
       <c r="AW35" t="n">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="AX35" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AY35" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AZ35" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="BA35" t="n">
         <v>51</v>
@@ -6935,40 +6935,40 @@
         </is>
       </c>
       <c r="G36" t="n">
-        <v>2.38</v>
+        <v>2.63</v>
       </c>
       <c r="H36" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="I36" t="n">
-        <v>2.9</v>
+        <v>2.63</v>
       </c>
       <c r="J36" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="K36" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="L36" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="M36" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="N36" t="n">
+        <v>10</v>
+      </c>
+      <c r="O36" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="P36" t="n">
         <v>3.4</v>
       </c>
-      <c r="M36" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="N36" t="n">
-        <v>11</v>
-      </c>
-      <c r="O36" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="P36" t="n">
-        <v>3.5</v>
-      </c>
       <c r="Q36" t="n">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="R36" t="n">
-        <v>1.93</v>
+        <v>1.85</v>
       </c>
       <c r="S36" t="n">
         <v>1.4</v>
@@ -6977,34 +6977,34 @@
         <v>2.75</v>
       </c>
       <c r="U36" t="n">
-        <v>1.67</v>
+        <v>1.73</v>
       </c>
       <c r="V36" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="W36" t="n">
         <v>9</v>
       </c>
       <c r="X36" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="Y36" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="Z36" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AA36" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AB36" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AC36" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AD36" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AE36" t="n">
         <v>13</v>
@@ -7016,37 +7016,37 @@
         <v>201</v>
       </c>
       <c r="AH36" t="n">
+        <v>9</v>
+      </c>
+      <c r="AI36" t="n">
+        <v>13</v>
+      </c>
+      <c r="AJ36" t="n">
         <v>10</v>
       </c>
-      <c r="AI36" t="n">
-        <v>15</v>
-      </c>
-      <c r="AJ36" t="n">
-        <v>11</v>
-      </c>
       <c r="AK36" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AL36" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AM36" t="n">
         <v>29</v>
       </c>
       <c r="AN36" t="n">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="AO36" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AP36" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AQ36" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AR36" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AS36" t="n">
         <v>151</v>
@@ -7055,13 +7055,13 @@
         <v>2.75</v>
       </c>
       <c r="AU36" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AV36" t="n">
         <v>51</v>
       </c>
       <c r="AW36" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="AX36" t="n">
         <v>15</v>
@@ -7117,22 +7117,22 @@
         </is>
       </c>
       <c r="G37" t="n">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="H37" t="n">
         <v>3.7</v>
       </c>
       <c r="I37" t="n">
-        <v>2.05</v>
+        <v>2.15</v>
       </c>
       <c r="J37" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="K37" t="n">
         <v>2.3</v>
       </c>
       <c r="L37" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="M37" t="n">
         <v>1.03</v>
@@ -7147,112 +7147,112 @@
         <v>4.33</v>
       </c>
       <c r="Q37" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="R37" t="n">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="S37" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="T37" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="U37" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="V37" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="W37" t="n">
         <v>12</v>
       </c>
       <c r="X37" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="Y37" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="Z37" t="n">
         <v>34</v>
       </c>
       <c r="AA37" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AB37" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AC37" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AD37" t="n">
         <v>7</v>
       </c>
       <c r="AE37" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AF37" t="n">
         <v>41</v>
       </c>
       <c r="AG37" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="AH37" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AI37" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AJ37" t="n">
         <v>9</v>
       </c>
       <c r="AK37" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AL37" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AM37" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AN37" t="n">
         <v>5.5</v>
       </c>
       <c r="AO37" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AP37" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AQ37" t="n">
         <v>51</v>
       </c>
       <c r="AR37" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AS37" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="AT37" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="AU37" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AV37" t="n">
         <v>41</v>
       </c>
       <c r="AW37" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="AX37" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AY37" t="n">
         <v>19</v>
       </c>
       <c r="AZ37" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="BA37" t="n">
         <v>51</v>
@@ -7329,10 +7329,10 @@
         <v>3.5</v>
       </c>
       <c r="Q38" t="n">
-        <v>1.98</v>
+        <v>1.9</v>
       </c>
       <c r="R38" t="n">
-        <v>1.88</v>
+        <v>1.95</v>
       </c>
       <c r="S38" t="n">
         <v>1.4</v>
@@ -7693,10 +7693,10 @@
         <v>3.75</v>
       </c>
       <c r="Q40" t="n">
-        <v>1.83</v>
+        <v>1.75</v>
       </c>
       <c r="R40" t="n">
-        <v>2.03</v>
+        <v>2.05</v>
       </c>
       <c r="S40" t="n">
         <v>1.36</v>
@@ -7845,28 +7845,28 @@
         </is>
       </c>
       <c r="G41" t="n">
-        <v>1.6</v>
+        <v>1.62</v>
       </c>
       <c r="H41" t="n">
         <v>3.7</v>
       </c>
       <c r="I41" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="J41" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="K41" t="n">
         <v>2.2</v>
       </c>
       <c r="L41" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="M41" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="N41" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="O41" t="n">
         <v>1.33</v>
@@ -7887,10 +7887,10 @@
         <v>2.63</v>
       </c>
       <c r="U41" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="V41" t="n">
-        <v>1.7</v>
+        <v>1.75</v>
       </c>
       <c r="W41" t="n">
         <v>6</v>
@@ -7911,7 +7911,7 @@
         <v>29</v>
       </c>
       <c r="AC41" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AD41" t="n">
         <v>7.5</v>
@@ -7941,7 +7941,7 @@
         <v>41</v>
       </c>
       <c r="AM41" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AN41" t="n">
         <v>3.5</v>
@@ -7980,13 +7980,13 @@
         <v>41</v>
       </c>
       <c r="AZ41" t="n">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="BA41" t="n">
         <v>151</v>
       </c>
       <c r="BB41" t="n">
-        <v>351</v>
+        <v>301</v>
       </c>
       <c r="BC41" t="n">
         <v>81</v>
@@ -8391,28 +8391,28 @@
         </is>
       </c>
       <c r="G44" t="n">
-        <v>2.45</v>
+        <v>2.55</v>
       </c>
       <c r="H44" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="I44" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="J44" t="n">
         <v>3.25</v>
-      </c>
-      <c r="I44" t="n">
-        <v>2.88</v>
-      </c>
-      <c r="J44" t="n">
-        <v>3.2</v>
       </c>
       <c r="K44" t="n">
         <v>2.05</v>
       </c>
       <c r="L44" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="M44" t="n">
         <v>1.07</v>
       </c>
       <c r="N44" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="O44" t="n">
         <v>1.36</v>
@@ -8442,13 +8442,13 @@
         <v>7.5</v>
       </c>
       <c r="X44" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="Y44" t="n">
         <v>10</v>
       </c>
       <c r="Z44" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AA44" t="n">
         <v>21</v>
@@ -8472,7 +8472,7 @@
         <v>301</v>
       </c>
       <c r="AH44" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AI44" t="n">
         <v>13</v>
@@ -8502,7 +8502,7 @@
         <v>51</v>
       </c>
       <c r="AR44" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AS44" t="n">
         <v>201</v>
@@ -8755,88 +8755,88 @@
         </is>
       </c>
       <c r="G46" t="n">
-        <v>2.1</v>
+        <v>2.12</v>
       </c>
       <c r="H46" t="n">
-        <v>3.3</v>
+        <v>3.15</v>
       </c>
       <c r="I46" t="n">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="J46" t="n">
-        <v>2.65</v>
+        <v>2.67</v>
       </c>
       <c r="K46" t="n">
-        <v>2.12</v>
+        <v>2.07</v>
       </c>
       <c r="L46" t="n">
-        <v>3.55</v>
+        <v>3.65</v>
       </c>
       <c r="M46" t="n">
-        <v>10.4</v>
+        <v>1.03</v>
       </c>
       <c r="N46" t="n">
-        <v>1.01</v>
+        <v>11</v>
       </c>
       <c r="O46" t="n">
-        <v>1.21</v>
+        <v>1.25</v>
       </c>
       <c r="P46" t="n">
-        <v>3.44</v>
+        <v>3.75</v>
       </c>
       <c r="Q46" t="n">
-        <v>1.75</v>
+        <v>1.78</v>
       </c>
       <c r="R46" t="n">
-        <v>1.9</v>
+        <v>1.87</v>
       </c>
       <c r="S46" t="n">
         <v>1.34</v>
       </c>
       <c r="T46" t="n">
-        <v>2.99</v>
+        <v>3.13</v>
       </c>
       <c r="U46" t="n">
-        <v>1.64</v>
+        <v>1.74</v>
       </c>
       <c r="V46" t="n">
-        <v>2.2</v>
+        <v>2.02</v>
       </c>
       <c r="W46" t="n">
-        <v>7.3</v>
+        <v>7.4</v>
       </c>
       <c r="X46" t="n">
-        <v>9.25</v>
+        <v>9.75</v>
       </c>
       <c r="Y46" t="n">
         <v>7.3</v>
       </c>
       <c r="Z46" t="n">
-        <v>16.5</v>
+        <v>17.5</v>
       </c>
       <c r="AA46" t="n">
         <v>13</v>
       </c>
       <c r="AB46" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AC46" t="n">
-        <v>10.75</v>
+        <v>10</v>
       </c>
       <c r="AD46" t="n">
-        <v>5.7</v>
+        <v>5.5</v>
       </c>
       <c r="AE46" t="n">
-        <v>10.75</v>
+        <v>10.25</v>
       </c>
       <c r="AF46" t="n">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="AG46" t="n">
         <v>250</v>
       </c>
       <c r="AH46" t="n">
-        <v>8.75</v>
+        <v>8.5</v>
       </c>
       <c r="AI46" t="n">
         <v>14</v>
@@ -8845,22 +8845,22 @@
         <v>9.25</v>
       </c>
       <c r="AK46" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="AL46" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="AM46" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AN46" t="n">
-        <v>4.1</v>
+        <v>4.15</v>
       </c>
       <c r="AO46" t="n">
-        <v>10.75</v>
+        <v>11</v>
       </c>
       <c r="AP46" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="AQ46" t="n">
         <v>40</v>
@@ -8872,31 +8872,31 @@
         <v>200</v>
       </c>
       <c r="AT46" t="n">
-        <v>2.85</v>
+        <v>2.77</v>
       </c>
       <c r="AU46" t="n">
-        <v>6.7</v>
+        <v>6.6</v>
       </c>
       <c r="AV46" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AW46" t="n">
-        <v>5.1</v>
+        <v>5.2</v>
       </c>
       <c r="AX46" t="n">
-        <v>16.5</v>
+        <v>17.5</v>
       </c>
       <c r="AY46" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AZ46" t="n">
-        <v>75</v>
+        <v>90</v>
       </c>
       <c r="BA46" t="n">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="BB46" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="BC46" t="n">
         <v>51</v>
@@ -9847,19 +9847,19 @@
         </is>
       </c>
       <c r="G52" t="n">
-        <v>1.7</v>
+        <v>1.72</v>
       </c>
       <c r="H52" t="n">
         <v>3.65</v>
       </c>
       <c r="I52" t="n">
-        <v>4.35</v>
+        <v>4.3</v>
       </c>
       <c r="J52" t="n">
-        <v>2.25</v>
+        <v>2.27</v>
       </c>
       <c r="K52" t="n">
-        <v>2.2</v>
+        <v>2.18</v>
       </c>
       <c r="L52" t="n">
         <v>4.55</v>
@@ -9871,10 +9871,10 @@
         <v>1.04</v>
       </c>
       <c r="O52" t="n">
-        <v>1.23</v>
+        <v>1.24</v>
       </c>
       <c r="P52" t="n">
-        <v>3.35</v>
+        <v>3.3</v>
       </c>
       <c r="Q52" t="n">
         <v>1.7</v>
@@ -9928,10 +9928,10 @@
         <v>450</v>
       </c>
       <c r="AH52" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AI52" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AJ52" t="n">
         <v>14</v>
@@ -9952,10 +9952,10 @@
         <v>8.25</v>
       </c>
       <c r="AP52" t="n">
-        <v>16.5</v>
+        <v>17</v>
       </c>
       <c r="AQ52" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AR52" t="n">
         <v>55</v>
@@ -9964,22 +9964,22 @@
         <v>200</v>
       </c>
       <c r="AT52" t="n">
-        <v>2.67</v>
+        <v>2.65</v>
       </c>
       <c r="AU52" t="n">
-        <v>7.1</v>
+        <v>7.2</v>
       </c>
       <c r="AV52" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="AW52" t="n">
-        <v>6.1</v>
+        <v>6</v>
       </c>
       <c r="AX52" t="n">
         <v>24</v>
       </c>
       <c r="AY52" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AZ52" t="n">
         <v>120</v>
@@ -10211,13 +10211,13 @@
         </is>
       </c>
       <c r="G54" t="n">
-        <v>2.63</v>
+        <v>2.6</v>
       </c>
       <c r="H54" t="n">
         <v>3.6</v>
       </c>
       <c r="I54" t="n">
-        <v>2.5</v>
+        <v>2.55</v>
       </c>
       <c r="J54" t="n">
         <v>3.1</v>
@@ -10232,7 +10232,7 @@
         <v>1.03</v>
       </c>
       <c r="N54" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="O54" t="n">
         <v>1.17</v>
@@ -10241,16 +10241,16 @@
         <v>5</v>
       </c>
       <c r="Q54" t="n">
-        <v>1.6</v>
+        <v>1.57</v>
       </c>
       <c r="R54" t="n">
-        <v>2.3</v>
+        <v>2.35</v>
       </c>
       <c r="S54" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="T54" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="U54" t="n">
         <v>1.5</v>
@@ -10277,7 +10277,7 @@
         <v>23</v>
       </c>
       <c r="AC54" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AD54" t="n">
         <v>7</v>
@@ -10304,7 +10304,7 @@
         <v>26</v>
       </c>
       <c r="AL54" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AM54" t="n">
         <v>21</v>
@@ -10328,7 +10328,7 @@
         <v>101</v>
       </c>
       <c r="AT54" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="AU54" t="n">
         <v>7</v>
@@ -10337,7 +10337,7 @@
         <v>41</v>
       </c>
       <c r="AW54" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="AX54" t="n">
         <v>13</v>
@@ -10393,13 +10393,13 @@
         </is>
       </c>
       <c r="G55" t="n">
-        <v>1.45</v>
+        <v>1.44</v>
       </c>
       <c r="H55" t="n">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="I55" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="J55" t="n">
         <v>1.91</v>
@@ -10408,7 +10408,7 @@
         <v>2.75</v>
       </c>
       <c r="L55" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="M55" t="n">
         <v>1.02</v>
@@ -10417,16 +10417,16 @@
         <v>21</v>
       </c>
       <c r="O55" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="P55" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="Q55" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="R55" t="n">
-        <v>2.88</v>
+        <v>3.1</v>
       </c>
       <c r="S55" t="n">
         <v>1.2</v>
@@ -10435,10 +10435,10 @@
         <v>4.33</v>
       </c>
       <c r="U55" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="V55" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="W55" t="n">
         <v>12</v>
@@ -10447,7 +10447,7 @@
         <v>10</v>
       </c>
       <c r="Y55" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="Z55" t="n">
         <v>12</v>
@@ -10456,10 +10456,10 @@
         <v>11</v>
       </c>
       <c r="AB55" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AC55" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AD55" t="n">
         <v>9.5</v>
@@ -10537,7 +10537,7 @@
         <v>126</v>
       </c>
       <c r="BC55" t="n">
-        <v>251</v>
+        <v>301</v>
       </c>
       <c r="BD55" t="n">
         <v>151</v>
@@ -10575,13 +10575,13 @@
         </is>
       </c>
       <c r="G56" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="H56" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="I56" t="n">
-        <v>5</v>
+        <v>5.25</v>
       </c>
       <c r="J56" t="n">
         <v>2.1</v>
@@ -10590,7 +10590,7 @@
         <v>2.5</v>
       </c>
       <c r="L56" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="M56" t="n">
         <v>1.03</v>
@@ -10617,10 +10617,10 @@
         <v>3.75</v>
       </c>
       <c r="U56" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="V56" t="n">
-        <v>2.38</v>
+        <v>2.25</v>
       </c>
       <c r="W56" t="n">
         <v>10</v>
@@ -10683,7 +10683,7 @@
         <v>15</v>
       </c>
       <c r="AQ56" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AR56" t="n">
         <v>41</v>
@@ -10710,13 +10710,13 @@
         <v>26</v>
       </c>
       <c r="AZ56" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="BA56" t="n">
         <v>81</v>
       </c>
       <c r="BB56" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="BC56" t="n">
         <v>351</v>
@@ -10808,7 +10808,7 @@
         <v>10</v>
       </c>
       <c r="X57" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="Y57" t="n">
         <v>8.5</v>
@@ -10877,7 +10877,7 @@
         <v>3.5</v>
       </c>
       <c r="AU57" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AV57" t="n">
         <v>41</v>
@@ -10892,7 +10892,7 @@
         <v>23</v>
       </c>
       <c r="AZ57" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="BA57" t="n">
         <v>67</v>
@@ -11303,22 +11303,22 @@
         </is>
       </c>
       <c r="G60" t="n">
-        <v>2.8</v>
+        <v>3</v>
       </c>
       <c r="H60" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="I60" t="n">
-        <v>2.6</v>
+        <v>2.4</v>
       </c>
       <c r="J60" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="K60" t="n">
         <v>2</v>
       </c>
       <c r="L60" t="n">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="M60" t="n">
         <v>1.08</v>
@@ -11351,16 +11351,16 @@
         <v>1.8</v>
       </c>
       <c r="W60" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="X60" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="Y60" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="Z60" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AA60" t="n">
         <v>26</v>
@@ -11369,7 +11369,7 @@
         <v>41</v>
       </c>
       <c r="AC60" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AD60" t="n">
         <v>6</v>
@@ -11384,19 +11384,19 @@
         <v>351</v>
       </c>
       <c r="AH60" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AI60" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AJ60" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AK60" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AL60" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AM60" t="n">
         <v>34</v>
@@ -11429,7 +11429,7 @@
         <v>67</v>
       </c>
       <c r="AW60" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="AX60" t="n">
         <v>15</v>
@@ -11441,7 +11441,7 @@
         <v>51</v>
       </c>
       <c r="BA60" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="BB60" t="n">
         <v>201</v>
@@ -11670,7 +11670,7 @@
         <v>2.55</v>
       </c>
       <c r="H62" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="I62" t="n">
         <v>2.45</v>
@@ -11679,7 +11679,7 @@
         <v>3.1</v>
       </c>
       <c r="K62" t="n">
-        <v>2.3</v>
+        <v>2.38</v>
       </c>
       <c r="L62" t="n">
         <v>3</v>
@@ -11688,34 +11688,34 @@
         <v>1.03</v>
       </c>
       <c r="N62" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="O62" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="P62" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="Q62" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="R62" t="n">
-        <v>2.25</v>
+        <v>2.35</v>
       </c>
       <c r="S62" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="T62" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="U62" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="V62" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="W62" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="X62" t="n">
         <v>15</v>
@@ -11730,25 +11730,25 @@
         <v>19</v>
       </c>
       <c r="AB62" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AC62" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AD62" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AE62" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AF62" t="n">
         <v>34</v>
       </c>
       <c r="AG62" t="n">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="AH62" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AI62" t="n">
         <v>15</v>
@@ -11760,10 +11760,10 @@
         <v>26</v>
       </c>
       <c r="AL62" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AM62" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AN62" t="n">
         <v>5</v>
@@ -11784,7 +11784,7 @@
         <v>101</v>
       </c>
       <c r="AT62" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="AU62" t="n">
         <v>7</v>
@@ -11811,7 +11811,7 @@
         <v>101</v>
       </c>
       <c r="BC62" t="n">
-        <v>351</v>
+        <v>301</v>
       </c>
       <c r="BD62" t="n">
         <v>81</v>
@@ -12031,34 +12031,34 @@
         </is>
       </c>
       <c r="G64" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="H64" t="n">
-        <v>7.5</v>
+        <v>8.5</v>
       </c>
       <c r="I64" t="n">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="J64" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="K64" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="L64" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="M64" t="n">
-        <v>1.02</v>
+        <v>1.01</v>
       </c>
       <c r="N64" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="O64" t="n">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="P64" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="Q64" t="n">
         <v>1.4</v>
@@ -12073,10 +12073,10 @@
         <v>4</v>
       </c>
       <c r="U64" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="V64" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="W64" t="n">
         <v>34</v>
@@ -12085,40 +12085,40 @@
         <v>67</v>
       </c>
       <c r="Y64" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="Z64" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="AA64" t="n">
         <v>101</v>
       </c>
       <c r="AB64" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AC64" t="n">
         <v>21</v>
       </c>
       <c r="AD64" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AE64" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AF64" t="n">
         <v>81</v>
       </c>
       <c r="AG64" t="n">
-        <v>451</v>
+        <v>501</v>
       </c>
       <c r="AH64" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AI64" t="n">
         <v>6.5</v>
       </c>
       <c r="AJ64" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AK64" t="n">
         <v>7</v>
@@ -12130,7 +12130,7 @@
         <v>29</v>
       </c>
       <c r="AN64" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AO64" t="n">
         <v>51</v>
@@ -12139,10 +12139,10 @@
         <v>51</v>
       </c>
       <c r="AQ64" t="n">
+        <v>351</v>
+      </c>
+      <c r="AR64" t="n">
         <v>301</v>
-      </c>
-      <c r="AR64" t="n">
-        <v>251</v>
       </c>
       <c r="AS64" t="n">
         <v>401</v>
@@ -12151,22 +12151,22 @@
         <v>4</v>
       </c>
       <c r="AU64" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AV64" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AW64" t="n">
         <v>3.25</v>
       </c>
       <c r="AX64" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="AY64" t="n">
         <v>17</v>
       </c>
       <c r="AZ64" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="BA64" t="n">
         <v>34</v>
@@ -12213,58 +12213,58 @@
         </is>
       </c>
       <c r="G65" t="n">
-        <v>2.92</v>
+        <v>2.95</v>
       </c>
       <c r="H65" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="I65" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="J65" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="K65" t="n">
-        <v>2.18</v>
+        <v>2.1</v>
       </c>
       <c r="L65" t="n">
-        <v>2.8</v>
+        <v>2.85</v>
       </c>
       <c r="M65" t="n">
         <v>1.05</v>
       </c>
       <c r="N65" t="n">
-        <v>8</v>
+        <v>7.7</v>
       </c>
       <c r="O65" t="n">
-        <v>1.23</v>
+        <v>1.25</v>
       </c>
       <c r="P65" t="n">
-        <v>3.75</v>
+        <v>3.55</v>
       </c>
       <c r="Q65" t="n">
-        <v>1.72</v>
+        <v>1.75</v>
       </c>
       <c r="R65" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="S65" t="n">
-        <v>1.35</v>
+        <v>1.38</v>
       </c>
       <c r="T65" t="n">
-        <v>2.95</v>
+        <v>2.8</v>
       </c>
       <c r="U65" t="n">
-        <v>1.57</v>
+        <v>1.6</v>
       </c>
       <c r="V65" t="n">
-        <v>2.25</v>
+        <v>2.22</v>
       </c>
       <c r="W65" t="n">
-        <v>11.25</v>
+        <v>10.25</v>
       </c>
       <c r="X65" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="Y65" t="n">
         <v>10.25</v>
@@ -12273,16 +12273,16 @@
         <v>37</v>
       </c>
       <c r="AA65" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AB65" t="n">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="AC65" t="n">
-        <v>8</v>
+        <v>7.7</v>
       </c>
       <c r="AD65" t="n">
-        <v>6.7</v>
+        <v>6.4</v>
       </c>
       <c r="AE65" t="n">
         <v>11.75</v>
@@ -12303,7 +12303,7 @@
         <v>8.75</v>
       </c>
       <c r="AK65" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AL65" t="n">
         <v>17</v>
@@ -12312,28 +12312,28 @@
         <v>23</v>
       </c>
       <c r="AN65" t="n">
-        <v>5.1</v>
+        <v>5</v>
       </c>
       <c r="AO65" t="n">
-        <v>15.5</v>
+        <v>16.5</v>
       </c>
       <c r="AP65" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="AQ65" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="AR65" t="n">
-        <v>90</v>
+        <v>110</v>
       </c>
       <c r="AS65" t="n">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="AT65" t="n">
-        <v>2.95</v>
+        <v>2.8</v>
       </c>
       <c r="AU65" t="n">
-        <v>6.5</v>
+        <v>6.6</v>
       </c>
       <c r="AV65" t="n">
         <v>50</v>
@@ -12342,10 +12342,10 @@
         <v>4.35</v>
       </c>
       <c r="AX65" t="n">
-        <v>11.75</v>
+        <v>12</v>
       </c>
       <c r="AY65" t="n">
-        <v>17.5</v>
+        <v>18</v>
       </c>
       <c r="AZ65" t="n">
         <v>45</v>
@@ -12395,22 +12395,22 @@
         </is>
       </c>
       <c r="G66" t="n">
-        <v>2.42</v>
+        <v>2.27</v>
       </c>
       <c r="H66" t="n">
-        <v>3.45</v>
+        <v>3.35</v>
       </c>
       <c r="I66" t="n">
-        <v>2.67</v>
+        <v>2.95</v>
       </c>
       <c r="J66" t="n">
-        <v>2.92</v>
+        <v>2.75</v>
       </c>
       <c r="K66" t="n">
         <v>2.18</v>
       </c>
       <c r="L66" t="n">
-        <v>3.2</v>
+        <v>3.45</v>
       </c>
       <c r="M66" t="n">
         <v>1.04</v>
@@ -12419,118 +12419,118 @@
         <v>8.25</v>
       </c>
       <c r="O66" t="n">
-        <v>1.22</v>
+        <v>1.21</v>
       </c>
       <c r="P66" t="n">
-        <v>3.85</v>
+        <v>3.9</v>
       </c>
       <c r="Q66" t="n">
-        <v>1.7</v>
+        <v>1.65</v>
       </c>
       <c r="R66" t="n">
-        <v>2.07</v>
+        <v>2.15</v>
       </c>
       <c r="S66" t="n">
-        <v>1.35</v>
+        <v>1.33</v>
       </c>
       <c r="T66" t="n">
-        <v>2.95</v>
+        <v>3.05</v>
       </c>
       <c r="U66" t="n">
-        <v>1.55</v>
+        <v>1.52</v>
       </c>
       <c r="V66" t="n">
-        <v>2.3</v>
+        <v>2.37</v>
       </c>
       <c r="W66" t="n">
-        <v>10.5</v>
+        <v>10.75</v>
       </c>
       <c r="X66" t="n">
         <v>14</v>
       </c>
       <c r="Y66" t="n">
-        <v>9.25</v>
+        <v>8.75</v>
       </c>
       <c r="Z66" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="AA66" t="n">
-        <v>17.5</v>
+        <v>16</v>
       </c>
       <c r="AB66" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="AC66" t="n">
         <v>8.25</v>
       </c>
       <c r="AD66" t="n">
-        <v>6.8</v>
+        <v>6.7</v>
       </c>
       <c r="AE66" t="n">
-        <v>11.75</v>
+        <v>11.25</v>
       </c>
       <c r="AF66" t="n">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="AG66" t="n">
         <v>250</v>
       </c>
       <c r="AH66" t="n">
-        <v>10.5</v>
+        <v>11.25</v>
       </c>
       <c r="AI66" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AJ66" t="n">
-        <v>9.75</v>
+        <v>10.25</v>
       </c>
       <c r="AK66" t="n">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="AL66" t="n">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="AM66" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AN66" t="n">
-        <v>4.55</v>
+        <v>4.5</v>
       </c>
       <c r="AO66" t="n">
-        <v>12.5</v>
+        <v>11.5</v>
       </c>
       <c r="AP66" t="n">
-        <v>17.5</v>
+        <v>16</v>
       </c>
       <c r="AQ66" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="AR66" t="n">
-        <v>70</v>
+        <v>55</v>
       </c>
       <c r="AS66" t="n">
-        <v>175</v>
+        <v>150</v>
       </c>
       <c r="AT66" t="n">
-        <v>2.95</v>
+        <v>3.05</v>
       </c>
       <c r="AU66" t="n">
-        <v>6.5</v>
+        <v>6.3</v>
       </c>
       <c r="AV66" t="n">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="AW66" t="n">
-        <v>4.8</v>
+        <v>5.2</v>
       </c>
       <c r="AX66" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="AY66" t="n">
         <v>20</v>
       </c>
       <c r="AZ66" t="n">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="BA66" t="n">
         <v>90</v>
@@ -12577,22 +12577,22 @@
         </is>
       </c>
       <c r="G67" t="n">
-        <v>10.5</v>
+        <v>16</v>
       </c>
       <c r="H67" t="n">
-        <v>6.2</v>
+        <v>7</v>
       </c>
       <c r="I67" t="n">
-        <v>1.22</v>
+        <v>1.14</v>
       </c>
       <c r="J67" t="n">
-        <v>7.6</v>
+        <v>10</v>
       </c>
       <c r="K67" t="n">
-        <v>2.9</v>
+        <v>3.05</v>
       </c>
       <c r="L67" t="n">
-        <v>1.57</v>
+        <v>1.47</v>
       </c>
       <c r="M67" t="n">
         <v>1.02</v>
@@ -12601,121 +12601,121 @@
         <v>10</v>
       </c>
       <c r="O67" t="n">
-        <v>1.09</v>
+        <v>1.08</v>
       </c>
       <c r="P67" t="n">
-        <v>6.1</v>
+        <v>6.4</v>
       </c>
       <c r="Q67" t="n">
-        <v>1.31</v>
+        <v>1.28</v>
       </c>
       <c r="R67" t="n">
-        <v>3.15</v>
+        <v>3.35</v>
       </c>
       <c r="S67" t="n">
-        <v>1.2</v>
+        <v>1.19</v>
       </c>
       <c r="T67" t="n">
-        <v>4</v>
+        <v>4.15</v>
       </c>
       <c r="U67" t="n">
-        <v>1.7</v>
+        <v>1.85</v>
       </c>
       <c r="V67" t="n">
-        <v>2.02</v>
+        <v>1.87</v>
       </c>
       <c r="W67" t="n">
-        <v>45</v>
+        <v>65</v>
       </c>
       <c r="X67" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="Y67" t="n">
-        <v>32</v>
+        <v>50</v>
       </c>
       <c r="Z67" t="n">
-        <v>300</v>
+        <v>800</v>
       </c>
       <c r="AA67" t="n">
+        <v>200</v>
+      </c>
+      <c r="AB67" t="n">
         <v>110</v>
-      </c>
-      <c r="AB67" t="n">
-        <v>70</v>
       </c>
       <c r="AC67" t="n">
         <v>10.75</v>
       </c>
       <c r="AD67" t="n">
-        <v>14</v>
+        <v>16.5</v>
       </c>
       <c r="AE67" t="n">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="AF67" t="n">
-        <v>65</v>
+        <v>80</v>
       </c>
       <c r="AG67" t="n">
-        <v>350</v>
+        <v>450</v>
       </c>
       <c r="AH67" t="n">
         <v>12</v>
       </c>
       <c r="AI67" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AJ67" t="n">
-        <v>9.5</v>
+        <v>10.5</v>
       </c>
       <c r="AK67" t="n">
-        <v>8.5</v>
+        <v>7.6</v>
       </c>
       <c r="AL67" t="n">
-        <v>9.75</v>
+        <v>10</v>
       </c>
       <c r="AM67" t="n">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="AN67" t="n">
-        <v>11</v>
+        <v>14.5</v>
       </c>
       <c r="AO67" t="n">
+        <v>80</v>
+      </c>
+      <c r="AP67" t="n">
         <v>50</v>
       </c>
-      <c r="AP67" t="n">
-        <v>37</v>
-      </c>
       <c r="AQ67" t="n">
-        <v>350</v>
+        <v>500</v>
       </c>
       <c r="AR67" t="n">
-        <v>250</v>
+        <v>400</v>
       </c>
       <c r="AS67" t="n">
-        <v>350</v>
+        <v>450</v>
       </c>
       <c r="AT67" t="n">
-        <v>4</v>
+        <v>4.15</v>
       </c>
       <c r="AU67" t="n">
-        <v>8.25</v>
+        <v>9</v>
       </c>
       <c r="AV67" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AW67" t="n">
-        <v>3.45</v>
+        <v>3.35</v>
       </c>
       <c r="AX67" t="n">
-        <v>5.2</v>
+        <v>4.7</v>
       </c>
       <c r="AY67" t="n">
         <v>12.5</v>
       </c>
       <c r="AZ67" t="n">
-        <v>11.25</v>
+        <v>9.5</v>
       </c>
       <c r="BA67" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="BB67" t="n">
         <v>120</v>
@@ -12777,10 +12777,10 @@
         <v>4</v>
       </c>
       <c r="M68" t="n">
-        <v>1.1</v>
+        <v>1.08</v>
       </c>
       <c r="N68" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="O68" t="n">
         <v>1.44</v>
@@ -12789,10 +12789,10 @@
         <v>2.63</v>
       </c>
       <c r="Q68" t="n">
-        <v>2.4</v>
+        <v>2.35</v>
       </c>
       <c r="R68" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="S68" t="n">
         <v>1.53</v>
@@ -12941,22 +12941,22 @@
         </is>
       </c>
       <c r="G69" t="n">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="H69" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="I69" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="J69" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="K69" t="n">
         <v>2.05</v>
       </c>
       <c r="L69" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="M69" t="n">
         <v>1.07</v>
@@ -12971,10 +12971,10 @@
         <v>2.75</v>
       </c>
       <c r="Q69" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="R69" t="n">
-        <v>1.65</v>
+        <v>1.62</v>
       </c>
       <c r="S69" t="n">
         <v>1.5</v>
@@ -12983,22 +12983,22 @@
         <v>2.5</v>
       </c>
       <c r="U69" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="V69" t="n">
-        <v>1.67</v>
+        <v>1.73</v>
       </c>
       <c r="W69" t="n">
         <v>6</v>
       </c>
       <c r="X69" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="Y69" t="n">
         <v>9</v>
       </c>
       <c r="Z69" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AA69" t="n">
         <v>17</v>
@@ -13010,7 +13010,7 @@
         <v>8</v>
       </c>
       <c r="AD69" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AE69" t="n">
         <v>19</v>
@@ -13031,16 +13031,16 @@
         <v>15</v>
       </c>
       <c r="AK69" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AL69" t="n">
         <v>41</v>
       </c>
       <c r="AM69" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AN69" t="n">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="AO69" t="n">
         <v>10</v>
@@ -13049,10 +13049,10 @@
         <v>23</v>
       </c>
       <c r="AQ69" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AR69" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AS69" t="n">
         <v>201</v>
@@ -13070,19 +13070,19 @@
         <v>6</v>
       </c>
       <c r="AX69" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AY69" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AZ69" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="BA69" t="n">
         <v>126</v>
       </c>
       <c r="BB69" t="n">
-        <v>351</v>
+        <v>301</v>
       </c>
       <c r="BC69" t="n">
         <v>51</v>
@@ -13123,22 +13123,22 @@
         </is>
       </c>
       <c r="G70" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="H70" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="I70" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="J70" t="n">
         <v>1.44</v>
       </c>
       <c r="K70" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="L70" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="M70" t="n">
         <v>1.01</v>
@@ -13165,13 +13165,13 @@
         <v>4.5</v>
       </c>
       <c r="U70" t="n">
-        <v>1.83</v>
+        <v>1.91</v>
       </c>
       <c r="V70" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="W70" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="X70" t="n">
         <v>8</v>
@@ -13180,7 +13180,7 @@
         <v>11</v>
       </c>
       <c r="Z70" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AA70" t="n">
         <v>11</v>
@@ -13195,7 +13195,7 @@
         <v>15</v>
       </c>
       <c r="AE70" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AF70" t="n">
         <v>51</v>
@@ -13207,10 +13207,10 @@
         <v>41</v>
       </c>
       <c r="AI70" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AJ70" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AK70" t="n">
         <v>151</v>
@@ -13219,7 +13219,7 @@
         <v>81</v>
       </c>
       <c r="AM70" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AN70" t="n">
         <v>3.6</v>
@@ -13231,7 +13231,7 @@
         <v>15</v>
       </c>
       <c r="AQ70" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AR70" t="n">
         <v>26</v>
@@ -13264,7 +13264,7 @@
         <v>151</v>
       </c>
       <c r="BB70" t="n">
-        <v>450</v>
+        <v>500</v>
       </c>
       <c r="BC70" t="n">
         <v>81</v>
@@ -13305,19 +13305,19 @@
         </is>
       </c>
       <c r="G71" t="n">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="H71" t="n">
-        <v>5.75</v>
+        <v>6.25</v>
       </c>
       <c r="I71" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="J71" t="n">
-        <v>1.73</v>
+        <v>1.62</v>
       </c>
       <c r="K71" t="n">
-        <v>2.75</v>
+        <v>2.88</v>
       </c>
       <c r="L71" t="n">
         <v>6.5</v>
@@ -13326,7 +13326,7 @@
         <v>1.01</v>
       </c>
       <c r="N71" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="O71" t="n">
         <v>1.1</v>
@@ -13335,16 +13335,16 @@
         <v>6.5</v>
       </c>
       <c r="Q71" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="R71" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="S71" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="T71" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="U71" t="n">
         <v>1.67</v>
@@ -13353,31 +13353,31 @@
         <v>2.1</v>
       </c>
       <c r="W71" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="X71" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="Y71" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="Z71" t="n">
         <v>9.5</v>
       </c>
       <c r="AA71" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AB71" t="n">
         <v>21</v>
       </c>
       <c r="AC71" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AD71" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AE71" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AF71" t="n">
         <v>41</v>
@@ -13386,19 +13386,19 @@
         <v>151</v>
       </c>
       <c r="AH71" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AI71" t="n">
         <v>41</v>
       </c>
       <c r="AJ71" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AK71" t="n">
         <v>81</v>
       </c>
       <c r="AL71" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AM71" t="n">
         <v>41</v>
@@ -13410,10 +13410,10 @@
         <v>6</v>
       </c>
       <c r="AP71" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AQ71" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AR71" t="n">
         <v>29</v>
@@ -13422,7 +13422,7 @@
         <v>81</v>
       </c>
       <c r="AT71" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="AU71" t="n">
         <v>8.5</v>
@@ -13431,16 +13431,16 @@
         <v>41</v>
       </c>
       <c r="AW71" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AX71" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AY71" t="n">
         <v>34</v>
       </c>
       <c r="AZ71" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="BA71" t="n">
         <v>101</v>
@@ -13851,10 +13851,10 @@
         </is>
       </c>
       <c r="G74" t="n">
-        <v>5.4</v>
+        <v>5.5</v>
       </c>
       <c r="H74" t="n">
-        <v>4.2</v>
+        <v>4.15</v>
       </c>
       <c r="I74" t="n">
         <v>1.55</v>
@@ -13866,7 +13866,7 @@
         <v>2.35</v>
       </c>
       <c r="L74" t="n">
-        <v>2.05</v>
+        <v>2.02</v>
       </c>
       <c r="M74" t="n">
         <v>1.04</v>
@@ -13878,19 +13878,19 @@
         <v>1.2</v>
       </c>
       <c r="P74" t="n">
-        <v>4.2</v>
+        <v>4.25</v>
       </c>
       <c r="Q74" t="n">
         <v>1.62</v>
       </c>
       <c r="R74" t="n">
-        <v>2.25</v>
+        <v>2.27</v>
       </c>
       <c r="S74" t="n">
-        <v>1.33</v>
+        <v>1.32</v>
       </c>
       <c r="T74" t="n">
-        <v>3.15</v>
+        <v>3.25</v>
       </c>
       <c r="U74" t="n">
         <v>1.7</v>
@@ -13899,16 +13899,16 @@
         <v>2.05</v>
       </c>
       <c r="W74" t="n">
-        <v>15.5</v>
+        <v>16</v>
       </c>
       <c r="X74" t="n">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="Y74" t="n">
         <v>18</v>
       </c>
       <c r="Z74" t="n">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="AA74" t="n">
         <v>55</v>
@@ -13950,13 +13950,13 @@
         <v>23</v>
       </c>
       <c r="AN74" t="n">
-        <v>7</v>
+        <v>7.1</v>
       </c>
       <c r="AO74" t="n">
         <v>29</v>
       </c>
       <c r="AP74" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AQ74" t="n">
         <v>175</v>
@@ -13965,22 +13965,22 @@
         <v>175</v>
       </c>
       <c r="AS74" t="n">
-        <v>350</v>
+        <v>300</v>
       </c>
       <c r="AT74" t="n">
-        <v>3.15</v>
+        <v>3.25</v>
       </c>
       <c r="AU74" t="n">
-        <v>7.3</v>
+        <v>7.2</v>
       </c>
       <c r="AV74" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AW74" t="n">
         <v>3.55</v>
       </c>
       <c r="AX74" t="n">
-        <v>7.3</v>
+        <v>7.2</v>
       </c>
       <c r="AY74" t="n">
         <v>15</v>
@@ -14427,10 +14427,10 @@
         <v>3.5</v>
       </c>
       <c r="Q77" t="n">
-        <v>1.95</v>
+        <v>1.98</v>
       </c>
       <c r="R77" t="n">
-        <v>1.9</v>
+        <v>1.88</v>
       </c>
       <c r="S77" t="n">
         <v>1.4</v>
@@ -14579,52 +14579,52 @@
         </is>
       </c>
       <c r="G78" t="n">
-        <v>2.57</v>
+        <v>2.5</v>
       </c>
       <c r="H78" t="n">
         <v>3.25</v>
       </c>
       <c r="I78" t="n">
-        <v>2.62</v>
+        <v>2.67</v>
       </c>
       <c r="J78" t="n">
-        <v>3.15</v>
+        <v>3.1</v>
       </c>
       <c r="K78" t="n">
         <v>2.1</v>
       </c>
       <c r="L78" t="n">
-        <v>3.15</v>
+        <v>3.25</v>
       </c>
       <c r="M78" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N78" t="n">
-        <v>7.6</v>
+        <v>7.5</v>
       </c>
       <c r="O78" t="n">
-        <v>1.26</v>
+        <v>1.27</v>
       </c>
       <c r="P78" t="n">
-        <v>3.5</v>
+        <v>3.45</v>
       </c>
       <c r="Q78" t="n">
-        <v>1.8</v>
+        <v>1.82</v>
       </c>
       <c r="R78" t="n">
-        <v>1.95</v>
+        <v>1.93</v>
       </c>
       <c r="S78" t="n">
         <v>1.39</v>
       </c>
       <c r="T78" t="n">
-        <v>2.8</v>
+        <v>2.77</v>
       </c>
       <c r="U78" t="n">
-        <v>1.6</v>
+        <v>1.62</v>
       </c>
       <c r="V78" t="n">
-        <v>2.18</v>
+        <v>2.15</v>
       </c>
       <c r="W78" t="n">
         <v>9.25</v>
@@ -14633,19 +14633,19 @@
         <v>13.5</v>
       </c>
       <c r="Y78" t="n">
-        <v>9.5</v>
+        <v>9.25</v>
       </c>
       <c r="Z78" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AA78" t="n">
-        <v>20</v>
+        <v>19.5</v>
       </c>
       <c r="AB78" t="n">
         <v>26</v>
       </c>
       <c r="AC78" t="n">
-        <v>7.6</v>
+        <v>7.5</v>
       </c>
       <c r="AD78" t="n">
         <v>6.3</v>
@@ -14654,40 +14654,40 @@
         <v>12</v>
       </c>
       <c r="AF78" t="n">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="AG78" t="n">
-        <v>300</v>
+        <v>350</v>
       </c>
       <c r="AH78" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AI78" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="AJ78" t="n">
-        <v>9.5</v>
+        <v>9.75</v>
       </c>
       <c r="AK78" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="AL78" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AM78" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="AN78" t="n">
-        <v>4.6</v>
+        <v>4.5</v>
       </c>
       <c r="AO78" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AP78" t="n">
         <v>20</v>
       </c>
       <c r="AQ78" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AR78" t="n">
         <v>90</v>
@@ -14696,31 +14696,31 @@
         <v>250</v>
       </c>
       <c r="AT78" t="n">
-        <v>2.8</v>
+        <v>2.77</v>
       </c>
       <c r="AU78" t="n">
-        <v>6.6</v>
+        <v>6.7</v>
       </c>
       <c r="AV78" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="AW78" t="n">
-        <v>4.65</v>
+        <v>4.7</v>
       </c>
       <c r="AX78" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="AY78" t="n">
-        <v>19.5</v>
+        <v>21</v>
       </c>
       <c r="AZ78" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="BA78" t="n">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="BB78" t="n">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="BC78" t="n">
         <v>51</v>
@@ -14761,22 +14761,22 @@
         </is>
       </c>
       <c r="G79" t="n">
-        <v>2.52</v>
+        <v>2.62</v>
       </c>
       <c r="H79" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="I79" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="J79" t="n">
         <v>3.25</v>
       </c>
-      <c r="I79" t="n">
-        <v>2.67</v>
-      </c>
-      <c r="J79" t="n">
-        <v>3.05</v>
-      </c>
       <c r="K79" t="n">
-        <v>2.12</v>
+        <v>2.07</v>
       </c>
       <c r="L79" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="M79" t="n">
         <v>1.05</v>
@@ -14791,94 +14791,94 @@
         <v>3.55</v>
       </c>
       <c r="Q79" t="n">
-        <v>1.78</v>
+        <v>1.75</v>
       </c>
       <c r="R79" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="S79" t="n">
-        <v>1.37</v>
+        <v>1.38</v>
       </c>
       <c r="T79" t="n">
-        <v>2.87</v>
+        <v>2.8</v>
       </c>
       <c r="U79" t="n">
-        <v>1.6</v>
+        <v>1.57</v>
       </c>
       <c r="V79" t="n">
-        <v>2.22</v>
+        <v>2.25</v>
       </c>
       <c r="W79" t="n">
-        <v>9.5</v>
+        <v>9.25</v>
       </c>
       <c r="X79" t="n">
         <v>14</v>
       </c>
       <c r="Y79" t="n">
-        <v>9.25</v>
+        <v>9.5</v>
       </c>
       <c r="Z79" t="n">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="AA79" t="n">
-        <v>19.5</v>
+        <v>21</v>
       </c>
       <c r="AB79" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AC79" t="n">
         <v>7.7</v>
       </c>
       <c r="AD79" t="n">
-        <v>6.4</v>
+        <v>6.3</v>
       </c>
       <c r="AE79" t="n">
-        <v>11.75</v>
+        <v>11.25</v>
       </c>
       <c r="AF79" t="n">
         <v>45</v>
       </c>
       <c r="AG79" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="AH79" t="n">
-        <v>10</v>
+        <v>10.5</v>
       </c>
       <c r="AI79" t="n">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="AJ79" t="n">
-        <v>9.75</v>
+        <v>9.5</v>
       </c>
       <c r="AK79" t="n">
         <v>32</v>
       </c>
       <c r="AL79" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="AM79" t="n">
+        <v>23</v>
+      </c>
+      <c r="AN79" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="AO79" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AP79" t="n">
         <v>21</v>
       </c>
-      <c r="AM79" t="n">
-        <v>26</v>
-      </c>
-      <c r="AN79" t="n">
-        <v>4.6</v>
-      </c>
-      <c r="AO79" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AP79" t="n">
-        <v>18.5</v>
-      </c>
       <c r="AQ79" t="n">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="AR79" t="n">
-        <v>75</v>
+        <v>90</v>
       </c>
       <c r="AS79" t="n">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="AT79" t="n">
-        <v>2.87</v>
+        <v>2.8</v>
       </c>
       <c r="AU79" t="n">
         <v>6.4</v>
@@ -14887,19 +14887,19 @@
         <v>50</v>
       </c>
       <c r="AW79" t="n">
-        <v>4.75</v>
+        <v>4.7</v>
       </c>
       <c r="AX79" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AY79" t="n">
-        <v>19.5</v>
+        <v>18.5</v>
       </c>
       <c r="AZ79" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="BA79" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="BB79" t="n">
         <v>200</v>
@@ -14943,34 +14943,34 @@
         </is>
       </c>
       <c r="G80" t="n">
-        <v>2.55</v>
+        <v>2.67</v>
       </c>
       <c r="H80" t="n">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="I80" t="n">
-        <v>2.55</v>
+        <v>2.42</v>
       </c>
       <c r="J80" t="n">
-        <v>3.05</v>
+        <v>3.2</v>
       </c>
       <c r="K80" t="n">
-        <v>2.2</v>
+        <v>2.22</v>
       </c>
       <c r="L80" t="n">
-        <v>3.05</v>
+        <v>2.9</v>
       </c>
       <c r="M80" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="N80" t="n">
-        <v>8</v>
+        <v>8.25</v>
       </c>
       <c r="O80" t="n">
-        <v>1.23</v>
+        <v>1.22</v>
       </c>
       <c r="P80" t="n">
-        <v>3.75</v>
+        <v>3.85</v>
       </c>
       <c r="Q80" t="n">
         <v>1.7</v>
@@ -14979,10 +14979,10 @@
         <v>2.07</v>
       </c>
       <c r="S80" t="n">
-        <v>1.34</v>
+        <v>1.33</v>
       </c>
       <c r="T80" t="n">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="U80" t="n">
         <v>1.55</v>
@@ -14994,73 +14994,73 @@
         <v>10.5</v>
       </c>
       <c r="X80" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="Y80" t="n">
-        <v>9.5</v>
+        <v>9.75</v>
       </c>
       <c r="Z80" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AA80" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AB80" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="AC80" t="n">
-        <v>8</v>
+        <v>8.25</v>
       </c>
       <c r="AD80" t="n">
-        <v>6.7</v>
+        <v>6.8</v>
       </c>
       <c r="AE80" t="n">
         <v>11.75</v>
       </c>
       <c r="AF80" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="AG80" t="n">
         <v>250</v>
       </c>
       <c r="AH80" t="n">
-        <v>10.25</v>
+        <v>10.5</v>
       </c>
       <c r="AI80" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="AJ80" t="n">
-        <v>9.5</v>
+        <v>9.25</v>
       </c>
       <c r="AK80" t="n">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="AL80" t="n">
-        <v>19.5</v>
+        <v>17.5</v>
       </c>
       <c r="AM80" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="AN80" t="n">
-        <v>4.7</v>
+        <v>4.85</v>
       </c>
       <c r="AO80" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AP80" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AQ80" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AR80" t="n">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="AS80" t="n">
-        <v>175</v>
+        <v>200</v>
       </c>
       <c r="AT80" t="n">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="AU80" t="n">
         <v>6.4</v>
@@ -15069,22 +15069,22 @@
         <v>45</v>
       </c>
       <c r="AW80" t="n">
-        <v>4.7</v>
+        <v>4.6</v>
       </c>
       <c r="AX80" t="n">
-        <v>13.5</v>
+        <v>12</v>
       </c>
       <c r="AY80" t="n">
-        <v>18.5</v>
+        <v>17</v>
       </c>
       <c r="AZ80" t="n">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="BA80" t="n">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="BB80" t="n">
-        <v>200</v>
+        <v>175</v>
       </c>
       <c r="BC80" t="n">
         <v>500</v>
@@ -15128,55 +15128,55 @@
         <v>2</v>
       </c>
       <c r="H81" t="n">
-        <v>3.55</v>
+        <v>3.5</v>
       </c>
       <c r="I81" t="n">
         <v>3.4</v>
       </c>
       <c r="J81" t="n">
-        <v>2.52</v>
+        <v>2.55</v>
       </c>
       <c r="K81" t="n">
         <v>2.25</v>
       </c>
       <c r="L81" t="n">
-        <v>3.75</v>
+        <v>3.7</v>
       </c>
       <c r="M81" t="n">
         <v>1.04</v>
       </c>
       <c r="N81" t="n">
-        <v>8.5</v>
+        <v>8.75</v>
       </c>
       <c r="O81" t="n">
         <v>1.19</v>
       </c>
       <c r="P81" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="Q81" t="n">
-        <v>1.6</v>
+        <v>1.57</v>
       </c>
       <c r="R81" t="n">
-        <v>2.22</v>
+        <v>2.25</v>
       </c>
       <c r="S81" t="n">
         <v>1.32</v>
       </c>
       <c r="T81" t="n">
-        <v>3.15</v>
+        <v>3.1</v>
       </c>
       <c r="U81" t="n">
-        <v>1.52</v>
+        <v>1.5</v>
       </c>
       <c r="V81" t="n">
-        <v>2.37</v>
+        <v>2.4</v>
       </c>
       <c r="W81" t="n">
         <v>10</v>
       </c>
       <c r="X81" t="n">
-        <v>11.75</v>
+        <v>11.5</v>
       </c>
       <c r="Y81" t="n">
         <v>8.5</v>
@@ -15191,25 +15191,25 @@
         <v>19.5</v>
       </c>
       <c r="AC81" t="n">
-        <v>8.5</v>
+        <v>8.75</v>
       </c>
       <c r="AD81" t="n">
-        <v>7.1</v>
+        <v>7.2</v>
       </c>
       <c r="AE81" t="n">
-        <v>11.5</v>
+        <v>11.25</v>
       </c>
       <c r="AF81" t="n">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="AG81" t="n">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="AH81" t="n">
-        <v>13.5</v>
+        <v>14.5</v>
       </c>
       <c r="AI81" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AJ81" t="n">
         <v>11.5</v>
@@ -15221,13 +15221,13 @@
         <v>26</v>
       </c>
       <c r="AM81" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="AN81" t="n">
         <v>4.2</v>
       </c>
       <c r="AO81" t="n">
-        <v>10</v>
+        <v>10.25</v>
       </c>
       <c r="AP81" t="n">
         <v>15.5</v>
@@ -15242,10 +15242,10 @@
         <v>150</v>
       </c>
       <c r="AT81" t="n">
-        <v>3.15</v>
+        <v>3.1</v>
       </c>
       <c r="AU81" t="n">
-        <v>6.4</v>
+        <v>6.3</v>
       </c>
       <c r="AV81" t="n">
         <v>45</v>
@@ -15254,16 +15254,16 @@
         <v>5.6</v>
       </c>
       <c r="AX81" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="AY81" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AZ81" t="n">
         <v>80</v>
       </c>
       <c r="BA81" t="n">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="BB81" t="n">
         <v>200</v>
@@ -15307,16 +15307,16 @@
         </is>
       </c>
       <c r="G82" t="n">
-        <v>2.88</v>
+        <v>2.8</v>
       </c>
       <c r="H82" t="n">
         <v>3.25</v>
       </c>
       <c r="I82" t="n">
-        <v>2.45</v>
+        <v>2.5</v>
       </c>
       <c r="J82" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="K82" t="n">
         <v>2.05</v>
@@ -15328,7 +15328,7 @@
         <v>1.07</v>
       </c>
       <c r="N82" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="O82" t="n">
         <v>1.33</v>
@@ -15388,7 +15388,7 @@
         <v>301</v>
       </c>
       <c r="AH82" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AI82" t="n">
         <v>12</v>
@@ -15439,7 +15439,7 @@
         <v>15</v>
       </c>
       <c r="AY82" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AZ82" t="n">
         <v>51</v>
@@ -15489,100 +15489,100 @@
         </is>
       </c>
       <c r="G83" t="n">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="H83" t="n">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="I83" t="n">
-        <v>3.8</v>
+        <v>3.9</v>
       </c>
       <c r="J83" t="n">
-        <v>2.6</v>
+        <v>2.75</v>
       </c>
       <c r="K83" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="L83" t="n">
         <v>4.75</v>
       </c>
       <c r="M83" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="N83" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="O83" t="n">
-        <v>1.36</v>
+        <v>1.44</v>
       </c>
       <c r="P83" t="n">
-        <v>3</v>
+        <v>2.63</v>
       </c>
       <c r="Q83" t="n">
-        <v>2.15</v>
+        <v>2.35</v>
       </c>
       <c r="R83" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="S83" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="T83" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="U83" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="V83" t="n">
         <v>1.67</v>
       </c>
-      <c r="S83" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="T83" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="U83" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="V83" t="n">
-        <v>1.8</v>
-      </c>
       <c r="W83" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="X83" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="Y83" t="n">
         <v>9</v>
       </c>
       <c r="Z83" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AA83" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AB83" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AC83" t="n">
-        <v>8.5</v>
+        <v>7.5</v>
       </c>
       <c r="AD83" t="n">
         <v>6.5</v>
       </c>
       <c r="AE83" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AF83" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AG83" t="n">
         <v>351</v>
       </c>
       <c r="AH83" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AI83" t="n">
         <v>19</v>
       </c>
       <c r="AJ83" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AK83" t="n">
         <v>41</v>
       </c>
       <c r="AL83" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AM83" t="n">
         <v>41</v>
@@ -15594,25 +15594,25 @@
         <v>11</v>
       </c>
       <c r="AP83" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AQ83" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AR83" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AS83" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="AT83" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="AU83" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AV83" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AW83" t="n">
         <v>6</v>
@@ -15627,10 +15627,10 @@
         <v>81</v>
       </c>
       <c r="BA83" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="BB83" t="n">
-        <v>251</v>
+        <v>351</v>
       </c>
       <c r="BC83" t="n">
         <v>126</v>
@@ -15671,22 +15671,22 @@
         </is>
       </c>
       <c r="G84" t="n">
-        <v>12.5</v>
+        <v>11.25</v>
       </c>
       <c r="H84" t="n">
-        <v>5.4</v>
+        <v>5.3</v>
       </c>
       <c r="I84" t="n">
-        <v>1.21</v>
+        <v>1.23</v>
       </c>
       <c r="J84" t="n">
-        <v>9.5</v>
+        <v>8.75</v>
       </c>
       <c r="K84" t="n">
         <v>2.52</v>
       </c>
       <c r="L84" t="n">
-        <v>1.62</v>
+        <v>1.65</v>
       </c>
       <c r="M84" t="n">
         <v>1.02</v>
@@ -15710,40 +15710,40 @@
         <v>1.27</v>
       </c>
       <c r="T84" t="n">
-        <v>3.5</v>
+        <v>3.65</v>
       </c>
       <c r="U84" t="n">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="V84" t="n">
-        <v>1.55</v>
+        <v>1.57</v>
       </c>
       <c r="W84" t="n">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="X84" t="n">
-        <v>110</v>
+        <v>90</v>
       </c>
       <c r="Y84" t="n">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="Z84" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="AA84" t="n">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="AB84" t="n">
-        <v>150</v>
+        <v>120</v>
       </c>
       <c r="AC84" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="AD84" t="n">
-        <v>11.5</v>
+        <v>11.25</v>
       </c>
       <c r="AE84" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AF84" t="n">
         <v>150</v>
@@ -15752,31 +15752,31 @@
         <v>900</v>
       </c>
       <c r="AH84" t="n">
+        <v>7.1</v>
+      </c>
+      <c r="AI84" t="n">
+        <v>5.9</v>
+      </c>
+      <c r="AJ84" t="n">
+        <v>9.25</v>
+      </c>
+      <c r="AK84" t="n">
         <v>7</v>
       </c>
-      <c r="AI84" t="n">
-        <v>5.7</v>
-      </c>
-      <c r="AJ84" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AK84" t="n">
-        <v>6.7</v>
-      </c>
       <c r="AL84" t="n">
-        <v>11.25</v>
+        <v>11</v>
       </c>
       <c r="AM84" t="n">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="AN84" t="n">
-        <v>11.5</v>
+        <v>10.75</v>
       </c>
       <c r="AO84" t="n">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="AP84" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AQ84" t="n">
         <v>500</v>
@@ -15788,22 +15788,22 @@
         <v>67</v>
       </c>
       <c r="AT84" t="n">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="AU84" t="n">
         <v>9.5</v>
       </c>
       <c r="AV84" t="n">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="AW84" t="n">
-        <v>2.95</v>
+        <v>3</v>
       </c>
       <c r="AX84" t="n">
-        <v>5.1</v>
+        <v>5.2</v>
       </c>
       <c r="AY84" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="AZ84" t="n">
         <v>12.5</v>
@@ -15862,7 +15862,7 @@
         <v>3.2</v>
       </c>
       <c r="J85" t="n">
-        <v>2.92</v>
+        <v>2.9</v>
       </c>
       <c r="K85" t="n">
         <v>1.98</v>
@@ -15877,16 +15877,16 @@
         <v>7</v>
       </c>
       <c r="O85" t="n">
-        <v>1.38</v>
+        <v>1.37</v>
       </c>
       <c r="P85" t="n">
-        <v>2.6</v>
+        <v>2.62</v>
       </c>
       <c r="Q85" t="n">
-        <v>2.1</v>
+        <v>2.07</v>
       </c>
       <c r="R85" t="n">
-        <v>1.57</v>
+        <v>1.6</v>
       </c>
       <c r="S85" t="n">
         <v>1.44</v>
@@ -15901,22 +15901,22 @@
         <v>1.8</v>
       </c>
       <c r="W85" t="n">
-        <v>6.6</v>
+        <v>6.7</v>
       </c>
       <c r="X85" t="n">
-        <v>10.25</v>
+        <v>10.5</v>
       </c>
       <c r="Y85" t="n">
-        <v>9.25</v>
+        <v>9</v>
       </c>
       <c r="Z85" t="n">
         <v>23</v>
       </c>
       <c r="AA85" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AB85" t="n">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="AC85" t="n">
         <v>7.6</v>
@@ -15955,7 +15955,7 @@
         <v>4.1</v>
       </c>
       <c r="AO85" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AP85" t="n">
         <v>21</v>
@@ -16217,28 +16217,28 @@
         </is>
       </c>
       <c r="G87" t="n">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="H87" t="n">
-        <v>4.45</v>
+        <v>4.65</v>
       </c>
       <c r="I87" t="n">
-        <v>8</v>
+        <v>8.25</v>
       </c>
       <c r="J87" t="n">
-        <v>1.82</v>
+        <v>1.75</v>
       </c>
       <c r="K87" t="n">
-        <v>2.37</v>
+        <v>2.45</v>
       </c>
       <c r="L87" t="n">
-        <v>7.2</v>
+        <v>7.5</v>
       </c>
       <c r="M87" t="n">
         <v>1.04</v>
       </c>
       <c r="N87" t="n">
-        <v>8.25</v>
+        <v>8.5</v>
       </c>
       <c r="O87" t="n">
         <v>1.22</v>
@@ -16247,55 +16247,55 @@
         <v>3.85</v>
       </c>
       <c r="Q87" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="R87" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="S87" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="T87" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="U87" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="V87" t="n">
         <v>1.7</v>
-      </c>
-      <c r="R87" t="n">
-        <v>2.07</v>
-      </c>
-      <c r="S87" t="n">
-        <v>1.34</v>
-      </c>
-      <c r="T87" t="n">
-        <v>3</v>
-      </c>
-      <c r="U87" t="n">
-        <v>2</v>
-      </c>
-      <c r="V87" t="n">
-        <v>1.72</v>
       </c>
       <c r="W87" t="n">
         <v>6.9</v>
       </c>
       <c r="X87" t="n">
-        <v>6.3</v>
+        <v>6.2</v>
       </c>
       <c r="Y87" t="n">
         <v>8.5</v>
       </c>
       <c r="Z87" t="n">
-        <v>8.25</v>
+        <v>8</v>
       </c>
       <c r="AA87" t="n">
-        <v>11.25</v>
+        <v>11</v>
       </c>
       <c r="AB87" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AC87" t="n">
-        <v>8.25</v>
+        <v>8.5</v>
       </c>
       <c r="AD87" t="n">
-        <v>9.25</v>
+        <v>9.5</v>
       </c>
       <c r="AE87" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AF87" t="n">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="AG87" t="n">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="AH87" t="n">
         <v>22</v>
@@ -16304,28 +16304,28 @@
         <v>60</v>
       </c>
       <c r="AJ87" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AK87" t="n">
         <v>250</v>
       </c>
       <c r="AL87" t="n">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="AM87" t="n">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AN87" t="n">
-        <v>3.15</v>
+        <v>3.1</v>
       </c>
       <c r="AO87" t="n">
-        <v>6</v>
+        <v>5.8</v>
       </c>
       <c r="AP87" t="n">
         <v>16.5</v>
       </c>
       <c r="AQ87" t="n">
-        <v>16.5</v>
+        <v>15.5</v>
       </c>
       <c r="AR87" t="n">
         <v>45</v>
@@ -16334,28 +16334,28 @@
         <v>250</v>
       </c>
       <c r="AT87" t="n">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="AU87" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AV87" t="n">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AW87" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AX87" t="n">
         <v>50</v>
       </c>
       <c r="AY87" t="n">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="AZ87" t="n">
-        <v>350</v>
+        <v>400</v>
       </c>
       <c r="BA87" t="n">
-        <v>350</v>
+        <v>400</v>
       </c>
       <c r="BB87" t="n">
         <v>500</v>
@@ -16405,7 +16405,7 @@
         <v>3</v>
       </c>
       <c r="I88" t="n">
-        <v>3.5</v>
+        <v>3.55</v>
       </c>
       <c r="J88" t="n">
         <v>2.67</v>
@@ -16450,7 +16450,7 @@
         <v>6.6</v>
       </c>
       <c r="X88" t="n">
-        <v>9.75</v>
+        <v>9.5</v>
       </c>
       <c r="Y88" t="n">
         <v>8.75</v>
@@ -16498,7 +16498,7 @@
         <v>45</v>
       </c>
       <c r="AN88" t="n">
-        <v>3.95</v>
+        <v>3.9</v>
       </c>
       <c r="AO88" t="n">
         <v>10.75</v>
@@ -16581,22 +16581,22 @@
         </is>
       </c>
       <c r="G89" t="n">
-        <v>11</v>
+        <v>9.25</v>
       </c>
       <c r="H89" t="n">
-        <v>5.5</v>
+        <v>5.4</v>
       </c>
       <c r="I89" t="n">
-        <v>1.21</v>
+        <v>1.24</v>
       </c>
       <c r="J89" t="n">
-        <v>9</v>
+        <v>7.9</v>
       </c>
       <c r="K89" t="n">
         <v>2.67</v>
       </c>
       <c r="L89" t="n">
-        <v>1.6</v>
+        <v>1.65</v>
       </c>
       <c r="M89" t="n">
         <v>1.03</v>
@@ -16605,118 +16605,118 @@
         <v>9.25</v>
       </c>
       <c r="O89" t="n">
-        <v>1.16</v>
+        <v>1.17</v>
       </c>
       <c r="P89" t="n">
-        <v>4.55</v>
+        <v>4.5</v>
       </c>
       <c r="Q89" t="n">
-        <v>1.5</v>
+        <v>1.52</v>
       </c>
       <c r="R89" t="n">
-        <v>2.42</v>
+        <v>2.37</v>
       </c>
       <c r="S89" t="n">
         <v>1.28</v>
       </c>
       <c r="T89" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="U89" t="n">
-        <v>2.1</v>
+        <v>2.02</v>
       </c>
       <c r="V89" t="n">
-        <v>1.65</v>
+        <v>1.7</v>
       </c>
       <c r="W89" t="n">
+        <v>27</v>
+      </c>
+      <c r="X89" t="n">
+        <v>75</v>
+      </c>
+      <c r="Y89" t="n">
         <v>30</v>
       </c>
-      <c r="X89" t="n">
-        <v>90</v>
-      </c>
-      <c r="Y89" t="n">
-        <v>37</v>
-      </c>
       <c r="Z89" t="n">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="AA89" t="n">
-        <v>175</v>
+        <v>120</v>
       </c>
       <c r="AB89" t="n">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="AC89" t="n">
         <v>9.25</v>
       </c>
       <c r="AD89" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="AE89" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="AF89" t="n">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="AG89" t="n">
-        <v>201</v>
+        <v>900</v>
       </c>
       <c r="AH89" t="n">
         <v>8</v>
       </c>
       <c r="AI89" t="n">
-        <v>6.3</v>
+        <v>6.4</v>
       </c>
       <c r="AJ89" t="n">
         <v>9.25</v>
       </c>
       <c r="AK89" t="n">
-        <v>7.1</v>
+        <v>7.4</v>
       </c>
       <c r="AL89" t="n">
-        <v>10.5</v>
+        <v>10.75</v>
       </c>
       <c r="AM89" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AN89" t="n">
-        <v>11.25</v>
+        <v>10.25</v>
       </c>
       <c r="AO89" t="n">
-        <v>70</v>
+        <v>55</v>
       </c>
       <c r="AP89" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="AQ89" t="n">
-        <v>500</v>
+        <v>450</v>
       </c>
       <c r="AR89" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="AS89" t="n">
         <v>51</v>
       </c>
       <c r="AT89" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="AU89" t="n">
-        <v>9.5</v>
+        <v>9.25</v>
       </c>
       <c r="AV89" t="n">
         <v>90</v>
       </c>
       <c r="AW89" t="n">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="AX89" t="n">
-        <v>5.1</v>
+        <v>5.3</v>
       </c>
       <c r="AY89" t="n">
         <v>15.5</v>
       </c>
       <c r="AZ89" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="BA89" t="n">
         <v>37</v>

--- a/Jogos_da_Semana_FlashScore_2024-09-27.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-09-27.xlsx
@@ -747,13 +747,13 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="H2" t="n">
         <v>3.4</v>
       </c>
       <c r="I2" t="n">
-        <v>2.4</v>
+        <v>2.45</v>
       </c>
       <c r="J2" t="n">
         <v>3.4</v>
@@ -762,7 +762,7 @@
         <v>2.2</v>
       </c>
       <c r="L2" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="M2" t="n">
         <v>1.05</v>
@@ -777,10 +777,10 @@
         <v>3.75</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.92</v>
+        <v>1.93</v>
       </c>
       <c r="R2" t="n">
-        <v>1.98</v>
+        <v>1.97</v>
       </c>
       <c r="S2" t="n">
         <v>1.4</v>
@@ -825,7 +825,7 @@
         <v>41</v>
       </c>
       <c r="AG2" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="AH2" t="n">
         <v>9</v>
@@ -929,19 +929,19 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>1.4</v>
+        <v>1.42</v>
       </c>
       <c r="H3" t="n">
         <v>5</v>
       </c>
       <c r="I3" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="J3" t="n">
         <v>1.91</v>
       </c>
       <c r="K3" t="n">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="L3" t="n">
         <v>6.5</v>
@@ -959,10 +959,10 @@
         <v>4.5</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="R3" t="n">
-        <v>2.38</v>
+        <v>2.3</v>
       </c>
       <c r="S3" t="n">
         <v>1.29</v>
@@ -977,7 +977,7 @@
         <v>1.95</v>
       </c>
       <c r="W3" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="X3" t="n">
         <v>7.5</v>
@@ -986,13 +986,13 @@
         <v>8.5</v>
       </c>
       <c r="Z3" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AA3" t="n">
         <v>11</v>
       </c>
       <c r="AB3" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AC3" t="n">
         <v>17</v>
@@ -1010,7 +1010,7 @@
         <v>201</v>
       </c>
       <c r="AH3" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AI3" t="n">
         <v>41</v>
@@ -1034,7 +1034,7 @@
         <v>6.5</v>
       </c>
       <c r="AP3" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AQ3" t="n">
         <v>19</v>
@@ -1055,7 +1055,7 @@
         <v>51</v>
       </c>
       <c r="AW3" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AX3" t="n">
         <v>34</v>
@@ -1123,10 +1123,10 @@
         <v>1.57</v>
       </c>
       <c r="K4" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="L4" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="M4" t="n">
         <v>1.01</v>
@@ -1153,28 +1153,28 @@
         <v>5</v>
       </c>
       <c r="U4" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="V4" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="W4" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="X4" t="n">
         <v>9.5</v>
       </c>
       <c r="Y4" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="Z4" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AA4" t="n">
         <v>10</v>
       </c>
       <c r="AB4" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AC4" t="n">
         <v>29</v>
@@ -1219,10 +1219,10 @@
         <v>12</v>
       </c>
       <c r="AQ4" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AR4" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AS4" t="n">
         <v>67</v>
@@ -1249,7 +1249,7 @@
         <v>151</v>
       </c>
       <c r="BA4" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="BB4" t="n">
         <v>151</v>
@@ -1258,7 +1258,7 @@
         <v>301</v>
       </c>
       <c r="BD4" t="n">
-        <v>176</v>
+        <v>151</v>
       </c>
     </row>
     <row r="5">
@@ -1293,22 +1293,22 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>1.33</v>
+        <v>1.29</v>
       </c>
       <c r="H5" t="n">
         <v>5.75</v>
       </c>
       <c r="I5" t="n">
-        <v>8</v>
+        <v>9.5</v>
       </c>
       <c r="J5" t="n">
         <v>1.73</v>
       </c>
       <c r="K5" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="L5" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="M5" t="n">
         <v>1.02</v>
@@ -1317,10 +1317,10 @@
         <v>19</v>
       </c>
       <c r="O5" t="n">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="P5" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="Q5" t="n">
         <v>1.5</v>
@@ -1350,10 +1350,10 @@
         <v>9</v>
       </c>
       <c r="Z5" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AA5" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AB5" t="n">
         <v>23</v>
@@ -1374,25 +1374,25 @@
         <v>251</v>
       </c>
       <c r="AH5" t="n">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="AI5" t="n">
         <v>41</v>
       </c>
       <c r="AJ5" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AK5" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="AL5" t="n">
         <v>51</v>
       </c>
       <c r="AM5" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AN5" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="AO5" t="n">
         <v>6</v>
@@ -1413,28 +1413,28 @@
         <v>3.75</v>
       </c>
       <c r="AU5" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AV5" t="n">
         <v>51</v>
       </c>
       <c r="AW5" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AX5" t="n">
         <v>41</v>
       </c>
       <c r="AY5" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AZ5" t="n">
         <v>151</v>
       </c>
       <c r="BA5" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="BB5" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="BC5" t="n">
         <v>501</v>
@@ -1475,22 +1475,22 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>2.9</v>
+        <v>2.8</v>
       </c>
       <c r="H6" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="I6" t="n">
-        <v>2.3</v>
+        <v>2.45</v>
       </c>
       <c r="J6" t="n">
         <v>3.25</v>
       </c>
       <c r="K6" t="n">
-        <v>2.38</v>
+        <v>2.3</v>
       </c>
       <c r="L6" t="n">
-        <v>2.88</v>
+        <v>3</v>
       </c>
       <c r="M6" t="n">
         <v>1.03</v>
@@ -1499,16 +1499,16 @@
         <v>15</v>
       </c>
       <c r="O6" t="n">
-        <v>1.18</v>
+        <v>1.2</v>
       </c>
       <c r="P6" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="R6" t="n">
-        <v>2.25</v>
+        <v>2.15</v>
       </c>
       <c r="S6" t="n">
         <v>1.3</v>
@@ -1523,10 +1523,10 @@
         <v>2.38</v>
       </c>
       <c r="W6" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="X6" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="Y6" t="n">
         <v>11</v>
@@ -1553,7 +1553,7 @@
         <v>34</v>
       </c>
       <c r="AG6" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="AH6" t="n">
         <v>11</v>
@@ -1571,7 +1571,7 @@
         <v>17</v>
       </c>
       <c r="AM6" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AN6" t="n">
         <v>5</v>
@@ -1589,7 +1589,7 @@
         <v>51</v>
       </c>
       <c r="AS6" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="AT6" t="n">
         <v>3.4</v>
@@ -1604,7 +1604,7 @@
         <v>4.75</v>
       </c>
       <c r="AX6" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AY6" t="n">
         <v>19</v>
@@ -1619,7 +1619,7 @@
         <v>101</v>
       </c>
       <c r="BC6" t="n">
-        <v>351</v>
+        <v>401</v>
       </c>
       <c r="BD6" t="n">
         <v>151</v>
@@ -1657,22 +1657,22 @@
         </is>
       </c>
       <c r="G7" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="H7" t="n">
         <v>2.9</v>
       </c>
-      <c r="H7" t="n">
-        <v>2.88</v>
-      </c>
       <c r="I7" t="n">
-        <v>2.7</v>
+        <v>2.5</v>
       </c>
       <c r="J7" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="K7" t="n">
         <v>1.83</v>
       </c>
       <c r="L7" t="n">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="M7" t="n">
         <v>1.14</v>
@@ -1681,10 +1681,10 @@
         <v>5.5</v>
       </c>
       <c r="O7" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="P7" t="n">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="Q7" t="n">
         <v>3</v>
@@ -1705,22 +1705,22 @@
         <v>1.57</v>
       </c>
       <c r="W7" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="X7" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="Y7" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="Z7" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AA7" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AB7" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AC7" t="n">
         <v>5.5</v>
@@ -1738,31 +1738,31 @@
         <v>501</v>
       </c>
       <c r="AH7" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="AI7" t="n">
+        <v>10</v>
+      </c>
+      <c r="AJ7" t="n">
         <v>11</v>
       </c>
-      <c r="AJ7" t="n">
-        <v>12</v>
-      </c>
       <c r="AK7" t="n">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="AL7" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AM7" t="n">
         <v>41</v>
       </c>
       <c r="AN7" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="AO7" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AP7" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AQ7" t="n">
         <v>67</v>
@@ -1783,10 +1783,10 @@
         <v>81</v>
       </c>
       <c r="AW7" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="AX7" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AY7" t="n">
         <v>34</v>
@@ -2567,115 +2567,115 @@
         </is>
       </c>
       <c r="G12" t="n">
-        <v>1.34</v>
+        <v>1.37</v>
       </c>
       <c r="H12" t="n">
-        <v>5.1</v>
+        <v>4.8</v>
       </c>
       <c r="I12" t="n">
-        <v>7.3</v>
+        <v>6.9</v>
       </c>
       <c r="J12" t="n">
-        <v>1.75</v>
+        <v>1.78</v>
       </c>
       <c r="K12" t="n">
-        <v>2.7</v>
+        <v>2.65</v>
       </c>
       <c r="L12" t="n">
-        <v>6.1</v>
+        <v>5.9</v>
       </c>
       <c r="M12" t="n">
         <v>1.03</v>
       </c>
       <c r="N12" t="n">
-        <v>9.75</v>
+        <v>9.5</v>
       </c>
       <c r="O12" t="n">
-        <v>1.14</v>
+        <v>1.15</v>
       </c>
       <c r="P12" t="n">
-        <v>4.9</v>
+        <v>4.8</v>
       </c>
       <c r="Q12" t="n">
-        <v>1.45</v>
+        <v>1.47</v>
       </c>
       <c r="R12" t="n">
-        <v>2.57</v>
+        <v>2.52</v>
       </c>
       <c r="S12" t="n">
-        <v>1.23</v>
+        <v>1.24</v>
       </c>
       <c r="T12" t="n">
-        <v>3.7</v>
+        <v>3.65</v>
       </c>
       <c r="U12" t="n">
-        <v>1.72</v>
+        <v>1.7</v>
       </c>
       <c r="V12" t="n">
-        <v>2.02</v>
+        <v>2.05</v>
       </c>
       <c r="W12" t="n">
         <v>9.5</v>
       </c>
       <c r="X12" t="n">
-        <v>7.8</v>
+        <v>7.9</v>
       </c>
       <c r="Y12" t="n">
         <v>8.5</v>
       </c>
       <c r="Z12" t="n">
-        <v>9.25</v>
+        <v>9.75</v>
       </c>
       <c r="AA12" t="n">
         <v>10.25</v>
       </c>
       <c r="AB12" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AC12" t="n">
-        <v>9.75</v>
+        <v>9.5</v>
       </c>
       <c r="AD12" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="AE12" t="n">
-        <v>17.5</v>
+        <v>16.5</v>
       </c>
       <c r="AF12" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AG12" t="n">
-        <v>400</v>
+        <v>350</v>
       </c>
       <c r="AH12" t="n">
         <v>25</v>
       </c>
       <c r="AI12" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AJ12" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AK12" t="n">
-        <v>175</v>
+        <v>150</v>
       </c>
       <c r="AL12" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AM12" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AN12" t="n">
-        <v>3.5</v>
+        <v>3.55</v>
       </c>
       <c r="AO12" t="n">
-        <v>5.9</v>
+        <v>6.1</v>
       </c>
       <c r="AP12" t="n">
         <v>13</v>
       </c>
       <c r="AQ12" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AR12" t="n">
         <v>32</v>
@@ -2684,28 +2684,28 @@
         <v>120</v>
       </c>
       <c r="AT12" t="n">
-        <v>3.7</v>
+        <v>3.65</v>
       </c>
       <c r="AU12" t="n">
-        <v>7.7</v>
+        <v>7.4</v>
       </c>
       <c r="AV12" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AW12" t="n">
-        <v>8.75</v>
+        <v>8.5</v>
       </c>
       <c r="AX12" t="n">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="AY12" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AZ12" t="n">
         <v>200</v>
       </c>
       <c r="BA12" t="n">
-        <v>200</v>
+        <v>175</v>
       </c>
       <c r="BB12" t="n">
         <v>300</v>
@@ -2749,13 +2749,13 @@
         </is>
       </c>
       <c r="G13" t="n">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="H13" t="n">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="I13" t="n">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="J13" t="n">
         <v>4</v>
@@ -2764,7 +2764,7 @@
         <v>2.3</v>
       </c>
       <c r="L13" t="n">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="M13" t="n">
         <v>1.03</v>
@@ -2785,10 +2785,10 @@
         <v>2.15</v>
       </c>
       <c r="S13" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="T13" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="U13" t="n">
         <v>1.62</v>
@@ -2803,13 +2803,13 @@
         <v>21</v>
       </c>
       <c r="Y13" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="Z13" t="n">
         <v>41</v>
       </c>
       <c r="AA13" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AB13" t="n">
         <v>29</v>
@@ -2842,7 +2842,7 @@
         <v>17</v>
       </c>
       <c r="AL13" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AM13" t="n">
         <v>21</v>
@@ -2851,13 +2851,13 @@
         <v>6</v>
       </c>
       <c r="AO13" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AP13" t="n">
         <v>23</v>
       </c>
       <c r="AQ13" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AR13" t="n">
         <v>67</v>
@@ -2866,7 +2866,7 @@
         <v>151</v>
       </c>
       <c r="AT13" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="AU13" t="n">
         <v>7.5</v>
@@ -2878,13 +2878,13 @@
         <v>4</v>
       </c>
       <c r="AX13" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AY13" t="n">
         <v>17</v>
       </c>
       <c r="AZ13" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="BA13" t="n">
         <v>41</v>
@@ -2961,10 +2961,10 @@
         <v>5</v>
       </c>
       <c r="Q14" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="R14" t="n">
-        <v>2.4</v>
+        <v>2.35</v>
       </c>
       <c r="S14" t="n">
         <v>1.29</v>
@@ -3319,16 +3319,16 @@
         <v>10</v>
       </c>
       <c r="O16" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="P16" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="Q16" t="n">
-        <v>2.1</v>
+        <v>2.08</v>
       </c>
       <c r="R16" t="n">
-        <v>1.7</v>
+        <v>1.73</v>
       </c>
       <c r="S16" t="n">
         <v>1.44</v>
@@ -3483,10 +3483,10 @@
         <v>3.1</v>
       </c>
       <c r="I17" t="n">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="J17" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="K17" t="n">
         <v>1.95</v>
@@ -3507,10 +3507,10 @@
         <v>2.5</v>
       </c>
       <c r="Q17" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="R17" t="n">
-        <v>1.5</v>
+        <v>1.48</v>
       </c>
       <c r="S17" t="n">
         <v>1.57</v>
@@ -3519,10 +3519,10 @@
         <v>2.25</v>
       </c>
       <c r="U17" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="V17" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="W17" t="n">
         <v>5.5</v>
@@ -3546,7 +3546,7 @@
         <v>6.5</v>
       </c>
       <c r="AD17" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AE17" t="n">
         <v>21</v>
@@ -3558,7 +3558,7 @@
         <v>201</v>
       </c>
       <c r="AH17" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AI17" t="n">
         <v>21</v>
@@ -3659,22 +3659,22 @@
         </is>
       </c>
       <c r="G18" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="H18" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="I18" t="n">
         <v>5.25</v>
       </c>
       <c r="J18" t="n">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="K18" t="n">
         <v>2.1</v>
       </c>
       <c r="L18" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="M18" t="n">
         <v>1.08</v>
@@ -3743,7 +3743,7 @@
         <v>12</v>
       </c>
       <c r="AI18" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AJ18" t="n">
         <v>17</v>
@@ -3761,7 +3761,7 @@
         <v>3.6</v>
       </c>
       <c r="AO18" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AP18" t="n">
         <v>23</v>
@@ -3785,13 +3785,13 @@
         <v>67</v>
       </c>
       <c r="AW18" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AX18" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AY18" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AZ18" t="n">
         <v>101</v>
@@ -3800,7 +3800,7 @@
         <v>126</v>
       </c>
       <c r="BB18" t="n">
-        <v>301</v>
+        <v>351</v>
       </c>
       <c r="BC18" t="n">
         <v>81</v>
@@ -4023,16 +4023,16 @@
         </is>
       </c>
       <c r="G20" t="n">
-        <v>2.7</v>
+        <v>2.75</v>
       </c>
       <c r="H20" t="n">
         <v>3</v>
       </c>
       <c r="I20" t="n">
-        <v>2.8</v>
+        <v>2.75</v>
       </c>
       <c r="J20" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="K20" t="n">
         <v>1.91</v>
@@ -4065,10 +4065,10 @@
         <v>2.25</v>
       </c>
       <c r="U20" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="V20" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="W20" t="n">
         <v>6.5</v>
@@ -4080,16 +4080,16 @@
         <v>11</v>
       </c>
       <c r="Z20" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AA20" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AB20" t="n">
         <v>41</v>
       </c>
       <c r="AC20" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AD20" t="n">
         <v>6</v>
@@ -4098,13 +4098,13 @@
         <v>19</v>
       </c>
       <c r="AF20" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AG20" t="n">
         <v>1000</v>
       </c>
       <c r="AH20" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AI20" t="n">
         <v>12</v>
@@ -4128,7 +4128,7 @@
         <v>17</v>
       </c>
       <c r="AP20" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AQ20" t="n">
         <v>51</v>
@@ -4146,10 +4146,10 @@
         <v>9</v>
       </c>
       <c r="AV20" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AW20" t="n">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="AX20" t="n">
         <v>17</v>
@@ -4205,13 +4205,13 @@
         </is>
       </c>
       <c r="G21" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="H21" t="n">
         <v>3</v>
       </c>
       <c r="I21" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="J21" t="n">
         <v>2.88</v>
@@ -4253,7 +4253,7 @@
         <v>1.5</v>
       </c>
       <c r="W21" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="X21" t="n">
         <v>7.5</v>
@@ -4274,7 +4274,7 @@
         <v>5.5</v>
       </c>
       <c r="AD21" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AE21" t="n">
         <v>23</v>
@@ -4286,7 +4286,7 @@
         <v>900</v>
       </c>
       <c r="AH21" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AI21" t="n">
         <v>21</v>
@@ -4298,10 +4298,10 @@
         <v>51</v>
       </c>
       <c r="AL21" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AM21" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AN21" t="n">
         <v>3.75</v>
@@ -4328,7 +4328,7 @@
         <v>10</v>
       </c>
       <c r="AV21" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="AW21" t="n">
         <v>6</v>
@@ -4340,10 +4340,10 @@
         <v>41</v>
       </c>
       <c r="AZ21" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="BA21" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="BB21" t="n">
         <v>351</v>
@@ -4569,28 +4569,28 @@
         </is>
       </c>
       <c r="G23" t="n">
-        <v>1.2</v>
+        <v>1.17</v>
       </c>
       <c r="H23" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="I23" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="J23" t="n">
         <v>1.57</v>
       </c>
       <c r="K23" t="n">
-        <v>2.88</v>
+        <v>3</v>
       </c>
       <c r="L23" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="M23" t="n">
-        <v>1.02</v>
+        <v>1.01</v>
       </c>
       <c r="N23" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="O23" t="n">
         <v>1.13</v>
@@ -4599,10 +4599,10 @@
         <v>6</v>
       </c>
       <c r="Q23" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="R23" t="n">
-        <v>2.7</v>
+        <v>2.88</v>
       </c>
       <c r="S23" t="n">
         <v>1.22</v>
@@ -4611,22 +4611,22 @@
         <v>4</v>
       </c>
       <c r="U23" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="V23" t="n">
-        <v>1.75</v>
+        <v>1.7</v>
       </c>
       <c r="W23" t="n">
         <v>9</v>
       </c>
       <c r="X23" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="Y23" t="n">
         <v>10</v>
       </c>
       <c r="Z23" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AA23" t="n">
         <v>11</v>
@@ -4638,16 +4638,16 @@
         <v>21</v>
       </c>
       <c r="AD23" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AE23" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AF23" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AG23" t="n">
-        <v>401</v>
+        <v>451</v>
       </c>
       <c r="AH23" t="n">
         <v>26</v>
@@ -4671,10 +4671,10 @@
         <v>3.25</v>
       </c>
       <c r="AO23" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="AP23" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AQ23" t="n">
         <v>12</v>
@@ -4707,10 +4707,10 @@
         <v>251</v>
       </c>
       <c r="BA23" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="BB23" t="n">
-        <v>301</v>
+        <v>351</v>
       </c>
       <c r="BC23" t="n">
         <v>81</v>
@@ -4781,10 +4781,10 @@
         <v>3.5</v>
       </c>
       <c r="Q24" t="n">
-        <v>1.93</v>
+        <v>1.98</v>
       </c>
       <c r="R24" t="n">
-        <v>1.93</v>
+        <v>1.88</v>
       </c>
       <c r="S24" t="n">
         <v>1.4</v>
@@ -4933,28 +4933,28 @@
         </is>
       </c>
       <c r="G25" t="n">
-        <v>1.83</v>
+        <v>1.91</v>
       </c>
       <c r="H25" t="n">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="I25" t="n">
-        <v>4.5</v>
+        <v>4.2</v>
       </c>
       <c r="J25" t="n">
-        <v>2.6</v>
+        <v>2.63</v>
       </c>
       <c r="K25" t="n">
         <v>2</v>
       </c>
       <c r="L25" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="M25" t="n">
         <v>1.08</v>
       </c>
       <c r="N25" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="O25" t="n">
         <v>1.4</v>
@@ -4981,10 +4981,10 @@
         <v>1.67</v>
       </c>
       <c r="W25" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="X25" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="Y25" t="n">
         <v>9</v>
@@ -4993,7 +4993,7 @@
         <v>15</v>
       </c>
       <c r="AA25" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AB25" t="n">
         <v>34</v>
@@ -5014,7 +5014,7 @@
         <v>1250</v>
       </c>
       <c r="AH25" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AI25" t="n">
         <v>21</v>
@@ -5023,7 +5023,7 @@
         <v>15</v>
       </c>
       <c r="AK25" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AL25" t="n">
         <v>41</v>
@@ -5032,16 +5032,16 @@
         <v>51</v>
       </c>
       <c r="AN25" t="n">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="AO25" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AP25" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AQ25" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AR25" t="n">
         <v>67</v>
@@ -5062,16 +5062,16 @@
         <v>6</v>
       </c>
       <c r="AX25" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AY25" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AZ25" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="BA25" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="BB25" t="n">
         <v>351</v>
@@ -5115,34 +5115,34 @@
         </is>
       </c>
       <c r="G26" t="n">
-        <v>3.9</v>
+        <v>3.8</v>
       </c>
       <c r="H26" t="n">
-        <v>3.7</v>
+        <v>3.6</v>
       </c>
       <c r="I26" t="n">
-        <v>1.85</v>
+        <v>1.91</v>
       </c>
       <c r="J26" t="n">
         <v>4</v>
       </c>
       <c r="K26" t="n">
-        <v>2.4</v>
+        <v>2.38</v>
       </c>
       <c r="L26" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="M26" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="N26" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="O26" t="n">
-        <v>1.17</v>
+        <v>1.2</v>
       </c>
       <c r="P26" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="Q26" t="n">
         <v>1.62</v>
@@ -5151,10 +5151,10 @@
         <v>2.3</v>
       </c>
       <c r="S26" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="T26" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="U26" t="n">
         <v>1.53</v>
@@ -5166,7 +5166,7 @@
         <v>15</v>
       </c>
       <c r="X26" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="Y26" t="n">
         <v>13</v>
@@ -5184,7 +5184,7 @@
         <v>15</v>
       </c>
       <c r="AD26" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AE26" t="n">
         <v>12</v>
@@ -5232,7 +5232,7 @@
         <v>126</v>
       </c>
       <c r="AT26" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="AU26" t="n">
         <v>7</v>
@@ -5244,7 +5244,7 @@
         <v>4.33</v>
       </c>
       <c r="AX26" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AY26" t="n">
         <v>17</v>
@@ -5259,7 +5259,7 @@
         <v>101</v>
       </c>
       <c r="BC26" t="n">
-        <v>351</v>
+        <v>401</v>
       </c>
       <c r="BD26" t="n">
         <v>151</v>
@@ -5661,76 +5661,76 @@
         </is>
       </c>
       <c r="G29" t="n">
-        <v>2.25</v>
+        <v>2.4</v>
       </c>
       <c r="H29" t="n">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="I29" t="n">
-        <v>3</v>
+        <v>2.8</v>
       </c>
       <c r="J29" t="n">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="K29" t="n">
         <v>2.1</v>
       </c>
       <c r="L29" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="M29" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="N29" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="O29" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="P29" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="Q29" t="n">
-        <v>2.03</v>
+        <v>2.08</v>
       </c>
       <c r="R29" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="S29" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="T29" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="U29" t="n">
         <v>1.83</v>
       </c>
-      <c r="S29" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="T29" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="U29" t="n">
-        <v>1.8</v>
-      </c>
       <c r="V29" t="n">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="W29" t="n">
         <v>8</v>
       </c>
       <c r="X29" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="Y29" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="Z29" t="n">
+        <v>23</v>
+      </c>
+      <c r="AA29" t="n">
         <v>21</v>
-      </c>
-      <c r="AA29" t="n">
-        <v>19</v>
       </c>
       <c r="AB29" t="n">
         <v>29</v>
       </c>
       <c r="AC29" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AD29" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AE29" t="n">
         <v>15</v>
@@ -5742,16 +5742,16 @@
         <v>251</v>
       </c>
       <c r="AH29" t="n">
-        <v>9.5</v>
+        <v>8.5</v>
       </c>
       <c r="AI29" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AJ29" t="n">
         <v>11</v>
       </c>
       <c r="AK29" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AL29" t="n">
         <v>23</v>
@@ -5760,7 +5760,7 @@
         <v>34</v>
       </c>
       <c r="AN29" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="AO29" t="n">
         <v>13</v>
@@ -5775,10 +5775,10 @@
         <v>67</v>
       </c>
       <c r="AS29" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="AT29" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="AU29" t="n">
         <v>8</v>
@@ -5787,7 +5787,7 @@
         <v>51</v>
       </c>
       <c r="AW29" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="AX29" t="n">
         <v>17</v>
@@ -5843,91 +5843,91 @@
         </is>
       </c>
       <c r="G30" t="n">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="H30" t="n">
-        <v>2.88</v>
+        <v>3.1</v>
       </c>
       <c r="I30" t="n">
-        <v>3.4</v>
+        <v>3.8</v>
       </c>
       <c r="J30" t="n">
-        <v>3.1</v>
+        <v>2.75</v>
       </c>
       <c r="K30" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="L30" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="M30" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="N30" t="n">
+        <v>9</v>
+      </c>
+      <c r="O30" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="P30" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q30" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="R30" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="S30" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="T30" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="U30" t="n">
         <v>1.91</v>
       </c>
-      <c r="L30" t="n">
-        <v>4</v>
-      </c>
-      <c r="M30" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="N30" t="n">
-        <v>7</v>
-      </c>
-      <c r="O30" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="P30" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="Q30" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="R30" t="n">
-        <v>1.48</v>
-      </c>
-      <c r="S30" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="T30" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="U30" t="n">
-        <v>2.1</v>
-      </c>
       <c r="V30" t="n">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="W30" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="X30" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="Y30" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="Z30" t="n">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="AA30" t="n">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="AB30" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AC30" t="n">
-        <v>6.5</v>
+        <v>7.5</v>
       </c>
       <c r="AD30" t="n">
         <v>6</v>
       </c>
       <c r="AE30" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AF30" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AG30" t="n">
         <v>351</v>
       </c>
       <c r="AH30" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="AI30" t="n">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="AJ30" t="n">
         <v>13</v>
@@ -5945,31 +5945,31 @@
         <v>4</v>
       </c>
       <c r="AO30" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AP30" t="n">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="AQ30" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AR30" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AS30" t="n">
-        <v>251</v>
+        <v>201</v>
       </c>
       <c r="AT30" t="n">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="AU30" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AV30" t="n">
         <v>67</v>
       </c>
       <c r="AW30" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="AX30" t="n">
         <v>21</v>
@@ -5978,13 +5978,13 @@
         <v>34</v>
       </c>
       <c r="AZ30" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="BA30" t="n">
         <v>101</v>
       </c>
       <c r="BB30" t="n">
-        <v>351</v>
+        <v>251</v>
       </c>
       <c r="BC30" t="n">
         <v>81</v>
@@ -6025,13 +6025,13 @@
         </is>
       </c>
       <c r="G31" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="H31" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="I31" t="n">
-        <v>2.88</v>
+        <v>2.9</v>
       </c>
       <c r="J31" t="n">
         <v>3</v>
@@ -6049,22 +6049,22 @@
         <v>10</v>
       </c>
       <c r="O31" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="P31" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="Q31" t="n">
-        <v>2.03</v>
+        <v>2.05</v>
       </c>
       <c r="R31" t="n">
-        <v>1.83</v>
+        <v>1.75</v>
       </c>
       <c r="S31" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="T31" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="U31" t="n">
         <v>1.8</v>
@@ -6073,7 +6073,7 @@
         <v>1.91</v>
       </c>
       <c r="W31" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="X31" t="n">
         <v>11</v>
@@ -6091,7 +6091,7 @@
         <v>29</v>
       </c>
       <c r="AC31" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AD31" t="n">
         <v>6.5</v>
@@ -6142,7 +6142,7 @@
         <v>151</v>
       </c>
       <c r="AT31" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="AU31" t="n">
         <v>8</v>
@@ -6163,10 +6163,10 @@
         <v>51</v>
       </c>
       <c r="BA31" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="BB31" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="BC31" t="n">
         <v>81</v>
@@ -6207,13 +6207,13 @@
         </is>
       </c>
       <c r="G32" t="n">
-        <v>2.38</v>
+        <v>2.45</v>
       </c>
       <c r="H32" t="n">
         <v>3</v>
       </c>
       <c r="I32" t="n">
-        <v>3</v>
+        <v>2.88</v>
       </c>
       <c r="J32" t="n">
         <v>3.2</v>
@@ -6237,10 +6237,10 @@
         <v>3</v>
       </c>
       <c r="Q32" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="R32" t="n">
-        <v>1.62</v>
+        <v>1.65</v>
       </c>
       <c r="S32" t="n">
         <v>1.5</v>
@@ -6258,7 +6258,7 @@
         <v>7.5</v>
       </c>
       <c r="X32" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="Y32" t="n">
         <v>10</v>
@@ -6291,22 +6291,22 @@
         <v>8.5</v>
       </c>
       <c r="AI32" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AJ32" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AK32" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AL32" t="n">
         <v>26</v>
       </c>
       <c r="AM32" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AN32" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="AO32" t="n">
         <v>15</v>
@@ -6389,13 +6389,13 @@
         </is>
       </c>
       <c r="G33" t="n">
-        <v>1.44</v>
+        <v>1.45</v>
       </c>
       <c r="H33" t="n">
         <v>4.2</v>
       </c>
       <c r="I33" t="n">
-        <v>6</v>
+        <v>5.75</v>
       </c>
       <c r="J33" t="n">
         <v>2.05</v>
@@ -6425,10 +6425,10 @@
         <v>1.75</v>
       </c>
       <c r="S33" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="T33" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="U33" t="n">
         <v>2.25</v>
@@ -6437,7 +6437,7 @@
         <v>1.57</v>
       </c>
       <c r="W33" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="X33" t="n">
         <v>6</v>
@@ -6449,7 +6449,7 @@
         <v>9.5</v>
       </c>
       <c r="AA33" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AB33" t="n">
         <v>34</v>
@@ -6473,13 +6473,13 @@
         <v>13</v>
       </c>
       <c r="AI33" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AJ33" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AK33" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AL33" t="n">
         <v>51</v>
@@ -6503,13 +6503,13 @@
         <v>51</v>
       </c>
       <c r="AS33" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="AT33" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="AU33" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AV33" t="n">
         <v>67</v>
@@ -6571,28 +6571,28 @@
         </is>
       </c>
       <c r="G34" t="n">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="H34" t="n">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="I34" t="n">
-        <v>2.15</v>
+        <v>2.35</v>
       </c>
       <c r="J34" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="K34" t="n">
         <v>2</v>
       </c>
       <c r="L34" t="n">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="M34" t="n">
         <v>1.08</v>
       </c>
       <c r="N34" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="O34" t="n">
         <v>1.4</v>
@@ -6619,16 +6619,16 @@
         <v>1.8</v>
       </c>
       <c r="W34" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="X34" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="Y34" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="Z34" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AA34" t="n">
         <v>29</v>
@@ -6652,16 +6652,16 @@
         <v>351</v>
       </c>
       <c r="AH34" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AI34" t="n">
+        <v>11</v>
+      </c>
+      <c r="AJ34" t="n">
         <v>10</v>
       </c>
-      <c r="AJ34" t="n">
-        <v>9.5</v>
-      </c>
       <c r="AK34" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AL34" t="n">
         <v>21</v>
@@ -6673,16 +6673,16 @@
         <v>5</v>
       </c>
       <c r="AO34" t="n">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="AP34" t="n">
         <v>29</v>
       </c>
       <c r="AQ34" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AR34" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="AS34" t="n">
         <v>251</v>
@@ -6697,7 +6697,7 @@
         <v>67</v>
       </c>
       <c r="AW34" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="AX34" t="n">
         <v>13</v>
@@ -6706,7 +6706,7 @@
         <v>26</v>
       </c>
       <c r="AZ34" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="BA34" t="n">
         <v>67</v>
@@ -7117,22 +7117,22 @@
         </is>
       </c>
       <c r="G37" t="n">
-        <v>3</v>
+        <v>2.63</v>
       </c>
       <c r="H37" t="n">
-        <v>3.7</v>
+        <v>3.6</v>
       </c>
       <c r="I37" t="n">
-        <v>2.15</v>
+        <v>2.45</v>
       </c>
       <c r="J37" t="n">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="K37" t="n">
         <v>2.3</v>
       </c>
       <c r="L37" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="M37" t="n">
         <v>1.03</v>
@@ -7153,10 +7153,10 @@
         <v>2.15</v>
       </c>
       <c r="S37" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="T37" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="U37" t="n">
         <v>1.57</v>
@@ -7165,22 +7165,22 @@
         <v>2.25</v>
       </c>
       <c r="W37" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="X37" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="Y37" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="Z37" t="n">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="AA37" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AB37" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AC37" t="n">
         <v>15</v>
@@ -7198,25 +7198,25 @@
         <v>126</v>
       </c>
       <c r="AH37" t="n">
+        <v>11</v>
+      </c>
+      <c r="AI37" t="n">
+        <v>13</v>
+      </c>
+      <c r="AJ37" t="n">
         <v>10</v>
       </c>
-      <c r="AI37" t="n">
-        <v>12</v>
-      </c>
-      <c r="AJ37" t="n">
-        <v>9</v>
-      </c>
       <c r="AK37" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AL37" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AM37" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AN37" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="AO37" t="n">
         <v>15</v>
@@ -7225,7 +7225,7 @@
         <v>21</v>
       </c>
       <c r="AQ37" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AR37" t="n">
         <v>51</v>
@@ -7234,7 +7234,7 @@
         <v>126</v>
       </c>
       <c r="AT37" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="AU37" t="n">
         <v>7</v>
@@ -7243,13 +7243,13 @@
         <v>41</v>
       </c>
       <c r="AW37" t="n">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="AX37" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AY37" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AZ37" t="n">
         <v>41</v>
@@ -7258,7 +7258,7 @@
         <v>51</v>
       </c>
       <c r="BB37" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="BC37" t="n">
         <v>81</v>
@@ -7302,52 +7302,52 @@
         <v>1.85</v>
       </c>
       <c r="H38" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="I38" t="n">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="J38" t="n">
         <v>2.5</v>
       </c>
       <c r="K38" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="L38" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="M38" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="N38" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="O38" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="P38" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="Q38" t="n">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="R38" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="S38" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="T38" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U38" t="n">
-        <v>1.83</v>
+        <v>1.73</v>
       </c>
       <c r="V38" t="n">
-        <v>1.83</v>
+        <v>2</v>
       </c>
       <c r="W38" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="X38" t="n">
         <v>9</v>
@@ -7365,22 +7365,22 @@
         <v>26</v>
       </c>
       <c r="AC38" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AD38" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AE38" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AF38" t="n">
         <v>51</v>
       </c>
       <c r="AG38" t="n">
-        <v>251</v>
+        <v>201</v>
       </c>
       <c r="AH38" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AI38" t="n">
         <v>21</v>
@@ -7392,10 +7392,10 @@
         <v>41</v>
       </c>
       <c r="AL38" t="n">
+        <v>29</v>
+      </c>
+      <c r="AM38" t="n">
         <v>34</v>
-      </c>
-      <c r="AM38" t="n">
-        <v>41</v>
       </c>
       <c r="AN38" t="n">
         <v>4</v>
@@ -7404,7 +7404,7 @@
         <v>10</v>
       </c>
       <c r="AP38" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AQ38" t="n">
         <v>34</v>
@@ -7413,10 +7413,10 @@
         <v>51</v>
       </c>
       <c r="AS38" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="AT38" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="AU38" t="n">
         <v>8</v>
@@ -7437,10 +7437,10 @@
         <v>67</v>
       </c>
       <c r="BA38" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="BB38" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="BC38" t="n">
         <v>51</v>
@@ -7481,22 +7481,22 @@
         </is>
       </c>
       <c r="G39" t="n">
-        <v>4.1</v>
+        <v>3.6</v>
       </c>
       <c r="H39" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="I39" t="n">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="J39" t="n">
-        <v>5</v>
+        <v>4.33</v>
       </c>
       <c r="K39" t="n">
         <v>2.1</v>
       </c>
       <c r="L39" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="M39" t="n">
         <v>1.06</v>
@@ -7529,19 +7529,19 @@
         <v>1.8</v>
       </c>
       <c r="W39" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="X39" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="Y39" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="Z39" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AA39" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AB39" t="n">
         <v>41</v>
@@ -7550,7 +7550,7 @@
         <v>9</v>
       </c>
       <c r="AD39" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AE39" t="n">
         <v>17</v>
@@ -7562,34 +7562,34 @@
         <v>351</v>
       </c>
       <c r="AH39" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AI39" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AJ39" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AK39" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AL39" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AM39" t="n">
         <v>29</v>
       </c>
       <c r="AN39" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="AO39" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AP39" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AQ39" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AR39" t="n">
         <v>101</v>
@@ -7601,22 +7601,22 @@
         <v>2.63</v>
       </c>
       <c r="AU39" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AV39" t="n">
         <v>51</v>
       </c>
       <c r="AW39" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="AX39" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AY39" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AZ39" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="BA39" t="n">
         <v>51</v>
@@ -7669,7 +7669,7 @@
         <v>3.6</v>
       </c>
       <c r="I40" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="J40" t="n">
         <v>3.6</v>
@@ -7687,16 +7687,16 @@
         <v>13</v>
       </c>
       <c r="O40" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="P40" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="Q40" t="n">
-        <v>1.75</v>
+        <v>1.88</v>
       </c>
       <c r="R40" t="n">
-        <v>2.05</v>
+        <v>1.98</v>
       </c>
       <c r="S40" t="n">
         <v>1.36</v>
@@ -7729,7 +7729,7 @@
         <v>29</v>
       </c>
       <c r="AC40" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AD40" t="n">
         <v>7.5</v>
@@ -7738,7 +7738,7 @@
         <v>15</v>
       </c>
       <c r="AF40" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AG40" t="n">
         <v>201</v>
@@ -7845,19 +7845,19 @@
         </is>
       </c>
       <c r="G41" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="H41" t="n">
-        <v>3.7</v>
+        <v>3.6</v>
       </c>
       <c r="I41" t="n">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="J41" t="n">
-        <v>2.3</v>
+        <v>2.38</v>
       </c>
       <c r="K41" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="L41" t="n">
         <v>5.5</v>
@@ -7875,10 +7875,10 @@
         <v>3.25</v>
       </c>
       <c r="Q41" t="n">
-        <v>2.05</v>
+        <v>2.08</v>
       </c>
       <c r="R41" t="n">
-        <v>1.75</v>
+        <v>1.73</v>
       </c>
       <c r="S41" t="n">
         <v>1.44</v>
@@ -7896,13 +7896,13 @@
         <v>6</v>
       </c>
       <c r="X41" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="Y41" t="n">
         <v>8.5</v>
       </c>
       <c r="Z41" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AA41" t="n">
         <v>15</v>
@@ -7911,7 +7911,7 @@
         <v>29</v>
       </c>
       <c r="AC41" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AD41" t="n">
         <v>7.5</v>
@@ -7926,13 +7926,13 @@
         <v>451</v>
       </c>
       <c r="AH41" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AI41" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AJ41" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AK41" t="n">
         <v>51</v>
@@ -7944,10 +7944,10 @@
         <v>41</v>
       </c>
       <c r="AN41" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="AO41" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AP41" t="n">
         <v>21</v>
@@ -7965,25 +7965,25 @@
         <v>2.63</v>
       </c>
       <c r="AU41" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AV41" t="n">
         <v>67</v>
       </c>
       <c r="AW41" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AX41" t="n">
         <v>29</v>
       </c>
       <c r="AY41" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AZ41" t="n">
         <v>101</v>
       </c>
       <c r="BA41" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="BB41" t="n">
         <v>301</v>
@@ -8030,7 +8030,7 @@
         <v>3.25</v>
       </c>
       <c r="H42" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="I42" t="n">
         <v>2.15</v>
@@ -8045,10 +8045,10 @@
         <v>3</v>
       </c>
       <c r="M42" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="N42" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="O42" t="n">
         <v>1.4</v>
@@ -8057,10 +8057,10 @@
         <v>2.75</v>
       </c>
       <c r="Q42" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="R42" t="n">
-        <v>1.6</v>
+        <v>1.62</v>
       </c>
       <c r="S42" t="n">
         <v>1.5</v>
@@ -8069,10 +8069,10 @@
         <v>2.5</v>
       </c>
       <c r="U42" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="V42" t="n">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="W42" t="n">
         <v>8.5</v>
@@ -8093,7 +8093,7 @@
         <v>41</v>
       </c>
       <c r="AC42" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AD42" t="n">
         <v>6</v>
@@ -8209,22 +8209,22 @@
         </is>
       </c>
       <c r="G43" t="n">
-        <v>1.62</v>
+        <v>1.6</v>
       </c>
       <c r="H43" t="n">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="I43" t="n">
-        <v>4.2</v>
+        <v>4.33</v>
       </c>
       <c r="J43" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="K43" t="n">
         <v>2.25</v>
       </c>
       <c r="L43" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="M43" t="n">
         <v>1.04</v>
@@ -8239,10 +8239,10 @@
         <v>3.5</v>
       </c>
       <c r="Q43" t="n">
-        <v>1.93</v>
+        <v>1.9</v>
       </c>
       <c r="R43" t="n">
-        <v>1.93</v>
+        <v>1.95</v>
       </c>
       <c r="S43" t="n">
         <v>1.36</v>
@@ -8266,7 +8266,7 @@
         <v>8.5</v>
       </c>
       <c r="Z43" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AA43" t="n">
         <v>13</v>
@@ -8275,7 +8275,7 @@
         <v>26</v>
       </c>
       <c r="AC43" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AD43" t="n">
         <v>8</v>
@@ -8317,7 +8317,7 @@
         <v>19</v>
       </c>
       <c r="AQ43" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AR43" t="n">
         <v>51</v>
@@ -8335,10 +8335,10 @@
         <v>51</v>
       </c>
       <c r="AW43" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AX43" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AY43" t="n">
         <v>34</v>
@@ -8347,7 +8347,7 @@
         <v>101</v>
       </c>
       <c r="BA43" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="BB43" t="n">
         <v>251</v>
@@ -8391,22 +8391,22 @@
         </is>
       </c>
       <c r="G44" t="n">
-        <v>2.55</v>
+        <v>2.38</v>
       </c>
       <c r="H44" t="n">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="I44" t="n">
-        <v>2.75</v>
+        <v>2.9</v>
       </c>
       <c r="J44" t="n">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="K44" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="L44" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="M44" t="n">
         <v>1.07</v>
@@ -8415,16 +8415,16 @@
         <v>9</v>
       </c>
       <c r="O44" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="P44" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="Q44" t="n">
-        <v>2.15</v>
+        <v>2.08</v>
       </c>
       <c r="R44" t="n">
-        <v>1.67</v>
+        <v>1.73</v>
       </c>
       <c r="S44" t="n">
         <v>1.44</v>
@@ -8433,31 +8433,31 @@
         <v>2.63</v>
       </c>
       <c r="U44" t="n">
-        <v>1.91</v>
+        <v>1.8</v>
       </c>
       <c r="V44" t="n">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="W44" t="n">
         <v>7.5</v>
       </c>
       <c r="X44" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="Y44" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="Z44" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AA44" t="n">
         <v>21</v>
       </c>
       <c r="AB44" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AC44" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AD44" t="n">
         <v>6</v>
@@ -8472,10 +8472,10 @@
         <v>301</v>
       </c>
       <c r="AH44" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AI44" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AJ44" t="n">
         <v>11</v>
@@ -8490,22 +8490,22 @@
         <v>34</v>
       </c>
       <c r="AN44" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="AO44" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AP44" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AQ44" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AR44" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AS44" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="AT44" t="n">
         <v>2.63</v>
@@ -9149,10 +9149,10 @@
         <v>4</v>
       </c>
       <c r="Q48" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="R48" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="S48" t="n">
         <v>1.33</v>
@@ -9665,16 +9665,16 @@
         </is>
       </c>
       <c r="G51" t="n">
-        <v>1.93</v>
+        <v>1.91</v>
       </c>
       <c r="H51" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="I51" t="n">
         <v>3.8</v>
       </c>
       <c r="J51" t="n">
-        <v>2.57</v>
+        <v>2.55</v>
       </c>
       <c r="K51" t="n">
         <v>2.05</v>
@@ -9683,22 +9683,22 @@
         <v>4.15</v>
       </c>
       <c r="M51" t="n">
-        <v>8.699999999999999</v>
+        <v>1.02</v>
       </c>
       <c r="N51" t="n">
-        <v>1.05</v>
+        <v>9.75</v>
       </c>
       <c r="O51" t="n">
         <v>1.28</v>
       </c>
       <c r="P51" t="n">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="Q51" t="n">
-        <v>1.9</v>
+        <v>1.88</v>
       </c>
       <c r="R51" t="n">
-        <v>1.8</v>
+        <v>1.82</v>
       </c>
       <c r="S51" t="n">
         <v>1.4</v>
@@ -9713,7 +9713,7 @@
         <v>1.91</v>
       </c>
       <c r="W51" t="n">
-        <v>7</v>
+        <v>7.1</v>
       </c>
       <c r="X51" t="n">
         <v>9</v>
@@ -9722,7 +9722,7 @@
         <v>8.25</v>
       </c>
       <c r="Z51" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="AA51" t="n">
         <v>15.5</v>
@@ -9734,7 +9734,7 @@
         <v>9.75</v>
       </c>
       <c r="AD51" t="n">
-        <v>6.4</v>
+        <v>6.5</v>
       </c>
       <c r="AE51" t="n">
         <v>13.5</v>
@@ -9746,7 +9746,7 @@
         <v>450</v>
       </c>
       <c r="AH51" t="n">
-        <v>11.5</v>
+        <v>11.75</v>
       </c>
       <c r="AI51" t="n">
         <v>22</v>
@@ -9764,7 +9764,7 @@
         <v>37</v>
       </c>
       <c r="AN51" t="n">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="AO51" t="n">
         <v>10</v>
@@ -9776,7 +9776,7 @@
         <v>37</v>
       </c>
       <c r="AR51" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="AS51" t="n">
         <v>250</v>
@@ -9785,7 +9785,7 @@
         <v>2.5</v>
       </c>
       <c r="AU51" t="n">
-        <v>6.9</v>
+        <v>7</v>
       </c>
       <c r="AV51" t="n">
         <v>60</v>
@@ -9862,7 +9862,7 @@
         <v>2.18</v>
       </c>
       <c r="L52" t="n">
-        <v>4.55</v>
+        <v>4.45</v>
       </c>
       <c r="M52" t="n">
         <v>10.4</v>
@@ -9871,10 +9871,10 @@
         <v>1.04</v>
       </c>
       <c r="O52" t="n">
-        <v>1.24</v>
+        <v>1.23</v>
       </c>
       <c r="P52" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="Q52" t="n">
         <v>1.7</v>
@@ -9895,7 +9895,7 @@
         <v>1.93</v>
       </c>
       <c r="W52" t="n">
-        <v>7.6</v>
+        <v>7.5</v>
       </c>
       <c r="X52" t="n">
         <v>8.5</v>
@@ -9910,28 +9910,28 @@
         <v>13</v>
       </c>
       <c r="AB52" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AC52" t="n">
-        <v>11.5</v>
+        <v>11.75</v>
       </c>
       <c r="AD52" t="n">
         <v>7.2</v>
       </c>
       <c r="AE52" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="AF52" t="n">
         <v>60</v>
       </c>
       <c r="AG52" t="n">
-        <v>450</v>
+        <v>400</v>
       </c>
       <c r="AH52" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AI52" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AJ52" t="n">
         <v>14</v>
@@ -9940,7 +9940,7 @@
         <v>70</v>
       </c>
       <c r="AL52" t="n">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="AM52" t="n">
         <v>40</v>
@@ -9949,10 +9949,10 @@
         <v>3.6</v>
       </c>
       <c r="AO52" t="n">
-        <v>8.25</v>
+        <v>8.5</v>
       </c>
       <c r="AP52" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="AQ52" t="n">
         <v>28</v>
@@ -9964,22 +9964,22 @@
         <v>200</v>
       </c>
       <c r="AT52" t="n">
-        <v>2.65</v>
+        <v>2.67</v>
       </c>
       <c r="AU52" t="n">
-        <v>7.2</v>
+        <v>7.1</v>
       </c>
       <c r="AV52" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AW52" t="n">
-        <v>6</v>
+        <v>6.1</v>
       </c>
       <c r="AX52" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AY52" t="n">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="AZ52" t="n">
         <v>120</v>
@@ -9988,7 +9988,7 @@
         <v>150</v>
       </c>
       <c r="BB52" t="n">
-        <v>350</v>
+        <v>300</v>
       </c>
       <c r="BC52" t="n">
         <v>51</v>
@@ -10041,7 +10041,7 @@
         <v>1.83</v>
       </c>
       <c r="K53" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="L53" t="n">
         <v>6</v>
@@ -10065,10 +10065,10 @@
         <v>2.7</v>
       </c>
       <c r="S53" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="T53" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="U53" t="n">
         <v>1.62</v>
@@ -10080,7 +10080,7 @@
         <v>10</v>
       </c>
       <c r="X53" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="Y53" t="n">
         <v>8.5</v>
@@ -10107,10 +10107,10 @@
         <v>41</v>
       </c>
       <c r="AG53" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="AH53" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AI53" t="n">
         <v>41</v>
@@ -10146,7 +10146,7 @@
         <v>81</v>
       </c>
       <c r="AT53" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="AU53" t="n">
         <v>8</v>
@@ -10211,22 +10211,22 @@
         </is>
       </c>
       <c r="G54" t="n">
-        <v>2.6</v>
+        <v>2.8</v>
       </c>
       <c r="H54" t="n">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="I54" t="n">
-        <v>2.55</v>
+        <v>2.35</v>
       </c>
       <c r="J54" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="K54" t="n">
-        <v>2.38</v>
+        <v>2.4</v>
       </c>
       <c r="L54" t="n">
-        <v>3</v>
+        <v>2.88</v>
       </c>
       <c r="M54" t="n">
         <v>1.03</v>
@@ -10259,16 +10259,16 @@
         <v>2.5</v>
       </c>
       <c r="W54" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="X54" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="Y54" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="Z54" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AA54" t="n">
         <v>19</v>
@@ -10280,7 +10280,7 @@
         <v>17</v>
       </c>
       <c r="AD54" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AE54" t="n">
         <v>11</v>
@@ -10298,13 +10298,13 @@
         <v>15</v>
       </c>
       <c r="AJ54" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AK54" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AL54" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AM54" t="n">
         <v>21</v>
@@ -10313,7 +10313,7 @@
         <v>5</v>
       </c>
       <c r="AO54" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AP54" t="n">
         <v>19</v>
@@ -10337,13 +10337,13 @@
         <v>41</v>
       </c>
       <c r="AW54" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="AX54" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AY54" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AZ54" t="n">
         <v>41</v>
@@ -10355,7 +10355,7 @@
         <v>101</v>
       </c>
       <c r="BC54" t="n">
-        <v>351</v>
+        <v>301</v>
       </c>
       <c r="BD54" t="n">
         <v>151</v>
@@ -10393,28 +10393,28 @@
         </is>
       </c>
       <c r="G55" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="H55" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="I55" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="J55" t="n">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="K55" t="n">
-        <v>2.75</v>
+        <v>2.88</v>
       </c>
       <c r="L55" t="n">
         <v>5.5</v>
       </c>
       <c r="M55" t="n">
-        <v>1.02</v>
+        <v>1.01</v>
       </c>
       <c r="N55" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="O55" t="n">
         <v>1.1</v>
@@ -10423,10 +10423,10 @@
         <v>7</v>
       </c>
       <c r="Q55" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="R55" t="n">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="S55" t="n">
         <v>1.2</v>
@@ -10435,13 +10435,13 @@
         <v>4.33</v>
       </c>
       <c r="U55" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="V55" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="W55" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="X55" t="n">
         <v>10</v>
@@ -10453,19 +10453,19 @@
         <v>12</v>
       </c>
       <c r="AA55" t="n">
+        <v>10</v>
+      </c>
+      <c r="AB55" t="n">
+        <v>17</v>
+      </c>
+      <c r="AC55" t="n">
+        <v>23</v>
+      </c>
+      <c r="AD55" t="n">
         <v>11</v>
       </c>
-      <c r="AB55" t="n">
-        <v>19</v>
-      </c>
-      <c r="AC55" t="n">
-        <v>21</v>
-      </c>
-      <c r="AD55" t="n">
-        <v>9.5</v>
-      </c>
       <c r="AE55" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AF55" t="n">
         <v>34</v>
@@ -10474,7 +10474,7 @@
         <v>101</v>
       </c>
       <c r="AH55" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AI55" t="n">
         <v>41</v>
@@ -10495,7 +10495,7 @@
         <v>4</v>
       </c>
       <c r="AO55" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AP55" t="n">
         <v>13</v>
@@ -10519,10 +10519,10 @@
         <v>41</v>
       </c>
       <c r="AW55" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AX55" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AY55" t="n">
         <v>26</v>
@@ -10537,7 +10537,7 @@
         <v>126</v>
       </c>
       <c r="BC55" t="n">
-        <v>301</v>
+        <v>251</v>
       </c>
       <c r="BD55" t="n">
         <v>151</v>
@@ -10605,10 +10605,10 @@
         <v>5.5</v>
       </c>
       <c r="Q56" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="R56" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="S56" t="n">
         <v>1.25</v>
@@ -10757,13 +10757,13 @@
         </is>
       </c>
       <c r="G57" t="n">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="H57" t="n">
         <v>3.8</v>
       </c>
       <c r="I57" t="n">
-        <v>4.33</v>
+        <v>4.2</v>
       </c>
       <c r="J57" t="n">
         <v>2.3</v>
@@ -10772,7 +10772,7 @@
         <v>2.5</v>
       </c>
       <c r="L57" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="M57" t="n">
         <v>1.03</v>
@@ -10808,7 +10808,7 @@
         <v>10</v>
       </c>
       <c r="X57" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="Y57" t="n">
         <v>8.5</v>
@@ -10877,13 +10877,13 @@
         <v>3.5</v>
       </c>
       <c r="AU57" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AV57" t="n">
         <v>41</v>
       </c>
       <c r="AW57" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AX57" t="n">
         <v>21</v>
@@ -10892,7 +10892,7 @@
         <v>23</v>
       </c>
       <c r="AZ57" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="BA57" t="n">
         <v>67</v>
@@ -10939,22 +10939,22 @@
         </is>
       </c>
       <c r="G58" t="n">
-        <v>2.88</v>
+        <v>3.2</v>
       </c>
       <c r="H58" t="n">
         <v>2.9</v>
       </c>
       <c r="I58" t="n">
-        <v>2.5</v>
+        <v>2.3</v>
       </c>
       <c r="J58" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="K58" t="n">
         <v>1.91</v>
       </c>
       <c r="L58" t="n">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="M58" t="n">
         <v>1.1</v>
@@ -10990,16 +10990,16 @@
         <v>7.5</v>
       </c>
       <c r="X58" t="n">
+        <v>15</v>
+      </c>
+      <c r="Y58" t="n">
         <v>13</v>
       </c>
-      <c r="Y58" t="n">
-        <v>12</v>
-      </c>
       <c r="Z58" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AA58" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AB58" t="n">
         <v>41</v>
@@ -11020,16 +11020,16 @@
         <v>1000</v>
       </c>
       <c r="AH58" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AI58" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AJ58" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AK58" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AL58" t="n">
         <v>23</v>
@@ -11038,10 +11038,10 @@
         <v>41</v>
       </c>
       <c r="AN58" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="AO58" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AP58" t="n">
         <v>34</v>
@@ -11053,7 +11053,7 @@
         <v>101</v>
       </c>
       <c r="AS58" t="n">
-        <v>301</v>
+        <v>351</v>
       </c>
       <c r="AT58" t="n">
         <v>2.25</v>
@@ -11080,7 +11080,7 @@
         <v>81</v>
       </c>
       <c r="BB58" t="n">
-        <v>251</v>
+        <v>301</v>
       </c>
       <c r="BC58" t="n">
         <v>51</v>
@@ -11121,22 +11121,22 @@
         </is>
       </c>
       <c r="G59" t="n">
-        <v>1.91</v>
+        <v>2.15</v>
       </c>
       <c r="H59" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="I59" t="n">
-        <v>3.75</v>
+        <v>3.25</v>
       </c>
       <c r="J59" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="K59" t="n">
         <v>2.05</v>
       </c>
       <c r="L59" t="n">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="M59" t="n">
         <v>1.07</v>
@@ -11145,43 +11145,43 @@
         <v>9</v>
       </c>
       <c r="O59" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="P59" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="Q59" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="R59" t="n">
-        <v>1.65</v>
+        <v>1.62</v>
       </c>
       <c r="S59" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="T59" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="U59" t="n">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="V59" t="n">
-        <v>1.73</v>
+        <v>1.8</v>
       </c>
       <c r="W59" t="n">
         <v>6.5</v>
       </c>
       <c r="X59" t="n">
-        <v>8.5</v>
+        <v>10</v>
       </c>
       <c r="Y59" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="Z59" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="AA59" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AB59" t="n">
         <v>34</v>
@@ -11190,7 +11190,7 @@
         <v>8</v>
       </c>
       <c r="AD59" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AE59" t="n">
         <v>17</v>
@@ -11199,22 +11199,22 @@
         <v>51</v>
       </c>
       <c r="AG59" t="n">
-        <v>1000</v>
+        <v>351</v>
       </c>
       <c r="AH59" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AI59" t="n">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="AJ59" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AK59" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AL59" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AM59" t="n">
         <v>41</v>
@@ -11223,10 +11223,10 @@
         <v>4</v>
       </c>
       <c r="AO59" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AP59" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AQ59" t="n">
         <v>41</v>
@@ -11238,7 +11238,7 @@
         <v>201</v>
       </c>
       <c r="AT59" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="AU59" t="n">
         <v>8.5</v>
@@ -11247,16 +11247,16 @@
         <v>67</v>
       </c>
       <c r="AW59" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="AX59" t="n">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="AY59" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AZ59" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="BA59" t="n">
         <v>101</v>
@@ -11303,22 +11303,22 @@
         </is>
       </c>
       <c r="G60" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="H60" t="n">
         <v>3</v>
       </c>
-      <c r="H60" t="n">
-        <v>3.1</v>
-      </c>
       <c r="I60" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="J60" t="n">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="K60" t="n">
         <v>2</v>
       </c>
       <c r="L60" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="M60" t="n">
         <v>1.08</v>
@@ -11351,16 +11351,16 @@
         <v>1.8</v>
       </c>
       <c r="W60" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="X60" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="Y60" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="Z60" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AA60" t="n">
         <v>26</v>
@@ -11369,7 +11369,7 @@
         <v>41</v>
       </c>
       <c r="AC60" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AD60" t="n">
         <v>6</v>
@@ -11384,19 +11384,19 @@
         <v>351</v>
       </c>
       <c r="AH60" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AI60" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AJ60" t="n">
         <v>10</v>
       </c>
       <c r="AK60" t="n">
+        <v>26</v>
+      </c>
+      <c r="AL60" t="n">
         <v>23</v>
-      </c>
-      <c r="AL60" t="n">
-        <v>21</v>
       </c>
       <c r="AM60" t="n">
         <v>34</v>
@@ -11429,7 +11429,7 @@
         <v>67</v>
       </c>
       <c r="AW60" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="AX60" t="n">
         <v>15</v>
@@ -11441,7 +11441,7 @@
         <v>51</v>
       </c>
       <c r="BA60" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="BB60" t="n">
         <v>201</v>
@@ -11667,40 +11667,40 @@
         </is>
       </c>
       <c r="G62" t="n">
-        <v>2.55</v>
+        <v>2.7</v>
       </c>
       <c r="H62" t="n">
         <v>3.6</v>
       </c>
       <c r="I62" t="n">
-        <v>2.45</v>
+        <v>2.35</v>
       </c>
       <c r="J62" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="K62" t="n">
         <v>2.38</v>
       </c>
       <c r="L62" t="n">
-        <v>3</v>
+        <v>2.88</v>
       </c>
       <c r="M62" t="n">
         <v>1.03</v>
       </c>
       <c r="N62" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="O62" t="n">
-        <v>1.17</v>
+        <v>1.18</v>
       </c>
       <c r="P62" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="Q62" t="n">
-        <v>1.57</v>
+        <v>1.6</v>
       </c>
       <c r="R62" t="n">
-        <v>2.35</v>
+        <v>2.3</v>
       </c>
       <c r="S62" t="n">
         <v>1.29</v>
@@ -11718,19 +11718,19 @@
         <v>13</v>
       </c>
       <c r="X62" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="Y62" t="n">
         <v>10</v>
       </c>
       <c r="Z62" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AA62" t="n">
         <v>19</v>
       </c>
       <c r="AB62" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AC62" t="n">
         <v>17</v>
@@ -11754,10 +11754,10 @@
         <v>15</v>
       </c>
       <c r="AJ62" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AK62" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AL62" t="n">
         <v>17</v>
@@ -11769,7 +11769,7 @@
         <v>5</v>
       </c>
       <c r="AO62" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AP62" t="n">
         <v>19</v>
@@ -11796,7 +11796,7 @@
         <v>4.75</v>
       </c>
       <c r="AX62" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AY62" t="n">
         <v>19</v>
@@ -11811,7 +11811,7 @@
         <v>101</v>
       </c>
       <c r="BC62" t="n">
-        <v>301</v>
+        <v>351</v>
       </c>
       <c r="BD62" t="n">
         <v>81</v>
@@ -11852,7 +11852,7 @@
         <v>1.4</v>
       </c>
       <c r="H63" t="n">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="I63" t="n">
         <v>6.25</v>
@@ -11891,10 +11891,10 @@
         <v>3.4</v>
       </c>
       <c r="U63" t="n">
-        <v>1.83</v>
+        <v>1.91</v>
       </c>
       <c r="V63" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="W63" t="n">
         <v>7.5</v>
@@ -11915,10 +11915,10 @@
         <v>26</v>
       </c>
       <c r="AC63" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AD63" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AE63" t="n">
         <v>19</v>
@@ -11969,7 +11969,7 @@
         <v>3.4</v>
       </c>
       <c r="AU63" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AV63" t="n">
         <v>51</v>
@@ -12031,34 +12031,34 @@
         </is>
       </c>
       <c r="G64" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H64" t="n">
-        <v>8.5</v>
+        <v>7.5</v>
       </c>
       <c r="I64" t="n">
-        <v>1.14</v>
+        <v>1.17</v>
       </c>
       <c r="J64" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K64" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="L64" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="M64" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="N64" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="O64" t="n">
-        <v>1.11</v>
+        <v>1.13</v>
       </c>
       <c r="P64" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="Q64" t="n">
         <v>1.4</v>
@@ -12073,10 +12073,10 @@
         <v>4</v>
       </c>
       <c r="U64" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="V64" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="W64" t="n">
         <v>34</v>
@@ -12085,40 +12085,40 @@
         <v>67</v>
       </c>
       <c r="Y64" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="Z64" t="n">
-        <v>251</v>
+        <v>201</v>
       </c>
       <c r="AA64" t="n">
         <v>101</v>
       </c>
       <c r="AB64" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AC64" t="n">
         <v>21</v>
       </c>
       <c r="AD64" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AE64" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AF64" t="n">
         <v>81</v>
       </c>
       <c r="AG64" t="n">
-        <v>501</v>
+        <v>451</v>
       </c>
       <c r="AH64" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AI64" t="n">
         <v>6.5</v>
       </c>
       <c r="AJ64" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AK64" t="n">
         <v>7</v>
@@ -12130,7 +12130,7 @@
         <v>29</v>
       </c>
       <c r="AN64" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AO64" t="n">
         <v>51</v>
@@ -12139,10 +12139,10 @@
         <v>51</v>
       </c>
       <c r="AQ64" t="n">
-        <v>351</v>
+        <v>301</v>
       </c>
       <c r="AR64" t="n">
-        <v>301</v>
+        <v>251</v>
       </c>
       <c r="AS64" t="n">
         <v>401</v>
@@ -12151,22 +12151,22 @@
         <v>4</v>
       </c>
       <c r="AU64" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AV64" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AW64" t="n">
         <v>3.25</v>
       </c>
       <c r="AX64" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="AY64" t="n">
         <v>17</v>
       </c>
       <c r="AZ64" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="BA64" t="n">
         <v>34</v>
@@ -12965,16 +12965,16 @@
         <v>9</v>
       </c>
       <c r="O69" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="P69" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="Q69" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="R69" t="n">
-        <v>1.62</v>
+        <v>1.65</v>
       </c>
       <c r="S69" t="n">
         <v>1.5</v>
@@ -13329,10 +13329,10 @@
         <v>15</v>
       </c>
       <c r="O71" t="n">
-        <v>1.1</v>
+        <v>1.08</v>
       </c>
       <c r="P71" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="Q71" t="n">
         <v>1.33</v>
@@ -13419,7 +13419,7 @@
         <v>29</v>
       </c>
       <c r="AS71" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AT71" t="n">
         <v>4.33</v>
@@ -13434,7 +13434,7 @@
         <v>10</v>
       </c>
       <c r="AX71" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AY71" t="n">
         <v>34</v>
@@ -13487,22 +13487,22 @@
         </is>
       </c>
       <c r="G72" t="n">
-        <v>3</v>
+        <v>2.55</v>
       </c>
       <c r="H72" t="n">
         <v>3.4</v>
       </c>
       <c r="I72" t="n">
-        <v>2.2</v>
+        <v>2.6</v>
       </c>
       <c r="J72" t="n">
-        <v>3.5</v>
+        <v>3.1</v>
       </c>
       <c r="K72" t="n">
         <v>2.1</v>
       </c>
       <c r="L72" t="n">
-        <v>2.88</v>
+        <v>3.1</v>
       </c>
       <c r="M72" t="n">
         <v>1.05</v>
@@ -13511,16 +13511,16 @@
         <v>8.5</v>
       </c>
       <c r="O72" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="P72" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="Q72" t="n">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="R72" t="n">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="S72" t="n">
         <v>1.4</v>
@@ -13535,22 +13535,22 @@
         <v>2</v>
       </c>
       <c r="W72" t="n">
+        <v>9</v>
+      </c>
+      <c r="X72" t="n">
+        <v>13</v>
+      </c>
+      <c r="Y72" t="n">
         <v>10</v>
       </c>
-      <c r="X72" t="n">
-        <v>15</v>
-      </c>
-      <c r="Y72" t="n">
-        <v>12</v>
-      </c>
       <c r="Z72" t="n">
+        <v>23</v>
+      </c>
+      <c r="AA72" t="n">
+        <v>21</v>
+      </c>
+      <c r="AB72" t="n">
         <v>29</v>
-      </c>
-      <c r="AA72" t="n">
-        <v>23</v>
-      </c>
-      <c r="AB72" t="n">
-        <v>34</v>
       </c>
       <c r="AC72" t="n">
         <v>11</v>
@@ -13559,43 +13559,43 @@
         <v>6.5</v>
       </c>
       <c r="AE72" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AF72" t="n">
         <v>41</v>
       </c>
       <c r="AG72" t="n">
-        <v>600</v>
+        <v>450</v>
       </c>
       <c r="AH72" t="n">
-        <v>8.5</v>
+        <v>9.5</v>
       </c>
       <c r="AI72" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AJ72" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AK72" t="n">
+        <v>26</v>
+      </c>
+      <c r="AL72" t="n">
         <v>21</v>
       </c>
-      <c r="AL72" t="n">
-        <v>19</v>
-      </c>
       <c r="AM72" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AN72" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="AO72" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AP72" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AQ72" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AR72" t="n">
         <v>67</v>
@@ -13613,19 +13613,19 @@
         <v>51</v>
       </c>
       <c r="AW72" t="n">
-        <v>4.33</v>
+        <v>4.75</v>
       </c>
       <c r="AX72" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="AY72" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AZ72" t="n">
         <v>41</v>
       </c>
       <c r="BA72" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="BB72" t="n">
         <v>151</v>
@@ -13851,22 +13851,22 @@
         </is>
       </c>
       <c r="G74" t="n">
-        <v>5.5</v>
+        <v>6.3</v>
       </c>
       <c r="H74" t="n">
-        <v>4.15</v>
+        <v>4.4</v>
       </c>
       <c r="I74" t="n">
-        <v>1.55</v>
+        <v>1.47</v>
       </c>
       <c r="J74" t="n">
-        <v>5.2</v>
+        <v>5.6</v>
       </c>
       <c r="K74" t="n">
-        <v>2.35</v>
+        <v>2.4</v>
       </c>
       <c r="L74" t="n">
-        <v>2.02</v>
+        <v>1.95</v>
       </c>
       <c r="M74" t="n">
         <v>1.04</v>
@@ -13893,100 +13893,100 @@
         <v>3.25</v>
       </c>
       <c r="U74" t="n">
-        <v>1.7</v>
+        <v>1.75</v>
       </c>
       <c r="V74" t="n">
-        <v>2.05</v>
+        <v>1.98</v>
       </c>
       <c r="W74" t="n">
-        <v>16</v>
+        <v>18.5</v>
       </c>
       <c r="X74" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="Y74" t="n">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="Z74" t="n">
-        <v>120</v>
+        <v>150</v>
       </c>
       <c r="AA74" t="n">
+        <v>65</v>
+      </c>
+      <c r="AB74" t="n">
         <v>55</v>
-      </c>
-      <c r="AB74" t="n">
-        <v>50</v>
       </c>
       <c r="AC74" t="n">
         <v>9.5</v>
       </c>
       <c r="AD74" t="n">
-        <v>8.75</v>
+        <v>9.25</v>
       </c>
       <c r="AE74" t="n">
-        <v>16</v>
+        <v>17.5</v>
       </c>
       <c r="AF74" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="AG74" t="n">
-        <v>450</v>
+        <v>500</v>
       </c>
       <c r="AH74" t="n">
-        <v>7.9</v>
+        <v>7.5</v>
       </c>
       <c r="AI74" t="n">
-        <v>8.75</v>
+        <v>8</v>
       </c>
       <c r="AJ74" t="n">
         <v>8.5</v>
       </c>
       <c r="AK74" t="n">
-        <v>12.5</v>
+        <v>11</v>
       </c>
       <c r="AL74" t="n">
-        <v>12</v>
+        <v>11.75</v>
       </c>
       <c r="AM74" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AN74" t="n">
-        <v>7.1</v>
+        <v>7.7</v>
       </c>
       <c r="AO74" t="n">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="AP74" t="n">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="AQ74" t="n">
-        <v>175</v>
+        <v>250</v>
       </c>
       <c r="AR74" t="n">
-        <v>175</v>
+        <v>200</v>
       </c>
       <c r="AS74" t="n">
-        <v>300</v>
+        <v>350</v>
       </c>
       <c r="AT74" t="n">
         <v>3.25</v>
       </c>
       <c r="AU74" t="n">
-        <v>7.2</v>
+        <v>7.5</v>
       </c>
       <c r="AV74" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AW74" t="n">
-        <v>3.55</v>
+        <v>3.4</v>
       </c>
       <c r="AX74" t="n">
-        <v>7.2</v>
+        <v>6.7</v>
       </c>
       <c r="AY74" t="n">
         <v>15</v>
       </c>
       <c r="AZ74" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="BA74" t="n">
         <v>45</v>
@@ -14400,7 +14400,7 @@
         <v>2.2</v>
       </c>
       <c r="H77" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="I77" t="n">
         <v>3.3</v>
@@ -14466,7 +14466,7 @@
         <v>10</v>
       </c>
       <c r="AD77" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AE77" t="n">
         <v>13</v>
@@ -14579,10 +14579,10 @@
         </is>
       </c>
       <c r="G78" t="n">
-        <v>2.5</v>
+        <v>2.47</v>
       </c>
       <c r="H78" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="I78" t="n">
         <v>2.67</v>
@@ -14591,7 +14591,7 @@
         <v>3.1</v>
       </c>
       <c r="K78" t="n">
-        <v>2.1</v>
+        <v>2.07</v>
       </c>
       <c r="L78" t="n">
         <v>3.25</v>
@@ -14603,55 +14603,55 @@
         <v>7.5</v>
       </c>
       <c r="O78" t="n">
-        <v>1.27</v>
+        <v>1.28</v>
       </c>
       <c r="P78" t="n">
-        <v>3.45</v>
+        <v>3.35</v>
       </c>
       <c r="Q78" t="n">
-        <v>1.82</v>
+        <v>1.83</v>
       </c>
       <c r="R78" t="n">
-        <v>1.93</v>
+        <v>1.9</v>
       </c>
       <c r="S78" t="n">
-        <v>1.39</v>
+        <v>1.4</v>
       </c>
       <c r="T78" t="n">
-        <v>2.77</v>
+        <v>2.7</v>
       </c>
       <c r="U78" t="n">
-        <v>1.62</v>
+        <v>1.65</v>
       </c>
       <c r="V78" t="n">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="W78" t="n">
-        <v>9.25</v>
+        <v>9</v>
       </c>
       <c r="X78" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="Y78" t="n">
         <v>9.25</v>
       </c>
       <c r="Z78" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AA78" t="n">
         <v>19.5</v>
       </c>
       <c r="AB78" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AC78" t="n">
         <v>7.5</v>
       </c>
       <c r="AD78" t="n">
-        <v>6.3</v>
+        <v>6.4</v>
       </c>
       <c r="AE78" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="AF78" t="n">
         <v>50</v>
@@ -14675,16 +14675,16 @@
         <v>21</v>
       </c>
       <c r="AM78" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AN78" t="n">
-        <v>4.5</v>
+        <v>4.45</v>
       </c>
       <c r="AO78" t="n">
         <v>13.5</v>
       </c>
       <c r="AP78" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AQ78" t="n">
         <v>55</v>
@@ -14696,28 +14696,28 @@
         <v>250</v>
       </c>
       <c r="AT78" t="n">
-        <v>2.77</v>
+        <v>2.7</v>
       </c>
       <c r="AU78" t="n">
-        <v>6.7</v>
+        <v>6.9</v>
       </c>
       <c r="AV78" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AW78" t="n">
-        <v>4.7</v>
+        <v>4.65</v>
       </c>
       <c r="AX78" t="n">
         <v>14.5</v>
       </c>
       <c r="AY78" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AZ78" t="n">
         <v>65</v>
       </c>
       <c r="BA78" t="n">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="BB78" t="n">
         <v>250</v>
@@ -14764,19 +14764,19 @@
         <v>2.62</v>
       </c>
       <c r="H79" t="n">
-        <v>3.2</v>
+        <v>3.15</v>
       </c>
       <c r="I79" t="n">
-        <v>2.6</v>
+        <v>2.62</v>
       </c>
       <c r="J79" t="n">
-        <v>3.25</v>
+        <v>3.15</v>
       </c>
       <c r="K79" t="n">
-        <v>2.07</v>
+        <v>2.1</v>
       </c>
       <c r="L79" t="n">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="M79" t="n">
         <v>1.05</v>
@@ -14788,7 +14788,7 @@
         <v>1.25</v>
       </c>
       <c r="P79" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="Q79" t="n">
         <v>1.75</v>
@@ -14800,7 +14800,7 @@
         <v>1.38</v>
       </c>
       <c r="T79" t="n">
-        <v>2.8</v>
+        <v>2.82</v>
       </c>
       <c r="U79" t="n">
         <v>1.57</v>
@@ -14809,10 +14809,10 @@
         <v>2.25</v>
       </c>
       <c r="W79" t="n">
-        <v>9.25</v>
+        <v>9.75</v>
       </c>
       <c r="X79" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="Y79" t="n">
         <v>9.5</v>
@@ -14821,16 +14821,16 @@
         <v>30</v>
       </c>
       <c r="AA79" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AB79" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AC79" t="n">
         <v>7.7</v>
       </c>
       <c r="AD79" t="n">
-        <v>6.3</v>
+        <v>6.2</v>
       </c>
       <c r="AE79" t="n">
         <v>11.25</v>
@@ -14839,13 +14839,13 @@
         <v>45</v>
       </c>
       <c r="AG79" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="AH79" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="AI79" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="AJ79" t="n">
         <v>9.5</v>
@@ -14854,31 +14854,31 @@
         <v>32</v>
       </c>
       <c r="AL79" t="n">
-        <v>19.5</v>
+        <v>20</v>
       </c>
       <c r="AM79" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AN79" t="n">
         <v>4.7</v>
       </c>
       <c r="AO79" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="AP79" t="n">
-        <v>21</v>
+        <v>19.5</v>
       </c>
       <c r="AQ79" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AR79" t="n">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AS79" t="n">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="AT79" t="n">
-        <v>2.8</v>
+        <v>2.82</v>
       </c>
       <c r="AU79" t="n">
         <v>6.4</v>
@@ -14890,16 +14890,16 @@
         <v>4.7</v>
       </c>
       <c r="AX79" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="AY79" t="n">
-        <v>18.5</v>
+        <v>19</v>
       </c>
       <c r="AZ79" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="BA79" t="n">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="BB79" t="n">
         <v>200</v>
@@ -14943,79 +14943,79 @@
         </is>
       </c>
       <c r="G80" t="n">
-        <v>2.67</v>
+        <v>2.72</v>
       </c>
       <c r="H80" t="n">
         <v>3.45</v>
       </c>
       <c r="I80" t="n">
-        <v>2.42</v>
+        <v>2.35</v>
       </c>
       <c r="J80" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="K80" t="n">
         <v>2.22</v>
       </c>
       <c r="L80" t="n">
-        <v>2.9</v>
+        <v>2.85</v>
       </c>
       <c r="M80" t="n">
         <v>1.04</v>
       </c>
       <c r="N80" t="n">
-        <v>8.25</v>
+        <v>8.5</v>
       </c>
       <c r="O80" t="n">
-        <v>1.22</v>
+        <v>1.21</v>
       </c>
       <c r="P80" t="n">
-        <v>3.85</v>
+        <v>3.95</v>
       </c>
       <c r="Q80" t="n">
-        <v>1.7</v>
+        <v>1.65</v>
       </c>
       <c r="R80" t="n">
-        <v>2.07</v>
+        <v>2.15</v>
       </c>
       <c r="S80" t="n">
-        <v>1.33</v>
+        <v>1.32</v>
       </c>
       <c r="T80" t="n">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="U80" t="n">
-        <v>1.55</v>
+        <v>1.53</v>
       </c>
       <c r="V80" t="n">
-        <v>2.3</v>
+        <v>2.35</v>
       </c>
       <c r="W80" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="X80" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="Y80" t="n">
-        <v>9.75</v>
+        <v>10</v>
       </c>
       <c r="Z80" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="AA80" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AB80" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AC80" t="n">
-        <v>8.25</v>
+        <v>8.5</v>
       </c>
       <c r="AD80" t="n">
-        <v>6.8</v>
+        <v>6.9</v>
       </c>
       <c r="AE80" t="n">
-        <v>11.75</v>
+        <v>11.5</v>
       </c>
       <c r="AF80" t="n">
         <v>40</v>
@@ -15024,28 +15024,28 @@
         <v>250</v>
       </c>
       <c r="AH80" t="n">
-        <v>10.5</v>
+        <v>10.75</v>
       </c>
       <c r="AI80" t="n">
         <v>14</v>
       </c>
       <c r="AJ80" t="n">
-        <v>9.25</v>
+        <v>9</v>
       </c>
       <c r="AK80" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AL80" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="AM80" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AN80" t="n">
-        <v>4.85</v>
+        <v>4.9</v>
       </c>
       <c r="AO80" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="AP80" t="n">
         <v>19</v>
@@ -15060,7 +15060,7 @@
         <v>200</v>
       </c>
       <c r="AT80" t="n">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="AU80" t="n">
         <v>6.4</v>
@@ -15069,19 +15069,19 @@
         <v>45</v>
       </c>
       <c r="AW80" t="n">
-        <v>4.6</v>
+        <v>4.55</v>
       </c>
       <c r="AX80" t="n">
         <v>12</v>
       </c>
       <c r="AY80" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="AZ80" t="n">
         <v>45</v>
       </c>
       <c r="BA80" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="BB80" t="n">
         <v>175</v>
@@ -15125,148 +15125,148 @@
         </is>
       </c>
       <c r="G81" t="n">
-        <v>2</v>
+        <v>1.78</v>
       </c>
       <c r="H81" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="I81" t="n">
-        <v>3.4</v>
+        <v>3.95</v>
       </c>
       <c r="J81" t="n">
-        <v>2.55</v>
+        <v>2.27</v>
       </c>
       <c r="K81" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="L81" t="n">
-        <v>3.7</v>
+        <v>4.2</v>
       </c>
       <c r="M81" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="N81" t="n">
+        <v>9</v>
+      </c>
+      <c r="O81" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="P81" t="n">
+        <v>4.35</v>
+      </c>
+      <c r="Q81" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="R81" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="S81" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="T81" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="U81" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="V81" t="n">
+        <v>2.37</v>
+      </c>
+      <c r="W81" t="n">
+        <v>10.25</v>
+      </c>
+      <c r="X81" t="n">
+        <v>10.75</v>
+      </c>
+      <c r="Y81" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="Z81" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AA81" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AB81" t="n">
+        <v>18</v>
+      </c>
+      <c r="AC81" t="n">
+        <v>9</v>
+      </c>
+      <c r="AD81" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="AE81" t="n">
+        <v>12</v>
+      </c>
+      <c r="AF81" t="n">
+        <v>40</v>
+      </c>
+      <c r="AG81" t="n">
+        <v>250</v>
+      </c>
+      <c r="AH81" t="n">
+        <v>15</v>
+      </c>
+      <c r="AI81" t="n">
+        <v>25</v>
+      </c>
+      <c r="AJ81" t="n">
+        <v>13</v>
+      </c>
+      <c r="AK81" t="n">
+        <v>60</v>
+      </c>
+      <c r="AL81" t="n">
+        <v>32</v>
+      </c>
+      <c r="AM81" t="n">
+        <v>30</v>
+      </c>
+      <c r="AN81" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="AO81" t="n">
         <v>8.75</v>
       </c>
-      <c r="O81" t="n">
-        <v>1.19</v>
-      </c>
-      <c r="P81" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="Q81" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="R81" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="S81" t="n">
-        <v>1.32</v>
-      </c>
-      <c r="T81" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="U81" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="V81" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="W81" t="n">
-        <v>10</v>
-      </c>
-      <c r="X81" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="Y81" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="Z81" t="n">
-        <v>19.5</v>
-      </c>
-      <c r="AA81" t="n">
-        <v>14</v>
-      </c>
-      <c r="AB81" t="n">
-        <v>19.5</v>
-      </c>
-      <c r="AC81" t="n">
-        <v>8.75</v>
-      </c>
-      <c r="AD81" t="n">
-        <v>7.2</v>
-      </c>
-      <c r="AE81" t="n">
-        <v>11.25</v>
-      </c>
-      <c r="AF81" t="n">
-        <v>37</v>
-      </c>
-      <c r="AG81" t="n">
-        <v>200</v>
-      </c>
-      <c r="AH81" t="n">
+      <c r="AP81" t="n">
         <v>14.5</v>
       </c>
-      <c r="AI81" t="n">
-        <v>22</v>
-      </c>
-      <c r="AJ81" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AK81" t="n">
-        <v>50</v>
-      </c>
-      <c r="AL81" t="n">
-        <v>26</v>
-      </c>
-      <c r="AM81" t="n">
-        <v>25</v>
-      </c>
-      <c r="AN81" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="AO81" t="n">
-        <v>10.25</v>
-      </c>
-      <c r="AP81" t="n">
-        <v>15.5</v>
-      </c>
       <c r="AQ81" t="n">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="AR81" t="n">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="AS81" t="n">
         <v>150</v>
       </c>
       <c r="AT81" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="AU81" t="n">
-        <v>6.3</v>
+        <v>6.6</v>
       </c>
       <c r="AV81" t="n">
         <v>45</v>
       </c>
       <c r="AW81" t="n">
-        <v>5.6</v>
+        <v>6.1</v>
       </c>
       <c r="AX81" t="n">
-        <v>17.5</v>
+        <v>21</v>
       </c>
       <c r="AY81" t="n">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="AZ81" t="n">
-        <v>80</v>
+        <v>110</v>
       </c>
       <c r="BA81" t="n">
-        <v>90</v>
+        <v>120</v>
       </c>
       <c r="BB81" t="n">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="BC81" t="n">
         <v>51</v>
@@ -15853,22 +15853,22 @@
         </is>
       </c>
       <c r="G85" t="n">
-        <v>2.27</v>
+        <v>2.25</v>
       </c>
       <c r="H85" t="n">
         <v>2.95</v>
       </c>
       <c r="I85" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="J85" t="n">
-        <v>2.9</v>
+        <v>2.85</v>
       </c>
       <c r="K85" t="n">
         <v>1.98</v>
       </c>
       <c r="L85" t="n">
-        <v>3.7</v>
+        <v>3.8</v>
       </c>
       <c r="M85" t="n">
         <v>1.03</v>
@@ -15901,7 +15901,7 @@
         <v>1.8</v>
       </c>
       <c r="W85" t="n">
-        <v>6.7</v>
+        <v>6.8</v>
       </c>
       <c r="X85" t="n">
         <v>10.5</v>
@@ -15913,7 +15913,7 @@
         <v>23</v>
       </c>
       <c r="AA85" t="n">
-        <v>20</v>
+        <v>19.5</v>
       </c>
       <c r="AB85" t="n">
         <v>32</v>
@@ -15934,43 +15934,43 @@
         <v>700</v>
       </c>
       <c r="AH85" t="n">
-        <v>8.75</v>
+        <v>8.5</v>
       </c>
       <c r="AI85" t="n">
         <v>16.5</v>
       </c>
       <c r="AJ85" t="n">
-        <v>11.25</v>
+        <v>11.5</v>
       </c>
       <c r="AK85" t="n">
         <v>45</v>
       </c>
       <c r="AL85" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="AM85" t="n">
         <v>40</v>
       </c>
       <c r="AN85" t="n">
-        <v>4.1</v>
+        <v>4.05</v>
       </c>
       <c r="AO85" t="n">
-        <v>12</v>
+        <v>11.75</v>
       </c>
       <c r="AP85" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AQ85" t="n">
         <v>50</v>
       </c>
       <c r="AR85" t="n">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AS85" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="AT85" t="n">
-        <v>2.4</v>
+        <v>2.37</v>
       </c>
       <c r="AU85" t="n">
         <v>6.9</v>
@@ -15979,22 +15979,22 @@
         <v>65</v>
       </c>
       <c r="AW85" t="n">
-        <v>5</v>
+        <v>5.1</v>
       </c>
       <c r="AX85" t="n">
-        <v>17.5</v>
+        <v>18.5</v>
       </c>
       <c r="AY85" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="AZ85" t="n">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="BA85" t="n">
-        <v>120</v>
+        <v>150</v>
       </c>
       <c r="BB85" t="n">
-        <v>300</v>
+        <v>350</v>
       </c>
       <c r="BC85" t="n">
         <v>51</v>
@@ -16068,7 +16068,7 @@
         <v>1.88</v>
       </c>
       <c r="R86" t="n">
-        <v>1.82</v>
+        <v>1.83</v>
       </c>
       <c r="S86" t="n">
         <v>1.39</v>
@@ -16083,7 +16083,7 @@
         <v>1.93</v>
       </c>
       <c r="W86" t="n">
-        <v>7.3</v>
+        <v>7.4</v>
       </c>
       <c r="X86" t="n">
         <v>9.5</v>
@@ -16107,7 +16107,7 @@
         <v>6.4</v>
       </c>
       <c r="AE86" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AF86" t="n">
         <v>60</v>
@@ -16131,7 +16131,7 @@
         <v>35</v>
       </c>
       <c r="AM86" t="n">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="AN86" t="n">
         <v>3.8</v>
@@ -16155,7 +16155,7 @@
         <v>2.52</v>
       </c>
       <c r="AU86" t="n">
-        <v>7</v>
+        <v>6.9</v>
       </c>
       <c r="AV86" t="n">
         <v>60</v>
@@ -16217,40 +16217,40 @@
         </is>
       </c>
       <c r="G87" t="n">
-        <v>1.31</v>
+        <v>1.34</v>
       </c>
       <c r="H87" t="n">
-        <v>4.65</v>
+        <v>4.45</v>
       </c>
       <c r="I87" t="n">
-        <v>8.25</v>
+        <v>7.8</v>
       </c>
       <c r="J87" t="n">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="K87" t="n">
-        <v>2.45</v>
+        <v>2.4</v>
       </c>
       <c r="L87" t="n">
-        <v>7.5</v>
+        <v>7.1</v>
       </c>
       <c r="M87" t="n">
         <v>1.04</v>
       </c>
       <c r="N87" t="n">
-        <v>8.5</v>
+        <v>8.25</v>
       </c>
       <c r="O87" t="n">
         <v>1.22</v>
       </c>
       <c r="P87" t="n">
-        <v>3.85</v>
+        <v>3.8</v>
       </c>
       <c r="Q87" t="n">
-        <v>1.65</v>
+        <v>1.7</v>
       </c>
       <c r="R87" t="n">
-        <v>2.15</v>
+        <v>2.07</v>
       </c>
       <c r="S87" t="n">
         <v>1.33</v>
@@ -16259,73 +16259,73 @@
         <v>3.05</v>
       </c>
       <c r="U87" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="V87" t="n">
-        <v>1.7</v>
+        <v>1.72</v>
       </c>
       <c r="W87" t="n">
         <v>6.9</v>
       </c>
       <c r="X87" t="n">
-        <v>6.2</v>
+        <v>6.3</v>
       </c>
       <c r="Y87" t="n">
         <v>8.5</v>
       </c>
       <c r="Z87" t="n">
-        <v>8</v>
+        <v>8.25</v>
       </c>
       <c r="AA87" t="n">
-        <v>11</v>
+        <v>11.25</v>
       </c>
       <c r="AB87" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AC87" t="n">
-        <v>8.5</v>
+        <v>8.25</v>
       </c>
       <c r="AD87" t="n">
-        <v>9.5</v>
+        <v>9.25</v>
       </c>
       <c r="AE87" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AF87" t="n">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="AG87" t="n">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="AH87" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AI87" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AJ87" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="AK87" t="n">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="AL87" t="n">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="AM87" t="n">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AN87" t="n">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="AO87" t="n">
-        <v>5.8</v>
+        <v>6</v>
       </c>
       <c r="AP87" t="n">
         <v>16.5</v>
       </c>
       <c r="AQ87" t="n">
-        <v>15.5</v>
+        <v>16.5</v>
       </c>
       <c r="AR87" t="n">
         <v>45</v>
@@ -16337,25 +16337,25 @@
         <v>3.05</v>
       </c>
       <c r="AU87" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AV87" t="n">
+        <v>80</v>
+      </c>
+      <c r="AW87" t="n">
         <v>9</v>
-      </c>
-      <c r="AV87" t="n">
-        <v>90</v>
-      </c>
-      <c r="AW87" t="n">
-        <v>9.5</v>
       </c>
       <c r="AX87" t="n">
         <v>50</v>
       </c>
       <c r="AY87" t="n">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="AZ87" t="n">
-        <v>400</v>
+        <v>350</v>
       </c>
       <c r="BA87" t="n">
-        <v>400</v>
+        <v>350</v>
       </c>
       <c r="BB87" t="n">
         <v>500</v>
@@ -16399,148 +16399,148 @@
         </is>
       </c>
       <c r="G88" t="n">
-        <v>2.07</v>
+        <v>2.15</v>
       </c>
       <c r="H88" t="n">
-        <v>3</v>
+        <v>2.8</v>
       </c>
       <c r="I88" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="J88" t="n">
-        <v>2.67</v>
+        <v>2.8</v>
       </c>
       <c r="K88" t="n">
-        <v>2.02</v>
+        <v>1.95</v>
       </c>
       <c r="L88" t="n">
-        <v>4.15</v>
+        <v>4.1</v>
       </c>
       <c r="M88" t="n">
-        <v>1.09</v>
+        <v>1.1</v>
       </c>
       <c r="N88" t="n">
-        <v>6.2</v>
+        <v>6</v>
       </c>
       <c r="O88" t="n">
-        <v>1.39</v>
+        <v>1.4</v>
       </c>
       <c r="P88" t="n">
-        <v>2.77</v>
+        <v>2.75</v>
       </c>
       <c r="Q88" t="n">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="R88" t="n">
-        <v>1.65</v>
+        <v>1.62</v>
       </c>
       <c r="S88" t="n">
-        <v>1.45</v>
+        <v>1.47</v>
       </c>
       <c r="T88" t="n">
-        <v>2.57</v>
+        <v>2.52</v>
       </c>
       <c r="U88" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="V88" t="n">
         <v>1.87</v>
       </c>
-      <c r="V88" t="n">
-        <v>1.83</v>
-      </c>
       <c r="W88" t="n">
-        <v>6.6</v>
+        <v>6.4</v>
       </c>
       <c r="X88" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="Y88" t="n">
         <v>8.75</v>
       </c>
       <c r="Z88" t="n">
+        <v>22</v>
+      </c>
+      <c r="AA88" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="AB88" t="n">
+        <v>32</v>
+      </c>
+      <c r="AC88" t="n">
+        <v>6</v>
+      </c>
+      <c r="AD88" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="AE88" t="n">
+        <v>14</v>
+      </c>
+      <c r="AF88" t="n">
+        <v>70</v>
+      </c>
+      <c r="AG88" t="n">
+        <v>600</v>
+      </c>
+      <c r="AH88" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AI88" t="n">
         <v>20</v>
       </c>
-      <c r="AA88" t="n">
-        <v>18</v>
-      </c>
-      <c r="AB88" t="n">
-        <v>30</v>
-      </c>
-      <c r="AC88" t="n">
-        <v>6.2</v>
-      </c>
-      <c r="AD88" t="n">
-        <v>5.9</v>
-      </c>
-      <c r="AE88" t="n">
-        <v>15</v>
-      </c>
-      <c r="AF88" t="n">
-        <v>80</v>
-      </c>
-      <c r="AG88" t="n">
-        <v>700</v>
-      </c>
-      <c r="AH88" t="n">
-        <v>9</v>
-      </c>
-      <c r="AI88" t="n">
-        <v>18.5</v>
-      </c>
       <c r="AJ88" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AK88" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AL88" t="n">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="AM88" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="AN88" t="n">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="AO88" t="n">
-        <v>10.75</v>
+        <v>11.75</v>
       </c>
       <c r="AP88" t="n">
-        <v>19.5</v>
+        <v>20</v>
       </c>
       <c r="AQ88" t="n">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="AR88" t="n">
-        <v>75</v>
+        <v>90</v>
       </c>
       <c r="AS88" t="n">
         <v>250</v>
       </c>
       <c r="AT88" t="n">
-        <v>2.57</v>
+        <v>2.52</v>
       </c>
       <c r="AU88" t="n">
-        <v>7.1</v>
+        <v>6.7</v>
       </c>
       <c r="AV88" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AW88" t="n">
-        <v>5.4</v>
+        <v>5.5</v>
       </c>
       <c r="AX88" t="n">
         <v>21</v>
       </c>
       <c r="AY88" t="n">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="AZ88" t="n">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="BA88" t="n">
         <v>150</v>
       </c>
       <c r="BB88" t="n">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="BC88" t="n">
         <v>51</v>
@@ -16581,46 +16581,46 @@
         </is>
       </c>
       <c r="G89" t="n">
-        <v>9.25</v>
+        <v>11</v>
       </c>
       <c r="H89" t="n">
         <v>5.4</v>
       </c>
       <c r="I89" t="n">
-        <v>1.24</v>
+        <v>1.21</v>
       </c>
       <c r="J89" t="n">
-        <v>7.9</v>
+        <v>8.75</v>
       </c>
       <c r="K89" t="n">
-        <v>2.67</v>
+        <v>2.7</v>
       </c>
       <c r="L89" t="n">
-        <v>1.65</v>
+        <v>1.6</v>
       </c>
       <c r="M89" t="n">
         <v>1.03</v>
       </c>
       <c r="N89" t="n">
-        <v>9.25</v>
+        <v>9.5</v>
       </c>
       <c r="O89" t="n">
-        <v>1.17</v>
+        <v>1.16</v>
       </c>
       <c r="P89" t="n">
-        <v>4.5</v>
+        <v>4.65</v>
       </c>
       <c r="Q89" t="n">
-        <v>1.52</v>
+        <v>1.47</v>
       </c>
       <c r="R89" t="n">
-        <v>2.37</v>
+        <v>2.5</v>
       </c>
       <c r="S89" t="n">
-        <v>1.28</v>
+        <v>1.27</v>
       </c>
       <c r="T89" t="n">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="U89" t="n">
         <v>2.02</v>
@@ -16629,28 +16629,28 @@
         <v>1.7</v>
       </c>
       <c r="W89" t="n">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="X89" t="n">
-        <v>75</v>
+        <v>100</v>
       </c>
       <c r="Y89" t="n">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="Z89" t="n">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="AA89" t="n">
-        <v>120</v>
+        <v>150</v>
       </c>
       <c r="AB89" t="n">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="AC89" t="n">
-        <v>9.25</v>
+        <v>9.5</v>
       </c>
       <c r="AD89" t="n">
-        <v>11.5</v>
+        <v>11.75</v>
       </c>
       <c r="AE89" t="n">
         <v>25</v>
@@ -16659,10 +16659,10 @@
         <v>110</v>
       </c>
       <c r="AG89" t="n">
-        <v>900</v>
+        <v>800</v>
       </c>
       <c r="AH89" t="n">
-        <v>8</v>
+        <v>8.25</v>
       </c>
       <c r="AI89" t="n">
         <v>6.4</v>
@@ -16671,55 +16671,55 @@
         <v>9.25</v>
       </c>
       <c r="AK89" t="n">
-        <v>7.4</v>
+        <v>7.3</v>
       </c>
       <c r="AL89" t="n">
-        <v>10.75</v>
+        <v>10.5</v>
       </c>
       <c r="AM89" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AN89" t="n">
-        <v>10.25</v>
+        <v>11.5</v>
       </c>
       <c r="AO89" t="n">
+        <v>65</v>
+      </c>
+      <c r="AP89" t="n">
         <v>55</v>
       </c>
-      <c r="AP89" t="n">
-        <v>50</v>
-      </c>
       <c r="AQ89" t="n">
+        <v>500</v>
+      </c>
+      <c r="AR89" t="n">
         <v>450</v>
       </c>
-      <c r="AR89" t="n">
-        <v>400</v>
-      </c>
       <c r="AS89" t="n">
         <v>51</v>
       </c>
       <c r="AT89" t="n">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="AU89" t="n">
         <v>9.25</v>
       </c>
       <c r="AV89" t="n">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AW89" t="n">
         <v>3.15</v>
       </c>
       <c r="AX89" t="n">
-        <v>5.3</v>
+        <v>5.1</v>
       </c>
       <c r="AY89" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="AZ89" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="BA89" t="n">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="BB89" t="n">
         <v>200</v>

--- a/Jogos_da_Semana_FlashScore_2024-09-27.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-09-27.xlsx
@@ -3310,25 +3310,25 @@
         <v>2.25</v>
       </c>
       <c r="L16" t="n">
+        <v>9</v>
+      </c>
+      <c r="M16" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="N16" t="n">
         <v>8.5</v>
       </c>
-      <c r="M16" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="N16" t="n">
-        <v>10</v>
-      </c>
       <c r="O16" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="P16" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="Q16" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="R16" t="n">
-        <v>1.73</v>
+        <v>1.7</v>
       </c>
       <c r="S16" t="n">
         <v>1.44</v>
@@ -3337,13 +3337,13 @@
         <v>2.63</v>
       </c>
       <c r="U16" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="V16" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="W16" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="X16" t="n">
         <v>5.5</v>
@@ -3391,7 +3391,7 @@
         <v>67</v>
       </c>
       <c r="AM16" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AN16" t="n">
         <v>3.1</v>
@@ -3477,7 +3477,7 @@
         </is>
       </c>
       <c r="G17" t="n">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="H17" t="n">
         <v>3.1</v>
@@ -3519,22 +3519,22 @@
         <v>2.25</v>
       </c>
       <c r="U17" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="V17" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="W17" t="n">
         <v>5.5</v>
       </c>
       <c r="X17" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="Y17" t="n">
         <v>9.5</v>
       </c>
       <c r="Z17" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AA17" t="n">
         <v>19</v>
@@ -3543,7 +3543,7 @@
         <v>41</v>
       </c>
       <c r="AC17" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AD17" t="n">
         <v>6</v>
@@ -3582,7 +3582,7 @@
         <v>11</v>
       </c>
       <c r="AP17" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AQ17" t="n">
         <v>41</v>
@@ -3659,16 +3659,16 @@
         </is>
       </c>
       <c r="G18" t="n">
-        <v>1.75</v>
+        <v>1.7</v>
       </c>
       <c r="H18" t="n">
         <v>3.3</v>
       </c>
       <c r="I18" t="n">
-        <v>5.25</v>
+        <v>5.5</v>
       </c>
       <c r="J18" t="n">
-        <v>2.4</v>
+        <v>2.38</v>
       </c>
       <c r="K18" t="n">
         <v>2.1</v>
@@ -3677,10 +3677,10 @@
         <v>5.5</v>
       </c>
       <c r="M18" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="N18" t="n">
-        <v>7.5</v>
+        <v>9</v>
       </c>
       <c r="O18" t="n">
         <v>1.36</v>
@@ -3689,10 +3689,10 @@
         <v>3</v>
       </c>
       <c r="Q18" t="n">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="R18" t="n">
-        <v>1.65</v>
+        <v>1.67</v>
       </c>
       <c r="S18" t="n">
         <v>1.44</v>
@@ -3719,13 +3719,13 @@
         <v>13</v>
       </c>
       <c r="AA18" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AB18" t="n">
         <v>34</v>
       </c>
       <c r="AC18" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AD18" t="n">
         <v>6.5</v>
@@ -3746,7 +3746,7 @@
         <v>26</v>
       </c>
       <c r="AJ18" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AK18" t="n">
         <v>51</v>
@@ -3761,13 +3761,13 @@
         <v>3.6</v>
       </c>
       <c r="AO18" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AP18" t="n">
         <v>23</v>
       </c>
       <c r="AQ18" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AR18" t="n">
         <v>51</v>
@@ -3797,7 +3797,7 @@
         <v>101</v>
       </c>
       <c r="BA18" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="BB18" t="n">
         <v>351</v>
@@ -4229,10 +4229,10 @@
         <v>5.5</v>
       </c>
       <c r="O21" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="P21" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="Q21" t="n">
         <v>3.1</v>
@@ -4933,22 +4933,22 @@
         </is>
       </c>
       <c r="G25" t="n">
-        <v>1.91</v>
+        <v>1.75</v>
       </c>
       <c r="H25" t="n">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="I25" t="n">
-        <v>4.2</v>
+        <v>4.75</v>
       </c>
       <c r="J25" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="K25" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="L25" t="n">
-        <v>4.75</v>
+        <v>5.5</v>
       </c>
       <c r="M25" t="n">
         <v>1.08</v>
@@ -4957,10 +4957,10 @@
         <v>8</v>
       </c>
       <c r="O25" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="P25" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="Q25" t="n">
         <v>2.35</v>
@@ -4981,19 +4981,19 @@
         <v>1.67</v>
       </c>
       <c r="W25" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="X25" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="Y25" t="n">
         <v>9</v>
       </c>
       <c r="Z25" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AA25" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AB25" t="n">
         <v>34</v>
@@ -5014,16 +5014,16 @@
         <v>1250</v>
       </c>
       <c r="AH25" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AI25" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AJ25" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AK25" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AL25" t="n">
         <v>41</v>
@@ -5032,16 +5032,16 @@
         <v>51</v>
       </c>
       <c r="AN25" t="n">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="AO25" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AP25" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AQ25" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AR25" t="n">
         <v>67</v>
@@ -5059,19 +5059,19 @@
         <v>67</v>
       </c>
       <c r="AW25" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AX25" t="n">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="AY25" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AZ25" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="BA25" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="BB25" t="n">
         <v>351</v>
@@ -9119,28 +9119,28 @@
         </is>
       </c>
       <c r="G48" t="n">
-        <v>2.25</v>
+        <v>2.38</v>
       </c>
       <c r="H48" t="n">
         <v>3.4</v>
       </c>
       <c r="I48" t="n">
-        <v>3.1</v>
+        <v>2.88</v>
       </c>
       <c r="J48" t="n">
         <v>2.88</v>
       </c>
       <c r="K48" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="L48" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="M48" t="n">
         <v>1.04</v>
       </c>
       <c r="N48" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="O48" t="n">
         <v>1.22</v>
@@ -9161,22 +9161,22 @@
         <v>3.25</v>
       </c>
       <c r="U48" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="V48" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="W48" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="X48" t="n">
         <v>12</v>
       </c>
       <c r="Y48" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="Z48" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AA48" t="n">
         <v>17</v>
@@ -9185,7 +9185,7 @@
         <v>23</v>
       </c>
       <c r="AC48" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AD48" t="n">
         <v>6.5</v>
@@ -9197,10 +9197,10 @@
         <v>41</v>
       </c>
       <c r="AG48" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="AH48" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AI48" t="n">
         <v>17</v>
@@ -9209,7 +9209,7 @@
         <v>11</v>
       </c>
       <c r="AK48" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AL48" t="n">
         <v>23</v>
@@ -9224,7 +9224,7 @@
         <v>12</v>
       </c>
       <c r="AP48" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AQ48" t="n">
         <v>41</v>
@@ -9260,10 +9260,10 @@
         <v>67</v>
       </c>
       <c r="BB48" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="BC48" t="n">
-        <v>451</v>
+        <v>501</v>
       </c>
       <c r="BD48" t="n">
         <v>126</v>
@@ -9310,7 +9310,7 @@
         <v>2.3</v>
       </c>
       <c r="J49" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="K49" t="n">
         <v>2.2</v>
@@ -9364,7 +9364,7 @@
         <v>23</v>
       </c>
       <c r="AB49" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AC49" t="n">
         <v>11</v>
@@ -9385,7 +9385,7 @@
         <v>8.5</v>
       </c>
       <c r="AI49" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AJ49" t="n">
         <v>9.5</v>
@@ -9483,46 +9483,46 @@
         </is>
       </c>
       <c r="G50" t="n">
-        <v>1.48</v>
+        <v>1.42</v>
       </c>
       <c r="H50" t="n">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="I50" t="n">
-        <v>6.5</v>
+        <v>7.5</v>
       </c>
       <c r="J50" t="n">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="K50" t="n">
         <v>2.5</v>
       </c>
       <c r="L50" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="M50" t="n">
         <v>1.03</v>
       </c>
       <c r="N50" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="O50" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="P50" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="Q50" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="R50" t="n">
-        <v>2.25</v>
+        <v>2.35</v>
       </c>
       <c r="S50" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="T50" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="U50" t="n">
         <v>1.75</v>
@@ -9534,25 +9534,25 @@
         <v>8.5</v>
       </c>
       <c r="X50" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="Y50" t="n">
         <v>8.5</v>
       </c>
       <c r="Z50" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AA50" t="n">
         <v>11</v>
       </c>
       <c r="AB50" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AC50" t="n">
         <v>15</v>
       </c>
       <c r="AD50" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AE50" t="n">
         <v>17</v>
@@ -9564,34 +9564,34 @@
         <v>201</v>
       </c>
       <c r="AH50" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AI50" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AJ50" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AK50" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AL50" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AM50" t="n">
         <v>41</v>
       </c>
       <c r="AN50" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="AO50" t="n">
         <v>7</v>
       </c>
       <c r="AP50" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AQ50" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AR50" t="n">
         <v>41</v>
@@ -9600,28 +9600,28 @@
         <v>101</v>
       </c>
       <c r="AT50" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="AU50" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AV50" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW50" t="n">
         <v>8</v>
       </c>
-      <c r="AV50" t="n">
-        <v>51</v>
-      </c>
-      <c r="AW50" t="n">
-        <v>7.5</v>
-      </c>
       <c r="AX50" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AY50" t="n">
         <v>34</v>
       </c>
       <c r="AZ50" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="BA50" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="BB50" t="n">
         <v>201</v>
@@ -9674,13 +9674,13 @@
         <v>3.8</v>
       </c>
       <c r="J51" t="n">
-        <v>2.55</v>
+        <v>2.5</v>
       </c>
       <c r="K51" t="n">
-        <v>2.05</v>
+        <v>2.07</v>
       </c>
       <c r="L51" t="n">
-        <v>4.15</v>
+        <v>4.25</v>
       </c>
       <c r="M51" t="n">
         <v>1.02</v>
@@ -9704,7 +9704,7 @@
         <v>1.4</v>
       </c>
       <c r="T51" t="n">
-        <v>2.52</v>
+        <v>2.55</v>
       </c>
       <c r="U51" t="n">
         <v>1.7</v>
@@ -9713,43 +9713,43 @@
         <v>1.91</v>
       </c>
       <c r="W51" t="n">
-        <v>7.1</v>
+        <v>7.4</v>
       </c>
       <c r="X51" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="Y51" t="n">
         <v>8.25</v>
       </c>
       <c r="Z51" t="n">
-        <v>16.5</v>
+        <v>17</v>
       </c>
       <c r="AA51" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="AB51" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AC51" t="n">
         <v>9.75</v>
       </c>
       <c r="AD51" t="n">
-        <v>6.5</v>
+        <v>6.4</v>
       </c>
       <c r="AE51" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="AF51" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="AG51" t="n">
-        <v>450</v>
+        <v>500</v>
       </c>
       <c r="AH51" t="n">
-        <v>11.75</v>
+        <v>10.75</v>
       </c>
       <c r="AI51" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AJ51" t="n">
         <v>12.5</v>
@@ -9761,22 +9761,22 @@
         <v>35</v>
       </c>
       <c r="AM51" t="n">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="AN51" t="n">
         <v>3.75</v>
       </c>
       <c r="AO51" t="n">
-        <v>10</v>
+        <v>9.75</v>
       </c>
       <c r="AP51" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AQ51" t="n">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="AR51" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AS51" t="n">
         <v>250</v>
@@ -9788,25 +9788,25 @@
         <v>7</v>
       </c>
       <c r="AV51" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="AW51" t="n">
         <v>5.6</v>
       </c>
       <c r="AX51" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AY51" t="n">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="AZ51" t="n">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="BA51" t="n">
         <v>150</v>
       </c>
       <c r="BB51" t="n">
-        <v>300</v>
+        <v>350</v>
       </c>
       <c r="BC51" t="n">
         <v>51</v>
@@ -9850,19 +9850,19 @@
         <v>1.72</v>
       </c>
       <c r="H52" t="n">
-        <v>3.65</v>
+        <v>3.7</v>
       </c>
       <c r="I52" t="n">
-        <v>4.3</v>
+        <v>4.25</v>
       </c>
       <c r="J52" t="n">
-        <v>2.27</v>
+        <v>2.25</v>
       </c>
       <c r="K52" t="n">
-        <v>2.18</v>
+        <v>2.2</v>
       </c>
       <c r="L52" t="n">
-        <v>4.45</v>
+        <v>4.5</v>
       </c>
       <c r="M52" t="n">
         <v>10.4</v>
@@ -9871,10 +9871,10 @@
         <v>1.04</v>
       </c>
       <c r="O52" t="n">
-        <v>1.23</v>
+        <v>1.24</v>
       </c>
       <c r="P52" t="n">
-        <v>3.35</v>
+        <v>3.3</v>
       </c>
       <c r="Q52" t="n">
         <v>1.7</v>
@@ -9895,7 +9895,7 @@
         <v>1.93</v>
       </c>
       <c r="W52" t="n">
-        <v>7.5</v>
+        <v>7.6</v>
       </c>
       <c r="X52" t="n">
         <v>8.5</v>
@@ -9913,25 +9913,25 @@
         <v>24</v>
       </c>
       <c r="AC52" t="n">
-        <v>11.75</v>
+        <v>11.5</v>
       </c>
       <c r="AD52" t="n">
         <v>7.2</v>
       </c>
       <c r="AE52" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="AF52" t="n">
         <v>60</v>
       </c>
       <c r="AG52" t="n">
-        <v>400</v>
+        <v>450</v>
       </c>
       <c r="AH52" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AI52" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AJ52" t="n">
         <v>14</v>
@@ -9940,7 +9940,7 @@
         <v>70</v>
       </c>
       <c r="AL52" t="n">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="AM52" t="n">
         <v>40</v>
@@ -9949,13 +9949,13 @@
         <v>3.6</v>
       </c>
       <c r="AO52" t="n">
-        <v>8.5</v>
+        <v>8.25</v>
       </c>
       <c r="AP52" t="n">
         <v>16.5</v>
       </c>
       <c r="AQ52" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AR52" t="n">
         <v>55</v>
@@ -9967,19 +9967,19 @@
         <v>2.67</v>
       </c>
       <c r="AU52" t="n">
-        <v>7.1</v>
+        <v>7.2</v>
       </c>
       <c r="AV52" t="n">
         <v>60</v>
       </c>
       <c r="AW52" t="n">
-        <v>6.1</v>
+        <v>6</v>
       </c>
       <c r="AX52" t="n">
         <v>23</v>
       </c>
       <c r="AY52" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AZ52" t="n">
         <v>120</v>
@@ -9988,7 +9988,7 @@
         <v>150</v>
       </c>
       <c r="BB52" t="n">
-        <v>300</v>
+        <v>350</v>
       </c>
       <c r="BC52" t="n">
         <v>51</v>
@@ -10939,22 +10939,22 @@
         </is>
       </c>
       <c r="G58" t="n">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="H58" t="n">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="I58" t="n">
-        <v>2.3</v>
+        <v>2.38</v>
       </c>
       <c r="J58" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="K58" t="n">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="L58" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="M58" t="n">
         <v>1.1</v>
@@ -10963,22 +10963,22 @@
         <v>7</v>
       </c>
       <c r="O58" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="P58" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="Q58" t="n">
-        <v>2.6</v>
+        <v>2.4</v>
       </c>
       <c r="R58" t="n">
-        <v>1.48</v>
+        <v>1.53</v>
       </c>
       <c r="S58" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="T58" t="n">
-        <v>2.25</v>
+        <v>2.38</v>
       </c>
       <c r="U58" t="n">
         <v>2.1</v>
@@ -10990,22 +10990,22 @@
         <v>7.5</v>
       </c>
       <c r="X58" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="Y58" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="Z58" t="n">
         <v>34</v>
       </c>
       <c r="AA58" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AB58" t="n">
         <v>41</v>
       </c>
       <c r="AC58" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AD58" t="n">
         <v>6</v>
@@ -11017,10 +11017,10 @@
         <v>67</v>
       </c>
       <c r="AG58" t="n">
-        <v>1000</v>
+        <v>1250</v>
       </c>
       <c r="AH58" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AI58" t="n">
         <v>10</v>
@@ -11041,7 +11041,7 @@
         <v>5</v>
       </c>
       <c r="AO58" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AP58" t="n">
         <v>34</v>
@@ -11053,10 +11053,10 @@
         <v>101</v>
       </c>
       <c r="AS58" t="n">
-        <v>351</v>
+        <v>301</v>
       </c>
       <c r="AT58" t="n">
-        <v>2.25</v>
+        <v>2.38</v>
       </c>
       <c r="AU58" t="n">
         <v>9</v>
@@ -11080,7 +11080,7 @@
         <v>81</v>
       </c>
       <c r="BB58" t="n">
-        <v>301</v>
+        <v>251</v>
       </c>
       <c r="BC58" t="n">
         <v>51</v>
@@ -11121,13 +11121,13 @@
         </is>
       </c>
       <c r="G59" t="n">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="H59" t="n">
         <v>3.1</v>
       </c>
       <c r="I59" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="J59" t="n">
         <v>3</v>
@@ -11139,10 +11139,10 @@
         <v>4</v>
       </c>
       <c r="M59" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="N59" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="O59" t="n">
         <v>1.4</v>
@@ -11163,13 +11163,13 @@
         <v>2.5</v>
       </c>
       <c r="U59" t="n">
-        <v>1.91</v>
+        <v>1.87</v>
       </c>
       <c r="V59" t="n">
-        <v>1.8</v>
+        <v>1.77</v>
       </c>
       <c r="W59" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="X59" t="n">
         <v>10</v>
@@ -11181,7 +11181,7 @@
         <v>21</v>
       </c>
       <c r="AA59" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AB59" t="n">
         <v>34</v>
@@ -11220,7 +11220,7 @@
         <v>41</v>
       </c>
       <c r="AN59" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="AO59" t="n">
         <v>13</v>
@@ -15853,142 +15853,142 @@
         </is>
       </c>
       <c r="G85" t="n">
-        <v>2.25</v>
+        <v>2.12</v>
       </c>
       <c r="H85" t="n">
-        <v>2.95</v>
+        <v>3</v>
       </c>
       <c r="I85" t="n">
-        <v>3.25</v>
+        <v>3.55</v>
       </c>
       <c r="J85" t="n">
-        <v>2.85</v>
+        <v>2.75</v>
       </c>
       <c r="K85" t="n">
         <v>1.98</v>
       </c>
       <c r="L85" t="n">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="M85" t="n">
-        <v>1.03</v>
+        <v>1.06</v>
       </c>
       <c r="N85" t="n">
-        <v>7</v>
+        <v>9.390000000000001</v>
       </c>
       <c r="O85" t="n">
-        <v>1.37</v>
+        <v>1.39</v>
       </c>
       <c r="P85" t="n">
-        <v>2.62</v>
+        <v>2.57</v>
       </c>
       <c r="Q85" t="n">
-        <v>2.07</v>
+        <v>2.12</v>
       </c>
       <c r="R85" t="n">
-        <v>1.6</v>
+        <v>1.57</v>
       </c>
       <c r="S85" t="n">
         <v>1.44</v>
       </c>
       <c r="T85" t="n">
-        <v>2.42</v>
+        <v>2.4</v>
       </c>
       <c r="U85" t="n">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="V85" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="W85" t="n">
-        <v>6.8</v>
+        <v>6.2</v>
       </c>
       <c r="X85" t="n">
-        <v>10.5</v>
+        <v>9.25</v>
       </c>
       <c r="Y85" t="n">
-        <v>9</v>
+        <v>8.75</v>
       </c>
       <c r="Z85" t="n">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="AA85" t="n">
         <v>19.5</v>
       </c>
       <c r="AB85" t="n">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="AC85" t="n">
-        <v>7.6</v>
+        <v>7.5</v>
       </c>
       <c r="AD85" t="n">
         <v>5.8</v>
       </c>
       <c r="AE85" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="AF85" t="n">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="AG85" t="n">
         <v>700</v>
       </c>
       <c r="AH85" t="n">
-        <v>8.5</v>
+        <v>9.25</v>
       </c>
       <c r="AI85" t="n">
-        <v>16.5</v>
+        <v>18.5</v>
       </c>
       <c r="AJ85" t="n">
-        <v>11.5</v>
+        <v>12</v>
       </c>
       <c r="AK85" t="n">
+        <v>55</v>
+      </c>
+      <c r="AL85" t="n">
+        <v>35</v>
+      </c>
+      <c r="AM85" t="n">
         <v>45</v>
       </c>
-      <c r="AL85" t="n">
-        <v>32</v>
-      </c>
-      <c r="AM85" t="n">
-        <v>40</v>
-      </c>
       <c r="AN85" t="n">
-        <v>4.05</v>
+        <v>3.9</v>
       </c>
       <c r="AO85" t="n">
-        <v>11.75</v>
+        <v>11.25</v>
       </c>
       <c r="AP85" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AQ85" t="n">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="AR85" t="n">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AS85" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="AT85" t="n">
         <v>2.37</v>
       </c>
       <c r="AU85" t="n">
-        <v>6.9</v>
+        <v>7</v>
       </c>
       <c r="AV85" t="n">
         <v>65</v>
       </c>
       <c r="AW85" t="n">
-        <v>5.1</v>
+        <v>5.3</v>
       </c>
       <c r="AX85" t="n">
-        <v>18.5</v>
+        <v>20</v>
       </c>
       <c r="AY85" t="n">
         <v>26</v>
       </c>
       <c r="AZ85" t="n">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="BA85" t="n">
         <v>150</v>
@@ -16041,7 +16041,7 @@
         <v>3.3</v>
       </c>
       <c r="I86" t="n">
-        <v>3.75</v>
+        <v>3.7</v>
       </c>
       <c r="J86" t="n">
         <v>2.52</v>
@@ -16092,10 +16092,10 @@
         <v>8.25</v>
       </c>
       <c r="Z86" t="n">
-        <v>17</v>
+        <v>17.5</v>
       </c>
       <c r="AA86" t="n">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="AB86" t="n">
         <v>25</v>
@@ -16161,13 +16161,13 @@
         <v>60</v>
       </c>
       <c r="AW86" t="n">
-        <v>5.6</v>
+        <v>5.5</v>
       </c>
       <c r="AX86" t="n">
         <v>21</v>
       </c>
       <c r="AY86" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AZ86" t="n">
         <v>110</v>

--- a/Jogos_da_Semana_FlashScore_2024-09-27.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-09-27.xlsx
@@ -3477,7 +3477,7 @@
         </is>
       </c>
       <c r="G17" t="n">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="H17" t="n">
         <v>3.1</v>
@@ -3486,7 +3486,7 @@
         <v>4.5</v>
       </c>
       <c r="J17" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="K17" t="n">
         <v>1.95</v>
@@ -3495,10 +3495,10 @@
         <v>5</v>
       </c>
       <c r="M17" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="N17" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="O17" t="n">
         <v>1.5</v>
@@ -3507,34 +3507,34 @@
         <v>2.5</v>
       </c>
       <c r="Q17" t="n">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="R17" t="n">
-        <v>1.48</v>
+        <v>1.5</v>
       </c>
       <c r="S17" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="T17" t="n">
-        <v>2.25</v>
+        <v>2.38</v>
       </c>
       <c r="U17" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="V17" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="W17" t="n">
         <v>5.5</v>
       </c>
       <c r="X17" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="Y17" t="n">
         <v>9.5</v>
       </c>
       <c r="Z17" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AA17" t="n">
         <v>19</v>
@@ -3543,10 +3543,10 @@
         <v>41</v>
       </c>
       <c r="AC17" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AD17" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AE17" t="n">
         <v>21</v>
@@ -3582,7 +3582,7 @@
         <v>11</v>
       </c>
       <c r="AP17" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AQ17" t="n">
         <v>41</v>
@@ -3594,7 +3594,7 @@
         <v>251</v>
       </c>
       <c r="AT17" t="n">
-        <v>2.25</v>
+        <v>2.38</v>
       </c>
       <c r="AU17" t="n">
         <v>9.5</v>
@@ -3662,7 +3662,7 @@
         <v>1.7</v>
       </c>
       <c r="H18" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="I18" t="n">
         <v>5.5</v>
@@ -3683,16 +3683,16 @@
         <v>9</v>
       </c>
       <c r="O18" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="P18" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="Q18" t="n">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="R18" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="S18" t="n">
         <v>1.44</v>
@@ -3737,7 +3737,7 @@
         <v>67</v>
       </c>
       <c r="AG18" t="n">
-        <v>1250</v>
+        <v>1000</v>
       </c>
       <c r="AH18" t="n">
         <v>12</v>
@@ -3746,7 +3746,7 @@
         <v>26</v>
       </c>
       <c r="AJ18" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AK18" t="n">
         <v>51</v>
@@ -3764,7 +3764,7 @@
         <v>9</v>
       </c>
       <c r="AP18" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AQ18" t="n">
         <v>29</v>
@@ -3797,10 +3797,10 @@
         <v>101</v>
       </c>
       <c r="BA18" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="BB18" t="n">
-        <v>351</v>
+        <v>301</v>
       </c>
       <c r="BC18" t="n">
         <v>81</v>
@@ -9119,28 +9119,28 @@
         </is>
       </c>
       <c r="G48" t="n">
-        <v>2.38</v>
+        <v>2.15</v>
       </c>
       <c r="H48" t="n">
         <v>3.4</v>
       </c>
       <c r="I48" t="n">
-        <v>2.88</v>
+        <v>3.25</v>
       </c>
       <c r="J48" t="n">
-        <v>2.88</v>
+        <v>2.75</v>
       </c>
       <c r="K48" t="n">
         <v>2.25</v>
       </c>
       <c r="L48" t="n">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="M48" t="n">
         <v>1.04</v>
       </c>
       <c r="N48" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="O48" t="n">
         <v>1.22</v>
@@ -9149,34 +9149,34 @@
         <v>4</v>
       </c>
       <c r="Q48" t="n">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="R48" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="S48" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="T48" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U48" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="V48" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="W48" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="X48" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="Y48" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="Z48" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AA48" t="n">
         <v>17</v>
@@ -9200,16 +9200,16 @@
         <v>151</v>
       </c>
       <c r="AH48" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AI48" t="n">
         <v>17</v>
       </c>
       <c r="AJ48" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AK48" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AL48" t="n">
         <v>23</v>
@@ -9218,7 +9218,7 @@
         <v>29</v>
       </c>
       <c r="AN48" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="AO48" t="n">
         <v>12</v>
@@ -9236,22 +9236,22 @@
         <v>126</v>
       </c>
       <c r="AT48" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="AU48" t="n">
         <v>7.5</v>
       </c>
       <c r="AV48" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AW48" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="AX48" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AY48" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AZ48" t="n">
         <v>51</v>
@@ -9325,16 +9325,16 @@
         <v>11</v>
       </c>
       <c r="O49" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="P49" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="Q49" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="R49" t="n">
         <v>1.95</v>
-      </c>
-      <c r="R49" t="n">
-        <v>1.9</v>
       </c>
       <c r="S49" t="n">
         <v>1.4</v>
@@ -9483,19 +9483,19 @@
         </is>
       </c>
       <c r="G50" t="n">
-        <v>1.42</v>
+        <v>1.4</v>
       </c>
       <c r="H50" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="I50" t="n">
         <v>7.5</v>
       </c>
       <c r="J50" t="n">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="K50" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="L50" t="n">
         <v>6.5</v>
@@ -9513,16 +9513,16 @@
         <v>5</v>
       </c>
       <c r="Q50" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="R50" t="n">
-        <v>2.35</v>
+        <v>2.4</v>
       </c>
       <c r="S50" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="T50" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="U50" t="n">
         <v>1.75</v>
@@ -9531,7 +9531,7 @@
         <v>2</v>
       </c>
       <c r="W50" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="X50" t="n">
         <v>7.5</v>
@@ -9549,10 +9549,10 @@
         <v>21</v>
       </c>
       <c r="AC50" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AD50" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AE50" t="n">
         <v>17</v>
@@ -9576,7 +9576,7 @@
         <v>81</v>
       </c>
       <c r="AL50" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AM50" t="n">
         <v>41</v>
@@ -9585,13 +9585,13 @@
         <v>3.5</v>
       </c>
       <c r="AO50" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AP50" t="n">
         <v>15</v>
       </c>
       <c r="AQ50" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AR50" t="n">
         <v>41</v>
@@ -9600,7 +9600,7 @@
         <v>101</v>
       </c>
       <c r="AT50" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="AU50" t="n">
         <v>8.5</v>
@@ -9609,7 +9609,7 @@
         <v>51</v>
       </c>
       <c r="AW50" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AX50" t="n">
         <v>34</v>
@@ -9665,28 +9665,28 @@
         </is>
       </c>
       <c r="G51" t="n">
-        <v>1.91</v>
+        <v>1.8</v>
       </c>
       <c r="H51" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="I51" t="n">
-        <v>3.8</v>
+        <v>4.2</v>
       </c>
       <c r="J51" t="n">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="K51" t="n">
-        <v>2.07</v>
+        <v>2.1</v>
       </c>
       <c r="L51" t="n">
-        <v>4.25</v>
+        <v>4.4</v>
       </c>
       <c r="M51" t="n">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="N51" t="n">
-        <v>9.75</v>
+        <v>9</v>
       </c>
       <c r="O51" t="n">
         <v>1.28</v>
@@ -9695,46 +9695,46 @@
         <v>3.05</v>
       </c>
       <c r="Q51" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="R51" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="S51" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="T51" t="n">
+        <v>2.57</v>
+      </c>
+      <c r="U51" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="V51" t="n">
         <v>1.88</v>
       </c>
-      <c r="R51" t="n">
-        <v>1.82</v>
-      </c>
-      <c r="S51" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="T51" t="n">
-        <v>2.55</v>
-      </c>
-      <c r="U51" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="V51" t="n">
-        <v>1.91</v>
-      </c>
       <c r="W51" t="n">
-        <v>7.4</v>
+        <v>6.9</v>
       </c>
       <c r="X51" t="n">
-        <v>9.5</v>
+        <v>8.5</v>
       </c>
       <c r="Y51" t="n">
         <v>8.25</v>
       </c>
       <c r="Z51" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AA51" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="AB51" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AC51" t="n">
-        <v>9.75</v>
+        <v>10</v>
       </c>
       <c r="AD51" t="n">
-        <v>6.4</v>
+        <v>6.6</v>
       </c>
       <c r="AE51" t="n">
         <v>14</v>
@@ -9746,34 +9746,34 @@
         <v>500</v>
       </c>
       <c r="AH51" t="n">
-        <v>10.75</v>
+        <v>12.5</v>
       </c>
       <c r="AI51" t="n">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="AJ51" t="n">
-        <v>12.5</v>
+        <v>13.5</v>
       </c>
       <c r="AK51" t="n">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="AL51" t="n">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="AM51" t="n">
         <v>40</v>
       </c>
       <c r="AN51" t="n">
-        <v>3.75</v>
+        <v>3.65</v>
       </c>
       <c r="AO51" t="n">
-        <v>9.75</v>
+        <v>9</v>
       </c>
       <c r="AP51" t="n">
         <v>18</v>
       </c>
       <c r="AQ51" t="n">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="AR51" t="n">
         <v>65</v>
@@ -9782,22 +9782,22 @@
         <v>250</v>
       </c>
       <c r="AT51" t="n">
-        <v>2.5</v>
+        <v>2.55</v>
       </c>
       <c r="AU51" t="n">
         <v>7</v>
       </c>
       <c r="AV51" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AW51" t="n">
-        <v>5.6</v>
+        <v>5.9</v>
       </c>
       <c r="AX51" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AY51" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AZ51" t="n">
         <v>120</v>
@@ -9847,28 +9847,28 @@
         </is>
       </c>
       <c r="G52" t="n">
-        <v>1.72</v>
+        <v>1.7</v>
       </c>
       <c r="H52" t="n">
-        <v>3.7</v>
+        <v>3.65</v>
       </c>
       <c r="I52" t="n">
-        <v>4.25</v>
+        <v>4.45</v>
       </c>
       <c r="J52" t="n">
-        <v>2.25</v>
+        <v>2.22</v>
       </c>
       <c r="K52" t="n">
-        <v>2.2</v>
+        <v>2.18</v>
       </c>
       <c r="L52" t="n">
-        <v>4.5</v>
+        <v>4.65</v>
       </c>
       <c r="M52" t="n">
-        <v>10.4</v>
+        <v>1.03</v>
       </c>
       <c r="N52" t="n">
-        <v>1.04</v>
+        <v>11</v>
       </c>
       <c r="O52" t="n">
         <v>1.24</v>
@@ -9877,10 +9877,10 @@
         <v>3.3</v>
       </c>
       <c r="Q52" t="n">
-        <v>1.7</v>
+        <v>1.75</v>
       </c>
       <c r="R52" t="n">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="S52" t="n">
         <v>1.39</v>
@@ -9892,19 +9892,19 @@
         <v>1.7</v>
       </c>
       <c r="V52" t="n">
-        <v>1.93</v>
+        <v>1.91</v>
       </c>
       <c r="W52" t="n">
-        <v>7.6</v>
+        <v>7.3</v>
       </c>
       <c r="X52" t="n">
-        <v>8.5</v>
+        <v>8.25</v>
       </c>
       <c r="Y52" t="n">
         <v>8</v>
       </c>
       <c r="Z52" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AA52" t="n">
         <v>13</v>
@@ -9913,7 +9913,7 @@
         <v>24</v>
       </c>
       <c r="AC52" t="n">
-        <v>11.5</v>
+        <v>11.25</v>
       </c>
       <c r="AD52" t="n">
         <v>7.2</v>
@@ -9922,22 +9922,22 @@
         <v>14.5</v>
       </c>
       <c r="AF52" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="AG52" t="n">
         <v>450</v>
       </c>
       <c r="AH52" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AI52" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="AJ52" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="AK52" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="AL52" t="n">
         <v>40</v>
@@ -9946,7 +9946,7 @@
         <v>40</v>
       </c>
       <c r="AN52" t="n">
-        <v>3.6</v>
+        <v>3.55</v>
       </c>
       <c r="AO52" t="n">
         <v>8.25</v>
@@ -9973,16 +9973,16 @@
         <v>60</v>
       </c>
       <c r="AW52" t="n">
-        <v>6</v>
+        <v>6.2</v>
       </c>
       <c r="AX52" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="AY52" t="n">
         <v>28</v>
       </c>
       <c r="AZ52" t="n">
-        <v>120</v>
+        <v>150</v>
       </c>
       <c r="BA52" t="n">
         <v>150</v>
@@ -11121,28 +11121,28 @@
         </is>
       </c>
       <c r="G59" t="n">
-        <v>2.2</v>
+        <v>2.05</v>
       </c>
       <c r="H59" t="n">
         <v>3.1</v>
       </c>
       <c r="I59" t="n">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="J59" t="n">
-        <v>3</v>
+        <v>2.88</v>
       </c>
       <c r="K59" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="L59" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="M59" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="N59" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="O59" t="n">
         <v>1.4</v>
@@ -11163,25 +11163,25 @@
         <v>2.5</v>
       </c>
       <c r="U59" t="n">
-        <v>1.87</v>
+        <v>2</v>
       </c>
       <c r="V59" t="n">
-        <v>1.77</v>
+        <v>1.73</v>
       </c>
       <c r="W59" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="X59" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="Y59" t="n">
         <v>9.5</v>
       </c>
       <c r="Z59" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AA59" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AB59" t="n">
         <v>34</v>
@@ -11205,25 +11205,25 @@
         <v>9</v>
       </c>
       <c r="AI59" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AJ59" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AK59" t="n">
+        <v>41</v>
+      </c>
+      <c r="AL59" t="n">
         <v>34</v>
-      </c>
-      <c r="AL59" t="n">
-        <v>29</v>
       </c>
       <c r="AM59" t="n">
         <v>41</v>
       </c>
       <c r="AN59" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="AO59" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AP59" t="n">
         <v>26</v>
@@ -11247,13 +11247,13 @@
         <v>67</v>
       </c>
       <c r="AW59" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="AX59" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AY59" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AZ59" t="n">
         <v>67</v>
@@ -16035,28 +16035,28 @@
         </is>
       </c>
       <c r="G86" t="n">
-        <v>1.93</v>
+        <v>1.95</v>
       </c>
       <c r="H86" t="n">
         <v>3.3</v>
       </c>
       <c r="I86" t="n">
-        <v>3.7</v>
+        <v>3.65</v>
       </c>
       <c r="J86" t="n">
-        <v>2.52</v>
+        <v>2.6</v>
       </c>
       <c r="K86" t="n">
-        <v>2.07</v>
+        <v>2.05</v>
       </c>
       <c r="L86" t="n">
-        <v>4.15</v>
+        <v>4.05</v>
       </c>
       <c r="M86" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="N86" t="n">
-        <v>9.550000000000001</v>
+        <v>12</v>
       </c>
       <c r="O86" t="n">
         <v>1.28</v>
@@ -16065,13 +16065,13 @@
         <v>3.05</v>
       </c>
       <c r="Q86" t="n">
-        <v>1.88</v>
+        <v>1.87</v>
       </c>
       <c r="R86" t="n">
         <v>1.83</v>
       </c>
       <c r="S86" t="n">
-        <v>1.39</v>
+        <v>1.4</v>
       </c>
       <c r="T86" t="n">
         <v>2.55</v>
@@ -16083,10 +16083,10 @@
         <v>1.93</v>
       </c>
       <c r="W86" t="n">
-        <v>7.4</v>
+        <v>7.2</v>
       </c>
       <c r="X86" t="n">
-        <v>9.5</v>
+        <v>9.25</v>
       </c>
       <c r="Y86" t="n">
         <v>8.25</v>
@@ -16098,7 +16098,7 @@
         <v>15.5</v>
       </c>
       <c r="AB86" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AC86" t="n">
         <v>10</v>
@@ -16116,43 +16116,43 @@
         <v>450</v>
       </c>
       <c r="AH86" t="n">
-        <v>11</v>
+        <v>11.5</v>
       </c>
       <c r="AI86" t="n">
         <v>21</v>
       </c>
       <c r="AJ86" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AK86" t="n">
         <v>55</v>
       </c>
       <c r="AL86" t="n">
+        <v>32</v>
+      </c>
+      <c r="AM86" t="n">
         <v>35</v>
-      </c>
-      <c r="AM86" t="n">
-        <v>37</v>
       </c>
       <c r="AN86" t="n">
         <v>3.8</v>
       </c>
       <c r="AO86" t="n">
-        <v>9.75</v>
+        <v>10.25</v>
       </c>
       <c r="AP86" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AQ86" t="n">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="AR86" t="n">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="AS86" t="n">
         <v>250</v>
       </c>
       <c r="AT86" t="n">
-        <v>2.52</v>
+        <v>2.5</v>
       </c>
       <c r="AU86" t="n">
         <v>6.9</v>
@@ -16164,19 +16164,19 @@
         <v>5.5</v>
       </c>
       <c r="AX86" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AY86" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AZ86" t="n">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="BA86" t="n">
-        <v>150</v>
+        <v>120</v>
       </c>
       <c r="BB86" t="n">
-        <v>350</v>
+        <v>300</v>
       </c>
       <c r="BC86" t="n">
         <v>51</v>
